--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="22110" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>圆满层数</t>
   </si>
@@ -130,19 +130,31 @@
     <t>gongfa0</t>
   </si>
   <si>
-    <t>z</t>
+    <t>聚灵诀</t>
   </si>
   <si>
     <t>gongfa1</t>
   </si>
   <si>
+    <t>凝元功</t>
+  </si>
+  <si>
     <t>gongfa2</t>
   </si>
   <si>
+    <t>金丹诀</t>
+  </si>
+  <si>
     <t>gongfa3</t>
   </si>
   <si>
+    <t>元婴化神诀</t>
+  </si>
+  <si>
     <t>gongfa4</t>
+  </si>
+  <si>
+    <t>化神归真诀</t>
   </si>
 </sst>
 </file>
@@ -155,13 +167,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.8"/>
@@ -640,144 +658,147 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1139,10 +1160,10 @@
       <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1424,10 +1445,13 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <cols>
+    <col min="2" max="2" width="10.3333333333333" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="3:18">
       <c r="C1" t="s">
@@ -1469,13 +1493,13 @@
       <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1483,11 +1507,11 @@
       <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -1496,7 +1520,7 @@
         <v>30</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -1505,22 +1529,22 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>5</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1536,8 +1560,8 @@
       <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="s">
-        <v>33</v>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -1546,34 +1570,34 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>20</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1590,46 +1614,46 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>2000</v>
+        <v>120</v>
       </c>
       <c r="F4">
-        <v>800</v>
+        <v>80</v>
       </c>
       <c r="G4">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="H4">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>40</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -1641,54 +1665,54 @@
         <v>17</v>
       </c>
       <c r="R4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" ht="25.5" spans="1:18">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>4000</v>
+        <v>240</v>
       </c>
       <c r="F5">
-        <v>3200</v>
+        <v>160</v>
       </c>
       <c r="G5">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="H5">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>80</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>5400</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
@@ -1697,54 +1721,54 @@
         <v>20</v>
       </c>
       <c r="R5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>8000</v>
+        <v>480</v>
       </c>
       <c r="F6">
-        <v>12800</v>
+        <v>320</v>
       </c>
       <c r="G6">
-        <v>432</v>
+        <v>64</v>
       </c>
       <c r="H6">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="I6">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>160</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" t="s">
         <v>26</v>
@@ -1753,7 +1777,7 @@
         <v>23</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22110" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
     <sheet name="功法" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="装备" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="70">
   <si>
     <t>圆满层数</t>
   </si>
@@ -155,6 +155,90 @@
   </si>
   <si>
     <t>化神归真诀</t>
+  </si>
+  <si>
+    <t>戒指</t>
+  </si>
+  <si>
+    <t>项链</t>
+  </si>
+  <si>
+    <t>玉佩</t>
+  </si>
+  <si>
+    <t>护符</t>
+  </si>
+  <si>
+    <t>穿戴境界</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>灵戒指</t>
+  </si>
+  <si>
+    <t>jiezhi0</t>
+  </si>
+  <si>
+    <t>jiezhi1</t>
+  </si>
+  <si>
+    <t>jiezhi2</t>
+  </si>
+  <si>
+    <t>jiezhi3</t>
+  </si>
+  <si>
+    <t>灵项链</t>
+  </si>
+  <si>
+    <t>xianglian0</t>
+  </si>
+  <si>
+    <t>xianglian1</t>
+  </si>
+  <si>
+    <t>xianglian2</t>
+  </si>
+  <si>
+    <t>xianglian3</t>
+  </si>
+  <si>
+    <t>灵玉佩</t>
+  </si>
+  <si>
+    <t>yvpei0</t>
+  </si>
+  <si>
+    <t>yvpei1</t>
+  </si>
+  <si>
+    <t>yvpei2</t>
+  </si>
+  <si>
+    <t>yvpei3</t>
+  </si>
+  <si>
+    <t>灵护符</t>
+  </si>
+  <si>
+    <t>hufu0</t>
+  </si>
+  <si>
+    <t>hufu1</t>
+  </si>
+  <si>
+    <t>hufu2</t>
+  </si>
+  <si>
+    <t>hufu3</t>
+  </si>
+  <si>
+    <t>jeizhi</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1199,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:Q6"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1181,31 +1265,31 @@
         <v>5</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>360</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>120</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N2">
         <v>200</v>
@@ -1240,25 +1324,25 @@
         <v>200</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J3">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N3">
         <v>600</v>
@@ -1299,19 +1383,19 @@
         <v>24</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K4">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N4">
         <v>1800</v>
@@ -1352,25 +1436,25 @@
         <v>72</v>
       </c>
       <c r="I5">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K5">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N5">
         <v>5400</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P5" t="s">
         <v>26</v>
@@ -1405,25 +1489,25 @@
         <v>216</v>
       </c>
       <c r="I6">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K6">
-        <v>160</v>
+        <v>800</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N6">
         <v>10000</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6" t="s">
         <v>29</v>
@@ -1444,8 +1528,8 @@
   <sheetPr/>
   <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1668,7 +1752,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" ht="25.5" spans="1:18">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1790,14 +1874,858 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15">
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>8</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>500</v>
+      </c>
+      <c r="G20">
+        <v>75</v>
+      </c>
+      <c r="H20">
+        <v>36</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>16</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>12</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>8</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>500</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>36</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>16</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>16</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>40</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>12</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>80</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>8</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>500</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>36</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>160</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>16</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>5</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>12</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>15</v>
+      </c>
+      <c r="M31">
+        <v>8</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>500</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>36</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>20</v>
+      </c>
+      <c r="M32">
+        <v>16</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
     <sheet name="功法" sheetId="2" r:id="rId2"/>
     <sheet name="装备" sheetId="3" r:id="rId3"/>
+    <sheet name="材料" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="111">
   <si>
     <t>圆满层数</t>
   </si>
@@ -239,6 +240,162 @@
   </si>
   <si>
     <t>jeizhi</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>凝气妖丹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linghe0 </t>
+  </si>
+  <si>
+    <t>灵风妖丹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linghe1 </t>
+  </si>
+  <si>
+    <t>真元妖丹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linghe2 </t>
+  </si>
+  <si>
+    <t>真灵妖丹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">linghe3 </t>
+  </si>
+  <si>
+    <r>
+      <t>黑纹铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <t>xvantie0</t>
+  </si>
+  <si>
+    <t>百锻玄铁</t>
+  </si>
+  <si>
+    <t>xvantie1</t>
+  </si>
+  <si>
+    <t>寒心铁精</t>
+  </si>
+  <si>
+    <t>xvantie2</t>
+  </si>
+  <si>
+    <t>星辰玄铁</t>
+  </si>
+  <si>
+    <t>xvantie3</t>
+  </si>
+  <si>
+    <t>云纹仙金</t>
+  </si>
+  <si>
+    <t>lingjin0</t>
+  </si>
+  <si>
+    <t>流霞仙金</t>
+  </si>
+  <si>
+    <t>lingjin1</t>
+  </si>
+  <si>
+    <t>玄霜仙金</t>
+  </si>
+  <si>
+    <t>lingjin2</t>
+  </si>
+  <si>
+    <t>鸿蒙仙金</t>
+  </si>
+  <si>
+    <t>lingjin3</t>
+  </si>
+  <si>
+    <t>青纹灵玉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingyv0 </t>
+  </si>
+  <si>
+    <t>凝露灵玉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingyv1 </t>
+  </si>
+  <si>
+    <t>玄心灵玉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingyv2 </t>
+  </si>
+  <si>
+    <t>通神灵玉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingyv3 </t>
+  </si>
+  <si>
+    <t>月纹木‌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingmu0 </t>
+  </si>
+  <si>
+    <t>凝脂楠‌</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingmu1 </t>
+  </si>
+  <si>
+    <r>
+      <t>星叶松</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">lingmu2 </t>
+  </si>
+  <si>
+    <r>
+      <t>若灵木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">lingmu3 </t>
   </si>
 </sst>
 </file>
@@ -1876,8 +2033,8 @@
   <sheetPr/>
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2730,4 +2887,246 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -2,15 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
     <sheet name="功法" sheetId="2" r:id="rId2"/>
     <sheet name="装备" sheetId="3" r:id="rId3"/>
     <sheet name="材料" sheetId="4" r:id="rId4"/>
+    <sheet name="群系" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="199">
   <si>
     <t>圆满层数</t>
   </si>
@@ -270,6 +272,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>黑纹铁</t>
     </r>
     <r>
@@ -365,6 +374,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>星叶松</t>
     </r>
     <r>
@@ -382,6 +398,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>若灵木</t>
     </r>
     <r>
@@ -396,6 +419,738 @@
   </si>
   <si>
     <t xml:space="preserve">lingmu3 </t>
+  </si>
+  <si>
+    <t>pTemperature</t>
+  </si>
+  <si>
+    <t>pHumidity</t>
+  </si>
+  <si>
+    <t>pContinentalness</t>
+  </si>
+  <si>
+    <t>pErosion</t>
+  </si>
+  <si>
+    <t>pDepth</t>
+  </si>
+  <si>
+    <t>pWeirdness</t>
+  </si>
+  <si>
+    <t>冰川</t>
+  </si>
+  <si>
+    <t>冰原</t>
+  </si>
+  <si>
+    <t>雪山</t>
+  </si>
+  <si>
+    <t>山地</t>
+  </si>
+  <si>
+    <t>山脉</t>
+  </si>
+  <si>
+    <t>深海</t>
+  </si>
+  <si>
+    <t>河流</t>
+  </si>
+  <si>
+    <t>草原</t>
+  </si>
+  <si>
+    <t>平原</t>
+  </si>
+  <si>
+    <t>沼泽</t>
+  </si>
+  <si>
+    <t>丛林</t>
+  </si>
+  <si>
+    <t>森林</t>
+  </si>
+  <si>
+    <t>沙漠</t>
+  </si>
+  <si>
+    <t>火山</t>
+  </si>
+  <si>
+    <t>熔岩</t>
+  </si>
+  <si>
+    <t>洞穴</t>
+  </si>
+  <si>
+    <t>境界</t>
+  </si>
+  <si>
+    <t>妖兽名称</t>
+  </si>
+  <si>
+    <t>出没区域</t>
+  </si>
+  <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>炼气期</t>
+  </si>
+  <si>
+    <t>灵狐</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>森林</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>草原</t>
+    </r>
+  </si>
+  <si>
+    <t>风狼</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>平原</t>
+    </r>
+  </si>
+  <si>
+    <t>毒蜘蛛</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>森林</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洞穴</t>
+    </r>
+  </si>
+  <si>
+    <t>土拨鼠</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>草原</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>山地</t>
+    </r>
+  </si>
+  <si>
+    <t>九尾狐</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>森林</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夜间</t>
+    </r>
+  </si>
+  <si>
+    <t>夜间</t>
+  </si>
+  <si>
+    <t>筑基期</t>
+  </si>
+  <si>
+    <t>雷豹</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沙漠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>山地</t>
+    </r>
+  </si>
+  <si>
+    <t>冰熊</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰川</t>
+    </r>
+  </si>
+  <si>
+    <t>暗影豹</t>
+  </si>
+  <si>
+    <t>水蛇</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>河流</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沼泽</t>
+    </r>
+  </si>
+  <si>
+    <t>饕餮</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>山地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>洞穴</t>
+    </r>
+  </si>
+  <si>
+    <t>金丹期</t>
+  </si>
+  <si>
+    <t>金翅大鹏</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>山脉</t>
+    </r>
+  </si>
+  <si>
+    <t>高空</t>
+  </si>
+  <si>
+    <t>冰凤凰</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雪山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰原</t>
+    </r>
+  </si>
+  <si>
+    <t>鲲鹏</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深海</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>高空</t>
+    </r>
+  </si>
+  <si>
+    <t>元婴期</t>
+  </si>
+  <si>
+    <t>火麒麟</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火山</t>
+    </r>
+  </si>
+  <si>
+    <t>下界</t>
+  </si>
+  <si>
+    <t>幽冥龙</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>末地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灵魂沙峡谷</t>
+    </r>
+  </si>
+  <si>
+    <t>末地</t>
+  </si>
+  <si>
+    <t>灵魂沙峡谷</t>
+  </si>
+  <si>
+    <t>烛龙</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>下界</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>熔岩</t>
+    </r>
+  </si>
+  <si>
+    <t>化神期</t>
+  </si>
+  <si>
+    <t>青龙</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>丛林</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深海</t>
+    </r>
+  </si>
+  <si>
+    <t>白虎</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>山地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沙漠</t>
+    </r>
+  </si>
+  <si>
+    <t>麒麟</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>草原</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>秘境</t>
+    </r>
+  </si>
+  <si>
+    <t>秘境</t>
+  </si>
+  <si>
+    <t>群系id</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome0</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome1</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome2</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome3</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome4</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome5</t>
+  </si>
+  <si>
+    <t>潜海</t>
+  </si>
+  <si>
+    <t>海蛇</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome6</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome7</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome8</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome9</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome10</t>
   </si>
 </sst>
 </file>
@@ -408,7 +1163,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,6 +1175,19 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -899,147 +1667,159 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1401,10 +2181,10 @@
       <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1734,13 +2514,13 @@
       <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1748,7 +2528,7 @@
       <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C2">
@@ -1801,7 +2581,7 @@
       <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C3">
@@ -1913,7 +2693,7 @@
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C5">
@@ -2894,7 +3674,7 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -3129,4 +3909,1211 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="13.5666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:14">
+      <c r="D1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H1" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" t="s">
+        <v>115</v>
+      </c>
+      <c r="N1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16">
+        <v>9</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="4">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:10">
+      <c r="A24" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="4">
+        <v>60</v>
+      </c>
+      <c r="E24" t="s">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s">
+        <v>125</v>
+      </c>
+      <c r="H24" t="s">
+        <v>119</v>
+      </c>
+      <c r="J24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="4">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" t="s">
+        <v>125</v>
+      </c>
+      <c r="J25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="4">
+        <v>55</v>
+      </c>
+      <c r="E26" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" t="s">
+        <v>120</v>
+      </c>
+      <c r="H26" t="s">
+        <v>132</v>
+      </c>
+      <c r="J26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="4">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>128</v>
+      </c>
+      <c r="F27" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" t="s">
+        <v>120</v>
+      </c>
+      <c r="J27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="4">
+        <v>120</v>
+      </c>
+      <c r="E28" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" t="s">
+        <v>129</v>
+      </c>
+      <c r="J28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" spans="1:10">
+      <c r="A29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D29" s="4">
+        <v>150</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D30" s="4">
+        <v>110</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" t="s">
+        <v>148</v>
+      </c>
+      <c r="H30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="4">
+        <v>130</v>
+      </c>
+      <c r="E31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" t="s">
+        <v>126</v>
+      </c>
+      <c r="H31" t="s">
+        <v>126</v>
+      </c>
+      <c r="J31" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D32" s="4">
+        <v>140</v>
+      </c>
+      <c r="E32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" t="s">
+        <v>121</v>
+      </c>
+      <c r="J32" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:10">
+      <c r="A33" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D33" s="4">
+        <v>400</v>
+      </c>
+      <c r="E33" t="s">
+        <v>162</v>
+      </c>
+      <c r="F33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H33" t="s">
+        <v>118</v>
+      </c>
+      <c r="J33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:10">
+      <c r="A34" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="4">
+        <v>450</v>
+      </c>
+      <c r="E34" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" t="s">
+        <v>122</v>
+      </c>
+      <c r="J34" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" spans="1:10">
+      <c r="A35" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" s="4">
+        <v>420</v>
+      </c>
+      <c r="E35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F35" t="s">
+        <v>162</v>
+      </c>
+      <c r="H35" t="s">
+        <v>130</v>
+      </c>
+      <c r="J35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" spans="1:10">
+      <c r="A36" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="4">
+        <v>300</v>
+      </c>
+      <c r="E36" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" t="s">
+        <v>130</v>
+      </c>
+      <c r="H36" t="s">
+        <v>131</v>
+      </c>
+      <c r="J36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" ht="27" spans="1:10">
+      <c r="A37" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="4">
+        <v>500</v>
+      </c>
+      <c r="E37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" t="s">
+        <v>127</v>
+      </c>
+      <c r="J37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="4">
+        <v>350</v>
+      </c>
+      <c r="E38" t="s">
+        <v>170</v>
+      </c>
+      <c r="F38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="4">
+        <v>1200</v>
+      </c>
+      <c r="E39" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1300</v>
+      </c>
+      <c r="E40" t="s">
+        <v>120</v>
+      </c>
+      <c r="F40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1250</v>
+      </c>
+      <c r="E41" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="4:4">
+      <c r="D1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" t="s">
+        <v>196</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" t="s">
+        <v>197</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" ht="14.25" spans="11:14">
+      <c r="K13" s="1"/>
+      <c r="L13"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" ht="14.25" spans="1:14">
+      <c r="A14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="9:14">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="9:14">
+      <c r="I20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="9:14">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="11:14">
+      <c r="K22" s="1"/>
+      <c r="L22"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="11:14">
+      <c r="K23" s="1"/>
+      <c r="L23"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="9:14">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="9:14">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" ht="14.25" spans="9:14">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="9:11">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" ht="14.25" spans="11:14">
+      <c r="K28" s="1"/>
+      <c r="L28"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="9:11">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" ht="14.25" spans="11:14">
+      <c r="K30" s="1"/>
+      <c r="L30"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" ht="14.25" spans="11:14">
+      <c r="K31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="9:10">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="34" spans="9:10">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="9:10">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="9:10">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="9:10">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -11,8 +11,9 @@
     <sheet name="功法" sheetId="2" r:id="rId2"/>
     <sheet name="装备" sheetId="3" r:id="rId3"/>
     <sheet name="材料" sheetId="4" r:id="rId4"/>
-    <sheet name="群系" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="群系1" sheetId="6" r:id="rId5"/>
+    <sheet name="草药" sheetId="7" r:id="rId6"/>
+    <sheet name="丹药" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="373">
   <si>
     <t>圆满层数</t>
   </si>
@@ -239,9 +240,6 @@
   </si>
   <si>
     <t>hufu3</t>
-  </si>
-  <si>
-    <t>jeizhi</t>
   </si>
   <si>
     <t>id</t>
@@ -421,736 +419,1091 @@
     <t xml:space="preserve">lingmu3 </t>
   </si>
   <si>
-    <t>pTemperature</t>
-  </si>
-  <si>
-    <t>pHumidity</t>
-  </si>
-  <si>
-    <t>pContinentalness</t>
-  </si>
-  <si>
-    <t>pErosion</t>
-  </si>
-  <si>
-    <t>pDepth</t>
-  </si>
-  <si>
-    <t>pWeirdness</t>
-  </si>
-  <si>
-    <t>冰川</t>
-  </si>
-  <si>
-    <t>冰原</t>
-  </si>
-  <si>
-    <t>雪山</t>
-  </si>
-  <si>
-    <t>山地</t>
-  </si>
-  <si>
-    <t>山脉</t>
-  </si>
-  <si>
-    <t>深海</t>
+    <t>群系id</t>
+  </si>
+  <si>
+    <t>映射id</t>
+  </si>
+  <si>
+    <t>品阶</t>
   </si>
   <si>
     <t>河流</t>
   </si>
   <si>
+    <t>炼气期</t>
+  </si>
+  <si>
+    <t>水蛇</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome0</t>
+  </si>
+  <si>
+    <t>赤水魂泽</t>
+  </si>
+  <si>
+    <t>赤水河</t>
+  </si>
+  <si>
+    <t>赤鳞水虺</t>
+  </si>
+  <si>
+    <t>银月花</t>
+  </si>
+  <si>
     <t>草原</t>
   </si>
   <si>
-    <t>平原</t>
-  </si>
-  <si>
-    <t>沼泽</t>
-  </si>
-  <si>
-    <t>丛林</t>
-  </si>
-  <si>
-    <t>森林</t>
-  </si>
-  <si>
-    <t>沙漠</t>
-  </si>
-  <si>
-    <t>火山</t>
-  </si>
-  <si>
-    <t>熔岩</t>
-  </si>
-  <si>
-    <t>洞穴</t>
-  </si>
-  <si>
-    <t>境界</t>
-  </si>
-  <si>
-    <t>妖兽名称</t>
-  </si>
-  <si>
-    <t>出没区域</t>
-  </si>
-  <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>炼气期</t>
-  </si>
-  <si>
-    <t>灵狐</t>
+    <t>风狼</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome1</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>森林</t>
+      <t>青丘牧野</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <b/>
+        <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>/</t>
+      <t>‌</t>
+    </r>
+  </si>
+  <si>
+    <t>青丘草原</t>
+  </si>
+  <si>
+    <t>幻灵狐</t>
+  </si>
+  <si>
+    <t>恒心草</t>
+  </si>
+  <si>
+    <t>山地</t>
+  </si>
+  <si>
+    <t>雷豹</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome2</t>
+  </si>
+  <si>
+    <t>昆仑天阙</t>
+  </si>
+  <si>
+    <t>昆仑山地</t>
+  </si>
+  <si>
+    <t>雪翼苍狼</t>
+  </si>
+  <si>
+    <t>流董草</t>
+  </si>
+  <si>
+    <t>地下</t>
+  </si>
+  <si>
+    <t>筑基期</t>
+  </si>
+  <si>
+    <t>饕餮</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>幽都九渊</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <b/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>草原</t>
+      <t>‌</t>
     </r>
   </si>
   <si>
-    <t>风狼</t>
+    <t>地下幽都</t>
+  </si>
+  <si>
+    <t>幽冥鬼手</t>
+  </si>
+  <si>
+    <t>宁心草</t>
+  </si>
+  <si>
+    <t>沙漠</t>
+  </si>
+  <si>
+    <t>土拨鼠</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome4</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>雪山</t>
+      <t>流沙瀚海</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <b/>
+        <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>/</t>
+      <t>‌</t>
+    </r>
+  </si>
+  <si>
+    <t>流沙之墟</t>
+  </si>
+  <si>
+    <t>沙影魔蝎</t>
+  </si>
+  <si>
+    <t>轻灵草</t>
+  </si>
+  <si>
+    <t>森林</t>
+  </si>
+  <si>
+    <t>灵狐</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>招摇神境</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <b/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>平原</t>
+      <t>‌</t>
     </r>
   </si>
   <si>
-    <t>毒蜘蛛</t>
+    <t>雾凇林海‌</t>
+  </si>
+  <si>
+    <t>幻毒蛛</t>
+  </si>
+  <si>
+    <t>天元果</t>
+  </si>
+  <si>
+    <t>潜海</t>
+  </si>
+  <si>
+    <t>金丹期</t>
+  </si>
+  <si>
+    <t>海蛇</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome6</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>森林</t>
+      <t>归墟之渊</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <b/>
+        <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>/</t>
+      <t>‌</t>
+    </r>
+  </si>
+  <si>
+    <t>归墟溟海</t>
+  </si>
+  <si>
+    <t>烛阴</t>
+  </si>
+  <si>
+    <t>红绞草</t>
+  </si>
+  <si>
+    <t>火山</t>
+  </si>
+  <si>
+    <t>火麒麟</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>炎火之山</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <b/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>洞穴</t>
+      <t>‌</t>
     </r>
   </si>
   <si>
-    <t>土拨鼠</t>
+    <t>炎火之山‌</t>
+  </si>
+  <si>
+    <t>火麟兽</t>
+  </si>
+  <si>
+    <t>风灵花</t>
+  </si>
+  <si>
+    <t>雪山</t>
+  </si>
+  <si>
+    <t>冰熊</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome8</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>草原</t>
+      <t>不周遗脉</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <b/>
+        <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>/</t>
+      <t>‌</t>
+    </r>
+  </si>
+  <si>
+    <t>不周雪山</t>
+  </si>
+  <si>
+    <t>玄冰巨熊</t>
+  </si>
+  <si>
+    <t>龙纹草</t>
+  </si>
+  <si>
+    <t>冰川</t>
+  </si>
+  <si>
+    <t>元婴期</t>
+  </si>
+  <si>
+    <t>冰凤凰</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>烛龙冰窟</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <b/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>山地</t>
+      <t>‌</t>
     </r>
   </si>
   <si>
-    <t>九尾狐</t>
+    <t>冰魄寒渊</t>
+  </si>
+  <si>
+    <t>雪凝花</t>
+  </si>
+  <si>
+    <t>深海</t>
+  </si>
+  <si>
+    <t>化神期</t>
+  </si>
+  <si>
+    <t>青龙</t>
+  </si>
+  <si>
+    <t>xiuxianjie_biome10</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>森林</t>
+      <t>黑水玄渊</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <b/>
+        <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>/</t>
+      <t>‌</t>
+    </r>
+  </si>
+  <si>
+    <t>黑水玄渊‌</t>
+  </si>
+  <si>
+    <t>鲲鹏</t>
+  </si>
+  <si>
+    <t>菩提花</t>
+  </si>
+  <si>
+    <t>冰灵果</t>
+  </si>
+  <si>
+    <t>九尾狐</t>
+  </si>
+  <si>
+    <t>血菩提</t>
+  </si>
+  <si>
+    <t>阴凝草</t>
+  </si>
+  <si>
+    <t>鸡冠草</t>
+  </si>
+  <si>
+    <t>白虎</t>
+  </si>
+  <si>
+    <t>火灵芝</t>
+  </si>
+  <si>
+    <t>地心火芝</t>
+  </si>
+  <si>
+    <t>腐骨灵花</t>
+  </si>
+  <si>
+    <t>奇茸通天菊</t>
+  </si>
+  <si>
+    <t>地心淬灵乳</t>
+  </si>
+  <si>
+    <t>分布</t>
+  </si>
+  <si>
+    <t>zhiwu0</t>
+  </si>
+  <si>
+    <t>zhongzi0</t>
+  </si>
+  <si>
+    <t>zhiwu1</t>
+  </si>
+  <si>
+    <t>月纹果</t>
+  </si>
+  <si>
+    <t>zhongzi1</t>
+  </si>
+  <si>
+    <t>zhiwu2</t>
+  </si>
+  <si>
+    <t>zhongzi2</t>
+  </si>
+  <si>
+    <t>zhiwu3</t>
+  </si>
+  <si>
+    <t>何首乌</t>
+  </si>
+  <si>
+    <t>zhongzi3</t>
+  </si>
+  <si>
+    <t>zhiwu4</t>
+  </si>
+  <si>
+    <t>罗犀草</t>
+  </si>
+  <si>
+    <t>zhongzi4</t>
+  </si>
+  <si>
+    <t>zhiwu5</t>
+  </si>
+  <si>
+    <t>凝脂果</t>
+  </si>
+  <si>
+    <t>夏枯草</t>
+  </si>
+  <si>
+    <t>zhongzi5</t>
+  </si>
+  <si>
+    <t>zhiwu6</t>
+  </si>
+  <si>
+    <t>龙葵</t>
+  </si>
+  <si>
+    <t>zhongzi6</t>
+  </si>
+  <si>
+    <t>zhiwu7</t>
+  </si>
+  <si>
+    <r>
+      <t>星叶松</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="10"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <t>七星草</t>
+  </si>
+  <si>
+    <t>zhongzi7</t>
+  </si>
+  <si>
+    <t>zhiwu8</t>
+  </si>
+  <si>
+    <t>冰精莲</t>
+  </si>
+  <si>
+    <t>zhongzi8</t>
+  </si>
+  <si>
+    <t>zhiwu9</t>
+  </si>
+  <si>
+    <t>星叶果</t>
+  </si>
+  <si>
+    <t>zhongzi9</t>
+  </si>
+  <si>
+    <t>zhiwu10</t>
+  </si>
+  <si>
+    <t>火精枣</t>
+  </si>
+  <si>
+    <t>zhongzi10</t>
+  </si>
+  <si>
+    <t>zhiwu11</t>
+  </si>
+  <si>
+    <t>火灵莲</t>
+  </si>
+  <si>
+    <t>zhongzi11</t>
+  </si>
+  <si>
+    <t>zhiwu12</t>
+  </si>
+  <si>
+    <t>弗兰草</t>
+  </si>
+  <si>
+    <t>地心火莲</t>
+  </si>
+  <si>
+    <t>zhongzi12</t>
+  </si>
+  <si>
+    <t>zhiwu13</t>
+  </si>
+  <si>
+    <t>若灵果</t>
+  </si>
+  <si>
+    <t>zhongzi13</t>
+  </si>
+  <si>
+    <t>zhiwu14</t>
+  </si>
+  <si>
+    <r>
+      <t>若灵木</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <t>伴妖草</t>
+  </si>
+  <si>
+    <t>zhongzi14</t>
+  </si>
+  <si>
+    <t>zhiwu15</t>
+  </si>
+  <si>
+    <t>凌风花</t>
+  </si>
+  <si>
+    <t>zhongzi15</t>
+  </si>
+  <si>
+    <t>zhiwu16</t>
+  </si>
+  <si>
+    <t>紫猴花</t>
+  </si>
+  <si>
+    <t>zhiwu17</t>
+  </si>
+  <si>
+    <t>zhiwu18</t>
+  </si>
+  <si>
+    <t>zhiwu19</t>
+  </si>
+  <si>
+    <t>炼血珠</t>
+  </si>
+  <si>
+    <t>伏龙参</t>
+  </si>
+  <si>
+    <t>给我张天元果的特写</t>
+  </si>
+  <si>
+    <t>枫香脂</t>
+  </si>
+  <si>
+    <t>帮我画 地心淬灵花，风格玄幻</t>
+  </si>
+  <si>
+    <t>九叶芝</t>
+  </si>
+  <si>
+    <t>鬼日草</t>
+  </si>
+  <si>
+    <t>炼魂珠</t>
+  </si>
+  <si>
+    <t>补天芝</t>
+  </si>
+  <si>
+    <t>玉龙参</t>
+  </si>
+  <si>
+    <t>鬼面花</t>
+  </si>
+  <si>
+    <t>血莲精</t>
+  </si>
+  <si>
+    <t>黑天麻</t>
+  </si>
+  <si>
+    <t>凤血果</t>
+  </si>
+  <si>
+    <t>绝魂草</t>
+  </si>
+  <si>
+    <t>银精芝</t>
+  </si>
+  <si>
+    <t>冥胎骨</t>
+  </si>
+  <si>
+    <t>天剑笋</t>
+  </si>
+  <si>
+    <t>苦曼藤</t>
+  </si>
+  <si>
+    <t>冰精芝</t>
+  </si>
+  <si>
+    <t>万魂晶</t>
+  </si>
+  <si>
+    <t>白沉脂</t>
+  </si>
+  <si>
+    <t>渊血冥花</t>
+  </si>
+  <si>
+    <t>厉魂雪珀</t>
+  </si>
+  <si>
+    <t>雪玉骨参</t>
+  </si>
+  <si>
+    <t>天蝉灵叶</t>
+  </si>
+  <si>
+    <t>天麻翡石精</t>
+  </si>
+  <si>
+    <t>配方</t>
+  </si>
+  <si>
+    <t>裂石丹</t>
+  </si>
+  <si>
+    <t>danyao0</t>
+  </si>
+  <si>
+    <t>凝血丹</t>
+  </si>
+  <si>
+    <t>danyao1</t>
+  </si>
+  <si>
+    <r>
+      <t>韧皮丹</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>夜间</t>
+      <t>‌</t>
     </r>
   </si>
   <si>
-    <t>夜间</t>
-  </si>
-  <si>
-    <t>筑基期</t>
-  </si>
-  <si>
-    <t>雷豹</t>
-  </si>
-  <si>
+    <t>danyao2</t>
+  </si>
+  <si>
+    <t>聚气丹</t>
+  </si>
+  <si>
+    <t>danyao3</t>
+  </si>
+  <si>
+    <t>增加修为</t>
+  </si>
+  <si>
+    <t>炼气丹</t>
+  </si>
+  <si>
+    <t>danyao4</t>
+  </si>
+  <si>
+    <t>加寿元</t>
+  </si>
+  <si>
+    <t>延寿丹</t>
+  </si>
+  <si>
+    <t>danyao5</t>
+  </si>
+  <si>
+    <t>回复血量</t>
+  </si>
+  <si>
+    <t>回春丹</t>
+  </si>
+  <si>
+    <t>danyao6</t>
+  </si>
+  <si>
+    <t>回复灵气</t>
+  </si>
+  <si>
+    <t>灵泉丹</t>
+  </si>
+  <si>
+    <t>danyao7</t>
+  </si>
+  <si>
+    <r>
+      <t>破山丹</t>
+    </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>沙漠</t>
+      <t>‌</t>
+    </r>
+  </si>
+  <si>
+    <t>danyao8</t>
+  </si>
+  <si>
+    <t>龟息丹</t>
+  </si>
+  <si>
+    <t>danyao9</t>
+  </si>
+  <si>
+    <t>玄甲丹</t>
+  </si>
+  <si>
+    <t>danyao10</t>
+  </si>
+  <si>
+    <r>
+      <t>灵海丹</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>/</t>
+      <t>‌</t>
+    </r>
+  </si>
+  <si>
+    <t>danyao11</t>
+  </si>
+  <si>
+    <t>筑基丹</t>
+  </si>
+  <si>
+    <t>danyao12</t>
+  </si>
+  <si>
+    <t>长春丹</t>
+  </si>
+  <si>
+    <t>danyao13</t>
+  </si>
+  <si>
+    <t>血莲丹</t>
+  </si>
+  <si>
+    <t>danyao14</t>
+  </si>
+  <si>
+    <t>续灵丹</t>
+  </si>
+  <si>
+    <t>danyao15</t>
+  </si>
+  <si>
+    <t>惊雷丹</t>
+  </si>
+  <si>
+    <t>danyao16</t>
+  </si>
+  <si>
+    <t>龙血丹</t>
+  </si>
+  <si>
+    <t>danyao17</t>
+  </si>
+  <si>
+    <t>金刚丹‌</t>
+  </si>
+  <si>
+    <t>danyao18</t>
+  </si>
+  <si>
+    <t>紫府丹</t>
+  </si>
+  <si>
+    <t>danyao19</t>
+  </si>
+  <si>
+    <t>天尘丹</t>
+  </si>
+  <si>
+    <t>danyao20</t>
+  </si>
+  <si>
+    <t>驻颜丹</t>
+  </si>
+  <si>
+    <t>danyao21</t>
+  </si>
+  <si>
+    <t>九转还魂丹</t>
+  </si>
+  <si>
+    <t>danyao22</t>
+  </si>
+  <si>
+    <t>聚灵丹</t>
+  </si>
+  <si>
+    <t>danyao23</t>
+  </si>
+  <si>
+    <r>
+      <t>碎星丹</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>山地</t>
+      <t>‌</t>
     </r>
   </si>
   <si>
-    <t>冰熊</t>
-  </si>
-  <si>
+    <t>danyao24</t>
+  </si>
+  <si>
+    <t>不死金丹</t>
+  </si>
+  <si>
+    <t>danyao25</t>
+  </si>
+  <si>
+    <t>混元甲丹</t>
+  </si>
+  <si>
+    <t>danyao26</t>
+  </si>
+  <si>
+    <t>太虚丹</t>
+  </si>
+  <si>
+    <t>danyao27</t>
+  </si>
+  <si>
+    <r>
+      <t>化神丹</t>
+    </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>雪山</t>
+      <t>‌</t>
+    </r>
+  </si>
+  <si>
+    <t>danyao28</t>
+  </si>
+  <si>
+    <t>万寿丹</t>
+  </si>
+  <si>
+    <t>danyao29</t>
+  </si>
+  <si>
+    <r>
+      <t>涅槃丹</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>/</t>
+      <t>‌</t>
+    </r>
+  </si>
+  <si>
+    <t>danyao30</t>
+  </si>
+  <si>
+    <t>灵髓丹</t>
+  </si>
+  <si>
+    <t>danyao31</t>
+  </si>
+  <si>
+    <r>
+      <t>弑神丹</t>
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>冰川</t>
+      <t>‌</t>
     </r>
   </si>
   <si>
-    <t>暗影豹</t>
-  </si>
-  <si>
-    <t>水蛇</t>
-  </si>
-  <si>
+    <t>danyao32</t>
+  </si>
+  <si>
+    <t>鸿蒙丹</t>
+  </si>
+  <si>
+    <t>danyao33</t>
+  </si>
+  <si>
+    <r>
+      <t>混沌甲丹</t>
+    </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>河流</t>
+      <t>‌</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>沼泽</t>
-    </r>
-  </si>
-  <si>
-    <t>饕餮</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>山地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>洞穴</t>
-    </r>
-  </si>
-  <si>
-    <t>金丹期</t>
-  </si>
-  <si>
-    <t>金翅大鹏</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高空</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>山脉</t>
-    </r>
-  </si>
-  <si>
-    <t>高空</t>
-  </si>
-  <si>
-    <t>冰凤凰</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>雪山</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>冰原</t>
-    </r>
-  </si>
-  <si>
-    <t>鲲鹏</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>深海</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>高空</t>
-    </r>
-  </si>
-  <si>
-    <t>元婴期</t>
-  </si>
-  <si>
-    <t>火麒麟</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下界</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>火山</t>
-    </r>
-  </si>
-  <si>
-    <t>下界</t>
-  </si>
-  <si>
-    <t>幽冥龙</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>末地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灵魂沙峡谷</t>
-    </r>
-  </si>
-  <si>
-    <t>末地</t>
-  </si>
-  <si>
-    <t>灵魂沙峡谷</t>
-  </si>
-  <si>
-    <t>烛龙</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>下界</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>熔岩</t>
-    </r>
-  </si>
-  <si>
-    <t>化神期</t>
-  </si>
-  <si>
-    <t>青龙</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>丛林</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>深海</t>
-    </r>
-  </si>
-  <si>
-    <t>白虎</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>山地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>沙漠</t>
-    </r>
-  </si>
-  <si>
-    <t>麒麟</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>草原</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>秘境</t>
-    </r>
-  </si>
-  <si>
-    <t>秘境</t>
-  </si>
-  <si>
-    <t>群系id</t>
-  </si>
-  <si>
-    <t>xiuxianjie_biome0</t>
-  </si>
-  <si>
-    <t>xiuxianjie_biome1</t>
-  </si>
-  <si>
-    <t>xiuxianjie_biome2</t>
-  </si>
-  <si>
-    <t>xiuxianjie_biome3</t>
-  </si>
-  <si>
-    <t>xiuxianjie_biome4</t>
-  </si>
-  <si>
-    <t>xiuxianjie_biome5</t>
-  </si>
-  <si>
-    <t>潜海</t>
-  </si>
-  <si>
-    <t>海蛇</t>
-  </si>
-  <si>
-    <t>xiuxianjie_biome6</t>
-  </si>
-  <si>
-    <t>xiuxianjie_biome7</t>
-  </si>
-  <si>
-    <t>xiuxianjie_biome8</t>
-  </si>
-  <si>
-    <t>xiuxianjie_biome9</t>
-  </si>
-  <si>
-    <t>xiuxianjie_biome10</t>
+  </si>
+  <si>
+    <t>danyao34</t>
+  </si>
+  <si>
+    <t>宇宙丹‌</t>
+  </si>
+  <si>
+    <t>danyao35</t>
+  </si>
+  <si>
+    <t>飞升丹</t>
+  </si>
+  <si>
+    <t>danyao36</t>
+  </si>
+  <si>
+    <t>长生丹</t>
+  </si>
+  <si>
+    <t>danyao37</t>
+  </si>
+  <si>
+    <t>轮回丹</t>
+  </si>
+  <si>
+    <t>danyao38</t>
+  </si>
+  <si>
+    <t>源初灵丹</t>
+  </si>
+  <si>
+    <t>danyao39</t>
   </si>
 </sst>
 </file>
@@ -1163,13 +1516,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1345,6 +1703,20 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1541,12 +1913,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1667,16 +2054,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -1685,141 +2069,150 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2181,10 +2574,10 @@
       <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2466,7 +2859,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2514,13 +2907,13 @@
       <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2811,10 +3204,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3655,11 +4048,6 @@
       </c>
       <c r="O32">
         <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3675,234 +4063,234 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="A18" sqref="A18:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>71</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3914,789 +4302,918 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="13.5666666666667" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="4:14">
+    <row r="1" spans="4:19">
       <c r="D1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" t="s">
+      <c r="S1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
         <v>113</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="L1" t="s">
+      <c r="C2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="N1" t="s">
+      <c r="D2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
         <v>117</v>
       </c>
-      <c r="C2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2">
+      <c r="G2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R2" s="1">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1">
         <v>1</v>
       </c>
-      <c r="F2">
+    </row>
+    <row r="3" ht="18.75" spans="1:19">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="O3" t="s">
+        <v>73</v>
+      </c>
+      <c r="P3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3">
+      <c r="Q3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R3" s="1">
+        <v>33</v>
+      </c>
+      <c r="S3" s="1">
         <v>1</v>
       </c>
-      <c r="F3">
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" t="s">
+        <v>132</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s">
+        <v>104</v>
+      </c>
+      <c r="M4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="R4" s="1">
+        <v>32</v>
+      </c>
+      <c r="S4" s="1">
         <v>1</v>
       </c>
-      <c r="H3">
+    </row>
+    <row r="5" ht="18.75" spans="1:19">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" t="s">
+        <v>140</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="M5" t="s">
+        <v>76</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="R5" s="1">
+        <v>31</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="18.75" spans="1:19">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="R6" s="1">
+        <v>44</v>
+      </c>
+      <c r="S6" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4">
+    <row r="7" ht="18.75" spans="1:19">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P7" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R7" s="1">
+        <v>39</v>
+      </c>
+      <c r="S7" s="1">
         <v>2</v>
       </c>
-      <c r="H4">
+    </row>
+    <row r="8" ht="18.75" spans="1:19">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" t="s">
+        <v>162</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="R8" s="1">
+        <v>40</v>
+      </c>
+      <c r="S8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" ht="18.75" spans="1:19">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s">
+        <v>84</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="R9" s="1">
+        <v>42</v>
+      </c>
+      <c r="S9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="18.75" spans="1:19">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R10" s="1">
+        <v>51</v>
+      </c>
+      <c r="S10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="18.75" spans="1:19">
+      <c r="A11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" t="s">
+        <v>184</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="R11" s="1">
+        <v>55</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" ht="18.75" spans="1:19">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J12" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="R12" s="1">
+        <v>49</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="10:19">
+      <c r="J13" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="M13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13" t="s">
+        <v>93</v>
+      </c>
+      <c r="P13" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="R13" s="1">
+        <v>48</v>
+      </c>
+      <c r="S13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="J14" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14" s="4"/>
+      <c r="M14" t="s">
+        <v>94</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14" t="s">
+        <v>95</v>
+      </c>
+      <c r="P14" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="R14" s="1">
+        <v>74</v>
+      </c>
+      <c r="S14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="M15" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="R15" s="1">
+        <v>65</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="M16" t="s">
+        <v>98</v>
+      </c>
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16" t="s">
+        <v>99</v>
+      </c>
+      <c r="P16" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="R16" s="1">
+        <v>69</v>
+      </c>
+      <c r="S16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="M17" t="s">
+        <v>100</v>
+      </c>
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="R17" s="1">
+        <v>70</v>
+      </c>
+      <c r="S17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="M18" t="s">
+        <v>102</v>
+      </c>
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="R18" s="1">
+        <v>77</v>
+      </c>
+      <c r="S18" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="H5">
+    <row r="19" spans="9:19">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="M19" t="s">
+        <v>104</v>
+      </c>
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" s="1">
+        <v>17</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="R19" s="1">
+        <v>79</v>
+      </c>
+      <c r="S19" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="H6">
+    <row r="20" spans="9:19">
+      <c r="I20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="M20" t="s">
+        <v>106</v>
+      </c>
+      <c r="N20">
+        <v>18</v>
+      </c>
+      <c r="O20" t="s">
+        <v>107</v>
+      </c>
+      <c r="P20" s="1">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="R20" s="1">
+        <v>84</v>
+      </c>
+      <c r="S20" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8">
+    <row r="21" spans="9:19">
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="M21" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21">
+        <v>19</v>
+      </c>
+      <c r="O21" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" s="1">
+        <v>19</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="R21" s="1">
+        <v>83</v>
+      </c>
+      <c r="S21" s="1">
         <v>5</v>
       </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="F11">
-        <v>7</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="F13">
-        <v>9</v>
-      </c>
-      <c r="H13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C14" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16">
-        <v>9</v>
-      </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" t="s">
-        <v>128</v>
-      </c>
-      <c r="J22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" ht="14.25" spans="1:10">
-      <c r="A23" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D23" s="4">
-        <v>50</v>
-      </c>
-      <c r="E23" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" t="s">
-        <v>124</v>
-      </c>
-      <c r="J23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" ht="14.25" spans="1:10">
-      <c r="A24" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="4">
-        <v>60</v>
-      </c>
-      <c r="E24" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" t="s">
-        <v>125</v>
-      </c>
-      <c r="H24" t="s">
-        <v>119</v>
-      </c>
-      <c r="J24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" ht="14.25" spans="1:10">
-      <c r="A25" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D25" s="4">
-        <v>45</v>
-      </c>
-      <c r="E25" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" t="s">
-        <v>132</v>
-      </c>
-      <c r="H25" t="s">
-        <v>125</v>
-      </c>
-      <c r="J25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="26" ht="14.25" spans="1:10">
-      <c r="A26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="4">
-        <v>55</v>
-      </c>
-      <c r="E26" t="s">
-        <v>124</v>
-      </c>
-      <c r="F26" t="s">
-        <v>120</v>
-      </c>
-      <c r="H26" t="s">
-        <v>132</v>
-      </c>
-      <c r="J26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" ht="14.25" spans="1:10">
-      <c r="A27" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="4">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F27" t="s">
-        <v>148</v>
-      </c>
-      <c r="H27" t="s">
-        <v>120</v>
-      </c>
-      <c r="J27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" ht="14.25" spans="1:10">
-      <c r="A28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D28" s="4">
-        <v>120</v>
-      </c>
-      <c r="E28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" t="s">
-        <v>120</v>
-      </c>
-      <c r="H28" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" ht="14.25" spans="1:10">
-      <c r="A29" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="4">
-        <v>150</v>
-      </c>
-      <c r="E29" t="s">
-        <v>119</v>
-      </c>
-      <c r="F29" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" t="s">
-        <v>117</v>
-      </c>
-      <c r="J29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="30" ht="14.25" spans="1:10">
-      <c r="A30" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D30" s="4">
-        <v>110</v>
-      </c>
-      <c r="E30" t="s">
-        <v>128</v>
-      </c>
-      <c r="F30" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" t="s">
-        <v>123</v>
-      </c>
-      <c r="J30" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" ht="14.25" spans="1:10">
-      <c r="A31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" s="4">
-        <v>130</v>
-      </c>
-      <c r="E31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" t="s">
-        <v>126</v>
-      </c>
-      <c r="J31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" ht="14.25" spans="1:10">
-      <c r="A32" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="4">
-        <v>140</v>
-      </c>
-      <c r="E32" t="s">
-        <v>120</v>
-      </c>
-      <c r="F32" t="s">
-        <v>132</v>
-      </c>
-      <c r="H32" t="s">
-        <v>121</v>
-      </c>
-      <c r="J32" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" ht="14.25" spans="1:10">
-      <c r="A33" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="4">
-        <v>400</v>
-      </c>
-      <c r="E33" t="s">
-        <v>162</v>
-      </c>
-      <c r="F33" t="s">
-        <v>121</v>
-      </c>
-      <c r="H33" t="s">
-        <v>118</v>
-      </c>
-      <c r="J33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" ht="14.25" spans="1:10">
-      <c r="A34" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="4">
-        <v>450</v>
-      </c>
-      <c r="E34" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" t="s">
-        <v>122</v>
-      </c>
-      <c r="J34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" ht="14.25" spans="1:10">
-      <c r="A35" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="4">
-        <v>420</v>
-      </c>
-      <c r="E35" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" t="s">
-        <v>162</v>
-      </c>
-      <c r="H35" t="s">
-        <v>130</v>
-      </c>
-      <c r="J35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" ht="14.25" spans="1:10">
-      <c r="A36" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D36" s="4">
-        <v>300</v>
-      </c>
-      <c r="E36" t="s">
-        <v>170</v>
-      </c>
-      <c r="F36" t="s">
-        <v>130</v>
-      </c>
-      <c r="H36" t="s">
-        <v>131</v>
-      </c>
-      <c r="J36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" ht="27" spans="1:10">
-      <c r="A37" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="4">
-        <v>500</v>
-      </c>
-      <c r="E37" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" t="s">
-        <v>174</v>
-      </c>
-      <c r="H37" t="s">
-        <v>127</v>
-      </c>
-      <c r="J37" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" ht="14.25" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D38" s="4">
-        <v>350</v>
-      </c>
-      <c r="E38" t="s">
-        <v>170</v>
-      </c>
-      <c r="F38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" ht="14.25" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D39" s="4">
-        <v>1200</v>
-      </c>
-      <c r="E39" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" ht="14.25" spans="1:6">
-      <c r="A40" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D40" s="4">
-        <v>1300</v>
-      </c>
-      <c r="E40" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="41" ht="14.25" spans="1:6">
-      <c r="A41" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1250</v>
-      </c>
-      <c r="E41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" t="s">
-        <v>184</v>
-      </c>
+    </row>
+    <row r="22" spans="11:14">
+      <c r="K22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="11:14">
+      <c r="K23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="9:14">
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="9:14">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" ht="14.25" spans="9:14">
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="9:11">
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" ht="14.25" spans="11:14">
+      <c r="K28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="9:11">
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" ht="14.25" spans="11:14">
+      <c r="K30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="7"/>
+    </row>
+    <row r="31" ht="14.25" spans="11:14">
+      <c r="K31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="7"/>
+    </row>
+    <row r="32" spans="9:10">
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+    </row>
+    <row r="34" spans="9:10">
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="9:10">
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="9:10">
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="9:10">
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4707,410 +5224,1901 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="3" max="25" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="17" customHeight="1" spans="1:13">
+      <c r="A2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="1">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="1">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="1">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="1">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="1">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="J6" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="1">
+        <v>39</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="J7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="1">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C10" s="1">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" t="s">
+        <v>172</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="1">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="1">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="1">
+        <v>48</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="N13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="1">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="1">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>179</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="1">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C17" s="1">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="N17" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18" s="1">
+        <v>77</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C19" s="1">
+        <v>79</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="N19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:14">
+      <c r="A20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C20" s="1">
+        <v>84</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="N20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="1">
+        <v>83</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="10:10">
+      <c r="J22" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="10:10">
+      <c r="J24" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="2:10">
+      <c r="B25" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="2:10">
+      <c r="B26" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="10:10">
+      <c r="J27" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="10:10">
+      <c r="J28" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="10:10">
+      <c r="J29" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="10:10">
+      <c r="J30" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="10:10">
+      <c r="J31" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="10:10">
+      <c r="J32" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="10:10">
+      <c r="J33" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="10:10">
+      <c r="J34" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="10:10">
+      <c r="J35" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="10:10">
+      <c r="J36" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="10:10">
+      <c r="J37" s="3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="10:10">
+      <c r="J38" s="3" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="10:10">
+      <c r="J39" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" spans="10:10">
+      <c r="J40" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" spans="10:10">
+      <c r="J41" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="10:10">
+      <c r="J42" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="10:10">
+      <c r="J43" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="10:10">
+      <c r="J44" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="10:10">
+      <c r="J45" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="10:10">
+      <c r="J46" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="10:10">
+      <c r="J47" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="10:10">
+      <c r="J48" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="10:10">
+      <c r="J49" s="3" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="10:10">
+      <c r="J50" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="10:10">
+      <c r="J51" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="10:10">
+      <c r="J52" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="54" spans="10:10">
+      <c r="J54" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="55" spans="10:10">
+      <c r="J55" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="10:10">
+      <c r="J56" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="8" width="9" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="4:4">
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="1">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G2" s="1">
+        <v>33</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="1">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G3" s="1">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="1">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4" s="1">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="1">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="1">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G6" s="1">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="1">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="1">
+        <v>30</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G10" s="1">
+        <v>39</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" s="1">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G12" s="1">
+        <v>39</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="1">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="1">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G14" s="1">
+        <v>39</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="1">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G15" s="1">
+        <v>39</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="1">
+        <v>44</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="1">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E18" s="1">
+        <v>51</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G18" s="1">
+        <v>55</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E19" s="1">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G19" s="1">
+        <v>55</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="1">
+        <v>51</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G20" s="1">
+        <v>55</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E21" s="1">
+        <v>51</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G21" s="1">
+        <v>55</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E22" s="1">
+        <v>51</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" s="1">
+        <v>55</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E23" s="1">
+        <v>51</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G23" s="1">
+        <v>55</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E24" s="1">
+        <v>51</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" t="s">
-        <v>195</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>119</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="G24" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="1">
+        <v>51</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G25" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E26" s="1">
+        <v>74</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" s="1">
+        <v>65</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="1">
+        <v>74</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" s="1">
+        <v>65</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="1">
+        <v>74</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G28" s="1">
+        <v>65</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E29" s="1">
+        <v>74</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G29" s="1">
+        <v>65</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:8">
+      <c r="A30" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E30" s="1">
+        <v>74</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" s="1">
+        <v>65</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="1">
+        <v>74</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" s="1">
+        <v>65</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E32" s="1">
+        <v>74</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" t="s">
-        <v>198</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" ht="14.25" spans="11:14">
-      <c r="K13" s="1"/>
-      <c r="L13"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:14">
-      <c r="A14" t="s">
-        <v>119</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="9:14">
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="9:14">
-      <c r="I20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="9:14">
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="11:14">
-      <c r="K22" s="1"/>
-      <c r="L22"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="11:14">
-      <c r="K23" s="1"/>
-      <c r="L23"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="9:14">
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="9:14">
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" ht="14.25" spans="9:14">
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="9:11">
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" ht="14.25" spans="11:14">
-      <c r="K28" s="1"/>
-      <c r="L28"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="9:11">
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" ht="14.25" spans="11:14">
-      <c r="K30" s="1"/>
-      <c r="L30"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="4"/>
-    </row>
-    <row r="31" ht="14.25" spans="11:14">
-      <c r="K31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="9:10">
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="34" spans="9:10">
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="9:10">
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="9:10">
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="9:10">
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="G32" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="1">
+        <v>74</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E34" s="1">
+        <v>77</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G34" s="1">
+        <v>79</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E35" s="1">
+        <v>77</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" s="1">
+        <v>79</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="1">
+        <v>77</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G36" s="1">
+        <v>79</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" s="1">
+        <v>77</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" s="1">
+        <v>79</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" s="1">
+        <v>77</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G38" s="1">
+        <v>79</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="1">
+        <v>77</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G39" s="1">
+        <v>79</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="1">
+        <v>77</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G40" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="1">
+        <v>77</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G41" s="1">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
@@ -951,6 +951,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>星叶松</t>
     </r>
     <r>
@@ -1031,6 +1038,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>若灵木</t>
     </r>
     <r>
@@ -1171,6 +1185,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>韧皮丹</t>
     </r>
     <r>
@@ -1231,6 +1252,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>破山丹</t>
     </r>
     <r>
@@ -1261,6 +1289,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>灵海丹</t>
     </r>
     <r>
@@ -1351,6 +1386,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>碎星丹</t>
     </r>
     <r>
@@ -1387,6 +1429,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>化神丹</t>
     </r>
     <r>
@@ -1411,6 +1460,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>涅槃丹</t>
     </r>
     <r>
@@ -1435,6 +1491,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>弑神丹</t>
     </r>
     <r>
@@ -1459,6 +1522,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>混沌甲丹</t>
     </r>
     <r>
@@ -3206,8 +3276,8 @@
   <sheetPr/>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4062,8 +4132,8 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A21"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5226,8 +5296,8 @@
   <sheetPr/>
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
@@ -4132,8 +4132,8 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5296,8 +5296,8 @@
   <sheetPr/>
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="338">
   <si>
     <t>圆满层数</t>
   </si>
@@ -887,6 +887,9 @@
     <t>分布</t>
   </si>
   <si>
+    <t>种子</t>
+  </si>
+  <si>
     <t>zhiwu0</t>
   </si>
   <si>
@@ -911,18 +914,12 @@
     <t>zhiwu3</t>
   </si>
   <si>
-    <t>何首乌</t>
-  </si>
-  <si>
     <t>zhongzi3</t>
   </si>
   <si>
     <t>zhiwu4</t>
   </si>
   <si>
-    <t>罗犀草</t>
-  </si>
-  <si>
     <t>zhongzi4</t>
   </si>
   <si>
@@ -932,16 +929,10 @@
     <t>凝脂果</t>
   </si>
   <si>
-    <t>夏枯草</t>
-  </si>
-  <si>
     <t>zhongzi5</t>
   </si>
   <si>
     <t>zhiwu6</t>
-  </si>
-  <si>
-    <t>龙葵</t>
   </si>
   <si>
     <t>zhongzi6</t>
@@ -971,9 +962,6 @@
     </r>
   </si>
   <si>
-    <t>七星草</t>
-  </si>
-  <si>
     <t>zhongzi7</t>
   </si>
   <si>
@@ -998,9 +986,6 @@
     <t>zhiwu10</t>
   </si>
   <si>
-    <t>火精枣</t>
-  </si>
-  <si>
     <t>zhongzi10</t>
   </si>
   <si>
@@ -1014,9 +999,6 @@
   </si>
   <si>
     <t>zhiwu12</t>
-  </si>
-  <si>
-    <t>弗兰草</t>
   </si>
   <si>
     <t>地心火莲</t>
@@ -1058,27 +1040,18 @@
     </r>
   </si>
   <si>
-    <t>伴妖草</t>
-  </si>
-  <si>
     <t>zhongzi14</t>
   </si>
   <si>
     <t>zhiwu15</t>
   </si>
   <si>
-    <t>凌风花</t>
-  </si>
-  <si>
     <t>zhongzi15</t>
   </si>
   <si>
     <t>zhiwu16</t>
   </si>
   <si>
-    <t>紫猴花</t>
-  </si>
-  <si>
     <t>zhiwu17</t>
   </si>
   <si>
@@ -1086,87 +1059,6 @@
   </si>
   <si>
     <t>zhiwu19</t>
-  </si>
-  <si>
-    <t>炼血珠</t>
-  </si>
-  <si>
-    <t>伏龙参</t>
-  </si>
-  <si>
-    <t>给我张天元果的特写</t>
-  </si>
-  <si>
-    <t>枫香脂</t>
-  </si>
-  <si>
-    <t>帮我画 地心淬灵花，风格玄幻</t>
-  </si>
-  <si>
-    <t>九叶芝</t>
-  </si>
-  <si>
-    <t>鬼日草</t>
-  </si>
-  <si>
-    <t>炼魂珠</t>
-  </si>
-  <si>
-    <t>补天芝</t>
-  </si>
-  <si>
-    <t>玉龙参</t>
-  </si>
-  <si>
-    <t>鬼面花</t>
-  </si>
-  <si>
-    <t>血莲精</t>
-  </si>
-  <si>
-    <t>黑天麻</t>
-  </si>
-  <si>
-    <t>凤血果</t>
-  </si>
-  <si>
-    <t>绝魂草</t>
-  </si>
-  <si>
-    <t>银精芝</t>
-  </si>
-  <si>
-    <t>冥胎骨</t>
-  </si>
-  <si>
-    <t>天剑笋</t>
-  </si>
-  <si>
-    <t>苦曼藤</t>
-  </si>
-  <si>
-    <t>冰精芝</t>
-  </si>
-  <si>
-    <t>万魂晶</t>
-  </si>
-  <si>
-    <t>白沉脂</t>
-  </si>
-  <si>
-    <t>渊血冥花</t>
-  </si>
-  <si>
-    <t>厉魂雪珀</t>
-  </si>
-  <si>
-    <t>雪玉骨参</t>
-  </si>
-  <si>
-    <t>天蝉灵叶</t>
-  </si>
-  <si>
-    <t>天麻翡石精</t>
   </si>
   <si>
     <t>配方</t>
@@ -1385,6 +1277,9 @@
     <t>danyao23</t>
   </si>
   <si>
+    <t>冰精芝</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1586,18 +1481,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1983,27 +1873,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2124,13 +1999,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
@@ -2139,122 +2017,119 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="5">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2264,25 +2139,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2644,10 +2516,10 @@
       <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2977,13 +2849,13 @@
       <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2991,7 +2863,7 @@
       <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C2">
@@ -3044,7 +2916,7 @@
       <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C3">
@@ -3156,7 +3028,7 @@
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C5">
@@ -4133,7 +4005,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C6" sqref="C6:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4375,7 +4247,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A2" sqref="A2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4402,10 +4274,10 @@
       <c r="A2" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>115</v>
       </c>
       <c r="D2" t="s">
@@ -4417,10 +4289,10 @@
       <c r="G2" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="3"/>
       <c r="J2" t="s">
         <v>94</v>
       </c>
@@ -4450,10 +4322,10 @@
       <c r="A3" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>122</v>
       </c>
       <c r="D3" t="s">
@@ -4465,10 +4337,10 @@
       <c r="G3" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="I3" s="3"/>
       <c r="J3" t="s">
         <v>78</v>
       </c>
@@ -4501,10 +4373,10 @@
       <c r="A4" t="s">
         <v>128</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>129</v>
       </c>
       <c r="D4" t="s">
@@ -4516,10 +4388,10 @@
       <c r="G4" t="s">
         <v>132</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="I4" s="3"/>
       <c r="J4" t="s">
         <v>86</v>
       </c>
@@ -4552,10 +4424,10 @@
       <c r="A5" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D5" t="s">
@@ -4567,14 +4439,14 @@
       <c r="G5" t="s">
         <v>140</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="3"/>
       <c r="J5" t="s">
         <v>80</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="3"/>
       <c r="M5" t="s">
         <v>76</v>
       </c>
@@ -4601,10 +4473,10 @@
       <c r="A6" t="s">
         <v>143</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>144</v>
       </c>
       <c r="D6" t="s">
@@ -4616,7 +4488,7 @@
       <c r="G6" t="s">
         <v>147</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>148</v>
       </c>
       <c r="J6" t="s">
@@ -4648,10 +4520,10 @@
       <c r="A7" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>151</v>
       </c>
       <c r="D7" t="s">
@@ -4698,7 +4570,7 @@
       <c r="A8" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C8" t="s">
@@ -4713,10 +4585,10 @@
       <c r="G8" t="s">
         <v>162</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="3"/>
       <c r="J8" t="s">
         <v>82</v>
       </c>
@@ -4746,10 +4618,10 @@
       <c r="A9" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>166</v>
       </c>
       <c r="D9" t="s">
@@ -4761,10 +4633,10 @@
       <c r="G9" t="s">
         <v>169</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="3"/>
       <c r="J9" t="s">
         <v>98</v>
       </c>
@@ -4794,10 +4666,10 @@
       <c r="A10" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>173</v>
       </c>
       <c r="D10" t="s">
@@ -4809,10 +4681,10 @@
       <c r="G10" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="3"/>
       <c r="J10" t="s">
         <v>90</v>
       </c>
@@ -4842,10 +4714,10 @@
       <c r="A11" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>181</v>
       </c>
       <c r="D11" t="s">
@@ -4857,7 +4729,7 @@
       <c r="G11" t="s">
         <v>184</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="3" t="s">
         <v>181</v>
       </c>
       <c r="K11" t="s">
@@ -4889,10 +4761,10 @@
       <c r="A12" t="s">
         <v>186</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>188</v>
       </c>
       <c r="D12" t="s">
@@ -4904,13 +4776,13 @@
       <c r="G12" t="s">
         <v>191</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="3" t="s">
         <v>192</v>
       </c>
       <c r="J12" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="5"/>
       <c r="M12" t="s">
         <v>90</v>
       </c>
@@ -4937,7 +4809,7 @@
       <c r="J13" t="s">
         <v>92</v>
       </c>
-      <c r="K13" s="4"/>
+      <c r="K13" s="3"/>
       <c r="M13" t="s">
         <v>92</v>
       </c>
@@ -4964,17 +4836,17 @@
       <c r="A14" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="3"/>
       <c r="J14" t="s">
         <v>100</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="3"/>
       <c r="M14" t="s">
         <v>94</v>
       </c>
@@ -5001,16 +4873,16 @@
       <c r="A15" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
+      <c r="D15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
       <c r="M15" t="s">
         <v>96</v>
       </c>
@@ -5037,14 +4909,14 @@
       <c r="A16" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="K16" s="4"/>
+      <c r="D16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="M16" t="s">
         <v>98</v>
       </c>
@@ -5071,16 +4943,16 @@
       <c r="A17" t="s">
         <v>128</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
+      <c r="D17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
       <c r="M17" t="s">
         <v>100</v>
       </c>
@@ -5104,12 +4976,12 @@
       </c>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="M18" t="s">
         <v>102</v>
       </c>
@@ -5133,9 +5005,9 @@
       </c>
     </row>
     <row r="19" spans="9:19">
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="M19" t="s">
         <v>104</v>
       </c>
@@ -5159,8 +5031,8 @@
       </c>
     </row>
     <row r="20" spans="9:19">
-      <c r="I20" s="4"/>
-      <c r="K20" s="4"/>
+      <c r="I20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="M20" t="s">
         <v>106</v>
       </c>
@@ -5184,9 +5056,9 @@
       </c>
     </row>
     <row r="21" spans="9:19">
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
       <c r="M21" t="s">
         <v>108</v>
       </c>
@@ -5210,80 +5082,80 @@
       </c>
     </row>
     <row r="22" spans="11:14">
-      <c r="K22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="K22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="11:14">
-      <c r="K23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="K23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="9:14">
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="9:14">
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" ht="14.25" spans="9:14">
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="7"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="6"/>
     </row>
     <row r="27" spans="9:11">
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" ht="14.25" spans="11:14">
-      <c r="K28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="7"/>
+      <c r="K28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="6"/>
     </row>
     <row r="29" spans="9:11">
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" ht="14.25" spans="11:14">
-      <c r="K30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="7"/>
+      <c r="K30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="6"/>
     </row>
     <row r="31" ht="14.25" spans="11:14">
-      <c r="K31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="7"/>
+      <c r="K31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="6"/>
     </row>
     <row r="32" spans="9:10">
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="34" spans="9:10">
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="9:10">
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="9:10">
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="9:10">
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5294,10 +5166,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5307,7 +5179,7 @@
     <col min="3" max="25" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>69</v>
       </c>
@@ -5325,13 +5197,14 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="3" t="s">
-        <v>120</v>
+      <c r="J1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="17" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>120</v>
@@ -5353,23 +5226,21 @@
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="3" t="s">
-        <v>142</v>
-      </c>
+      <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
         <v>120</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C3" s="1">
         <v>32</v>
@@ -5385,20 +5256,16 @@
       <c r="H3" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
         <v>127</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>127</v>
@@ -5416,20 +5283,18 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
         <v>149</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>149</v>
@@ -5448,10 +5313,6 @@
       <c r="H5" t="s">
         <v>104</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
         <v>134</v>
       </c>
@@ -5482,23 +5343,19 @@
         <v>150</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="J6" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
         <v>164</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:13">
       <c r="A7" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="C7" s="1">
         <v>39</v>
@@ -5512,20 +5369,16 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="J7" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="K7" s="1"/>
       <c r="L7" s="1" t="s">
         <v>178</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>164</v>
@@ -5543,20 +5396,18 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="3" t="s">
-        <v>224</v>
-      </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
         <v>185</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>178</v>
@@ -5573,22 +5424,18 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="K9" s="1"/>
+        <v>224</v>
+      </c>
       <c r="L9" s="1" t="s">
         <v>193</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>185</v>
@@ -5610,15 +5457,13 @@
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="3" t="s">
-        <v>156</v>
-      </c>
+      <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="N10" t="s">
         <v>113</v>
@@ -5626,10 +5471,10 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C11" s="1">
         <v>55</v>
@@ -5644,15 +5489,13 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="3" t="s">
-        <v>164</v>
-      </c>
+      <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
         <v>196</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="N11" t="s">
         <v>121</v>
@@ -5660,7 +5503,7 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>193</v>
@@ -5678,15 +5521,13 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
         <v>197</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="N12" t="s">
         <v>128</v>
@@ -5694,10 +5535,10 @@
     </row>
     <row r="13" s="1" customFormat="1" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C13" s="1">
         <v>48</v>
@@ -5712,15 +5553,13 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="3" t="s">
-        <v>171</v>
-      </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="N13" t="s">
         <v>135</v>
@@ -5728,7 +5567,7 @@
     </row>
     <row r="14" s="1" customFormat="1" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>196</v>
@@ -5746,15 +5585,13 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="3" t="s">
-        <v>243</v>
-      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="N14" t="s">
         <v>143</v>
@@ -5762,10 +5599,10 @@
     </row>
     <row r="15" s="1" customFormat="1" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C15" s="1">
         <v>65</v>
@@ -5776,15 +5613,11 @@
       <c r="E15" t="s">
         <v>179</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
         <v>202</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N15" t="s">
         <v>150</v>
@@ -5792,7 +5625,7 @@
     </row>
     <row r="16" s="1" customFormat="1" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>197</v>
@@ -5807,17 +5640,13 @@
         <v>179</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="K16" s="1"/>
+        <v>244</v>
+      </c>
       <c r="L16" s="1" t="s">
         <v>203</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="N16" t="s">
         <v>157</v>
@@ -5825,10 +5654,10 @@
     </row>
     <row r="17" s="1" customFormat="1" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C17" s="1">
         <v>70</v>
@@ -5843,15 +5672,13 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="3" t="s">
-        <v>254</v>
-      </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
         <v>204</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="N17" t="s">
         <v>165</v>
@@ -5859,10 +5686,10 @@
     </row>
     <row r="18" s="1" customFormat="1" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C18" s="1">
         <v>77</v>
@@ -5877,9 +5704,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="3" t="s">
-        <v>257</v>
-      </c>
+      <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="N18" t="s">
         <v>172</v>
@@ -5887,7 +5712,7 @@
     </row>
     <row r="19" s="1" customFormat="1" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>202</v>
@@ -5905,9 +5730,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="3" t="s">
-        <v>194</v>
-      </c>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="N19" t="s">
         <v>179</v>
@@ -5915,7 +5738,7 @@
     </row>
     <row r="20" s="1" customFormat="1" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>203</v>
@@ -5933,17 +5756,15 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="3" t="s">
-        <v>193</v>
-      </c>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="N20" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" spans="1:10">
+    <row r="21" s="1" customFormat="1" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>204</v>
@@ -5957,204 +5778,192 @@
       <c r="E21" t="s">
         <v>186</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="10:10">
-      <c r="J22" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="10:10">
-      <c r="J24" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="2:10">
-      <c r="B25" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="2:10">
-      <c r="B26" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="10:10">
-      <c r="J27" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="10:10">
-      <c r="J28" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="10:10">
-      <c r="J29" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="10:10">
-      <c r="J30" s="3" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="10:10">
-      <c r="J31" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="10:10">
-      <c r="J32" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="10:10">
-      <c r="J33" s="3" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="10:10">
-      <c r="J34" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="10:10">
-      <c r="J35" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="10:10">
-      <c r="J36" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="10:10">
-      <c r="J37" s="3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="10:10">
-      <c r="J38" s="3" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="10:10">
-      <c r="J39" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" spans="10:10">
-      <c r="J40" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="10:10">
-      <c r="J41" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="10:10">
-      <c r="J42" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="10:10">
-      <c r="J43" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" spans="10:10">
-      <c r="J44" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" spans="10:10">
-      <c r="J45" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="10:10">
-      <c r="J46" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="10:10">
-      <c r="J47" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="10:10">
-      <c r="J48" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" spans="10:10">
-      <c r="J49" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" spans="10:10">
-      <c r="J50" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" spans="10:10">
-      <c r="J51" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" spans="10:10">
-      <c r="J52" s="3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="53" spans="10:10">
-      <c r="J53" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="54" spans="10:10">
-      <c r="J54" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="55" spans="10:10">
-      <c r="J55" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="56" spans="10:10">
-      <c r="J56" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
+    </row>
+    <row r="22" s="1" customFormat="1"/>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:5">
+      <c r="A24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:5">
+      <c r="A25" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:5">
+      <c r="A26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:5">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:5">
+      <c r="A28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28"/>
+    </row>
+    <row r="29" s="1" customFormat="1" spans="1:5">
+      <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" s="1" customFormat="1" spans="1:5">
+      <c r="A30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="1:5">
+      <c r="A31" t="s">
+        <v>172</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" t="s">
+        <v>174</v>
+      </c>
+      <c r="E31"/>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:5">
+      <c r="A32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:5">
+      <c r="A33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" t="s">
+        <v>189</v>
+      </c>
+      <c r="E33"/>
+    </row>
+    <row r="34" s="1" customFormat="1"/>
+    <row r="35" s="1" customFormat="1"/>
+    <row r="36" s="1" customFormat="1"/>
+    <row r="37" s="1" customFormat="1"/>
+    <row r="38" s="1" customFormat="1"/>
+    <row r="39" s="1" customFormat="1"/>
+    <row r="40" s="1" customFormat="1"/>
+    <row r="41" s="1" customFormat="1"/>
+    <row r="42" s="1" customFormat="1"/>
+    <row r="43" s="1" customFormat="1"/>
+    <row r="44" s="1" customFormat="1"/>
+    <row r="45" s="1" customFormat="1"/>
+    <row r="46" s="1" customFormat="1"/>
+    <row r="47" s="1" customFormat="1"/>
+    <row r="48" s="1" customFormat="1"/>
+    <row r="49" s="1" customFormat="1"/>
+    <row r="50" s="1" customFormat="1"/>
+    <row r="51" s="1" customFormat="1"/>
+    <row r="52" s="1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6177,7 +5986,7 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" s="1" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6185,10 +5994,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>120</v>
@@ -6197,7 +6006,7 @@
         <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G2" s="1">
         <v>33</v>
@@ -6211,10 +6020,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>120</v>
@@ -6223,7 +6032,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G3" s="1">
         <v>33</v>
@@ -6237,10 +6046,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>120</v>
@@ -6249,7 +6058,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G4" s="1">
         <v>33</v>
@@ -6263,10 +6072,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>120</v>
@@ -6275,7 +6084,7 @@
         <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G5" s="1">
         <v>33</v>
@@ -6286,13 +6095,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>120</v>
@@ -6301,7 +6110,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G6" s="1">
         <v>33</v>
@@ -6312,13 +6121,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>120</v>
@@ -6327,7 +6136,7 @@
         <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G7" s="1">
         <v>33</v>
@@ -6338,13 +6147,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>305</v>
+        <v>269</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>120</v>
@@ -6361,13 +6170,13 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>307</v>
+        <v>271</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>308</v>
+        <v>272</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>120</v>
@@ -6387,10 +6196,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>309</v>
+        <v>273</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>310</v>
+        <v>274</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>134</v>
@@ -6399,7 +6208,7 @@
         <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G10" s="1">
         <v>39</v>
@@ -6413,10 +6222,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>312</v>
+        <v>276</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>134</v>
@@ -6425,7 +6234,7 @@
         <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G11" s="1">
         <v>39</v>
@@ -6439,10 +6248,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>313</v>
+        <v>277</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>314</v>
+        <v>278</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>134</v>
@@ -6451,7 +6260,7 @@
         <v>44</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G12" s="1">
         <v>39</v>
@@ -6465,10 +6274,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>134</v>
@@ -6477,7 +6286,7 @@
         <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G13" s="1">
         <v>39</v>
@@ -6488,13 +6297,13 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>134</v>
@@ -6503,7 +6312,7 @@
         <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G14" s="1">
         <v>39</v>
@@ -6514,13 +6323,13 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>134</v>
@@ -6529,7 +6338,7 @@
         <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15" s="1">
         <v>39</v>
@@ -6540,13 +6349,13 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>134</v>
@@ -6563,13 +6372,13 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>134</v>
@@ -6589,10 +6398,10 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>185</v>
@@ -6601,7 +6410,7 @@
         <v>51</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G18" s="1">
         <v>55</v>
@@ -6615,10 +6424,10 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>327</v>
+        <v>291</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>328</v>
+        <v>292</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>185</v>
@@ -6627,7 +6436,7 @@
         <v>51</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G19" s="1">
         <v>55</v>
@@ -6641,10 +6450,10 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>185</v>
@@ -6653,7 +6462,7 @@
         <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G20" s="1">
         <v>55</v>
@@ -6667,10 +6476,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>185</v>
@@ -6679,7 +6488,7 @@
         <v>51</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G21" s="1">
         <v>55</v>
@@ -6690,13 +6499,13 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="C22" s="1" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>185</v>
@@ -6705,7 +6514,7 @@
         <v>51</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G22" s="1">
         <v>55</v>
@@ -6716,13 +6525,13 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>185</v>
@@ -6731,7 +6540,7 @@
         <v>51</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G23" s="1">
         <v>55</v>
@@ -6742,13 +6551,13 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>185</v>
@@ -6765,13 +6574,13 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>340</v>
+        <v>304</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>185</v>
@@ -6780,7 +6589,7 @@
         <v>51</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="G25" s="1">
         <v>48</v>
@@ -6791,10 +6600,10 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>341</v>
+        <v>306</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>342</v>
+        <v>307</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>196</v>
@@ -6803,7 +6612,7 @@
         <v>74</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G26" s="1">
         <v>65</v>
@@ -6817,10 +6626,10 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>344</v>
+        <v>309</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>196</v>
@@ -6829,7 +6638,7 @@
         <v>74</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G27" s="1">
         <v>65</v>
@@ -6843,10 +6652,10 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>345</v>
+        <v>310</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>196</v>
@@ -6855,7 +6664,7 @@
         <v>74</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G28" s="1">
         <v>65</v>
@@ -6869,10 +6678,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>347</v>
+        <v>312</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>348</v>
+        <v>313</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>196</v>
@@ -6881,7 +6690,7 @@
         <v>74</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G29" s="1">
         <v>65</v>
@@ -6892,13 +6701,13 @@
     </row>
     <row r="30" ht="15" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>349</v>
+        <v>314</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>196</v>
@@ -6907,7 +6716,7 @@
         <v>74</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G30" s="1">
         <v>65</v>
@@ -6918,13 +6727,13 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>352</v>
+        <v>317</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>196</v>
@@ -6933,7 +6742,7 @@
         <v>74</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="G31" s="1">
         <v>65</v>
@@ -6944,13 +6753,13 @@
     </row>
     <row r="32" ht="15" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>354</v>
+        <v>319</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>196</v>
@@ -6967,13 +6776,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>356</v>
+        <v>321</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>196</v>
@@ -6993,10 +6802,10 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>201</v>
@@ -7019,10 +6828,10 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>201</v>
@@ -7045,10 +6854,10 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>362</v>
+        <v>327</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>201</v>
@@ -7071,10 +6880,10 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>363</v>
+        <v>328</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>364</v>
+        <v>329</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>201</v>
@@ -7094,13 +6903,13 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>365</v>
+        <v>330</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>366</v>
+        <v>331</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>201</v>
@@ -7120,13 +6929,13 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>367</v>
+        <v>332</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>368</v>
+        <v>333</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>201</v>
@@ -7146,13 +6955,13 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>369</v>
+        <v>334</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>370</v>
+        <v>335</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>201</v>
@@ -7169,13 +6978,13 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>306</v>
+        <v>270</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>201</v>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,9 @@
     <sheet name="草药" sheetId="7" r:id="rId6"/>
     <sheet name="丹药" sheetId="9" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">丹药!$A$1:$Q$41</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="340">
   <si>
     <t>圆满层数</t>
   </si>
@@ -1064,6 +1067,24 @@
     <t>配方</t>
   </si>
   <si>
+    <t>境界</t>
+  </si>
+  <si>
+    <t>服用上线</t>
+  </si>
+  <si>
+    <t>增加修为</t>
+  </si>
+  <si>
+    <t>加寿元</t>
+  </si>
+  <si>
+    <t>回复血量</t>
+  </si>
+  <si>
+    <t>回复灵气</t>
+  </si>
+  <si>
     <t>裂石丹</t>
   </si>
   <si>
@@ -1107,34 +1128,22 @@
     <t>danyao3</t>
   </si>
   <si>
-    <t>增加修为</t>
-  </si>
-  <si>
     <t>炼气丹</t>
   </si>
   <si>
     <t>danyao4</t>
   </si>
   <si>
-    <t>加寿元</t>
-  </si>
-  <si>
     <t>延寿丹</t>
   </si>
   <si>
     <t>danyao5</t>
   </si>
   <si>
-    <t>回复血量</t>
-  </si>
-  <si>
     <t>回春丹</t>
   </si>
   <si>
     <t>danyao6</t>
-  </si>
-  <si>
-    <t>回复灵气</t>
   </si>
   <si>
     <t>灵泉丹</t>
@@ -2471,7 +2480,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2801,7 +2810,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3148,7 +3157,7 @@
   <sheetPr/>
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A5" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -5168,7 +5177,7 @@
   <sheetPr/>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -5973,31 +5982,79 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:X41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:4">
+    <row r="1" spans="4:24">
       <c r="D1" s="1" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>253</v>
+      </c>
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>120</v>
@@ -6014,16 +6071,64 @@
       <c r="H2" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>120</v>
@@ -6040,16 +6145,64 @@
       <c r="H3" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="1:8">
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>120</v>
@@ -6066,16 +6219,64 @@
       <c r="H4" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>120</v>
@@ -6092,16 +6293,64 @@
       <c r="H5" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>120</v>
@@ -6118,16 +6367,64 @@
       <c r="H6" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-1</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>40</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>120</v>
@@ -6144,16 +6441,64 @@
       <c r="H7" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>120</v>
@@ -6167,16 +6512,64 @@
       <c r="G8" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>-1</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>20</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>120</v>
@@ -6190,16 +6583,64 @@
       <c r="G9" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" ht="15" spans="1:8">
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>20</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:24">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>134</v>
@@ -6216,16 +6657,64 @@
       <c r="H10" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>134</v>
@@ -6242,16 +6731,64 @@
       <c r="H11" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>134</v>
@@ -6268,16 +6805,64 @@
       <c r="H12" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" ht="15" spans="1:8">
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>134</v>
@@ -6294,16 +6879,64 @@
       <c r="H13" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>134</v>
@@ -6320,16 +6953,64 @@
       <c r="H14" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>-1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>80</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>134</v>
@@ -6346,16 +7027,64 @@
       <c r="H15" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>134</v>
@@ -6369,16 +7098,64 @@
       <c r="G16" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>-1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>80</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>134</v>
@@ -6392,16 +7169,64 @@
       <c r="G17" s="1">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>-1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>80</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>185</v>
@@ -6418,16 +7243,64 @@
       <c r="H18" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>185</v>
@@ -6444,16 +7317,64 @@
       <c r="H19" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>30</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>185</v>
@@ -6470,16 +7391,64 @@
       <c r="H20" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>9</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>185</v>
@@ -6496,16 +7465,64 @@
       <c r="H21" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>20</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>185</v>
@@ -6522,16 +7539,64 @@
       <c r="H22" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>-1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>160</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>185</v>
@@ -6548,16 +7613,64 @@
       <c r="H23" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>20</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>185</v>
@@ -6571,16 +7684,64 @@
       <c r="G24" s="1">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>-1</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>240</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>185</v>
@@ -6589,21 +7750,69 @@
         <v>51</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G25" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" ht="15" spans="1:8">
+      <c r="I25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>-1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>240</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:24">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>196</v>
@@ -6620,16 +7829,64 @@
       <c r="H26" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>27</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>196</v>
@@ -6646,16 +7903,64 @@
       <c r="H27" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>90</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>196</v>
@@ -6672,16 +7977,64 @@
       <c r="H28" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>27</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>196</v>
@@ -6698,16 +8051,64 @@
       <c r="H29" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="30" ht="15" spans="1:8">
+      <c r="I29" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>30</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:24">
       <c r="A30" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>196</v>
@@ -6724,16 +8125,64 @@
       <c r="H30" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>-1</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>320</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>196</v>
@@ -6750,16 +8199,64 @@
       <c r="H31" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" ht="15" spans="1:7">
+      <c r="I31" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>40</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:24">
       <c r="A32" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>196</v>
@@ -6773,16 +8270,64 @@
       <c r="G32" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="I32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>-1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>720</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>196</v>
@@ -6796,16 +8341,64 @@
       <c r="G33" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="34" ht="15" spans="1:8">
+      <c r="I33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>-1</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>720</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:24">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>201</v>
@@ -6822,16 +8415,64 @@
       <c r="H34" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>54</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>201</v>
@@ -6848,16 +8489,64 @@
       <c r="H35" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="36" ht="15" spans="1:8">
+      <c r="I35" t="s">
+        <v>26</v>
+      </c>
+      <c r="J35">
+        <v>4</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>150</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:24">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>201</v>
@@ -6874,16 +8563,64 @@
       <c r="H36" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" t="s">
+        <v>26</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>54</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>201</v>
@@ -6900,16 +8637,64 @@
       <c r="H37" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>40</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>201</v>
@@ -6926,16 +8711,64 @@
       <c r="H38" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>-1</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>640</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>201</v>
@@ -6952,16 +8785,64 @@
       <c r="H39" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="I39" t="s">
+        <v>26</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>80</v>
+      </c>
+      <c r="R39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>201</v>
@@ -6975,16 +8856,64 @@
       <c r="G40" s="1">
         <v>84</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="I40" t="s">
+        <v>26</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>-1</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>1440</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" s="1" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>201</v>
@@ -6997,6 +8926,54 @@
       </c>
       <c r="G41" s="1">
         <v>83</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>-1</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>1440</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -16,7 +16,7 @@
     <sheet name="丹药" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">丹药!$A$1:$Q$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">丹药!$A$1:$X$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="339">
   <si>
     <t>圆满层数</t>
   </si>
@@ -1284,9 +1284,6 @@
   </si>
   <si>
     <t>danyao23</t>
-  </si>
-  <si>
-    <t>冰精芝</t>
   </si>
   <si>
     <r>
@@ -1674,18 +1671,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6AAB73"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -4014,7 +4011,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C17"/>
+      <selection activeCell="A2" sqref="A2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -5178,7 +5175,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A2" sqref="A2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5982,10 +5979,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X41"/>
+  <dimension ref="A1:AE65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5993,60 +5990,60 @@
     <col min="1" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:24">
+    <row r="1" spans="4:31">
       <c r="D1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>253</v>
       </c>
-      <c r="J1" t="s">
+      <c r="Q1" t="s">
         <v>48</v>
       </c>
-      <c r="K1" t="s">
+      <c r="R1" t="s">
         <v>254</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
         <v>6</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AB1" t="s">
         <v>7</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AC1" t="s">
         <v>10</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AD1" t="s">
         <v>9</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AE1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -6059,51 +6056,33 @@
       <c r="D2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="1">
-        <v>30</v>
+      <c r="E2" t="s">
+        <v>207</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="1">
-        <v>33</v>
+      <c r="G2" t="s">
+        <v>209</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>70</v>
       </c>
       <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
         <v>3</v>
       </c>
-      <c r="L2">
+      <c r="S2">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
       <c r="T2">
         <v>0</v>
       </c>
@@ -6119,8 +6098,29 @@
       <c r="X2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -6133,54 +6133,36 @@
       <c r="D3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E3" s="1">
-        <v>30</v>
+      <c r="E3" t="s">
+        <v>207</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G3" s="1">
-        <v>33</v>
+        <v>127</v>
+      </c>
+      <c r="G3" t="s">
+        <v>212</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>70</v>
       </c>
       <c r="I3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P3" t="s">
         <v>15</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>3</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>5</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
       <c r="U3">
         <v>0</v>
       </c>
@@ -6193,8 +6175,29 @@
       <c r="X3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="1:24">
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:31">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6207,57 +6210,39 @@
       <c r="D4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="1">
-        <v>30</v>
+      <c r="E4" t="s">
+        <v>207</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" s="1">
-        <v>33</v>
+        <v>149</v>
+      </c>
+      <c r="G4" t="s">
+        <v>214</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>70</v>
       </c>
       <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s">
         <v>15</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>3</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>1</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
       <c r="V4">
         <v>0</v>
       </c>
@@ -6267,8 +6252,29 @@
       <c r="X4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -6279,70 +6285,73 @@
         <v>266</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" s="1">
-        <v>30</v>
+        <v>127</v>
+      </c>
+      <c r="E5" t="s">
+        <v>212</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="1">
-        <v>33</v>
+      <c r="G5" t="s">
+        <v>209</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>70</v>
       </c>
       <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s">
         <v>15</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>3</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>5</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
         <v>255</v>
       </c>
@@ -6353,70 +6362,73 @@
         <v>268</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="1">
-        <v>30</v>
+        <v>127</v>
+      </c>
+      <c r="E6" t="s">
+        <v>212</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G6" s="1">
-        <v>33</v>
+        <v>149</v>
+      </c>
+      <c r="G6" t="s">
+        <v>214</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="s">
         <v>15</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>-1</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>40</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
       <c r="X6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="1" t="s">
         <v>256</v>
       </c>
@@ -6427,70 +6439,73 @@
         <v>270</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E7" s="1">
-        <v>30</v>
+        <v>149</v>
+      </c>
+      <c r="E7" t="s">
+        <v>214</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G7" s="1">
-        <v>33</v>
+      <c r="G7" t="s">
+        <v>209</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="I7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P7" t="s">
         <v>15</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>3</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <v>5</v>
       </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="1" t="s">
         <v>257</v>
       </c>
@@ -6503,65 +6518,71 @@
       <c r="D8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E8" s="1">
-        <v>30</v>
+      <c r="E8" t="s">
+        <v>207</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="1">
-        <v>32</v>
+      <c r="G8" t="s">
+        <v>212</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="I8" t="s">
+        <v>209</v>
+      </c>
+      <c r="P8" t="s">
         <v>15</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>-1</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
         <v>20</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="1" t="s">
         <v>258</v>
       </c>
@@ -6574,65 +6595,71 @@
       <c r="D9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="E9" s="1">
-        <v>30</v>
+      <c r="E9" t="s">
+        <v>207</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="1">
-        <v>31</v>
+      <c r="G9" t="s">
+        <v>214</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="I9" t="s">
+        <v>209</v>
+      </c>
+      <c r="P9" t="s">
         <v>15</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>-1</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
         <v>20</v>
       </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:24">
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:31">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -6645,51 +6672,39 @@
       <c r="D10" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E10" s="1">
-        <v>44</v>
+      <c r="E10" t="s">
+        <v>216</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G10" s="1">
-        <v>39</v>
+      <c r="G10" t="s">
+        <v>218</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" t="s">
+        <v>216</v>
+      </c>
+      <c r="P10" t="s">
         <v>17</v>
       </c>
-      <c r="J10">
+      <c r="Q10">
         <v>1</v>
       </c>
-      <c r="K10">
+      <c r="R10">
         <v>3</v>
       </c>
-      <c r="L10">
+      <c r="S10">
         <v>3</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
       <c r="T10">
         <v>0</v>
       </c>
@@ -6705,8 +6720,29 @@
       <c r="X10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:24">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -6719,54 +6755,42 @@
       <c r="D11" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="1">
-        <v>44</v>
+      <c r="E11" t="s">
+        <v>216</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G11" s="1">
-        <v>39</v>
+        <v>164</v>
+      </c>
+      <c r="G11" t="s">
+        <v>221</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I11" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K11" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" t="s">
         <v>17</v>
       </c>
-      <c r="J11">
+      <c r="Q11">
         <v>1</v>
       </c>
-      <c r="K11">
+      <c r="R11">
         <v>3</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>10</v>
       </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
         <v>0</v>
       </c>
@@ -6779,8 +6803,29 @@
       <c r="X11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:24">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -6793,57 +6838,45 @@
       <c r="D12" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="1">
-        <v>44</v>
+      <c r="E12" t="s">
+        <v>216</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G12" s="1">
-        <v>39</v>
+        <v>178</v>
+      </c>
+      <c r="G12" t="s">
+        <v>223</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>216</v>
+      </c>
+      <c r="P12" t="s">
         <v>17</v>
       </c>
-      <c r="J12">
+      <c r="Q12">
         <v>1</v>
       </c>
-      <c r="K12">
+      <c r="R12">
         <v>3</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
         <v>3</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
       <c r="V12">
         <v>0</v>
       </c>
@@ -6853,8 +6886,29 @@
       <c r="X12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" ht="15" spans="1:24">
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:31">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -6865,70 +6919,79 @@
         <v>282</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="1">
-        <v>44</v>
+        <v>164</v>
+      </c>
+      <c r="E13" t="s">
+        <v>221</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G13" s="1">
-        <v>39</v>
+      <c r="G13" t="s">
+        <v>218</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" t="s">
+        <v>221</v>
+      </c>
+      <c r="P13" t="s">
         <v>17</v>
       </c>
-      <c r="J13">
+      <c r="Q13">
         <v>1</v>
       </c>
-      <c r="K13">
+      <c r="R13">
         <v>3</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
         <v>10</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="1" t="s">
         <v>255</v>
       </c>
@@ -6939,70 +7002,79 @@
         <v>284</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="1">
-        <v>44</v>
+        <v>164</v>
+      </c>
+      <c r="E14" t="s">
+        <v>221</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G14" s="1">
-        <v>39</v>
+        <v>178</v>
+      </c>
+      <c r="G14" t="s">
+        <v>223</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" t="s">
         <v>17</v>
       </c>
-      <c r="J14">
+      <c r="Q14">
         <v>1</v>
       </c>
-      <c r="K14">
+      <c r="R14">
         <v>-1</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
         <v>80</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
       <c r="X14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24">
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="1" t="s">
         <v>256</v>
       </c>
@@ -7013,70 +7085,79 @@
         <v>286</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="1">
-        <v>44</v>
+        <v>178</v>
+      </c>
+      <c r="E15" t="s">
+        <v>223</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="G15" s="1">
-        <v>39</v>
+      <c r="G15" t="s">
+        <v>218</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K15" t="s">
+        <v>223</v>
+      </c>
+      <c r="P15" t="s">
         <v>17</v>
       </c>
-      <c r="J15">
+      <c r="Q15">
         <v>1</v>
       </c>
-      <c r="K15">
+      <c r="R15">
         <v>3</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>10</v>
       </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="1" t="s">
         <v>257</v>
       </c>
@@ -7089,65 +7170,77 @@
       <c r="D16" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E16" s="1">
-        <v>44</v>
+      <c r="E16" t="s">
+        <v>216</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G16" s="1">
-        <v>40</v>
+      <c r="G16" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="I16" t="s">
+        <v>218</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>216</v>
+      </c>
+      <c r="P16" t="s">
         <v>17</v>
       </c>
-      <c r="J16">
+      <c r="Q16">
         <v>1</v>
       </c>
-      <c r="K16">
+      <c r="R16">
         <v>-1</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
         <v>80</v>
       </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="1" t="s">
         <v>258</v>
       </c>
@@ -7160,65 +7253,77 @@
       <c r="D17" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E17" s="1">
-        <v>44</v>
+      <c r="E17" t="s">
+        <v>216</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G17" s="1">
-        <v>42</v>
+      <c r="G17" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="I17" t="s">
+        <v>218</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K17" t="s">
+        <v>216</v>
+      </c>
+      <c r="P17" t="s">
         <v>17</v>
       </c>
-      <c r="J17">
+      <c r="Q17">
         <v>1</v>
       </c>
-      <c r="K17">
+      <c r="R17">
         <v>-1</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
         <v>80</v>
       </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24">
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -7231,51 +7336,45 @@
       <c r="D18" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E18" s="1">
-        <v>51</v>
+      <c r="E18" t="s">
+        <v>226</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G18" s="1">
-        <v>55</v>
+      <c r="G18" t="s">
+        <v>229</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>74</v>
       </c>
       <c r="I18" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K18" t="s">
+        <v>226</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M18" t="s">
+        <v>229</v>
+      </c>
+      <c r="P18" t="s">
         <v>20</v>
       </c>
-      <c r="J18">
+      <c r="Q18">
         <v>2</v>
       </c>
-      <c r="K18">
+      <c r="R18">
         <v>3</v>
       </c>
-      <c r="L18">
+      <c r="S18">
         <v>9</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
       <c r="T18">
         <v>0</v>
       </c>
@@ -7291,8 +7390,29 @@
       <c r="X18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:24">
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -7305,54 +7425,48 @@
       <c r="D19" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E19" s="1">
-        <v>51</v>
+      <c r="E19" t="s">
+        <v>226</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" s="1">
-        <v>55</v>
+        <v>193</v>
+      </c>
+      <c r="G19" t="s">
+        <v>232</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>74</v>
       </c>
       <c r="I19" t="s">
+        <v>75</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>226</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M19" t="s">
+        <v>232</v>
+      </c>
+      <c r="P19" t="s">
         <v>20</v>
       </c>
-      <c r="J19">
+      <c r="Q19">
         <v>2</v>
       </c>
-      <c r="K19">
+      <c r="R19">
         <v>3</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <v>30</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
       <c r="U19">
         <v>0</v>
       </c>
@@ -7365,8 +7479,29 @@
       <c r="X19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24">
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -7379,57 +7514,51 @@
       <c r="D20" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E20" s="1">
-        <v>51</v>
+      <c r="E20" t="s">
+        <v>226</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G20" s="1">
-        <v>55</v>
+        <v>227</v>
+      </c>
+      <c r="G20" t="s">
+        <v>234</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>74</v>
       </c>
       <c r="I20" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s">
+        <v>226</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M20" t="s">
+        <v>234</v>
+      </c>
+      <c r="P20" t="s">
         <v>20</v>
       </c>
-      <c r="J20">
+      <c r="Q20">
         <v>2</v>
       </c>
-      <c r="K20">
+      <c r="R20">
         <v>3</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
         <v>9</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
       <c r="V20">
         <v>0</v>
       </c>
@@ -7439,8 +7568,29 @@
       <c r="X20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:24">
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
@@ -7451,70 +7601,85 @@
         <v>298</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="1">
-        <v>51</v>
+        <v>193</v>
+      </c>
+      <c r="E21" t="s">
+        <v>232</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G21" s="1">
-        <v>55</v>
+      <c r="G21" t="s">
+        <v>229</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="I21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>232</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M21" t="s">
+        <v>229</v>
+      </c>
+      <c r="P21" t="s">
         <v>20</v>
       </c>
-      <c r="J21">
+      <c r="Q21">
         <v>2</v>
       </c>
-      <c r="K21">
+      <c r="R21">
         <v>3</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
         <v>20</v>
       </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:24">
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="1" t="s">
         <v>255</v>
       </c>
@@ -7525,70 +7690,85 @@
         <v>300</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E22" s="1">
-        <v>51</v>
+        <v>193</v>
+      </c>
+      <c r="E22" t="s">
+        <v>232</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G22" s="1">
-        <v>55</v>
+        <v>227</v>
+      </c>
+      <c r="G22" t="s">
+        <v>234</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>74</v>
       </c>
       <c r="I22" t="s">
+        <v>75</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" t="s">
+        <v>232</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M22" t="s">
+        <v>234</v>
+      </c>
+      <c r="P22" t="s">
         <v>20</v>
       </c>
-      <c r="J22">
+      <c r="Q22">
         <v>2</v>
       </c>
-      <c r="K22">
+      <c r="R22">
         <v>-1</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
         <v>160</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
       <c r="X22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:24">
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" s="1" t="s">
         <v>256</v>
       </c>
@@ -7599,70 +7779,85 @@
         <v>302</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E23" s="1">
-        <v>51</v>
+        <v>227</v>
+      </c>
+      <c r="E23" t="s">
+        <v>234</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="G23" s="1">
-        <v>55</v>
+      <c r="G23" t="s">
+        <v>229</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>74</v>
       </c>
       <c r="I23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s">
+        <v>234</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M23" t="s">
+        <v>229</v>
+      </c>
+      <c r="P23" t="s">
         <v>20</v>
       </c>
-      <c r="J23">
+      <c r="Q23">
         <v>2</v>
       </c>
-      <c r="K23">
+      <c r="R23">
         <v>3</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
         <v>20</v>
       </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24">
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" s="1" t="s">
         <v>257</v>
       </c>
@@ -7675,65 +7870,83 @@
       <c r="D24" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="1">
-        <v>51</v>
+      <c r="E24" t="s">
+        <v>226</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G24" s="1">
-        <v>49</v>
+      <c r="G24" t="s">
+        <v>232</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="I24" t="s">
+        <v>229</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K24" t="s">
+        <v>226</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" t="s">
+        <v>232</v>
+      </c>
+      <c r="P24" t="s">
         <v>20</v>
       </c>
-      <c r="J24">
+      <c r="Q24">
         <v>2</v>
       </c>
-      <c r="K24">
+      <c r="R24">
         <v>-1</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>240</v>
       </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24">
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" s="1" t="s">
         <v>258</v>
       </c>
@@ -7746,122 +7959,140 @@
       <c r="D25" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E25" s="1">
-        <v>51</v>
+      <c r="E25" t="s">
+        <v>226</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="G25" s="1">
-        <v>48</v>
+        <v>227</v>
+      </c>
+      <c r="G25" t="s">
+        <v>234</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="I25" t="s">
+        <v>229</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" t="s">
+        <v>226</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="M25" t="s">
+        <v>234</v>
+      </c>
+      <c r="P25" t="s">
         <v>20</v>
       </c>
-      <c r="J25">
+      <c r="Q25">
         <v>2</v>
       </c>
-      <c r="K25">
+      <c r="R25">
         <v>-1</v>
       </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
         <v>240</v>
       </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="1:24">
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:31">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="1">
-        <v>74</v>
+      <c r="E26" t="s">
+        <v>237</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G26" s="1">
-        <v>65</v>
+      <c r="G26" t="s">
+        <v>240</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I26" t="s">
+        <v>77</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" t="s">
+        <v>237</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M26" t="s">
+        <v>240</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O26" t="s">
+        <v>77</v>
+      </c>
+      <c r="P26" t="s">
         <v>23</v>
       </c>
-      <c r="J26">
+      <c r="Q26">
         <v>3</v>
       </c>
-      <c r="K26">
+      <c r="R26">
         <v>3</v>
       </c>
-      <c r="L26">
+      <c r="S26">
         <v>27</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
       <c r="T26">
         <v>0</v>
       </c>
@@ -7877,68 +8108,89 @@
       <c r="X26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:24">
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E27" s="1">
-        <v>74</v>
+      <c r="E27" t="s">
+        <v>237</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G27" s="1">
-        <v>65</v>
+        <v>197</v>
+      </c>
+      <c r="G27" t="s">
+        <v>243</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I27" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M27" t="s">
+        <v>243</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O27" t="s">
+        <v>77</v>
+      </c>
+      <c r="P27" t="s">
         <v>23</v>
       </c>
-      <c r="J27">
+      <c r="Q27">
         <v>3</v>
       </c>
-      <c r="K27">
+      <c r="R27">
         <v>3</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <v>90</v>
       </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
       <c r="U27">
         <v>0</v>
       </c>
@@ -7951,71 +8203,92 @@
       <c r="X27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:24">
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>313</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="1">
-        <v>74</v>
+      <c r="E28" t="s">
+        <v>237</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G28" s="1">
-        <v>65</v>
+        <v>235</v>
+      </c>
+      <c r="G28" t="s">
+        <v>246</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I28" t="s">
+        <v>77</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" t="s">
+        <v>237</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" t="s">
+        <v>246</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" t="s">
         <v>23</v>
       </c>
-      <c r="J28">
+      <c r="Q28">
         <v>3</v>
       </c>
-      <c r="K28">
+      <c r="R28">
         <v>3</v>
       </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
         <v>27</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
       <c r="V28">
         <v>0</v>
       </c>
@@ -8025,429 +8298,561 @@
       <c r="X28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:24">
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E29" s="1">
-        <v>74</v>
+        <v>197</v>
+      </c>
+      <c r="E29" t="s">
+        <v>243</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G29" s="1">
-        <v>65</v>
+      <c r="G29" t="s">
+        <v>240</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I29" t="s">
+        <v>77</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" t="s">
+        <v>243</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M29" t="s">
+        <v>240</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29" t="s">
         <v>23</v>
       </c>
-      <c r="J29">
+      <c r="Q29">
         <v>3</v>
       </c>
-      <c r="K29">
+      <c r="R29">
         <v>3</v>
       </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
         <v>30</v>
       </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" ht="15" spans="1:24">
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:31">
       <c r="A30" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>317</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E30" s="1">
-        <v>74</v>
+        <v>197</v>
+      </c>
+      <c r="E30" t="s">
+        <v>243</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G30" s="1">
-        <v>65</v>
+        <v>235</v>
+      </c>
+      <c r="G30" t="s">
+        <v>246</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I30" t="s">
+        <v>77</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K30" t="s">
+        <v>243</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" t="s">
+        <v>246</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" t="s">
         <v>23</v>
       </c>
-      <c r="J30">
+      <c r="Q30">
         <v>3</v>
       </c>
-      <c r="K30">
+      <c r="R30">
         <v>-1</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
         <v>320</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
       <c r="X30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:24">
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="D31" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E31" s="1">
-        <v>74</v>
+        <v>235</v>
+      </c>
+      <c r="E31" t="s">
+        <v>246</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G31" s="1">
-        <v>65</v>
+      <c r="G31" t="s">
+        <v>240</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I31" t="s">
+        <v>77</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" t="s">
+        <v>246</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M31" t="s">
+        <v>240</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" t="s">
         <v>23</v>
       </c>
-      <c r="J31">
+      <c r="Q31">
         <v>3</v>
       </c>
-      <c r="K31">
+      <c r="R31">
         <v>3</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
         <v>40</v>
       </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="1:24">
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:31">
       <c r="A32" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E32" s="1">
-        <v>74</v>
+      <c r="E32" t="s">
+        <v>237</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G32" s="1">
-        <v>69</v>
+      <c r="G32" t="s">
+        <v>243</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="I32" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K32" t="s">
+        <v>237</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="M32" t="s">
+        <v>243</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O32" t="s">
+        <v>240</v>
+      </c>
+      <c r="P32" t="s">
         <v>23</v>
       </c>
-      <c r="J32">
+      <c r="Q32">
         <v>3</v>
       </c>
-      <c r="K32">
+      <c r="R32">
         <v>-1</v>
       </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
         <v>720</v>
       </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E33" s="1">
-        <v>74</v>
+      <c r="E33" t="s">
+        <v>237</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G33" s="1">
-        <v>70</v>
+        <v>235</v>
+      </c>
+      <c r="G33" t="s">
+        <v>246</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="I33" t="s">
+        <v>240</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" t="s">
+        <v>237</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M33" t="s">
+        <v>246</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="O33" t="s">
+        <v>240</v>
+      </c>
+      <c r="P33" t="s">
         <v>23</v>
       </c>
-      <c r="J33">
+      <c r="Q33">
         <v>3</v>
       </c>
-      <c r="K33">
+      <c r="R33">
         <v>-1</v>
       </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
       <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
         <v>720</v>
       </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="15" spans="1:24">
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:31">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="D34" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E34" s="1">
-        <v>77</v>
+        <v>238</v>
+      </c>
+      <c r="E34" t="s">
+        <v>248</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G34" s="1">
-        <v>79</v>
+      <c r="G34" t="s">
+        <v>249</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K34" t="s">
+        <v>248</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M34" t="s">
+        <v>249</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O34" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" t="s">
         <v>26</v>
       </c>
-      <c r="J34">
+      <c r="Q34">
         <v>4</v>
       </c>
-      <c r="K34">
+      <c r="R34">
         <v>3</v>
       </c>
-      <c r="L34">
+      <c r="S34">
         <v>54</v>
       </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
       <c r="T34">
         <v>0</v>
       </c>
@@ -8463,68 +8868,89 @@
       <c r="X34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:24">
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="D35" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E35" s="1">
-        <v>77</v>
+        <v>238</v>
+      </c>
+      <c r="E35" t="s">
+        <v>248</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G35" s="1">
-        <v>79</v>
+        <v>203</v>
+      </c>
+      <c r="G35" t="s">
+        <v>250</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I35" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K35" t="s">
+        <v>248</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M35" t="s">
+        <v>250</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O35" t="s">
+        <v>77</v>
+      </c>
+      <c r="P35" t="s">
         <v>26</v>
       </c>
-      <c r="J35">
+      <c r="Q35">
         <v>4</v>
       </c>
-      <c r="K35">
+      <c r="R35">
         <v>3</v>
       </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <v>150</v>
       </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
       <c r="U35">
         <v>0</v>
       </c>
@@ -8537,71 +8963,92 @@
       <c r="X35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" ht="15" spans="1:24">
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:31">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="D36" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E36" s="1">
-        <v>77</v>
+        <v>238</v>
+      </c>
+      <c r="E36" t="s">
+        <v>248</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G36" s="1">
-        <v>79</v>
+        <v>204</v>
+      </c>
+      <c r="G36" t="s">
+        <v>251</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I36" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K36" t="s">
+        <v>248</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M36" t="s">
+        <v>251</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O36" t="s">
+        <v>77</v>
+      </c>
+      <c r="P36" t="s">
         <v>26</v>
       </c>
-      <c r="J36">
+      <c r="Q36">
         <v>4</v>
       </c>
-      <c r="K36">
+      <c r="R36">
         <v>3</v>
       </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
         <v>54</v>
       </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
       <c r="V36">
         <v>0</v>
       </c>
@@ -8611,369 +9058,697 @@
       <c r="X36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:24">
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>0</v>
+      </c>
+      <c r="AC36">
+        <v>0</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="D37" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E37" s="1">
-        <v>77</v>
+        <v>203</v>
+      </c>
+      <c r="E37" t="s">
+        <v>250</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G37" s="1">
-        <v>79</v>
+      <c r="G37" t="s">
+        <v>249</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I37" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="K37" t="s">
+        <v>250</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M37" t="s">
+        <v>249</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O37" t="s">
+        <v>77</v>
+      </c>
+      <c r="P37" t="s">
         <v>26</v>
       </c>
-      <c r="J37">
+      <c r="Q37">
         <v>4</v>
       </c>
-      <c r="K37">
+      <c r="R37">
         <v>3</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>0</v>
+      </c>
+      <c r="U37">
+        <v>0</v>
+      </c>
+      <c r="V37">
         <v>40</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:24">
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="D38" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E38" s="1">
-        <v>77</v>
+        <v>204</v>
+      </c>
+      <c r="E38" t="s">
+        <v>251</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" s="1">
-        <v>79</v>
+        <v>204</v>
+      </c>
+      <c r="G38" t="s">
+        <v>251</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I38" t="s">
+        <v>77</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K38" t="s">
+        <v>251</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M38" t="s">
+        <v>251</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O38" t="s">
+        <v>77</v>
+      </c>
+      <c r="P38" t="s">
         <v>26</v>
       </c>
-      <c r="J38">
+      <c r="Q38">
         <v>4</v>
       </c>
-      <c r="K38">
+      <c r="R38">
         <v>-1</v>
       </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
         <v>640</v>
       </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>0</v>
-      </c>
       <c r="X38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:24">
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>335</v>
-      </c>
       <c r="D39" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E39" s="1">
-        <v>77</v>
+        <v>204</v>
+      </c>
+      <c r="E39" t="s">
+        <v>251</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G39" s="1">
-        <v>79</v>
+      <c r="G39" t="s">
+        <v>249</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>76</v>
       </c>
       <c r="I39" t="s">
+        <v>77</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K39" t="s">
+        <v>251</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="M39" t="s">
+        <v>249</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="O39" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" t="s">
         <v>26</v>
       </c>
-      <c r="J39">
+      <c r="Q39">
         <v>4</v>
       </c>
-      <c r="K39">
+      <c r="R39">
         <v>3</v>
       </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
         <v>80</v>
       </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24">
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>0</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" s="1" t="s">
         <v>257</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="D40" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E40" s="1">
-        <v>77</v>
+        <v>238</v>
+      </c>
+      <c r="E40" t="s">
+        <v>248</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="G40" s="1">
-        <v>84</v>
+      <c r="G40" t="s">
+        <v>250</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="I40" t="s">
+        <v>249</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K40" t="s">
+        <v>248</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M40" t="s">
+        <v>250</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O40" t="s">
+        <v>249</v>
+      </c>
+      <c r="P40" t="s">
         <v>26</v>
       </c>
-      <c r="J40">
+      <c r="Q40">
         <v>4</v>
       </c>
-      <c r="K40">
+      <c r="R40">
         <v>-1</v>
       </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
         <v>1440</v>
       </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24">
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="D41" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E41" s="1">
-        <v>77</v>
+        <v>238</v>
+      </c>
+      <c r="E41" t="s">
+        <v>248</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G41" s="1">
-        <v>83</v>
+      <c r="G41" t="s">
+        <v>251</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="I41" t="s">
+        <v>249</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="K41" t="s">
+        <v>248</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M41" t="s">
+        <v>251</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="O41" t="s">
+        <v>249</v>
+      </c>
+      <c r="P41" t="s">
         <v>26</v>
       </c>
-      <c r="J41">
+      <c r="Q41">
         <v>4</v>
       </c>
-      <c r="K41">
+      <c r="R41">
         <v>-1</v>
       </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
       <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
         <v>1440</v>
       </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="6"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="348">
   <si>
     <t>圆满层数</t>
   </si>
@@ -245,133 +245,76 @@
     <t>hufu3</t>
   </si>
   <si>
-    <t>id</t>
+    <t>黑纹铁</t>
+  </si>
+  <si>
+    <t>云纹仙金</t>
   </si>
   <si>
     <t>凝气妖丹</t>
   </si>
   <si>
-    <t xml:space="preserve">linghe0 </t>
+    <t>百锻玄铁</t>
+  </si>
+  <si>
+    <t>10 11</t>
+  </si>
+  <si>
+    <t>流霞仙金</t>
+  </si>
+  <si>
+    <t>12 13</t>
   </si>
   <si>
     <t>灵风妖丹</t>
   </si>
   <si>
-    <t xml:space="preserve">linghe1 </t>
+    <t>寒心铁精</t>
+  </si>
+  <si>
+    <t>14 15 16 17</t>
+  </si>
+  <si>
+    <t>玄霜仙金</t>
+  </si>
+  <si>
+    <t>18 19 20 21</t>
   </si>
   <si>
     <t>真元妖丹</t>
   </si>
   <si>
-    <t xml:space="preserve">linghe2 </t>
+    <t>星辰玄铁</t>
+  </si>
+  <si>
+    <t>22 23</t>
+  </si>
+  <si>
+    <t>鸿蒙仙金</t>
+  </si>
+  <si>
+    <t>24 25</t>
   </si>
   <si>
     <t>真灵妖丹</t>
   </si>
   <si>
-    <t xml:space="preserve">linghe3 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>黑纹铁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.8"/>
-        <color rgb="FF6AAB73"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-  </si>
-  <si>
-    <t>xvantie0</t>
-  </si>
-  <si>
-    <t>百锻玄铁</t>
-  </si>
-  <si>
-    <t>xvantie1</t>
-  </si>
-  <si>
-    <t>寒心铁精</t>
-  </si>
-  <si>
-    <t>xvantie2</t>
-  </si>
-  <si>
-    <t>星辰玄铁</t>
-  </si>
-  <si>
-    <t>xvantie3</t>
-  </si>
-  <si>
-    <t>云纹仙金</t>
-  </si>
-  <si>
-    <t>lingjin0</t>
-  </si>
-  <si>
-    <t>流霞仙金</t>
-  </si>
-  <si>
-    <t>lingjin1</t>
-  </si>
-  <si>
-    <t>玄霜仙金</t>
-  </si>
-  <si>
-    <t>lingjin2</t>
-  </si>
-  <si>
-    <t>鸿蒙仙金</t>
-  </si>
-  <si>
-    <t>lingjin3</t>
-  </si>
-  <si>
     <t>青纹灵玉</t>
   </si>
   <si>
-    <t xml:space="preserve">lingyv0 </t>
-  </si>
-  <si>
     <t>凝露灵玉</t>
   </si>
   <si>
-    <t xml:space="preserve">lingyv1 </t>
-  </si>
-  <si>
     <t>玄心灵玉</t>
   </si>
   <si>
-    <t xml:space="preserve">lingyv2 </t>
-  </si>
-  <si>
     <t>通神灵玉</t>
   </si>
   <si>
-    <t xml:space="preserve">lingyv3 </t>
-  </si>
-  <si>
     <t>月纹木‌</t>
   </si>
   <si>
-    <t xml:space="preserve">lingmu0 </t>
-  </si>
-  <si>
     <t>凝脂楠‌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lingmu1 </t>
   </si>
   <si>
     <r>
@@ -395,9 +338,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">lingmu2 </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -419,7 +359,73 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">linghe0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">linghe1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">linghe2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">linghe3 </t>
+  </si>
+  <si>
+    <t>xvantie0</t>
+  </si>
+  <si>
+    <t>xvantie1</t>
+  </si>
+  <si>
+    <t>xvantie2</t>
+  </si>
+  <si>
+    <t>xvantie3</t>
+  </si>
+  <si>
+    <t>lingjin0</t>
+  </si>
+  <si>
+    <t>lingjin1</t>
+  </si>
+  <si>
+    <t>lingjin2</t>
+  </si>
+  <si>
+    <t>lingjin3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingyv0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingyv1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingyv2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingyv3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingmu0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingmu1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lingmu2 </t>
+  </si>
+  <si>
     <t xml:space="preserve">lingmu3 </t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>星叶松</t>
+  </si>
+  <si>
+    <t>若灵木</t>
   </si>
   <si>
     <t>群系id</t>
@@ -491,6 +497,27 @@
   </si>
   <si>
     <t>幻灵狐</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黑纹铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8"/>
+        <color rgb="FF6AAB73"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
   </si>
   <si>
     <t>恒心草</t>
@@ -1671,18 +1698,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF6AAB73"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3152,10 +3179,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3996,6 +4023,770 @@
       </c>
       <c r="O32">
         <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="str">
+        <f>VLOOKUP(D35,A:B,2,0)</f>
+        <v>xvantie0</v>
+      </c>
+      <c r="F35">
+        <v>1379</v>
+      </c>
+      <c r="G35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" t="str">
+        <f>VLOOKUP(G35,A:B,2,0)</f>
+        <v>lingjin0</v>
+      </c>
+      <c r="I35">
+        <v>2468</v>
+      </c>
+      <c r="J35"/>
+      <c r="M35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N35" t="str">
+        <f>VLOOKUP(M35,A:B,2,0)</f>
+        <v>linghe0 </v>
+      </c>
+      <c r="O35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" ref="E36:E42" si="0">VLOOKUP(D36,A:B,2,0)</f>
+        <v>xvantie1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" ref="H36:H50" si="1">VLOOKUP(G36,A:B,2,0)</f>
+        <v>lingjin1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>75</v>
+      </c>
+      <c r="M36" t="s">
+        <v>76</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" ref="N36:N50" si="2">VLOOKUP(M36,A:B,2,0)</f>
+        <v>linghe1 </v>
+      </c>
+      <c r="O36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>xvantie2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>80</v>
+      </c>
+      <c r="M37" t="s">
+        <v>81</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe2 </v>
+      </c>
+      <c r="O37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>xvantie3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>83</v>
+      </c>
+      <c r="G38" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>85</v>
+      </c>
+      <c r="M38" t="s">
+        <v>86</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe3 </v>
+      </c>
+      <c r="O38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>xvantie0</v>
+      </c>
+      <c r="F39">
+        <v>13</v>
+      </c>
+      <c r="G39" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin0</v>
+      </c>
+      <c r="I39">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s">
+        <v>87</v>
+      </c>
+      <c r="K39" t="str">
+        <f>VLOOKUP(J39,A:B,2,0)</f>
+        <v>lingyv0 </v>
+      </c>
+      <c r="L39">
+        <v>2468</v>
+      </c>
+      <c r="M39" t="s">
+        <v>71</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe0 </v>
+      </c>
+      <c r="O39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>xvantie1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>75</v>
+      </c>
+      <c r="J40" t="s">
+        <v>88</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" ref="K40:K50" si="3">VLOOKUP(J40,A:B,2,0)</f>
+        <v>lingyv1 </v>
+      </c>
+      <c r="M40" t="s">
+        <v>76</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe1 </v>
+      </c>
+      <c r="O40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>xvantie2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin2</v>
+      </c>
+      <c r="I41" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" t="s">
+        <v>89</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="3"/>
+        <v>lingyv2 </v>
+      </c>
+      <c r="M41" t="s">
+        <v>81</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe2 </v>
+      </c>
+      <c r="O41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>xvantie3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" t="s">
+        <v>84</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin3</v>
+      </c>
+      <c r="I42" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42" t="s">
+        <v>90</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="3"/>
+        <v>lingyv3 </v>
+      </c>
+      <c r="M42" t="s">
+        <v>86</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe3 </v>
+      </c>
+      <c r="O42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin0</v>
+      </c>
+      <c r="I43">
+        <v>1379</v>
+      </c>
+      <c r="J43" t="s">
+        <v>87</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="3"/>
+        <v>lingyv0 </v>
+      </c>
+      <c r="L43">
+        <v>2468</v>
+      </c>
+      <c r="M43" t="s">
+        <v>71</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe0 </v>
+      </c>
+      <c r="O43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" t="s">
+        <v>74</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin1</v>
+      </c>
+      <c r="I44" t="s">
+        <v>73</v>
+      </c>
+      <c r="J44" t="s">
+        <v>88</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="3"/>
+        <v>lingyv1 </v>
+      </c>
+      <c r="L44" t="s">
+        <v>75</v>
+      </c>
+      <c r="M44" t="s">
+        <v>76</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe1 </v>
+      </c>
+      <c r="O44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin2</v>
+      </c>
+      <c r="I45" t="s">
+        <v>78</v>
+      </c>
+      <c r="J45" t="s">
+        <v>89</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="3"/>
+        <v>lingyv2 </v>
+      </c>
+      <c r="L45" t="s">
+        <v>80</v>
+      </c>
+      <c r="M45" t="s">
+        <v>81</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe2 </v>
+      </c>
+      <c r="O45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" t="s">
+        <v>63</v>
+      </c>
+      <c r="G46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin3</v>
+      </c>
+      <c r="I46" t="s">
+        <v>83</v>
+      </c>
+      <c r="J46" t="s">
+        <v>90</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="3"/>
+        <v>lingyv3 </v>
+      </c>
+      <c r="L46" t="s">
+        <v>85</v>
+      </c>
+      <c r="M46" t="s">
+        <v>86</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe3 </v>
+      </c>
+      <c r="O46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" t="s">
+        <v>70</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin0</v>
+      </c>
+      <c r="I47">
+        <v>1379</v>
+      </c>
+      <c r="J47" t="s">
+        <v>91</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="3"/>
+        <v>lingmu0 </v>
+      </c>
+      <c r="L47">
+        <v>2468</v>
+      </c>
+      <c r="M47" t="s">
+        <v>71</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe0 </v>
+      </c>
+      <c r="O47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+      <c r="J48" t="s">
+        <v>92</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="3"/>
+        <v>lingmu1 </v>
+      </c>
+      <c r="L48" t="s">
+        <v>75</v>
+      </c>
+      <c r="M48" t="s">
+        <v>76</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe1 </v>
+      </c>
+      <c r="O48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin2</v>
+      </c>
+      <c r="I49" t="s">
+        <v>78</v>
+      </c>
+      <c r="J49" t="s">
+        <v>93</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="3"/>
+        <v>lingmu2 </v>
+      </c>
+      <c r="L49" t="s">
+        <v>80</v>
+      </c>
+      <c r="M49" t="s">
+        <v>81</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe2 </v>
+      </c>
+      <c r="O49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+      <c r="G50" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin3</v>
+      </c>
+      <c r="I50" t="s">
+        <v>83</v>
+      </c>
+      <c r="J50" t="s">
+        <v>94</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="3"/>
+        <v>lingmu3 </v>
+      </c>
+      <c r="L50" t="s">
+        <v>85</v>
+      </c>
+      <c r="M50" t="s">
+        <v>86</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe3 </v>
+      </c>
+      <c r="O50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>82</v>
+      </c>
+      <c r="B68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>90</v>
+      </c>
+      <c r="B76" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B78" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4011,234 +4802,234 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C5"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4260,62 +5051,62 @@
   <sheetData>
     <row r="1" spans="4:19">
       <c r="D1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="N1" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="M2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="R2" s="1">
         <v>30</v>
@@ -4326,47 +5117,47 @@
     </row>
     <row r="3" ht="18.75" spans="1:19">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G3" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="K3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="R3" s="1">
         <v>33</v>
@@ -4377,47 +5168,47 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="P4" s="1">
         <v>2</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="R4" s="1">
         <v>32</v>
@@ -4428,45 +5219,45 @@
     </row>
     <row r="5" ht="18.75" spans="1:19">
       <c r="A5" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K5" s="3"/>
       <c r="M5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="P5" s="1">
         <v>3</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="R5" s="1">
         <v>31</v>
@@ -4477,43 +5268,43 @@
     </row>
     <row r="6" ht="18.75" spans="1:19">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D6" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="G6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="M6" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="P6" s="1">
         <v>4</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="R6" s="1">
         <v>44</v>
@@ -4524,46 +5315,46 @@
     </row>
     <row r="7" ht="18.75" spans="1:19">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G7" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="N7">
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="P7" s="1">
         <v>5</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="R7" s="1">
         <v>39</v>
@@ -4574,44 +5365,44 @@
     </row>
     <row r="8" ht="18.75" spans="1:19">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G8" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="N8">
         <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="P8" s="1">
         <v>6</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="R8" s="1">
         <v>40</v>
@@ -4622,44 +5413,44 @@
     </row>
     <row r="9" ht="18.75" spans="1:19">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N9">
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="P9" s="1">
         <v>7</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="R9" s="1">
         <v>42</v>
@@ -4670,44 +5461,44 @@
     </row>
     <row r="10" ht="18.75" spans="1:19">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="M10" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="N10">
         <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="P10" s="1">
         <v>8</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="R10" s="1">
         <v>51</v>
@@ -4718,43 +5509,43 @@
     </row>
     <row r="11" ht="18.75" spans="1:19">
       <c r="A11" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="G11" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="M11" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="N11">
         <v>9</v>
       </c>
       <c r="O11" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="P11" s="1">
         <v>9</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="R11" s="1">
         <v>55</v>
@@ -4765,44 +5556,44 @@
     </row>
     <row r="12" ht="18.75" spans="1:19">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="G12" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K12" s="5"/>
       <c r="M12" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="N12">
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="P12" s="1">
         <v>10</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="R12" s="1">
         <v>49</v>
@@ -4813,23 +5604,23 @@
     </row>
     <row r="13" spans="10:19">
       <c r="J13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K13" s="3"/>
       <c r="M13" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="N13">
         <v>11</v>
       </c>
       <c r="O13" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="P13" s="1">
         <v>11</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="R13" s="1">
         <v>48</v>
@@ -4840,33 +5631,33 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="D14" s="3"/>
       <c r="J14" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K14" s="3"/>
       <c r="M14" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N14">
         <v>12</v>
       </c>
       <c r="O14" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="P14" s="1">
         <v>12</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="R14" s="1">
         <v>74</v>
@@ -4877,32 +5668,32 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="M15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="N15">
         <v>13</v>
       </c>
       <c r="O15" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="P15" s="1">
         <v>13</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="R15" s="1">
         <v>65</v>
@@ -4913,30 +5704,30 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D16" s="3"/>
       <c r="K16" s="3"/>
       <c r="M16" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="N16">
         <v>14</v>
       </c>
       <c r="O16" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="P16" s="1">
         <v>14</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="R16" s="1">
         <v>69</v>
@@ -4947,32 +5738,32 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="M17" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="N17">
         <v>15</v>
       </c>
       <c r="O17" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="P17" s="1">
         <v>15</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="R17" s="1">
         <v>70</v>
@@ -4989,19 +5780,19 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="M18" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="N18">
         <v>16</v>
       </c>
       <c r="O18" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P18" s="1">
         <v>16</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="R18" s="1">
         <v>77</v>
@@ -5015,19 +5806,19 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="M19" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="N19">
         <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="P19" s="1">
         <v>17</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="R19" s="1">
         <v>79</v>
@@ -5040,19 +5831,19 @@
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
       <c r="M20" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="N20">
         <v>18</v>
       </c>
       <c r="O20" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="P20" s="1">
         <v>18</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="R20" s="1">
         <v>84</v>
@@ -5066,19 +5857,19 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="M21" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="N21">
         <v>19</v>
       </c>
       <c r="O21" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="P21" s="1">
         <v>19</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="R21" s="1">
         <v>83</v>
@@ -5187,17 +5978,17 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -5205,15 +5996,15 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="17" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1">
         <v>30</v>
@@ -5222,31 +6013,31 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C3" s="1">
         <v>32</v>
@@ -5255,26 +6046,26 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C4" s="1">
         <v>33</v>
@@ -5283,7 +6074,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -5292,18 +6083,18 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1">
         <v>31</v>
@@ -5312,26 +6103,26 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C6" s="1">
         <v>44</v>
@@ -5340,28 +6131,28 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="H6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="C7" s="1">
         <v>39</v>
@@ -5370,24 +6161,24 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C8" s="1">
         <v>40</v>
@@ -5396,7 +6187,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -5405,18 +6196,18 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C9" s="1">
         <v>42</v>
@@ -5425,26 +6216,26 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C10" s="1">
         <v>51</v>
@@ -5453,34 +6244,34 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="G10" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="C11" s="1">
         <v>55</v>
@@ -5489,7 +6280,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -5498,21 +6289,21 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="N11" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C12" s="1">
         <v>49</v>
@@ -5521,7 +6312,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -5530,21 +6321,21 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="N12" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C13" s="1">
         <v>48</v>
@@ -5553,7 +6344,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -5562,21 +6353,21 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C14" s="1">
         <v>74</v>
@@ -5585,7 +6376,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -5594,21 +6385,21 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="C15" s="1">
         <v>65</v>
@@ -5617,24 +6408,24 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C16" s="1">
         <v>69</v>
@@ -5643,27 +6434,27 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="N16" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C17" s="1">
         <v>70</v>
@@ -5672,7 +6463,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1"/>
@@ -5681,21 +6472,21 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="C18" s="1">
         <v>77</v>
@@ -5704,7 +6495,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -5713,15 +6504,15 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C19" s="1">
         <v>79</v>
@@ -5730,7 +6521,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -5739,15 +6530,15 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C20" s="1">
         <v>84</v>
@@ -5756,7 +6547,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -5765,15 +6556,15 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="N20" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C21" s="1">
         <v>83</v>
@@ -5782,172 +6573,172 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1"/>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D24" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:5">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="E27"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="E28"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:5">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E29"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:5">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E30"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E31"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:5">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D32" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E32"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:5">
       <c r="A33" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="E33"/>
     </row>
@@ -5981,8 +6772,8 @@
   <sheetPr/>
   <dimension ref="A1:AE65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5992,16 +6783,16 @@
   <sheetData>
     <row r="1" spans="4:31">
       <c r="D1" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="P1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="Q1" t="s">
         <v>48</v>
       </c>
       <c r="R1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>4</v>
@@ -6016,16 +6807,16 @@
         <v>8</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="AA1" t="s">
         <v>6</v>
@@ -6048,28 +6839,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="P2" t="s">
         <v>15</v>
@@ -6125,28 +6916,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G3" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="P3" t="s">
         <v>15</v>
@@ -6202,28 +6993,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G4" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="P4" t="s">
         <v>15</v>
@@ -6279,28 +7070,28 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="P5" t="s">
         <v>15</v>
@@ -6353,31 +7144,31 @@
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s">
         <v>15</v>
@@ -6430,31 +7221,31 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="P7" t="s">
         <v>15</v>
@@ -6507,31 +7298,31 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="I8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="P8" t="s">
         <v>15</v>
@@ -6584,31 +7375,31 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="G9" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="I9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="P9" t="s">
         <v>15</v>
@@ -6664,34 +7455,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G10" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K10" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="P10" t="s">
         <v>17</v>
@@ -6747,34 +7538,34 @@
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G11" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K11" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="P11" t="s">
         <v>17</v>
@@ -6830,34 +7621,34 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="P12" t="s">
         <v>17</v>
@@ -6913,34 +7704,34 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G13" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="K13" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="P13" t="s">
         <v>17</v>
@@ -6993,37 +7784,37 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G14" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="K14" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="P14" t="s">
         <v>17</v>
@@ -7076,37 +7867,37 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E15" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="G15" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="K15" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="P15" t="s">
         <v>17</v>
@@ -7159,37 +7950,37 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G16" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="I16" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="P16" t="s">
         <v>17</v>
@@ -7242,37 +8033,37 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E17" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="I17" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="P17" t="s">
         <v>17</v>
@@ -7328,40 +8119,40 @@
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E18" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G18" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="M18" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="P18" t="s">
         <v>20</v>
@@ -7417,40 +8208,40 @@
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G19" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="P19" t="s">
         <v>20</v>
@@ -7506,40 +8297,40 @@
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="G20" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="K20" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="M20" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="P20" t="s">
         <v>20</v>
@@ -7595,40 +8386,40 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E21" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G21" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K21" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="M21" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="P21" t="s">
         <v>20</v>
@@ -7681,43 +8472,43 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="E22" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="G22" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I22" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="M22" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="P22" t="s">
         <v>20</v>
@@ -7770,43 +8561,43 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="E23" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="G23" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I23" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="K23" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="M23" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="P23" t="s">
         <v>20</v>
@@ -7859,43 +8650,43 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E24" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="G24" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="I24" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="K24" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="M24" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="P24" t="s">
         <v>20</v>
@@ -7948,43 +8739,43 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E25" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="G25" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="I25" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="K25" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="P25" t="s">
         <v>20</v>
@@ -8040,46 +8831,46 @@
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E26" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G26" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I26" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K26" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O26" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="P26" t="s">
         <v>23</v>
@@ -8135,46 +8926,46 @@
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G27" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I27" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M27" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O27" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="P27" t="s">
         <v>23</v>
@@ -8230,46 +9021,46 @@
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E28" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="G28" t="s">
+        <v>255</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" t="s">
         <v>246</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I28" t="s">
-        <v>77</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K28" t="s">
-        <v>237</v>
-      </c>
       <c r="L28" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="M28" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O28" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="P28" t="s">
         <v>23</v>
@@ -8325,46 +9116,46 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E29" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G29" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I29" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="K29" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="M29" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="P29" t="s">
         <v>23</v>
@@ -8417,49 +9208,49 @@
     </row>
     <row r="30" ht="15" spans="1:31">
       <c r="A30" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E30" t="s">
+        <v>252</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" t="s">
         <v>255</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E30" t="s">
-        <v>243</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G30" t="s">
-        <v>246</v>
-      </c>
       <c r="H30" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="K30" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="M30" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O30" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="P30" t="s">
         <v>23</v>
@@ -8512,49 +9303,49 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="E31" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="G31" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I31" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="K31" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O31" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="P31" t="s">
         <v>23</v>
@@ -8607,49 +9398,49 @@
     </row>
     <row r="32" ht="15" spans="1:31">
       <c r="A32" s="1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E32" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="G32" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="I32" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="K32" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="M32" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="O32" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="P32" t="s">
         <v>23</v>
@@ -8702,49 +9493,49 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="E33" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="G33" t="s">
+        <v>255</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I33" t="s">
+        <v>249</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K33" t="s">
         <v>246</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="I33" t="s">
-        <v>240</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="K33" t="s">
-        <v>237</v>
-      </c>
       <c r="L33" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="M33" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="O33" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="P33" t="s">
         <v>23</v>
@@ -8800,46 +9591,46 @@
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E34" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G34" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K34" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M34" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O34" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="P34" t="s">
         <v>26</v>
@@ -8895,46 +9686,46 @@
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E35" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G35" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I35" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K35" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="M35" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O35" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="P35" t="s">
         <v>26</v>
@@ -8990,46 +9781,46 @@
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="E36" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G36" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K36" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M36" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O36" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="P36" t="s">
         <v>26</v>
@@ -9085,46 +9876,46 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G37" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I37" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="K37" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M37" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O37" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="P37" t="s">
         <v>26</v>
@@ -9177,49 +9968,49 @@
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E38" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G38" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I38" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K38" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M38" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O38" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="P38" t="s">
         <v>26</v>
@@ -9272,49 +10063,49 @@
     </row>
     <row r="39" spans="1:31">
       <c r="A39" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E39" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="G39" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I39" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="K39" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="M39" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="O39" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="P39" t="s">
         <v>26</v>
@@ -9367,49 +10158,49 @@
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E40" t="s">
         <v>257</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E40" t="s">
-        <v>248</v>
-      </c>
       <c r="F40" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="G40" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="I40" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K40" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="M40" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="O40" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="P40" t="s">
         <v>26</v>
@@ -9462,49 +10253,49 @@
     </row>
     <row r="41" spans="1:31">
       <c r="A41" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E41" t="s">
+        <v>257</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G41" t="s">
+        <v>260</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I41" t="s">
         <v>258</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E41" t="s">
-        <v>248</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="G41" t="s">
-        <v>251</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I41" t="s">
-        <v>249</v>
-      </c>
       <c r="J41" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="K41" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M41" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="O41" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="P41" t="s">
         <v>26</v>
@@ -9557,198 +10348,198 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="D47" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
@@ -3181,8 +3181,8 @@
   <sheetPr/>
   <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4052,7 +4052,6 @@
       <c r="I35">
         <v>2468</v>
       </c>
-      <c r="J35"/>
       <c r="M35" t="s">
         <v>71</v>
       </c>
@@ -4801,8 +4800,8 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="丹药" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">丹药!$A$1:$X$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">丹药!$A$1:$AA$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="350">
   <si>
     <t>圆满层数</t>
   </si>
@@ -243,6 +243,12 @@
   </si>
   <si>
     <t>hufu3</t>
+  </si>
+  <si>
+    <t>灵力密度</t>
+  </si>
+  <si>
+    <t>灵力消耗</t>
   </si>
   <si>
     <t>黑纹铁</t>
@@ -2504,7 +2510,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3179,10 +3185,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="D27" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4025,7 +4031,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="34" spans="16:17">
+      <c r="P34" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -4033,7 +4047,7 @@
         <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E35" t="str">
         <f>VLOOKUP(D35,A:B,2,0)</f>
@@ -4043,7 +4057,7 @@
         <v>1379</v>
       </c>
       <c r="G35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H35" t="str">
         <f>VLOOKUP(G35,A:B,2,0)</f>
@@ -4053,7 +4067,7 @@
         <v>2468</v>
       </c>
       <c r="M35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N35" t="str">
         <f>VLOOKUP(M35,A:B,2,0)</f>
@@ -4062,33 +4076,39 @@
       <c r="O35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="2:15">
+      <c r="P35">
+        <v>40</v>
+      </c>
+      <c r="Q35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17">
       <c r="B36" t="s">
         <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" ref="E36:E42" si="0">VLOOKUP(D36,A:B,2,0)</f>
         <v>xvantie1</v>
       </c>
       <c r="F36" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" ref="H36:H50" si="1">VLOOKUP(G36,A:B,2,0)</f>
         <v>lingjin1</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N36" t="str">
         <f t="shared" ref="N36:N50" si="2">VLOOKUP(M36,A:B,2,0)</f>
@@ -4097,33 +4117,39 @@
       <c r="O36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="2:15">
+      <c r="P36">
+        <v>55</v>
+      </c>
+      <c r="Q36">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17">
       <c r="B37" t="s">
         <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
         <v>xvantie2</v>
       </c>
       <c r="F37" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
         <v>lingjin2</v>
       </c>
       <c r="I37" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N37" t="str">
         <f t="shared" si="2"/>
@@ -4132,33 +4158,39 @@
       <c r="O37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="2:15">
+      <c r="P37">
+        <v>80</v>
+      </c>
+      <c r="Q37">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="2:17">
       <c r="B38" t="s">
         <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
         <v>xvantie3</v>
       </c>
       <c r="F38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="1"/>
         <v>lingjin3</v>
       </c>
       <c r="I38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M38" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N38" t="str">
         <f t="shared" si="2"/>
@@ -4167,8 +4199,14 @@
       <c r="O38">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38">
+        <v>120</v>
+      </c>
+      <c r="Q38">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -4176,7 +4214,7 @@
         <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
@@ -4186,7 +4224,7 @@
         <v>13</v>
       </c>
       <c r="G39" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="1"/>
@@ -4196,7 +4234,7 @@
         <v>79</v>
       </c>
       <c r="J39" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K39" t="str">
         <f>VLOOKUP(J39,A:B,2,0)</f>
@@ -4206,7 +4244,7 @@
         <v>2468</v>
       </c>
       <c r="M39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N39" t="str">
         <f t="shared" si="2"/>
@@ -4215,40 +4253,46 @@
       <c r="O39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="2:15">
+      <c r="P39">
+        <v>40</v>
+      </c>
+      <c r="Q39">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="2:17">
       <c r="B40" t="s">
         <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
         <v>xvantie1</v>
       </c>
       <c r="F40" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="1"/>
         <v>lingjin1</v>
       </c>
       <c r="I40" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K40" t="str">
         <f t="shared" ref="K40:K50" si="3">VLOOKUP(J40,A:B,2,0)</f>
         <v>lingyv1 </v>
       </c>
       <c r="M40" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N40" t="str">
         <f t="shared" si="2"/>
@@ -4257,40 +4301,46 @@
       <c r="O40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="2:15">
+      <c r="P40">
+        <v>55</v>
+      </c>
+      <c r="Q40">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17">
       <c r="B41" t="s">
         <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
         <v>xvantie2</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
         <v>lingjin2</v>
       </c>
       <c r="I41" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K41" t="str">
         <f t="shared" si="3"/>
         <v>lingyv2 </v>
       </c>
       <c r="M41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N41" t="str">
         <f t="shared" si="2"/>
@@ -4299,40 +4349,46 @@
       <c r="O41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:15">
+      <c r="P41">
+        <v>80</v>
+      </c>
+      <c r="Q41">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17">
       <c r="B42" t="s">
         <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
         <v>xvantie3</v>
       </c>
       <c r="F42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="1"/>
         <v>lingjin3</v>
       </c>
       <c r="I42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K42" t="str">
         <f t="shared" si="3"/>
         <v>lingyv3 </v>
       </c>
       <c r="M42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N42" t="str">
         <f t="shared" si="2"/>
@@ -4341,8 +4397,14 @@
       <c r="O42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="P42">
+        <v>120</v>
+      </c>
+      <c r="Q42">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
       <c r="A43" t="s">
         <v>59</v>
       </c>
@@ -4350,7 +4412,7 @@
         <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
@@ -4360,7 +4422,7 @@
         <v>1379</v>
       </c>
       <c r="J43" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="3"/>
@@ -4370,7 +4432,7 @@
         <v>2468</v>
       </c>
       <c r="M43" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="2"/>
@@ -4379,33 +4441,39 @@
       <c r="O43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:15">
+      <c r="P43">
+        <v>40</v>
+      </c>
+      <c r="Q43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17">
       <c r="B44" t="s">
         <v>61</v>
       </c>
       <c r="G44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="1"/>
         <v>lingjin1</v>
       </c>
       <c r="I44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="3"/>
         <v>lingyv1 </v>
       </c>
       <c r="L44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N44" t="str">
         <f t="shared" si="2"/>
@@ -4414,33 +4482,39 @@
       <c r="O44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:15">
+      <c r="P44">
+        <v>55</v>
+      </c>
+      <c r="Q44">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17">
       <c r="B45" t="s">
         <v>62</v>
       </c>
       <c r="G45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="1"/>
         <v>lingjin2</v>
       </c>
       <c r="I45" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="3"/>
         <v>lingyv2 </v>
       </c>
       <c r="L45" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N45" t="str">
         <f t="shared" si="2"/>
@@ -4449,33 +4523,39 @@
       <c r="O45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:15">
+      <c r="P45">
+        <v>80</v>
+      </c>
+      <c r="Q45">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17">
       <c r="B46" t="s">
         <v>63</v>
       </c>
       <c r="G46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="1"/>
         <v>lingjin3</v>
       </c>
       <c r="I46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="3"/>
         <v>lingyv3 </v>
       </c>
       <c r="L46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M46" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N46" t="str">
         <f t="shared" si="2"/>
@@ -4484,8 +4564,14 @@
       <c r="O46">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="P46">
+        <v>120</v>
+      </c>
+      <c r="Q46">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
       <c r="A47" t="s">
         <v>64</v>
       </c>
@@ -4493,7 +4579,7 @@
         <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="1"/>
@@ -4503,7 +4589,7 @@
         <v>1379</v>
       </c>
       <c r="J47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="3"/>
@@ -4513,7 +4599,7 @@
         <v>2468</v>
       </c>
       <c r="M47" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N47" t="str">
         <f t="shared" si="2"/>
@@ -4522,33 +4608,39 @@
       <c r="O47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:15">
+      <c r="P47">
+        <v>40</v>
+      </c>
+      <c r="Q47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17">
       <c r="B48" t="s">
         <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
         <v>lingjin1</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K48" t="str">
         <f t="shared" si="3"/>
         <v>lingmu1 </v>
       </c>
       <c r="L48" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M48" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="2"/>
@@ -4557,33 +4649,39 @@
       <c r="O48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="2:15">
+      <c r="P48">
+        <v>55</v>
+      </c>
+      <c r="Q48">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17">
       <c r="B49" t="s">
         <v>67</v>
       </c>
       <c r="G49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
         <v>lingjin2</v>
       </c>
       <c r="I49" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J49" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K49" t="str">
         <f t="shared" si="3"/>
         <v>lingmu2 </v>
       </c>
       <c r="L49" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N49" t="str">
         <f t="shared" si="2"/>
@@ -4592,33 +4690,39 @@
       <c r="O49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="2:15">
+      <c r="P49">
+        <v>80</v>
+      </c>
+      <c r="Q49">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17">
       <c r="B50" t="s">
         <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="1"/>
         <v>lingjin3</v>
       </c>
       <c r="I50" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J50" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K50" t="str">
         <f t="shared" si="3"/>
         <v>lingmu3 </v>
       </c>
       <c r="L50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N50" t="str">
         <f t="shared" si="2"/>
@@ -4627,165 +4731,171 @@
       <c r="O50">
         <v>5</v>
       </c>
+      <c r="P50">
+        <v>120</v>
+      </c>
+      <c r="Q50">
+        <v>480</v>
+      </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B73" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B74" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B76" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B77" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B78" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B79" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4800,7 +4910,7 @@
   <sheetPr/>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -4808,227 +4918,227 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5050,62 +5160,62 @@
   <sheetData>
     <row r="1" spans="4:19">
       <c r="D1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="R2" s="1">
         <v>30</v>
@@ -5116,47 +5226,47 @@
     </row>
     <row r="3" ht="18.75" spans="1:19">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="R3" s="1">
         <v>33</v>
@@ -5167,47 +5277,47 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P4" s="1">
         <v>2</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R4" s="1">
         <v>32</v>
@@ -5218,45 +5328,45 @@
     </row>
     <row r="5" ht="18.75" spans="1:19">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K5" s="3"/>
       <c r="M5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P5" s="1">
         <v>3</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="R5" s="1">
         <v>31</v>
@@ -5267,43 +5377,43 @@
     </row>
     <row r="6" ht="18.75" spans="1:19">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P6" s="1">
         <v>4</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="R6" s="1">
         <v>44</v>
@@ -5314,46 +5424,46 @@
     </row>
     <row r="7" ht="18.75" spans="1:19">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N7">
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P7" s="1">
         <v>5</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="R7" s="1">
         <v>39</v>
@@ -5364,44 +5474,44 @@
     </row>
     <row r="8" ht="18.75" spans="1:19">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N8">
         <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P8" s="1">
         <v>6</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="R8" s="1">
         <v>40</v>
@@ -5412,44 +5522,44 @@
     </row>
     <row r="9" ht="18.75" spans="1:19">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N9">
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P9" s="1">
         <v>7</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="R9" s="1">
         <v>42</v>
@@ -5460,44 +5570,44 @@
     </row>
     <row r="10" ht="18.75" spans="1:19">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N10">
         <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P10" s="1">
         <v>8</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="R10" s="1">
         <v>51</v>
@@ -5508,43 +5618,43 @@
     </row>
     <row r="11" ht="18.75" spans="1:19">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="G11" t="s">
-        <v>193</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>190</v>
-      </c>
       <c r="K11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N11">
         <v>9</v>
       </c>
       <c r="O11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P11" s="1">
         <v>9</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="R11" s="1">
         <v>55</v>
@@ -5555,44 +5665,44 @@
     </row>
     <row r="12" ht="18.75" spans="1:19">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K12" s="5"/>
       <c r="M12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N12">
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P12" s="1">
         <v>10</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="R12" s="1">
         <v>49</v>
@@ -5603,23 +5713,23 @@
     </row>
     <row r="13" spans="10:19">
       <c r="J13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" s="3"/>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="N13">
         <v>11</v>
       </c>
       <c r="O13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P13" s="1">
         <v>11</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="R13" s="1">
         <v>48</v>
@@ -5630,33 +5740,33 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D14" s="3"/>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="3"/>
       <c r="M14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N14">
         <v>12</v>
       </c>
       <c r="O14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P14" s="1">
         <v>12</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="R14" s="1">
         <v>74</v>
@@ -5667,32 +5777,32 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="M15" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N15">
         <v>13</v>
       </c>
       <c r="O15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P15" s="1">
         <v>13</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="R15" s="1">
         <v>65</v>
@@ -5703,30 +5813,30 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D16" s="3"/>
       <c r="K16" s="3"/>
       <c r="M16" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="N16">
         <v>14</v>
       </c>
       <c r="O16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P16" s="1">
         <v>14</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="R16" s="1">
         <v>69</v>
@@ -5737,32 +5847,32 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="M17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="N17">
         <v>15</v>
       </c>
       <c r="O17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P17" s="1">
         <v>15</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="R17" s="1">
         <v>70</v>
@@ -5779,19 +5889,19 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N18">
         <v>16</v>
       </c>
       <c r="O18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P18" s="1">
         <v>16</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="R18" s="1">
         <v>77</v>
@@ -5805,19 +5915,19 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="M19" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N19">
         <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="1">
         <v>17</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="R19" s="1">
         <v>79</v>
@@ -5830,19 +5940,19 @@
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
       <c r="M20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N20">
         <v>18</v>
       </c>
       <c r="O20" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P20" s="1">
         <v>18</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R20" s="1">
         <v>84</v>
@@ -5856,19 +5966,19 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="M21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="N21">
         <v>19</v>
       </c>
       <c r="O21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P21" s="1">
         <v>19</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="R21" s="1">
         <v>83</v>
@@ -5977,17 +6087,17 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -5995,15 +6105,15 @@
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="L1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="17" customHeight="1" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1">
         <v>30</v>
@@ -6012,31 +6122,31 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C3" s="1">
         <v>32</v>
@@ -6045,26 +6155,26 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1">
         <v>33</v>
@@ -6073,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -6082,18 +6192,18 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C5" s="1">
         <v>31</v>
@@ -6102,26 +6212,26 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C6" s="1">
         <v>44</v>
@@ -6130,28 +6240,28 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C7" s="1">
         <v>39</v>
@@ -6160,24 +6270,24 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="L7" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C8" s="1">
         <v>40</v>
@@ -6186,7 +6296,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -6195,18 +6305,18 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C9" s="1">
         <v>42</v>
@@ -6215,26 +6325,26 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C10" s="1">
         <v>51</v>
@@ -6243,34 +6353,34 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C11" s="1">
         <v>55</v>
@@ -6279,7 +6389,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -6288,21 +6398,21 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C12" s="1">
         <v>49</v>
@@ -6311,7 +6421,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -6320,21 +6430,21 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C13" s="1">
         <v>48</v>
@@ -6343,7 +6453,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -6352,21 +6462,21 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C14" s="1">
         <v>74</v>
@@ -6375,7 +6485,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -6384,21 +6494,21 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C15" s="1">
         <v>65</v>
@@ -6407,24 +6517,24 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C16" s="1">
         <v>69</v>
@@ -6433,27 +6543,27 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C17" s="1">
         <v>70</v>
@@ -6462,7 +6572,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="1"/>
@@ -6471,21 +6581,21 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:14">
       <c r="A18" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C18" s="1">
         <v>77</v>
@@ -6494,7 +6604,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -6503,15 +6613,15 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:14">
       <c r="A19" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C19" s="1">
         <v>79</v>
@@ -6520,7 +6630,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -6529,15 +6639,15 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="N19" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:14">
       <c r="A20" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C20" s="1">
         <v>84</v>
@@ -6546,7 +6656,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -6555,15 +6665,15 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="N20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C21" s="1">
         <v>83</v>
@@ -6572,172 +6682,172 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1"/>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:5">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:5">
       <c r="A27" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D27" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E27"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:5">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E28"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="1:5">
       <c r="A29" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E29"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="1:5">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E30"/>
     </row>
     <row r="31" s="1" customFormat="1" spans="1:5">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E31"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:5">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D32" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E32"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:5">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E33"/>
     </row>
@@ -6769,10 +6879,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE65"/>
+  <dimension ref="A1:AH65"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6780,108 +6890,111 @@
     <col min="1" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:31">
+    <row r="1" spans="4:34">
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P1" t="s">
-        <v>262</v>
+        <v>69</v>
       </c>
       <c r="Q1" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" t="s">
+        <v>264</v>
+      </c>
+      <c r="T1" t="s">
         <v>48</v>
       </c>
-      <c r="R1" t="s">
-        <v>263</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" t="s">
+        <v>265</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD1" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AE1" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>10</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>9</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AH1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:34">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
-      </c>
-      <c r="P2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P2">
+        <v>35</v>
+      </c>
+      <c r="Q2">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
         <v>3</v>
       </c>
-      <c r="S2">
+      <c r="V2">
         <v>1</v>
       </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
       <c r="W2">
         <v>0</v>
       </c>
@@ -6909,59 +7022,65 @@
       <c r="AE2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:31">
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
-      </c>
-      <c r="P3" t="s">
+        <v>97</v>
+      </c>
+      <c r="P3">
+        <v>35</v>
+      </c>
+      <c r="Q3">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
         <v>15</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
         <v>3</v>
       </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
         <v>5</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
       <c r="X3">
         <v>0</v>
       </c>
@@ -6986,62 +7105,68 @@
       <c r="AE3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="1:31">
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="15" spans="1:34">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" t="s">
+        <v>97</v>
+      </c>
+      <c r="P4">
+        <v>35</v>
+      </c>
+      <c r="Q4">
+        <v>30</v>
+      </c>
+      <c r="S4" t="s">
         <v>15</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
         <v>3</v>
       </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
         <v>1</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
       <c r="Y4">
         <v>0</v>
       </c>
@@ -7063,447 +7188,483 @@
       <c r="AE4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:31">
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="G5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5">
+        <v>35</v>
+      </c>
+      <c r="Q5">
+        <v>30</v>
+      </c>
+      <c r="S5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+      <c r="P6">
+        <v>35</v>
+      </c>
+      <c r="Q6">
+        <v>30</v>
+      </c>
+      <c r="S6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>-1</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>40</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7">
+        <v>35</v>
+      </c>
+      <c r="Q7">
+        <v>30</v>
+      </c>
+      <c r="S7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>3</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" t="s">
-        <v>95</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="F8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" t="s">
+        <v>223</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I8" t="s">
+        <v>220</v>
+      </c>
+      <c r="P8">
+        <v>20</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="S8" t="s">
         <v>15</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>5</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
-      <c r="A6" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>-1</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>20</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" t="s">
+        <v>225</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" t="s">
-        <v>95</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="I9" t="s">
+        <v>220</v>
+      </c>
+      <c r="P9">
+        <v>20</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
         <v>15</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>-1</v>
       </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>40</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
-      <c r="A7" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>3</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>5</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31">
-      <c r="A8" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" t="s">
-        <v>221</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I8" t="s">
-        <v>218</v>
-      </c>
-      <c r="P8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>-1</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
         <v>20</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31">
-      <c r="A9" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="G9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I9" t="s">
-        <v>218</v>
-      </c>
-      <c r="P9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>-1</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>20</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
       <c r="AD9">
         <v>0</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="15" spans="1:31">
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="15" spans="1:34">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G10" t="s">
+        <v>229</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" t="s">
         <v>227</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K10" t="s">
-        <v>225</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="P10">
+        <v>40</v>
+      </c>
+      <c r="Q10">
+        <v>60</v>
+      </c>
+      <c r="S10" t="s">
         <v>17</v>
       </c>
-      <c r="Q10">
+      <c r="T10">
         <v>1</v>
       </c>
-      <c r="R10">
+      <c r="U10">
         <v>3</v>
       </c>
-      <c r="S10">
+      <c r="V10">
         <v>3</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
       <c r="W10">
         <v>0</v>
       </c>
@@ -7531,65 +7692,71 @@
       <c r="AE10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K11" t="s">
-        <v>225</v>
-      </c>
-      <c r="P11" t="s">
+        <v>227</v>
+      </c>
+      <c r="P11">
+        <v>40</v>
+      </c>
+      <c r="Q11">
+        <v>60</v>
+      </c>
+      <c r="S11" t="s">
         <v>17</v>
       </c>
-      <c r="Q11">
+      <c r="T11">
         <v>1</v>
       </c>
-      <c r="R11">
+      <c r="U11">
         <v>3</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
         <v>10</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
       <c r="X11">
         <v>0</v>
       </c>
@@ -7614,55 +7781,61 @@
       <c r="AE11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G12" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>225</v>
-      </c>
-      <c r="P12" t="s">
+        <v>227</v>
+      </c>
+      <c r="P12">
+        <v>40</v>
+      </c>
+      <c r="Q12">
+        <v>60</v>
+      </c>
+      <c r="S12" t="s">
         <v>17</v>
       </c>
-      <c r="Q12">
+      <c r="T12">
         <v>1</v>
-      </c>
-      <c r="R12">
-        <v>3</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
       </c>
       <c r="U12">
         <v>3</v>
@@ -7674,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -7697,483 +7870,519 @@
       <c r="AE12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" ht="15" spans="1:31">
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="15" spans="1:34">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="G13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" t="s">
+        <v>232</v>
+      </c>
+      <c r="P13">
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <v>60</v>
+      </c>
+      <c r="S13" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>3</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>10</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" t="s">
+        <v>232</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K14" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14">
+        <v>40</v>
+      </c>
+      <c r="Q14">
+        <v>60</v>
+      </c>
+      <c r="S14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>-1</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>80</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="K15" t="s">
+        <v>234</v>
+      </c>
+      <c r="P15">
+        <v>40</v>
+      </c>
+      <c r="Q15">
+        <v>60</v>
+      </c>
+      <c r="S15" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>3</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>10</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" t="s">
         <v>227</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="F16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="P13" t="s">
+      <c r="I16" t="s">
+        <v>229</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" t="s">
+        <v>227</v>
+      </c>
+      <c r="P16">
+        <v>20</v>
+      </c>
+      <c r="Q16">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s">
         <v>17</v>
       </c>
-      <c r="Q13">
+      <c r="T16">
         <v>1</v>
       </c>
-      <c r="R13">
-        <v>3</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>10</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="U16">
+        <v>-1</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>80</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G17" t="s">
+        <v>234</v>
+      </c>
+      <c r="H17" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G14" t="s">
-        <v>232</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K14" t="s">
-        <v>230</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="I17" t="s">
+        <v>229</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>227</v>
+      </c>
+      <c r="P17">
+        <v>20</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s">
         <v>17</v>
       </c>
-      <c r="Q14">
+      <c r="T17">
         <v>1</v>
       </c>
-      <c r="R14">
+      <c r="U17">
         <v>-1</v>
       </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
         <v>80</v>
       </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" t="s">
-        <v>232</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G15" t="s">
-        <v>227</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="K15" t="s">
-        <v>232</v>
-      </c>
-      <c r="P15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>3</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>10</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E16" t="s">
-        <v>225</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G16" t="s">
-        <v>230</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I16" t="s">
-        <v>227</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K16" t="s">
-        <v>225</v>
-      </c>
-      <c r="P16" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <v>-1</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>80</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31">
-      <c r="A17" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E17" t="s">
-        <v>225</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17" t="s">
-        <v>232</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="I17" t="s">
-        <v>227</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K17" t="s">
-        <v>225</v>
-      </c>
-      <c r="P17" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>-1</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>80</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
       <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G18" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K18" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M18" t="s">
-        <v>238</v>
-      </c>
-      <c r="P18" t="s">
+        <v>240</v>
+      </c>
+      <c r="P18">
+        <v>55</v>
+      </c>
+      <c r="Q18">
+        <v>120</v>
+      </c>
+      <c r="S18" t="s">
         <v>20</v>
       </c>
-      <c r="Q18">
+      <c r="T18">
         <v>2</v>
       </c>
-      <c r="R18">
+      <c r="U18">
         <v>3</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>9</v>
       </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
       <c r="W18">
         <v>0</v>
       </c>
@@ -8201,71 +8410,77 @@
       <c r="AE18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M19" t="s">
-        <v>241</v>
-      </c>
-      <c r="P19" t="s">
+        <v>243</v>
+      </c>
+      <c r="P19">
+        <v>55</v>
+      </c>
+      <c r="Q19">
+        <v>120</v>
+      </c>
+      <c r="S19" t="s">
         <v>20</v>
       </c>
-      <c r="Q19">
+      <c r="T19">
         <v>2</v>
       </c>
-      <c r="R19">
+      <c r="U19">
         <v>3</v>
       </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
         <v>30</v>
       </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
       <c r="X19">
         <v>0</v>
       </c>
@@ -8290,74 +8505,80 @@
       <c r="AE19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:31">
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K20" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M20" t="s">
-        <v>243</v>
-      </c>
-      <c r="P20" t="s">
+        <v>245</v>
+      </c>
+      <c r="P20">
+        <v>55</v>
+      </c>
+      <c r="Q20">
+        <v>120</v>
+      </c>
+      <c r="S20" t="s">
         <v>20</v>
       </c>
-      <c r="Q20">
+      <c r="T20">
         <v>2</v>
       </c>
-      <c r="R20">
+      <c r="U20">
         <v>3</v>
       </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
         <v>9</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
       <c r="Y20">
         <v>0</v>
       </c>
@@ -8379,519 +8600,555 @@
       <c r="AE20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E21" t="s">
+        <v>243</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="G21" t="s">
+        <v>240</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>243</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M21" t="s">
+        <v>240</v>
+      </c>
+      <c r="P21">
+        <v>55</v>
+      </c>
+      <c r="Q21">
+        <v>120</v>
+      </c>
+      <c r="S21" t="s">
+        <v>20</v>
+      </c>
+      <c r="T21">
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <v>3</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>20</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E22" t="s">
+        <v>243</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I21" t="s">
-        <v>97</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="G22" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>243</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M22" t="s">
+        <v>245</v>
+      </c>
+      <c r="P22">
+        <v>55</v>
+      </c>
+      <c r="Q22">
+        <v>120</v>
+      </c>
+      <c r="S22" t="s">
+        <v>20</v>
+      </c>
+      <c r="T22">
+        <v>2</v>
+      </c>
+      <c r="U22">
+        <v>-1</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>160</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="E23" t="s">
+        <v>245</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="L21" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="G23" t="s">
+        <v>240</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="P21" t="s">
+      <c r="K23" t="s">
+        <v>245</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M23" t="s">
+        <v>240</v>
+      </c>
+      <c r="P23">
+        <v>55</v>
+      </c>
+      <c r="Q23">
+        <v>120</v>
+      </c>
+      <c r="S23" t="s">
         <v>20</v>
       </c>
-      <c r="Q21">
+      <c r="T23">
         <v>2</v>
       </c>
-      <c r="R21">
+      <c r="U23">
         <v>3</v>
       </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
         <v>20</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:31">
-      <c r="A22" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" t="s">
+        <v>237</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" t="s">
+        <v>243</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G22" t="s">
+      <c r="I24" t="s">
+        <v>240</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" t="s">
         <v>243</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I22" t="s">
-        <v>97</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="P24">
+        <v>20</v>
+      </c>
+      <c r="Q24">
+        <v>10</v>
+      </c>
+      <c r="S24" t="s">
+        <v>20</v>
+      </c>
+      <c r="T24">
+        <v>2</v>
+      </c>
+      <c r="U24">
+        <v>-1</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>240</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" t="s">
+        <v>237</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="L22" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="M22" t="s">
-        <v>243</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="I25" t="s">
+        <v>240</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" t="s">
+        <v>237</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" t="s">
+        <v>245</v>
+      </c>
+      <c r="P25">
         <v>20</v>
       </c>
-      <c r="Q22">
+      <c r="Q25">
+        <v>10</v>
+      </c>
+      <c r="S25" t="s">
+        <v>20</v>
+      </c>
+      <c r="T25">
         <v>2</v>
       </c>
-      <c r="R22">
+      <c r="U25">
         <v>-1</v>
       </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>160</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:31">
-      <c r="A23" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="E23" t="s">
-        <v>243</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G23" t="s">
-        <v>238</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I23" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="K23" t="s">
-        <v>243</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="M23" t="s">
-        <v>238</v>
-      </c>
-      <c r="P23" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q23">
-        <v>2</v>
-      </c>
-      <c r="R23">
-        <v>3</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>20</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31">
-      <c r="A24" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" t="s">
-        <v>235</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G24" t="s">
-        <v>241</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I24" t="s">
-        <v>238</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K24" t="s">
-        <v>235</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="M24" t="s">
-        <v>241</v>
-      </c>
-      <c r="P24" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
-      <c r="R24">
-        <v>-1</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <v>240</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31">
-      <c r="A25" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" t="s">
-        <v>235</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G25" t="s">
-        <v>243</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="I25" t="s">
-        <v>238</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="K25" t="s">
-        <v>235</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="M25" t="s">
-        <v>243</v>
-      </c>
-      <c r="P25" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25">
-        <v>2</v>
-      </c>
-      <c r="R25">
-        <v>-1</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>240</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
       <c r="AD25">
         <v>0</v>
       </c>
       <c r="AE25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" ht="15" spans="1:31">
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:34">
       <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I26" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K26" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O26" t="s">
-        <v>98</v>
-      </c>
-      <c r="P26" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26">
+        <v>120</v>
+      </c>
+      <c r="Q26">
+        <v>240</v>
+      </c>
+      <c r="S26" t="s">
         <v>23</v>
       </c>
-      <c r="Q26">
+      <c r="T26">
         <v>3</v>
       </c>
-      <c r="R26">
+      <c r="U26">
         <v>3</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>27</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
       <c r="W26">
         <v>0</v>
       </c>
@@ -8919,77 +9176,83 @@
       <c r="AE26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:31">
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I27" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K27" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M27" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O27" t="s">
-        <v>98</v>
-      </c>
-      <c r="P27" t="s">
+        <v>100</v>
+      </c>
+      <c r="P27">
+        <v>120</v>
+      </c>
+      <c r="Q27">
+        <v>240</v>
+      </c>
+      <c r="S27" t="s">
         <v>23</v>
       </c>
-      <c r="Q27">
+      <c r="T27">
         <v>3</v>
       </c>
-      <c r="R27">
+      <c r="U27">
         <v>3</v>
       </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
         <v>90</v>
       </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
       <c r="X27">
         <v>0</v>
       </c>
@@ -9014,80 +9277,86 @@
       <c r="AE27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E28" t="s">
+        <v>248</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="G28" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I28" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K28" t="s">
+        <v>248</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="M28" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O28" t="s">
-        <v>98</v>
-      </c>
-      <c r="P28" t="s">
+        <v>100</v>
+      </c>
+      <c r="P28">
+        <v>120</v>
+      </c>
+      <c r="Q28">
+        <v>240</v>
+      </c>
+      <c r="S28" t="s">
         <v>23</v>
       </c>
-      <c r="Q28">
+      <c r="T28">
         <v>3</v>
       </c>
-      <c r="R28">
+      <c r="U28">
         <v>3</v>
       </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
         <v>27</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
       <c r="Y28">
         <v>0</v>
       </c>
@@ -9109,83 +9378,89 @@
       <c r="AE28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E29" t="s">
+        <v>254</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="G29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K29" t="s">
+        <v>254</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="L29" s="1" t="s">
-        <v>250</v>
-      </c>
       <c r="M29" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O29" t="s">
-        <v>98</v>
-      </c>
-      <c r="P29" t="s">
+        <v>100</v>
+      </c>
+      <c r="P29">
+        <v>120</v>
+      </c>
+      <c r="Q29">
+        <v>240</v>
+      </c>
+      <c r="S29" t="s">
         <v>23</v>
       </c>
-      <c r="Q29">
+      <c r="T29">
         <v>3</v>
       </c>
-      <c r="R29">
+      <c r="U29">
         <v>3</v>
       </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
       <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
         <v>30</v>
       </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
       <c r="Z29">
         <v>0</v>
       </c>
@@ -9204,454 +9479,484 @@
       <c r="AE29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" ht="15" spans="1:31">
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:34">
       <c r="A30" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G30" t="s">
+        <v>257</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" t="s">
+        <v>100</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K30" t="s">
+        <v>254</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M30" t="s">
+        <v>257</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O30" t="s">
+        <v>100</v>
+      </c>
+      <c r="P30">
+        <v>120</v>
+      </c>
+      <c r="Q30">
+        <v>240</v>
+      </c>
+      <c r="S30" t="s">
+        <v>23</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>-1</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>320</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E31" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G30" t="s">
-        <v>255</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I30" t="s">
-        <v>98</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="G31" t="s">
+        <v>251</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K31" t="s">
+        <v>257</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M30" t="s">
-        <v>255</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O30" t="s">
-        <v>98</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="M31" t="s">
+        <v>251</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O31" t="s">
+        <v>100</v>
+      </c>
+      <c r="P31">
+        <v>120</v>
+      </c>
+      <c r="Q31">
+        <v>240</v>
+      </c>
+      <c r="S31" t="s">
         <v>23</v>
       </c>
-      <c r="Q30">
+      <c r="T31">
         <v>3</v>
       </c>
-      <c r="R30">
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>40</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="15" spans="1:34">
+      <c r="A32" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E32" t="s">
+        <v>248</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" t="s">
+        <v>254</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I32" t="s">
+        <v>251</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M32" t="s">
+        <v>254</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O32" t="s">
+        <v>251</v>
+      </c>
+      <c r="P32">
+        <v>20</v>
+      </c>
+      <c r="Q32">
+        <v>20</v>
+      </c>
+      <c r="S32" t="s">
+        <v>23</v>
+      </c>
+      <c r="T32">
+        <v>3</v>
+      </c>
+      <c r="U32">
         <v>-1</v>
       </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>320</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31">
-      <c r="A31" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E31" t="s">
-        <v>255</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="G31" t="s">
-        <v>249</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I31" t="s">
-        <v>98</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="K31" t="s">
-        <v>255</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="M31" t="s">
-        <v>249</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O31" t="s">
-        <v>98</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>720</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E33" t="s">
+        <v>248</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" t="s">
+        <v>257</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I33" t="s">
+        <v>251</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="K33" t="s">
+        <v>248</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="M33" t="s">
+        <v>257</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O33" t="s">
+        <v>251</v>
+      </c>
+      <c r="P33">
+        <v>20</v>
+      </c>
+      <c r="Q33">
+        <v>20</v>
+      </c>
+      <c r="S33" t="s">
         <v>23</v>
       </c>
-      <c r="Q31">
+      <c r="T33">
         <v>3</v>
       </c>
-      <c r="R31">
-        <v>3</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>40</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="15" spans="1:31">
-      <c r="A32" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E32" t="s">
-        <v>246</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="G32" t="s">
-        <v>252</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I32" t="s">
-        <v>249</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K32" t="s">
-        <v>246</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="M32" t="s">
-        <v>252</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="O32" t="s">
-        <v>249</v>
-      </c>
-      <c r="P32" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q32">
-        <v>3</v>
-      </c>
-      <c r="R32">
+      <c r="U33">
         <v>-1</v>
       </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
         <v>720</v>
       </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31">
-      <c r="A33" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E33" t="s">
-        <v>246</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G33" t="s">
-        <v>255</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="I33" t="s">
-        <v>249</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K33" t="s">
-        <v>246</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M33" t="s">
-        <v>255</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="O33" t="s">
-        <v>249</v>
-      </c>
-      <c r="P33" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q33">
-        <v>3</v>
-      </c>
-      <c r="R33">
-        <v>-1</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>0</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>720</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
       <c r="AD33">
         <v>0</v>
       </c>
       <c r="AE33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" ht="15" spans="1:31">
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="15" spans="1:34">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E34" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G34" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K34" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M34" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O34" t="s">
-        <v>98</v>
-      </c>
-      <c r="P34" t="s">
+        <v>100</v>
+      </c>
+      <c r="P34">
+        <v>160</v>
+      </c>
+      <c r="Q34">
+        <v>480</v>
+      </c>
+      <c r="S34" t="s">
         <v>26</v>
       </c>
-      <c r="Q34">
+      <c r="T34">
         <v>4</v>
       </c>
-      <c r="R34">
+      <c r="U34">
         <v>3</v>
       </c>
-      <c r="S34">
+      <c r="V34">
         <v>54</v>
       </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>0</v>
-      </c>
-      <c r="V34">
-        <v>0</v>
-      </c>
       <c r="W34">
         <v>0</v>
       </c>
@@ -9679,77 +9984,83 @@
       <c r="AE34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E35" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G35" t="s">
+        <v>261</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K35" t="s">
         <v>259</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I35" t="s">
-        <v>98</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K35" t="s">
-        <v>257</v>
-      </c>
       <c r="L35" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M35" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O35" t="s">
-        <v>98</v>
-      </c>
-      <c r="P35" t="s">
+        <v>100</v>
+      </c>
+      <c r="P35">
+        <v>160</v>
+      </c>
+      <c r="Q35">
+        <v>480</v>
+      </c>
+      <c r="S35" t="s">
         <v>26</v>
       </c>
-      <c r="Q35">
+      <c r="T35">
         <v>4</v>
       </c>
-      <c r="R35">
+      <c r="U35">
         <v>3</v>
       </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
         <v>150</v>
       </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
       <c r="X35">
         <v>0</v>
       </c>
@@ -9774,80 +10085,86 @@
       <c r="AE35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" ht="15" spans="1:31">
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" ht="15" spans="1:34">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G36" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K36" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M36" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O36" t="s">
-        <v>98</v>
-      </c>
-      <c r="P36" t="s">
+        <v>100</v>
+      </c>
+      <c r="P36">
+        <v>160</v>
+      </c>
+      <c r="Q36">
+        <v>480</v>
+      </c>
+      <c r="S36" t="s">
         <v>26</v>
       </c>
-      <c r="Q36">
+      <c r="T36">
         <v>4</v>
       </c>
-      <c r="R36">
+      <c r="U36">
         <v>3</v>
       </c>
-      <c r="S36">
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <v>0</v>
-      </c>
-      <c r="U36">
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
         <v>54</v>
       </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
       <c r="Y36">
         <v>0</v>
       </c>
@@ -9869,676 +10186,715 @@
       <c r="AE36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E37" t="s">
+        <v>261</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G37" t="s">
+        <v>260</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" t="s">
+        <v>100</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="K37" t="s">
+        <v>261</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M37" t="s">
+        <v>260</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O37" t="s">
+        <v>100</v>
+      </c>
+      <c r="P37">
+        <v>160</v>
+      </c>
+      <c r="Q37">
+        <v>480</v>
+      </c>
+      <c r="S37" t="s">
+        <v>26</v>
+      </c>
+      <c r="T37">
+        <v>4</v>
+      </c>
+      <c r="U37">
+        <v>3</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>40</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>0</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E38" t="s">
+        <v>262</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G38" t="s">
+        <v>262</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" t="s">
+        <v>100</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K38" t="s">
+        <v>262</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M38" t="s">
+        <v>262</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O38" t="s">
+        <v>100</v>
+      </c>
+      <c r="P38">
+        <v>160</v>
+      </c>
+      <c r="Q38">
+        <v>480</v>
+      </c>
+      <c r="S38" t="s">
+        <v>26</v>
+      </c>
+      <c r="T38">
+        <v>4</v>
+      </c>
+      <c r="U38">
+        <v>-1</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>640</v>
+      </c>
+      <c r="AA38">
+        <v>0</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" t="s">
+        <v>262</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G39" t="s">
+        <v>260</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" t="s">
+        <v>100</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="K39" t="s">
+        <v>262</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="M39" t="s">
+        <v>260</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O39" t="s">
+        <v>100</v>
+      </c>
+      <c r="P39">
+        <v>160</v>
+      </c>
+      <c r="Q39">
+        <v>480</v>
+      </c>
+      <c r="S39" t="s">
+        <v>26</v>
+      </c>
+      <c r="T39">
+        <v>4</v>
+      </c>
+      <c r="U39">
+        <v>3</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>80</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40" t="s">
         <v>259</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G37" t="s">
-        <v>258</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I37" t="s">
-        <v>98</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="F40" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G40" t="s">
+        <v>261</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I40" t="s">
+        <v>260</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K40" t="s">
         <v>259</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M37" t="s">
-        <v>258</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O37" t="s">
-        <v>98</v>
-      </c>
-      <c r="P37" t="s">
+      <c r="L40" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M40" t="s">
+        <v>261</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O40" t="s">
+        <v>260</v>
+      </c>
+      <c r="P40">
+        <v>20</v>
+      </c>
+      <c r="Q40">
+        <v>40</v>
+      </c>
+      <c r="S40" t="s">
         <v>26</v>
       </c>
-      <c r="Q37">
+      <c r="T40">
         <v>4</v>
       </c>
-      <c r="R37">
-        <v>3</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>0</v>
-      </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
+      <c r="U40">
+        <v>-1</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>1440</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E41" t="s">
+        <v>259</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G41" t="s">
+        <v>262</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="I41" t="s">
+        <v>260</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="K41" t="s">
+        <v>259</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M41" t="s">
+        <v>262</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O41" t="s">
+        <v>260</v>
+      </c>
+      <c r="P41">
+        <v>20</v>
+      </c>
+      <c r="Q41">
         <v>40</v>
       </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-      <c r="AB37">
-        <v>0</v>
-      </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31">
-      <c r="A38" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E38" t="s">
-        <v>260</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G38" t="s">
-        <v>260</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I38" t="s">
-        <v>98</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K38" t="s">
-        <v>260</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M38" t="s">
-        <v>260</v>
-      </c>
-      <c r="N38" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O38" t="s">
-        <v>98</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="S41" t="s">
         <v>26</v>
       </c>
-      <c r="Q38">
+      <c r="T41">
         <v>4</v>
       </c>
-      <c r="R38">
+      <c r="U41">
         <v>-1</v>
       </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <v>0</v>
-      </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
-      <c r="W38">
-        <v>640</v>
-      </c>
-      <c r="X38">
-        <v>0</v>
-      </c>
-      <c r="Y38">
-        <v>0</v>
-      </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-      <c r="AB38">
-        <v>0</v>
-      </c>
-      <c r="AC38">
-        <v>0</v>
-      </c>
-      <c r="AD38">
-        <v>0</v>
-      </c>
-      <c r="AE38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31">
-      <c r="A39" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E39" t="s">
-        <v>260</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G39" t="s">
-        <v>258</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I39" t="s">
-        <v>98</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="K39" t="s">
-        <v>260</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M39" t="s">
-        <v>258</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="O39" t="s">
-        <v>98</v>
-      </c>
-      <c r="P39" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q39">
-        <v>4</v>
-      </c>
-      <c r="R39">
-        <v>3</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>80</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:31">
-      <c r="A40" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E40" t="s">
-        <v>257</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="G40" t="s">
-        <v>259</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I40" t="s">
-        <v>258</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K40" t="s">
-        <v>257</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="M40" t="s">
-        <v>259</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O40" t="s">
-        <v>258</v>
-      </c>
-      <c r="P40" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q40">
-        <v>4</v>
-      </c>
-      <c r="R40">
-        <v>-1</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>0</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
         <v>1440</v>
       </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-      <c r="AB40">
-        <v>0</v>
-      </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31">
-      <c r="A41" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="E41" t="s">
-        <v>257</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G41" t="s">
-        <v>260</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I41" t="s">
-        <v>258</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="K41" t="s">
-        <v>257</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M41" t="s">
-        <v>260</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O41" t="s">
-        <v>258</v>
-      </c>
-      <c r="P41" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q41">
-        <v>4</v>
-      </c>
-      <c r="R41">
-        <v>-1</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>1440</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
       <c r="AD41">
         <v>0</v>
       </c>
       <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D47" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="群系1" sheetId="6" r:id="rId5"/>
     <sheet name="草药" sheetId="7" r:id="rId6"/>
     <sheet name="丹药" sheetId="9" r:id="rId7"/>
+    <sheet name="妖兽" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">丹药!$A$1:$AA$41</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="353">
   <si>
     <t>圆满层数</t>
   </si>
@@ -462,6 +463,9 @@
   </si>
   <si>
     <t>赤鳞水虺</t>
+  </si>
+  <si>
+    <t>chilingshuishe</t>
   </si>
   <si>
     <t>银月花</t>
@@ -1508,6 +1512,12 @@
   </si>
   <si>
     <t>danyao39</t>
+  </si>
+  <si>
+    <t>修为</t>
+  </si>
+  <si>
+    <t>增幅系数</t>
   </si>
 </sst>
 </file>
@@ -2172,17 +2182,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2509,8 +2519,8 @@
   <sheetPr/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2840,7 +2850,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="F1" sqref="F1:O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2902,7 +2912,7 @@
       <c r="A2" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C2">
@@ -2955,7 +2965,7 @@
       <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C3">
@@ -3067,7 +3077,7 @@
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C5">
@@ -3187,7 +3197,7 @@
   <sheetPr/>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="D27" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="D27" workbookViewId="0">
       <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
@@ -5153,7 +5163,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E12"/>
+      <selection activeCell="B2" sqref="B2:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5165,25 +5175,25 @@
       <c r="N1" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1" t="s">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" ht="25.5" spans="1:19">
       <c r="A2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D2" t="s">
@@ -5195,10 +5205,12 @@
       <c r="G2" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="J2" t="s">
         <v>89</v>
       </c>
@@ -5211,44 +5223,44 @@
       <c r="O2" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="R2" s="1">
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" s="3">
         <v>30</v>
       </c>
-      <c r="S2" s="1">
+      <c r="S2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="18.75" spans="1:19">
       <c r="A3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>132</v>
+      <c r="C3" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="G3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="H3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="2"/>
       <c r="J3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
         <v>93</v>
@@ -5262,42 +5274,42 @@
       <c r="O3" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="1">
+      <c r="P3" s="3">
         <v>1</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="R3" s="1">
+      <c r="Q3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="R3" s="3">
         <v>33</v>
       </c>
-      <c r="S3" s="1">
+      <c r="S3" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>140</v>
+      <c r="C4" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
-      </c>
-      <c r="H4" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="H4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" s="2"/>
       <c r="J4" t="s">
         <v>72</v>
       </c>
@@ -5313,46 +5325,46 @@
       <c r="O4" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="3">
         <v>2</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="R4" s="1">
+      <c r="Q4" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="R4" s="3">
         <v>32</v>
       </c>
-      <c r="S4" s="1">
+      <c r="S4" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:19">
       <c r="A5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="D5" t="s">
-        <v>149</v>
-      </c>
-      <c r="F5" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>151</v>
+      </c>
       <c r="G5" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="H5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I5" s="2"/>
       <c r="J5" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="2"/>
       <c r="M5" t="s">
         <v>88</v>
       </c>
@@ -5362,46 +5374,46 @@
       <c r="O5" t="s">
         <v>100</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="3">
         <v>3</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="R5" s="1">
+      <c r="Q5" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="R5" s="3">
         <v>31</v>
       </c>
-      <c r="S5" s="1">
+      <c r="S5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="18.75" spans="1:19">
       <c r="A6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="D6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F6" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="F6" s="4" t="s">
+        <v>158</v>
+      </c>
       <c r="G6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H6" s="4" t="s">
         <v>159</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="J6" t="s">
         <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N6">
         <v>4</v>
@@ -5409,40 +5421,40 @@
       <c r="O6" t="s">
         <v>101</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="3">
         <v>4</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="R6" s="1">
+      <c r="Q6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="R6" s="3">
         <v>44</v>
       </c>
-      <c r="S6" s="1">
+      <c r="S6" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="7" ht="18.75" spans="1:19">
       <c r="A7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C7" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="D7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="F7" s="4" t="s">
+        <v>165</v>
+      </c>
       <c r="G7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H7" s="1" t="s">
         <v>166</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="J7" t="s">
         <v>90</v>
@@ -5459,42 +5471,42 @@
       <c r="O7" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="3">
         <v>5</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="R7" s="1">
+      <c r="Q7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="R7" s="3">
         <v>39</v>
       </c>
-      <c r="S7" s="1">
+      <c r="S7" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="8" ht="18.75" spans="1:19">
       <c r="A8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="C8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F8" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="F8" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="G8" t="s">
-        <v>173</v>
-      </c>
-      <c r="H8" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="H8" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" s="2"/>
       <c r="J8" t="s">
         <v>79</v>
       </c>
@@ -5507,42 +5519,42 @@
       <c r="O8" t="s">
         <v>103</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="3">
         <v>6</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="R8" s="1">
+      <c r="Q8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="R8" s="3">
         <v>40</v>
       </c>
-      <c r="S8" s="1">
+      <c r="S8" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="9" ht="18.75" spans="1:19">
       <c r="A9" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C9" s="3" t="s">
         <v>177</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="D9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="F9" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="G9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="H9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="I9" s="2"/>
       <c r="J9" t="s">
         <v>91</v>
       </c>
@@ -5555,42 +5567,42 @@
       <c r="O9" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="3">
         <v>7</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="R9" s="1">
+      <c r="Q9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="R9" s="3">
         <v>42</v>
       </c>
-      <c r="S9" s="1">
+      <c r="S9" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="10" ht="18.75" spans="1:19">
       <c r="A10" t="s">
-        <v>183</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="3" t="s">
         <v>184</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="D10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="F10" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="G10" t="s">
-        <v>187</v>
-      </c>
-      <c r="H10" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="H10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I10" s="2"/>
       <c r="J10" t="s">
         <v>81</v>
       </c>
@@ -5603,40 +5615,40 @@
       <c r="O10" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="3">
         <v>8</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="R10" s="1">
+      <c r="Q10" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="R10" s="3">
         <v>51</v>
       </c>
-      <c r="S10" s="1">
+      <c r="S10" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="11" ht="18.75" spans="1:19">
       <c r="A11" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="D11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G11" t="s">
-        <v>195</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="K11" t="s">
         <v>96</v>
@@ -5650,40 +5662,40 @@
       <c r="O11" t="s">
         <v>106</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="3">
         <v>9</v>
       </c>
-      <c r="Q11" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="R11" s="1">
+      <c r="Q11" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="R11" s="3">
         <v>55</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S11" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="12" ht="18.75" spans="1:19">
       <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="D12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F12" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="F12" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="G12" t="s">
-        <v>202</v>
-      </c>
-      <c r="H12" s="3" t="s">
         <v>203</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="J12" t="s">
         <v>84</v>
@@ -5698,16 +5710,16 @@
       <c r="O12" t="s">
         <v>107</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="3">
         <v>10</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="R12" s="1">
+      <c r="Q12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="R12" s="3">
         <v>49</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S12" s="3">
         <v>3</v>
       </c>
     </row>
@@ -5715,7 +5727,7 @@
       <c r="J13" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="2"/>
       <c r="M13" t="s">
         <v>86</v>
       </c>
@@ -5725,34 +5737,34 @@
       <c r="O13" t="s">
         <v>108</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="3">
         <v>11</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="R13" s="1">
+      <c r="Q13" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="R13" s="3">
         <v>48</v>
       </c>
-      <c r="S13" s="1">
+      <c r="S13" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>183</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="2"/>
       <c r="J14" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="2"/>
       <c r="M14" t="s">
         <v>89</v>
       </c>
@@ -5762,33 +5774,33 @@
       <c r="O14" t="s">
         <v>109</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="3">
         <v>12</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="R14" s="1">
+      <c r="Q14" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="R14" s="3">
         <v>74</v>
       </c>
-      <c r="S14" s="1">
+      <c r="S14" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>197</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
       <c r="M15" t="s">
         <v>90</v>
       </c>
@@ -5798,31 +5810,31 @@
       <c r="O15" t="s">
         <v>110</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="3">
         <v>13</v>
       </c>
-      <c r="Q15" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="R15" s="1">
+      <c r="Q15" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="R15" s="3">
         <v>65</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S15" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="K16" s="2"/>
       <c r="M16" t="s">
         <v>91</v>
       </c>
@@ -5832,33 +5844,33 @@
       <c r="O16" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="3">
         <v>14</v>
       </c>
-      <c r="Q16" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="R16" s="1">
+      <c r="Q16" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="R16" s="3">
         <v>69</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S16" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
       <c r="M17" t="s">
         <v>92</v>
       </c>
@@ -5868,26 +5880,26 @@
       <c r="O17" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="3">
         <v>15</v>
       </c>
-      <c r="Q17" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R17" s="1">
+      <c r="Q17" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="R17" s="3">
         <v>70</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S17" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
       <c r="M18" t="s">
         <v>93</v>
       </c>
@@ -5897,23 +5909,23 @@
       <c r="O18" t="s">
         <v>113</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="3">
         <v>16</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="R18" s="1">
+      <c r="Q18" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="R18" s="3">
         <v>77</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S18" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="9:19">
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
       <c r="M19" t="s">
         <v>94</v>
       </c>
@@ -5923,22 +5935,22 @@
       <c r="O19" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="3">
         <v>17</v>
       </c>
-      <c r="Q19" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="R19" s="1">
+      <c r="Q19" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="R19" s="3">
         <v>79</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S19" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="9:19">
-      <c r="I20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="I20" s="2"/>
+      <c r="K20" s="2"/>
       <c r="M20" t="s">
         <v>95</v>
       </c>
@@ -5948,23 +5960,23 @@
       <c r="O20" t="s">
         <v>115</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="3">
         <v>18</v>
       </c>
-      <c r="Q20" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="R20" s="1">
+      <c r="Q20" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="R20" s="3">
         <v>84</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S20" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="9:19">
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
       <c r="M21" t="s">
         <v>96</v>
       </c>
@@ -5974,94 +5986,94 @@
       <c r="O21" t="s">
         <v>116</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="3">
         <v>19</v>
       </c>
-      <c r="Q21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="R21" s="1">
+      <c r="Q21" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="R21" s="3">
         <v>83</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S21" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="11:14">
-      <c r="K22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="K22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="11:14">
-      <c r="K23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="K23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="9:14">
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="9:14">
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" ht="14.25" spans="9:14">
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="M26" s="2"/>
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="9:11">
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" ht="14.25" spans="11:14">
-      <c r="K28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="K28" s="2"/>
+      <c r="M28" s="2"/>
       <c r="N28" s="6"/>
     </row>
     <row r="29" spans="9:11">
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" ht="14.25" spans="11:14">
-      <c r="K30" s="3"/>
-      <c r="M30" s="3"/>
+      <c r="K30" s="2"/>
+      <c r="M30" s="2"/>
       <c r="N30" s="6"/>
     </row>
     <row r="31" ht="14.25" spans="11:14">
-      <c r="K31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="K31" s="2"/>
+      <c r="M31" s="2"/>
       <c r="N31" s="6"/>
     </row>
     <row r="32" spans="9:10">
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
     <row r="34" spans="9:10">
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="9:10">
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
     </row>
     <row r="36" spans="9:10">
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
     </row>
     <row r="37" spans="9:10">
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6080,620 +6092,620 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
-    <col min="3" max="25" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
+    <col min="3" max="25" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:12">
+      <c r="A1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="L1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="1">
+    </row>
+    <row r="2" s="3" customFormat="1" ht="17" customHeight="1" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="3">
         <v>30</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="3">
         <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>123</v>
       </c>
       <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="G2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:13">
-      <c r="A3" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:13">
+      <c r="A3" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="3">
         <v>32</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
       <c r="H3" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:13">
-      <c r="A4" s="1" t="s">
+      <c r="L3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="1">
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="3">
         <v>33</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:13">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" s="1">
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="3">
         <v>31</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:13">
-      <c r="A6" s="1" t="s">
+      <c r="L5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="1">
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:13">
+      <c r="A6" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="3">
         <v>44</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="L6" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:13">
-      <c r="A7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:13">
+      <c r="A7" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="C7" s="1">
+      <c r="B7" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="3">
         <v>39</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="L7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:13">
-      <c r="A8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C8" s="1">
+    </row>
+    <row r="8" s="3" customFormat="1" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="3">
         <v>40</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:13">
-      <c r="A9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C9" s="1">
+    </row>
+    <row r="9" s="3" customFormat="1" spans="1:13">
+      <c r="A9" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="3">
         <v>42</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="M9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:14">
-      <c r="A10" s="1" t="s">
+      <c r="L9" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C10" s="1">
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:14">
+      <c r="A10" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="3">
         <v>51</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="3">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G10" t="s">
-        <v>183</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="M10" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
         <v>239</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>240</v>
       </c>
       <c r="N10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="1:14">
-      <c r="A11" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="11" s="3" customFormat="1" spans="1:14">
+      <c r="A11" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="C11" s="1">
+      <c r="B11" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C11" s="3">
         <v>55</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="3">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>161</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>242</v>
+        <v>162</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>243</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="1:14">
+      <c r="A12" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="3">
         <v>49</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="3">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>176</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="N12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:14">
+      <c r="A13" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="3">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="N13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:14">
+      <c r="A14" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="N12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:14">
-      <c r="A13" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C13" s="1">
-        <v>48</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="M13" s="1" t="s">
+      <c r="C14" s="3">
+        <v>74</v>
+      </c>
+      <c r="D14" s="3">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>191</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:14">
+      <c r="A15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C15" s="3">
+        <v>65</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>191</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="N15" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="1:14">
+      <c r="A16" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="3">
+        <v>69</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="N16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:14">
+      <c r="A17" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="N13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:14">
-      <c r="A14" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C14" s="1">
-        <v>74</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C17" s="3">
+        <v>70</v>
+      </c>
+      <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="M14" s="1" t="s">
+      <c r="E17" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="N17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:14">
+      <c r="A18" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="N14" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:14">
-      <c r="A15" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C15" s="1">
-        <v>65</v>
-      </c>
-      <c r="D15" s="1">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
-        <v>190</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="N15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:14">
-      <c r="A16" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C16" s="1">
-        <v>69</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>190</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="L16" s="1" t="s">
+      <c r="C18" s="3">
+        <v>77</v>
+      </c>
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+      <c r="E18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="N18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:14">
+      <c r="A19" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="N16" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:14">
-      <c r="A17" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" s="1">
-        <v>70</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>190</v>
-      </c>
-      <c r="F17"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1" t="s">
+      <c r="C19" s="3">
+        <v>79</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="N19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:14">
+      <c r="A20" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="N17" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:14">
-      <c r="A18" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C18" s="1">
-        <v>77</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C20" s="3">
+        <v>84</v>
+      </c>
+      <c r="D20" s="3">
         <v>5</v>
       </c>
-      <c r="E18" t="s">
-        <v>197</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="N18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:14">
-      <c r="A19" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C19" s="1">
-        <v>79</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="E20" t="s">
+        <v>198</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="N20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:5">
+      <c r="A21" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="3">
+        <v>83</v>
+      </c>
+      <c r="D21" s="3">
         <v>5</v>
       </c>
-      <c r="E19" t="s">
-        <v>197</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="N19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:14">
-      <c r="A20" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="1">
-        <v>84</v>
-      </c>
-      <c r="D20" s="1">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>197</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="N20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C21" s="1">
-        <v>83</v>
-      </c>
-      <c r="D21" s="1">
-        <v>5</v>
-      </c>
       <c r="E21" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1"/>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D23" t="s">
@@ -6701,175 +6713,175 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:5">
+    <row r="24" s="3" customFormat="1" spans="1:5">
       <c r="A24" t="s">
-        <v>131</v>
-      </c>
-      <c r="B24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>132</v>
+      <c r="C24" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:5">
+    <row r="25" s="3" customFormat="1" spans="1:5">
       <c r="A25" t="s">
-        <v>139</v>
-      </c>
-      <c r="B25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>140</v>
+      <c r="C25" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:5">
+    <row r="26" s="3" customFormat="1" spans="1:5">
       <c r="A26" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="C26" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="D26" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" s="1" customFormat="1" spans="1:5">
+    <row r="27" s="3" customFormat="1" spans="1:5">
       <c r="A27" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C27" s="3" t="s">
         <v>155</v>
       </c>
+      <c r="B27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:5">
+    <row r="28" s="3" customFormat="1" spans="1:5">
       <c r="A28" t="s">
-        <v>161</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C28" s="3" t="s">
         <v>162</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="D28" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:5">
+    <row r="29" s="3" customFormat="1" spans="1:5">
       <c r="A29" t="s">
-        <v>168</v>
-      </c>
-      <c r="B29" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="B29" s="2" t="s">
+        <v>170</v>
+      </c>
       <c r="C29" t="s">
+        <v>171</v>
+      </c>
+      <c r="D29" t="s">
+        <v>172</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="1:5">
+      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D29" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:5">
-      <c r="A30" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>177</v>
+      <c r="C30" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="D30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:5">
+    <row r="31" s="3" customFormat="1" spans="1:5">
       <c r="A31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C31" s="3" t="s">
         <v>184</v>
       </c>
+      <c r="B31" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="D31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:5">
+    <row r="32" s="3" customFormat="1" spans="1:5">
       <c r="A32" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>192</v>
       </c>
+      <c r="C32" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="D32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:5">
+    <row r="33" s="3" customFormat="1" spans="1:5">
       <c r="A33" t="s">
-        <v>197</v>
-      </c>
-      <c r="B33" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="C33" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="D33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" s="1" customFormat="1"/>
-    <row r="35" s="1" customFormat="1"/>
-    <row r="36" s="1" customFormat="1"/>
-    <row r="37" s="1" customFormat="1"/>
-    <row r="38" s="1" customFormat="1"/>
-    <row r="39" s="1" customFormat="1"/>
-    <row r="40" s="1" customFormat="1"/>
-    <row r="41" s="1" customFormat="1"/>
-    <row r="42" s="1" customFormat="1"/>
-    <row r="43" s="1" customFormat="1"/>
-    <row r="44" s="1" customFormat="1"/>
-    <row r="45" s="1" customFormat="1"/>
-    <row r="46" s="1" customFormat="1"/>
-    <row r="47" s="1" customFormat="1"/>
-    <row r="48" s="1" customFormat="1"/>
-    <row r="49" s="1" customFormat="1"/>
-    <row r="50" s="1" customFormat="1"/>
-    <row r="51" s="1" customFormat="1"/>
-    <row r="52" s="1" customFormat="1"/>
+    <row r="34" s="3" customFormat="1"/>
+    <row r="35" s="3" customFormat="1"/>
+    <row r="36" s="3" customFormat="1"/>
+    <row r="37" s="3" customFormat="1"/>
+    <row r="38" s="3" customFormat="1"/>
+    <row r="39" s="3" customFormat="1"/>
+    <row r="40" s="3" customFormat="1"/>
+    <row r="41" s="3" customFormat="1"/>
+    <row r="42" s="3" customFormat="1"/>
+    <row r="43" s="3" customFormat="1"/>
+    <row r="44" s="3" customFormat="1"/>
+    <row r="45" s="3" customFormat="1"/>
+    <row r="46" s="3" customFormat="1"/>
+    <row r="47" s="3" customFormat="1"/>
+    <row r="48" s="3" customFormat="1"/>
+    <row r="49" s="3" customFormat="1"/>
+    <row r="50" s="3" customFormat="1"/>
+    <row r="51" s="3" customFormat="1"/>
+    <row r="52" s="3" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6887,12 +6899,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="8" width="9" style="1"/>
+    <col min="1" max="8" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:34">
-      <c r="D1" s="1" t="s">
-        <v>263</v>
+      <c r="D1" s="3" t="s">
+        <v>264</v>
       </c>
       <c r="P1" t="s">
         <v>69</v>
@@ -6901,37 +6913,37 @@
         <v>70</v>
       </c>
       <c r="S1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="T1" t="s">
         <v>48</v>
       </c>
       <c r="U1" t="s">
-        <v>265</v>
-      </c>
-      <c r="V1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>269</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>270</v>
       </c>
       <c r="AD1" t="s">
         <v>6</v>
@@ -6950,28 +6962,28 @@
       </c>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>130</v>
+      <c r="C2" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G2" t="s">
         <v>221</v>
       </c>
-      <c r="G2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I2" t="s">
@@ -7033,28 +7045,28 @@
       </c>
     </row>
     <row r="3" spans="1:34">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>130</v>
+      <c r="C3" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>138</v>
+        <v>219</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="G3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I3" t="s">
@@ -7116,28 +7128,28 @@
       </c>
     </row>
     <row r="4" ht="15" spans="1:34">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>130</v>
+      <c r="C4" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>160</v>
+        <v>219</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="G4" t="s">
-        <v>225</v>
-      </c>
-      <c r="H4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I4" t="s">
@@ -7199,28 +7211,28 @@
       </c>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>138</v>
+      <c r="C5" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" t="s">
         <v>221</v>
       </c>
-      <c r="G5" t="s">
-        <v>220</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I5" t="s">
@@ -7282,28 +7294,28 @@
       </c>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="A6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>138</v>
+      <c r="C6" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>223</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>160</v>
+        <v>224</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="G6" t="s">
-        <v>225</v>
-      </c>
-      <c r="H6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I6" t="s">
@@ -7365,28 +7377,28 @@
       </c>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>160</v>
+      <c r="C7" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="G7" t="s">
         <v>221</v>
       </c>
-      <c r="G7" t="s">
-        <v>220</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="3" t="s">
         <v>73</v>
       </c>
       <c r="I7" t="s">
@@ -7448,32 +7460,32 @@
       </c>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>130</v>
+      <c r="C8" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>138</v>
+        <v>219</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>223</v>
-      </c>
-      <c r="H8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" t="s">
         <v>221</v>
-      </c>
-      <c r="I8" t="s">
-        <v>220</v>
       </c>
       <c r="P8">
         <v>20</v>
@@ -7531,32 +7543,32 @@
       </c>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>130</v>
+      <c r="C9" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>160</v>
+        <v>219</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="G9" t="s">
-        <v>225</v>
-      </c>
-      <c r="H9" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="I9" t="s">
         <v>221</v>
-      </c>
-      <c r="I9" t="s">
-        <v>220</v>
       </c>
       <c r="P9">
         <v>20</v>
@@ -7614,38 +7626,38 @@
       </c>
     </row>
     <row r="10" ht="15" spans="1:34">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>145</v>
+      <c r="C10" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="E10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" t="s">
         <v>230</v>
       </c>
-      <c r="G10" t="s">
-        <v>229</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I10" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>145</v>
+      <c r="J10" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="K10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P10">
         <v>40</v>
@@ -7703,38 +7715,38 @@
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>145</v>
+      <c r="C11" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>175</v>
+        <v>228</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="G11" t="s">
-        <v>232</v>
-      </c>
-      <c r="H11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I11" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>145</v>
+      <c r="J11" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="K11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P11">
         <v>40</v>
@@ -7792,38 +7804,38 @@
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>145</v>
+      <c r="C12" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="G12" t="s">
-        <v>234</v>
-      </c>
-      <c r="H12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I12" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>145</v>
+      <c r="J12" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P12">
         <v>40</v>
@@ -7881,38 +7893,38 @@
       </c>
     </row>
     <row r="13" ht="15" spans="1:34">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>175</v>
+      <c r="C13" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>232</v>
-      </c>
-      <c r="F13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" t="s">
         <v>230</v>
       </c>
-      <c r="G13" t="s">
-        <v>229</v>
-      </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I13" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>175</v>
+      <c r="J13" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="K13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P13">
         <v>40</v>
@@ -7970,38 +7982,38 @@
       </c>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="A14" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>175</v>
+      <c r="C14" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="E14" t="s">
-        <v>232</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>189</v>
+        <v>233</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="G14" t="s">
-        <v>234</v>
-      </c>
-      <c r="H14" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I14" t="s">
         <v>98</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>175</v>
+      <c r="J14" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="K14" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P14">
         <v>40</v>
@@ -8059,38 +8071,38 @@
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="A15" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="A15" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>189</v>
+      <c r="C15" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="E15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F15" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G15" t="s">
         <v>230</v>
       </c>
-      <c r="G15" t="s">
-        <v>229</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="3" t="s">
         <v>78</v>
       </c>
       <c r="I15" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>189</v>
+      <c r="J15" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="K15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P15">
         <v>40</v>
@@ -8148,38 +8160,38 @@
       </c>
     </row>
     <row r="16" spans="1:34">
-      <c r="A16" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="A16" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>145</v>
+      <c r="C16" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>175</v>
+        <v>228</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="G16" t="s">
-        <v>232</v>
-      </c>
-      <c r="H16" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I16" t="s">
         <v>230</v>
       </c>
-      <c r="I16" t="s">
-        <v>229</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>145</v>
+      <c r="J16" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="K16" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P16">
         <v>20</v>
@@ -8237,38 +8249,38 @@
       </c>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="A17" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>145</v>
+      <c r="C17" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>189</v>
+        <v>228</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>234</v>
-      </c>
-      <c r="H17" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="I17" t="s">
         <v>230</v>
       </c>
-      <c r="I17" t="s">
-        <v>229</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>145</v>
+      <c r="J17" s="3" t="s">
+        <v>146</v>
       </c>
       <c r="K17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P17">
         <v>20</v>
@@ -8326,44 +8338,44 @@
       </c>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>196</v>
+      <c r="C18" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E18" t="s">
-        <v>237</v>
-      </c>
-      <c r="F18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G18" t="s">
         <v>241</v>
       </c>
-      <c r="G18" t="s">
-        <v>240</v>
-      </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="3" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>196</v>
+      <c r="J18" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="K18" t="s">
-        <v>237</v>
-      </c>
-      <c r="L18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M18" t="s">
         <v>241</v>
-      </c>
-      <c r="M18" t="s">
-        <v>240</v>
       </c>
       <c r="P18">
         <v>55</v>
@@ -8421,44 +8433,44 @@
       </c>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>196</v>
+      <c r="C19" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E19" t="s">
-        <v>237</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>204</v>
+        <v>238</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="G19" t="s">
-        <v>243</v>
-      </c>
-      <c r="H19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
         <v>99</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>196</v>
+      <c r="J19" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>237</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>204</v>
+        <v>238</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="M19" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P19">
         <v>55</v>
@@ -8516,44 +8528,44 @@
       </c>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>196</v>
+      <c r="C20" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E20" t="s">
-        <v>237</v>
-      </c>
-      <c r="F20" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="F20" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="G20" t="s">
-        <v>245</v>
-      </c>
-      <c r="H20" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>83</v>
       </c>
       <c r="I20" t="s">
         <v>99</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>196</v>
+      <c r="J20" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="K20" t="s">
-        <v>237</v>
-      </c>
-      <c r="L20" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="L20" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="M20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P20">
         <v>55</v>
@@ -8611,44 +8623,44 @@
       </c>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>204</v>
+      <c r="C21" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="E21" t="s">
-        <v>243</v>
-      </c>
-      <c r="F21" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" t="s">
         <v>241</v>
       </c>
-      <c r="G21" t="s">
-        <v>240</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="3" t="s">
         <v>83</v>
       </c>
       <c r="I21" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>204</v>
+      <c r="J21" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="K21" t="s">
-        <v>243</v>
-      </c>
-      <c r="L21" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M21" t="s">
         <v>241</v>
-      </c>
-      <c r="M21" t="s">
-        <v>240</v>
       </c>
       <c r="P21">
         <v>55</v>
@@ -8706,44 +8718,44 @@
       </c>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="A22" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>204</v>
+      <c r="C22" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="E22" t="s">
-        <v>243</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="G22" t="s">
-        <v>245</v>
-      </c>
-      <c r="H22" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>83</v>
       </c>
       <c r="I22" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>204</v>
+      <c r="J22" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="K22" t="s">
-        <v>243</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>238</v>
+        <v>244</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="M22" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P22">
         <v>55</v>
@@ -8801,44 +8813,44 @@
       </c>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="A23" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>238</v>
+      <c r="C23" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="E23" t="s">
-        <v>245</v>
-      </c>
-      <c r="F23" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G23" t="s">
         <v>241</v>
       </c>
-      <c r="G23" t="s">
-        <v>240</v>
-      </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="3" t="s">
         <v>83</v>
       </c>
       <c r="I23" t="s">
         <v>99</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>238</v>
+      <c r="J23" s="3" t="s">
+        <v>239</v>
       </c>
       <c r="K23" t="s">
-        <v>245</v>
-      </c>
-      <c r="L23" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M23" t="s">
         <v>241</v>
-      </c>
-      <c r="M23" t="s">
-        <v>240</v>
       </c>
       <c r="P23">
         <v>55</v>
@@ -8896,44 +8908,44 @@
       </c>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="A24" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>196</v>
+      <c r="C24" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E24" t="s">
-        <v>237</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>204</v>
+        <v>238</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="G24" t="s">
-        <v>243</v>
-      </c>
-      <c r="H24" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I24" t="s">
         <v>241</v>
       </c>
-      <c r="I24" t="s">
-        <v>240</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>196</v>
+      <c r="J24" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="K24" t="s">
-        <v>237</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>204</v>
+        <v>238</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="M24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P24">
         <v>20</v>
@@ -8991,44 +9003,44 @@
       </c>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="A25" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>196</v>
+      <c r="C25" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E25" t="s">
-        <v>237</v>
-      </c>
-      <c r="F25" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="F25" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="G25" t="s">
-        <v>245</v>
-      </c>
-      <c r="H25" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="I25" t="s">
         <v>241</v>
       </c>
-      <c r="I25" t="s">
-        <v>240</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>196</v>
+      <c r="J25" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="K25" t="s">
-        <v>237</v>
-      </c>
-      <c r="L25" s="1" t="s">
         <v>238</v>
       </c>
+      <c r="L25" s="3" t="s">
+        <v>239</v>
+      </c>
       <c r="M25" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P25">
         <v>20</v>
@@ -9086,46 +9098,46 @@
       </c>
     </row>
     <row r="26" ht="15" spans="1:34">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>207</v>
+      <c r="C26" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="E26" t="s">
-        <v>248</v>
-      </c>
-      <c r="F26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
         <v>252</v>
       </c>
-      <c r="G26" t="s">
-        <v>251</v>
-      </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I26" t="s">
         <v>100</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>207</v>
+      <c r="J26" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="K26" t="s">
-        <v>248</v>
-      </c>
-      <c r="L26" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" t="s">
         <v>252</v>
       </c>
-      <c r="M26" t="s">
-        <v>251</v>
-      </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="3" t="s">
         <v>88</v>
       </c>
       <c r="O26" t="s">
@@ -9187,46 +9199,46 @@
       </c>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>207</v>
+      <c r="C27" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="E27" t="s">
-        <v>248</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>208</v>
+        <v>249</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="G27" t="s">
-        <v>254</v>
-      </c>
-      <c r="H27" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="H27" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I27" t="s">
         <v>100</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>207</v>
+      <c r="J27" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="K27" t="s">
-        <v>248</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>208</v>
+        <v>249</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="M27" t="s">
-        <v>254</v>
-      </c>
-      <c r="N27" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>88</v>
       </c>
       <c r="O27" t="s">
@@ -9288,46 +9300,46 @@
       </c>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>207</v>
+      <c r="C28" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="E28" t="s">
-        <v>248</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="G28" t="s">
-        <v>257</v>
-      </c>
-      <c r="H28" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I28" t="s">
         <v>100</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>207</v>
+      <c r="J28" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="K28" t="s">
-        <v>248</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="M28" t="s">
-        <v>257</v>
-      </c>
-      <c r="N28" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>88</v>
       </c>
       <c r="O28" t="s">
@@ -9389,46 +9401,46 @@
       </c>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>208</v>
+      <c r="C29" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="E29" t="s">
-        <v>254</v>
-      </c>
-      <c r="F29" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G29" t="s">
         <v>252</v>
       </c>
-      <c r="G29" t="s">
-        <v>251</v>
-      </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I29" t="s">
         <v>100</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>208</v>
+      <c r="J29" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="K29" t="s">
-        <v>254</v>
-      </c>
-      <c r="L29" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="s">
         <v>252</v>
       </c>
-      <c r="M29" t="s">
-        <v>251</v>
-      </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="3" t="s">
         <v>88</v>
       </c>
       <c r="O29" t="s">
@@ -9490,46 +9502,46 @@
       </c>
     </row>
     <row r="30" ht="15" spans="1:34">
-      <c r="A30" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="A30" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>208</v>
+      <c r="C30" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="E30" t="s">
-        <v>254</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="G30" t="s">
-        <v>257</v>
-      </c>
-      <c r="H30" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I30" t="s">
         <v>100</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>208</v>
+      <c r="J30" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="K30" t="s">
-        <v>254</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="M30" t="s">
-        <v>257</v>
-      </c>
-      <c r="N30" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>88</v>
       </c>
       <c r="O30" t="s">
@@ -9591,46 +9603,46 @@
       </c>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="A31" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>246</v>
+      <c r="C31" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="E31" t="s">
-        <v>257</v>
-      </c>
-      <c r="F31" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G31" t="s">
         <v>252</v>
       </c>
-      <c r="G31" t="s">
-        <v>251</v>
-      </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I31" t="s">
         <v>100</v>
       </c>
-      <c r="J31" s="1" t="s">
-        <v>246</v>
+      <c r="J31" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
-      </c>
-      <c r="L31" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="M31" t="s">
         <v>252</v>
       </c>
-      <c r="M31" t="s">
-        <v>251</v>
-      </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="3" t="s">
         <v>88</v>
       </c>
       <c r="O31" t="s">
@@ -9692,50 +9704,50 @@
       </c>
     </row>
     <row r="32" ht="15" spans="1:34">
-      <c r="A32" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="A32" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>207</v>
+      <c r="C32" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="E32" t="s">
-        <v>248</v>
-      </c>
-      <c r="F32" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" t="s">
+        <v>255</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I32" t="s">
+        <v>252</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="G32" t="s">
-        <v>254</v>
-      </c>
-      <c r="H32" s="1" t="s">
+      <c r="K32" t="s">
+        <v>249</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="M32" t="s">
+        <v>255</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O32" t="s">
         <v>252</v>
-      </c>
-      <c r="I32" t="s">
-        <v>251</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="K32" t="s">
-        <v>248</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="M32" t="s">
-        <v>254</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="O32" t="s">
-        <v>251</v>
       </c>
       <c r="P32">
         <v>20</v>
@@ -9793,50 +9805,50 @@
       </c>
     </row>
     <row r="33" spans="1:34">
-      <c r="A33" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="A33" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>207</v>
+      <c r="C33" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="E33" t="s">
-        <v>248</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="G33" t="s">
-        <v>257</v>
-      </c>
-      <c r="H33" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="I33" t="s">
         <v>252</v>
       </c>
-      <c r="I33" t="s">
-        <v>251</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>207</v>
+      <c r="J33" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="K33" t="s">
-        <v>248</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="M33" t="s">
-        <v>257</v>
-      </c>
-      <c r="N33" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="O33" t="s">
         <v>252</v>
-      </c>
-      <c r="O33" t="s">
-        <v>251</v>
       </c>
       <c r="P33">
         <v>20</v>
@@ -9894,46 +9906,46 @@
       </c>
     </row>
     <row r="34" ht="15" spans="1:34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>249</v>
+      <c r="C34" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="E34" t="s">
-        <v>259</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>213</v>
+        <v>260</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="G34" t="s">
-        <v>260</v>
-      </c>
-      <c r="H34" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I34" t="s">
         <v>100</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>249</v>
+      <c r="J34" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="K34" t="s">
-        <v>259</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>213</v>
+        <v>260</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="M34" t="s">
-        <v>260</v>
-      </c>
-      <c r="N34" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N34" s="3" t="s">
         <v>88</v>
       </c>
       <c r="O34" t="s">
@@ -9995,46 +10007,46 @@
       </c>
     </row>
     <row r="35" spans="1:34">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>249</v>
+      <c r="C35" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="E35" t="s">
-        <v>259</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>214</v>
+        <v>260</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="G35" t="s">
-        <v>261</v>
-      </c>
-      <c r="H35" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I35" t="s">
         <v>100</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>249</v>
+      <c r="J35" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="K35" t="s">
-        <v>259</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>214</v>
+        <v>260</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="M35" t="s">
-        <v>261</v>
-      </c>
-      <c r="N35" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="N35" s="3" t="s">
         <v>88</v>
       </c>
       <c r="O35" t="s">
@@ -10096,46 +10108,46 @@
       </c>
     </row>
     <row r="36" ht="15" spans="1:34">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>249</v>
+      <c r="C36" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="E36" t="s">
-        <v>259</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>215</v>
+        <v>260</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
-      </c>
-      <c r="H36" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I36" t="s">
         <v>100</v>
       </c>
-      <c r="J36" s="1" t="s">
-        <v>249</v>
+      <c r="J36" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="K36" t="s">
-        <v>259</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>215</v>
+        <v>260</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="M36" t="s">
-        <v>262</v>
-      </c>
-      <c r="N36" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N36" s="3" t="s">
         <v>88</v>
       </c>
       <c r="O36" t="s">
@@ -10197,46 +10209,46 @@
       </c>
     </row>
     <row r="37" spans="1:34">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="C37" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" t="s">
+        <v>262</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>261</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="G37" t="s">
-        <v>260</v>
-      </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I37" t="s">
         <v>100</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="K37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="K37" t="s">
+      <c r="M37" t="s">
         <v>261</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="M37" t="s">
-        <v>260</v>
-      </c>
-      <c r="N37" s="1" t="s">
+      <c r="N37" s="3" t="s">
         <v>88</v>
       </c>
       <c r="O37" t="s">
@@ -10298,46 +10310,46 @@
       </c>
     </row>
     <row r="38" spans="1:34">
-      <c r="A38" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="A38" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>215</v>
+      <c r="C38" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="E38" t="s">
-        <v>262</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>215</v>
+        <v>263</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="G38" t="s">
-        <v>262</v>
-      </c>
-      <c r="H38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I38" t="s">
         <v>100</v>
       </c>
-      <c r="J38" s="1" t="s">
-        <v>215</v>
+      <c r="J38" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="K38" t="s">
-        <v>262</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>215</v>
+        <v>263</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="M38" t="s">
-        <v>262</v>
-      </c>
-      <c r="N38" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>88</v>
       </c>
       <c r="O38" t="s">
@@ -10399,46 +10411,46 @@
       </c>
     </row>
     <row r="39" spans="1:34">
-      <c r="A39" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="A39" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>215</v>
+      <c r="C39" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="E39" t="s">
-        <v>262</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>213</v>
+        <v>263</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="G39" t="s">
-        <v>260</v>
-      </c>
-      <c r="H39" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>88</v>
       </c>
       <c r="I39" t="s">
         <v>100</v>
       </c>
-      <c r="J39" s="1" t="s">
-        <v>215</v>
+      <c r="J39" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="K39" t="s">
-        <v>262</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>213</v>
+        <v>263</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="M39" t="s">
-        <v>260</v>
-      </c>
-      <c r="N39" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="N39" s="3" t="s">
         <v>88</v>
       </c>
       <c r="O39" t="s">
@@ -10500,50 +10512,50 @@
       </c>
     </row>
     <row r="40" spans="1:34">
-      <c r="A40" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="A40" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>249</v>
+      <c r="C40" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="E40" t="s">
-        <v>259</v>
-      </c>
-      <c r="F40" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G40" t="s">
+        <v>262</v>
+      </c>
+      <c r="H40" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
         <v>261</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="J40" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K40" t="s">
         <v>260</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="K40" t="s">
-        <v>259</v>
-      </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M40" t="s">
+        <v>262</v>
+      </c>
+      <c r="N40" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="M40" t="s">
+      <c r="O40" t="s">
         <v>261</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O40" t="s">
-        <v>260</v>
       </c>
       <c r="P40">
         <v>20</v>
@@ -10601,50 +10613,50 @@
       </c>
     </row>
     <row r="41" spans="1:34">
-      <c r="A41" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="A41" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>249</v>
+      <c r="C41" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="E41" t="s">
-        <v>259</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>215</v>
+        <v>260</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="G41" t="s">
-        <v>262</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>213</v>
+        <v>263</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="I41" t="s">
+        <v>261</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="K41" t="s">
         <v>260</v>
       </c>
-      <c r="J41" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="K41" t="s">
-        <v>259</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>215</v>
+      <c r="L41" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="M41" t="s">
-        <v>262</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>213</v>
+        <v>263</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="O41" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P41">
         <v>20</v>
@@ -10702,11 +10714,11 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>218</v>
+      <c r="A46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D46" t="s">
         <v>73</v>
@@ -10719,11 +10731,11 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>220</v>
       </c>
       <c r="D47" t="s">
         <v>78</v>
@@ -10736,11 +10748,11 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>223</v>
+      <c r="A48" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="D48" t="s">
         <v>83</v>
@@ -10753,11 +10765,11 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>225</v>
+      <c r="A49" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="D49" t="s">
         <v>88</v>
@@ -10770,131 +10782,316 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="5:16">
+      <c r="E1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" spans="1:4">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="1" t="s">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="1" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1" t="s">
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>196</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>262</v>
+      <c r="D12" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="363">
   <si>
     <t>圆满层数</t>
   </si>
@@ -1518,6 +1518,36 @@
   </si>
   <si>
     <t>增幅系数</t>
+  </si>
+  <si>
+    <t>huanlinghu</t>
+  </si>
+  <si>
+    <t>xueyichanglang</t>
+  </si>
+  <si>
+    <t>youmingguishou</t>
+  </si>
+  <si>
+    <t>shayingmoxie</t>
+  </si>
+  <si>
+    <t>huanduzhu</t>
+  </si>
+  <si>
+    <t>zuoying</t>
+  </si>
+  <si>
+    <t>huoqiling</t>
+  </si>
+  <si>
+    <t>xvanbingjvxiong</t>
+  </si>
+  <si>
+    <t>bingfenghuang</t>
+  </si>
+  <si>
+    <t>kunpeng</t>
   </si>
 </sst>
 </file>
@@ -2519,8 +2549,8 @@
   <sheetPr/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -10920,8 +10950,8 @@
   <sheetPr/>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10978,26 +11008,30 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="25.5" spans="1:4">
       <c r="A3" t="s">
         <v>136</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" ht="25.5" spans="1:4">
       <c r="A4" t="s">
         <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>124</v>
       </c>
@@ -11009,17 +11043,22 @@
       <c r="B5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" t="s">
+        <v>355</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="25.5" spans="1:4">
       <c r="A6" t="s">
         <v>159</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>160</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>148</v>
@@ -11032,6 +11071,9 @@
       <c r="B7" s="3" t="s">
         <v>167</v>
       </c>
+      <c r="C7" t="s">
+        <v>357</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>148</v>
       </c>
@@ -11043,7 +11085,9 @@
       <c r="B8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>358</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>170</v>
       </c>
@@ -11055,19 +11099,23 @@
       <c r="B9" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="25.5" spans="1:4">
       <c r="A10" t="s">
         <v>188</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>170</v>
       </c>
@@ -11079,6 +11127,9 @@
       <c r="B11" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="C11" t="s">
+        <v>361</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>192</v>
       </c>
@@ -11089,6 +11140,9 @@
       </c>
       <c r="B12" s="2" t="s">
         <v>204</v>
+      </c>
+      <c r="C12" t="s">
+        <v>362</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>199</v>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="363">
   <si>
     <t>圆满层数</t>
   </si>
@@ -2208,15 +2208,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -2550,7 +2556,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -2595,10 +2601,10 @@
       <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="Q1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2928,13 +2934,13 @@
       <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R1" s="7" t="s">
+      <c r="R1" s="9" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5205,14 +5211,14 @@
       <c r="N1" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3" t="s">
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="5" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5220,10 +5226,10 @@
       <c r="A2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D2" t="s">
@@ -5238,7 +5244,7 @@
       <c r="H2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>130</v>
       </c>
       <c r="J2" t="s">
@@ -5253,16 +5259,16 @@
       <c r="O2" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3" t="s">
+      <c r="P2" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="5">
         <v>30</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5270,16 +5276,16 @@
       <c r="A3" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D3" t="s">
         <v>134</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>135</v>
       </c>
       <c r="G3" t="s">
@@ -5288,7 +5294,7 @@
       <c r="H3" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="3"/>
       <c r="J3" t="s">
         <v>138</v>
       </c>
@@ -5304,16 +5310,16 @@
       <c r="O3" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="5">
         <v>1</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="5">
         <v>33</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5321,10 +5327,10 @@
       <c r="A4" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D4" t="s">
@@ -5339,7 +5345,7 @@
       <c r="H4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="3"/>
       <c r="J4" t="s">
         <v>72</v>
       </c>
@@ -5355,16 +5361,16 @@
       <c r="O4" t="s">
         <v>99</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="5">
         <v>2</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="5">
         <v>32</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5372,16 +5378,16 @@
       <c r="A5" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D5" t="s">
         <v>150</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>151</v>
       </c>
       <c r="G5" t="s">
@@ -5390,11 +5396,11 @@
       <c r="H5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="3"/>
       <c r="J5" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="3"/>
       <c r="M5" t="s">
         <v>88</v>
       </c>
@@ -5404,16 +5410,16 @@
       <c r="O5" t="s">
         <v>100</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="5">
         <v>3</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="5">
         <v>31</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="5">
         <v>1</v>
       </c>
     </row>
@@ -5421,16 +5427,16 @@
       <c r="A6" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D6" t="s">
         <v>157</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="6" t="s">
         <v>158</v>
       </c>
       <c r="G6" t="s">
@@ -5451,16 +5457,16 @@
       <c r="O6" t="s">
         <v>101</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="5">
         <v>4</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="5">
         <v>44</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5468,22 +5474,22 @@
       <c r="A7" t="s">
         <v>162</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>163</v>
       </c>
       <c r="D7" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="6" t="s">
         <v>165</v>
       </c>
       <c r="G7" t="s">
         <v>166</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>167</v>
       </c>
       <c r="J7" t="s">
@@ -5501,16 +5507,16 @@
       <c r="O7" t="s">
         <v>102</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="5">
         <v>5</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="5">
         <v>39</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5518,7 +5524,7 @@
       <c r="A8" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C8" t="s">
@@ -5527,7 +5533,7 @@
       <c r="D8" t="s">
         <v>172</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>173</v>
       </c>
       <c r="G8" t="s">
@@ -5536,7 +5542,7 @@
       <c r="H8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="I8" s="2"/>
+      <c r="I8" s="3"/>
       <c r="J8" t="s">
         <v>79</v>
       </c>
@@ -5549,16 +5555,16 @@
       <c r="O8" t="s">
         <v>103</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="5">
         <v>6</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="Q8" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="5">
         <v>40</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5566,25 +5572,25 @@
       <c r="A9" t="s">
         <v>177</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>178</v>
       </c>
       <c r="D9" t="s">
         <v>179</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="6" t="s">
         <v>180</v>
       </c>
       <c r="G9" t="s">
         <v>181</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="3"/>
       <c r="J9" t="s">
         <v>91</v>
       </c>
@@ -5597,16 +5603,16 @@
       <c r="O9" t="s">
         <v>104</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="5">
         <v>7</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="5">
         <v>42</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="5">
         <v>2</v>
       </c>
     </row>
@@ -5614,16 +5620,16 @@
       <c r="A10" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>185</v>
       </c>
       <c r="D10" t="s">
         <v>186</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="6" t="s">
         <v>187</v>
       </c>
       <c r="G10" t="s">
@@ -5632,7 +5638,7 @@
       <c r="H10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="I10" s="2"/>
+      <c r="I10" s="3"/>
       <c r="J10" t="s">
         <v>81</v>
       </c>
@@ -5645,16 +5651,16 @@
       <c r="O10" t="s">
         <v>105</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="5">
         <v>8</v>
       </c>
-      <c r="Q10" s="3" t="s">
+      <c r="Q10" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="5">
         <v>51</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5662,22 +5668,22 @@
       <c r="A11" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D11" t="s">
         <v>194</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="6" t="s">
         <v>195</v>
       </c>
       <c r="G11" t="s">
         <v>196</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>193</v>
       </c>
       <c r="K11" t="s">
@@ -5692,16 +5698,16 @@
       <c r="O11" t="s">
         <v>106</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="5">
         <v>9</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="5">
         <v>55</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5709,28 +5715,28 @@
       <c r="A12" t="s">
         <v>198</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>200</v>
       </c>
       <c r="D12" t="s">
         <v>201</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="6" t="s">
         <v>202</v>
       </c>
       <c r="G12" t="s">
         <v>203</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>204</v>
       </c>
       <c r="J12" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="7"/>
       <c r="M12" t="s">
         <v>81</v>
       </c>
@@ -5740,16 +5746,16 @@
       <c r="O12" t="s">
         <v>107</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="5">
         <v>10</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="5">
         <v>49</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5757,7 +5763,7 @@
       <c r="J13" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="3"/>
       <c r="M13" t="s">
         <v>86</v>
       </c>
@@ -5767,16 +5773,16 @@
       <c r="O13" t="s">
         <v>108</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="5">
         <v>11</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="5">
         <v>48</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="5">
         <v>3</v>
       </c>
     </row>
@@ -5784,17 +5790,17 @@
       <c r="A14" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="3"/>
       <c r="J14" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="3"/>
       <c r="M14" t="s">
         <v>89</v>
       </c>
@@ -5804,16 +5810,16 @@
       <c r="O14" t="s">
         <v>109</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="5">
         <v>12</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="5">
         <v>74</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="5">
         <v>4</v>
       </c>
     </row>
@@ -5821,16 +5827,16 @@
       <c r="A15" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
       <c r="M15" t="s">
         <v>90</v>
       </c>
@@ -5840,16 +5846,16 @@
       <c r="O15" t="s">
         <v>110</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="5">
         <v>13</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="5">
         <v>65</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="5">
         <v>4</v>
       </c>
     </row>
@@ -5857,14 +5863,14 @@
       <c r="A16" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="K16" s="3"/>
       <c r="M16" t="s">
         <v>91</v>
       </c>
@@ -5874,16 +5880,16 @@
       <c r="O16" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="5">
         <v>14</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="5">
         <v>69</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="5">
         <v>4</v>
       </c>
     </row>
@@ -5891,16 +5897,16 @@
       <c r="A17" t="s">
         <v>140</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
       <c r="M17" t="s">
         <v>92</v>
       </c>
@@ -5910,26 +5916,26 @@
       <c r="O17" t="s">
         <v>112</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="5">
         <v>15</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="5">
         <v>70</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="2:19">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="M18" t="s">
         <v>93</v>
       </c>
@@ -5939,23 +5945,23 @@
       <c r="O18" t="s">
         <v>113</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="5">
         <v>16</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="5">
         <v>77</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="9:19">
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="M19" t="s">
         <v>94</v>
       </c>
@@ -5965,22 +5971,22 @@
       <c r="O19" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="5">
         <v>17</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="5">
         <v>79</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="9:19">
-      <c r="I20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="I20" s="3"/>
+      <c r="K20" s="3"/>
       <c r="M20" t="s">
         <v>95</v>
       </c>
@@ -5990,23 +5996,23 @@
       <c r="O20" t="s">
         <v>115</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="5">
         <v>18</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="5">
         <v>84</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="9:19">
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
       <c r="M21" t="s">
         <v>96</v>
       </c>
@@ -6016,94 +6022,94 @@
       <c r="O21" t="s">
         <v>116</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="5">
         <v>19</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="5">
         <v>83</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="11:14">
-      <c r="K22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="K22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="11:14">
-      <c r="K23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="K23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="9:14">
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="9:14">
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" ht="14.25" spans="9:14">
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="6"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="8"/>
     </row>
     <row r="27" spans="9:11">
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
     </row>
     <row r="28" ht="14.25" spans="11:14">
-      <c r="K28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="6"/>
+      <c r="K28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="8"/>
     </row>
     <row r="29" spans="9:11">
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
     </row>
     <row r="30" ht="14.25" spans="11:14">
-      <c r="K30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="6"/>
+      <c r="K30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="8"/>
     </row>
     <row r="31" ht="14.25" spans="11:14">
-      <c r="K31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="6"/>
+      <c r="K31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="8"/>
     </row>
     <row r="32" spans="9:10">
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="34" spans="9:10">
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
     </row>
     <row r="35" spans="9:10">
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="36" spans="9:10">
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
     </row>
     <row r="37" spans="9:10">
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6122,45 +6128,45 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="11.125" style="3" customWidth="1"/>
-    <col min="3" max="25" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="11.125" style="5" customWidth="1"/>
+    <col min="3" max="25" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:12">
+      <c r="A1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="L1" s="3" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="L1" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" ht="17" customHeight="1" spans="1:13">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="5" customFormat="1" ht="17" customHeight="1" spans="1:13">
+      <c r="A2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>30</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -6172,113 +6178,113 @@
       <c r="G2" t="s">
         <v>140</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="5" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:13">
-      <c r="A3" s="3" t="s">
+    <row r="3" s="5" customFormat="1" spans="1:13">
+      <c r="A3" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>32</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>132</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
       <c r="H3" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="5" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:13">
-      <c r="A4" s="3" t="s">
+    <row r="4" s="5" customFormat="1" spans="1:13">
+      <c r="A4" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>33</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>123</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="5" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:13">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="5" customFormat="1" spans="1:13">
+      <c r="A5" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>31</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>140</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
       <c r="H5" t="s">
         <v>94</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" spans="1:13">
-      <c r="A6" s="3" t="s">
+    <row r="6" s="5" customFormat="1" spans="1:13">
+      <c r="A6" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>44</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" t="s">
@@ -6290,108 +6296,108 @@
       <c r="G6" t="s">
         <v>162</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="L6" s="3" t="s">
+      <c r="H6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="5" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:13">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="5" customFormat="1" spans="1:13">
+      <c r="A7" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>39</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>2</v>
       </c>
       <c r="E7" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="L7" s="3" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="L7" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:13">
-      <c r="A8" s="3" t="s">
+    <row r="8" s="5" customFormat="1" spans="1:13">
+      <c r="A8" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>40</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
       <c r="E8" t="s">
         <v>155</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="5" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:13">
-      <c r="A9" s="3" t="s">
+    <row r="9" s="5" customFormat="1" spans="1:13">
+      <c r="A9" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>42</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>2</v>
       </c>
       <c r="E9" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="5" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:14">
-      <c r="A10" s="3" t="s">
+    <row r="10" s="5" customFormat="1" spans="1:14">
+      <c r="A10" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>51</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>3</v>
       </c>
       <c r="E10" t="s">
@@ -6403,339 +6409,339 @@
       <c r="G10" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="5" t="s">
         <v>240</v>
       </c>
       <c r="N10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:14">
-      <c r="A11" s="3" t="s">
+    <row r="11" s="5" customFormat="1" spans="1:14">
+      <c r="A11" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>55</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>3</v>
       </c>
       <c r="E11" t="s">
         <v>162</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="5" t="s">
         <v>243</v>
       </c>
       <c r="N11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:14">
-      <c r="A12" s="3" t="s">
+    <row r="12" s="5" customFormat="1" spans="1:14">
+      <c r="A12" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="5">
         <v>49</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>177</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="5" t="s">
         <v>245</v>
       </c>
       <c r="N12" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="13" s="3" customFormat="1" spans="1:14">
-      <c r="A13" s="3" t="s">
+    <row r="13" s="5" customFormat="1" spans="1:14">
+      <c r="A13" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>48</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>3</v>
       </c>
       <c r="E13" t="s">
         <v>184</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="5" t="s">
         <v>248</v>
       </c>
       <c r="N13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:14">
-      <c r="A14" s="3" t="s">
+    <row r="14" s="5" customFormat="1" spans="1:14">
+      <c r="A14" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>74</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>4</v>
       </c>
       <c r="E14" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="5" t="s">
         <v>251</v>
       </c>
       <c r="N14" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:14">
-      <c r="A15" s="3" t="s">
+    <row r="15" s="5" customFormat="1" spans="1:14">
+      <c r="A15" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>65</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>4</v>
       </c>
       <c r="E15" t="s">
         <v>191</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="5" t="s">
         <v>254</v>
       </c>
       <c r="N15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:14">
-      <c r="A16" s="3" t="s">
+    <row r="16" s="5" customFormat="1" spans="1:14">
+      <c r="A16" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>69</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>4</v>
       </c>
       <c r="E16" t="s">
         <v>191</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="5" t="s">
         <v>257</v>
       </c>
       <c r="N16" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:14">
-      <c r="A17" s="3" t="s">
+    <row r="17" s="5" customFormat="1" spans="1:14">
+      <c r="A17" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="5">
         <v>70</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>4</v>
       </c>
       <c r="E17" t="s">
         <v>191</v>
       </c>
       <c r="F17"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3" t="s">
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="5" t="s">
         <v>259</v>
       </c>
       <c r="N17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:14">
-      <c r="A18" s="3" t="s">
+    <row r="18" s="5" customFormat="1" spans="1:14">
+      <c r="A18" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>77</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>5</v>
       </c>
       <c r="E18" t="s">
         <v>198</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
       <c r="N18" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:14">
-      <c r="A19" s="3" t="s">
+    <row r="19" s="5" customFormat="1" spans="1:14">
+      <c r="A19" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="5">
         <v>79</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>5</v>
       </c>
       <c r="E19" t="s">
         <v>198</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
       <c r="N19" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:14">
-      <c r="A20" s="3" t="s">
+    <row r="20" s="5" customFormat="1" spans="1:14">
+      <c r="A20" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="5">
         <v>84</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>5</v>
       </c>
       <c r="E20" t="s">
         <v>198</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
       <c r="N20" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:5">
-      <c r="A21" s="3" t="s">
+    <row r="21" s="5" customFormat="1" spans="1:5">
+      <c r="A21" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="5">
         <v>83</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="5">
         <v>5</v>
       </c>
       <c r="E21" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1"/>
+    <row r="22" s="5" customFormat="1"/>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>125</v>
       </c>
       <c r="D23" t="s">
@@ -6743,14 +6749,14 @@
       </c>
       <c r="E23"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:5">
+    <row r="24" s="5" customFormat="1" spans="1:5">
       <c r="A24" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>133</v>
       </c>
       <c r="D24" t="s">
@@ -6758,14 +6764,14 @@
       </c>
       <c r="E24"/>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:5">
+    <row r="25" s="5" customFormat="1" spans="1:5">
       <c r="A25" t="s">
         <v>140</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>141</v>
       </c>
       <c r="D25" t="s">
@@ -6773,14 +6779,14 @@
       </c>
       <c r="E25"/>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:5">
+    <row r="26" s="5" customFormat="1" spans="1:5">
       <c r="A26" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D26" t="s">
@@ -6788,14 +6794,14 @@
       </c>
       <c r="E26"/>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:5">
+    <row r="27" s="5" customFormat="1" spans="1:5">
       <c r="A27" t="s">
         <v>155</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>156</v>
       </c>
       <c r="D27" t="s">
@@ -6803,14 +6809,14 @@
       </c>
       <c r="E27"/>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:5">
+    <row r="28" s="5" customFormat="1" spans="1:5">
       <c r="A28" t="s">
         <v>162</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>163</v>
       </c>
       <c r="D28" t="s">
@@ -6818,11 +6824,11 @@
       </c>
       <c r="E28"/>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:5">
+    <row r="29" s="5" customFormat="1" spans="1:5">
       <c r="A29" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C29" t="s">
@@ -6833,14 +6839,14 @@
       </c>
       <c r="E29"/>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:5">
+    <row r="30" s="5" customFormat="1" spans="1:5">
       <c r="A30" t="s">
         <v>177</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>178</v>
       </c>
       <c r="D30" t="s">
@@ -6848,14 +6854,14 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" s="3" customFormat="1" spans="1:5">
+    <row r="31" s="5" customFormat="1" spans="1:5">
       <c r="A31" t="s">
         <v>184</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>185</v>
       </c>
       <c r="D31" t="s">
@@ -6863,14 +6869,14 @@
       </c>
       <c r="E31"/>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:5">
+    <row r="32" s="5" customFormat="1" spans="1:5">
       <c r="A32" t="s">
         <v>191</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="3" t="s">
         <v>193</v>
       </c>
       <c r="D32" t="s">
@@ -6878,14 +6884,14 @@
       </c>
       <c r="E32"/>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:5">
+    <row r="33" s="5" customFormat="1" spans="1:5">
       <c r="A33" t="s">
         <v>198</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>200</v>
       </c>
       <c r="D33" t="s">
@@ -6893,25 +6899,25 @@
       </c>
       <c r="E33"/>
     </row>
-    <row r="34" s="3" customFormat="1"/>
-    <row r="35" s="3" customFormat="1"/>
-    <row r="36" s="3" customFormat="1"/>
-    <row r="37" s="3" customFormat="1"/>
-    <row r="38" s="3" customFormat="1"/>
-    <row r="39" s="3" customFormat="1"/>
-    <row r="40" s="3" customFormat="1"/>
-    <row r="41" s="3" customFormat="1"/>
-    <row r="42" s="3" customFormat="1"/>
-    <row r="43" s="3" customFormat="1"/>
-    <row r="44" s="3" customFormat="1"/>
-    <row r="45" s="3" customFormat="1"/>
-    <row r="46" s="3" customFormat="1"/>
-    <row r="47" s="3" customFormat="1"/>
-    <row r="48" s="3" customFormat="1"/>
-    <row r="49" s="3" customFormat="1"/>
-    <row r="50" s="3" customFormat="1"/>
-    <row r="51" s="3" customFormat="1"/>
-    <row r="52" s="3" customFormat="1"/>
+    <row r="34" s="5" customFormat="1"/>
+    <row r="35" s="5" customFormat="1"/>
+    <row r="36" s="5" customFormat="1"/>
+    <row r="37" s="5" customFormat="1"/>
+    <row r="38" s="5" customFormat="1"/>
+    <row r="39" s="5" customFormat="1"/>
+    <row r="40" s="5" customFormat="1"/>
+    <row r="41" s="5" customFormat="1"/>
+    <row r="42" s="5" customFormat="1"/>
+    <row r="43" s="5" customFormat="1"/>
+    <row r="44" s="5" customFormat="1"/>
+    <row r="45" s="5" customFormat="1"/>
+    <row r="46" s="5" customFormat="1"/>
+    <row r="47" s="5" customFormat="1"/>
+    <row r="48" s="5" customFormat="1"/>
+    <row r="49" s="5" customFormat="1"/>
+    <row r="50" s="5" customFormat="1"/>
+    <row r="51" s="5" customFormat="1"/>
+    <row r="52" s="5" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6929,11 +6935,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="8" width="9" style="3"/>
+    <col min="1" max="8" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:34">
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>264</v>
       </c>
       <c r="P1" t="s">
@@ -6951,28 +6957,28 @@
       <c r="U1" t="s">
         <v>266</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="5" t="s">
         <v>270</v>
       </c>
       <c r="AD1" t="s">
@@ -6992,28 +6998,28 @@
       </c>
     </row>
     <row r="2" spans="1:34">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>131</v>
       </c>
       <c r="E2" t="s">
         <v>219</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="5" t="s">
         <v>222</v>
       </c>
       <c r="G2" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I2" t="s">
@@ -7075,28 +7081,28 @@
       </c>
     </row>
     <row r="3" spans="1:34">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>131</v>
       </c>
       <c r="E3" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>139</v>
       </c>
       <c r="G3" t="s">
         <v>224</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I3" t="s">
@@ -7158,28 +7164,28 @@
       </c>
     </row>
     <row r="4" ht="15" spans="1:34">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>131</v>
       </c>
       <c r="E4" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>161</v>
       </c>
       <c r="G4" t="s">
         <v>226</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I4" t="s">
@@ -7241,28 +7247,28 @@
       </c>
     </row>
     <row r="5" spans="1:34">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E5" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="5" t="s">
         <v>222</v>
       </c>
       <c r="G5" t="s">
         <v>221</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I5" t="s">
@@ -7324,28 +7330,28 @@
       </c>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>139</v>
       </c>
       <c r="E6" t="s">
         <v>224</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>161</v>
       </c>
       <c r="G6" t="s">
         <v>226</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I6" t="s">
@@ -7407,28 +7413,28 @@
       </c>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>161</v>
       </c>
       <c r="E7" t="s">
         <v>226</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="5" t="s">
         <v>222</v>
       </c>
       <c r="G7" t="s">
         <v>221</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="5" t="s">
         <v>73</v>
       </c>
       <c r="I7" t="s">
@@ -7490,28 +7496,28 @@
       </c>
     </row>
     <row r="8" spans="1:34">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>131</v>
       </c>
       <c r="E8" t="s">
         <v>219</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="5" t="s">
         <v>139</v>
       </c>
       <c r="G8" t="s">
         <v>224</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="5" t="s">
         <v>222</v>
       </c>
       <c r="I8" t="s">
@@ -7573,28 +7579,28 @@
       </c>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>131</v>
       </c>
       <c r="E9" t="s">
         <v>219</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>161</v>
       </c>
       <c r="G9" t="s">
         <v>226</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="5" t="s">
         <v>222</v>
       </c>
       <c r="I9" t="s">
@@ -7656,34 +7662,34 @@
       </c>
     </row>
     <row r="10" ht="15" spans="1:34">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E10" t="s">
         <v>228</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>231</v>
       </c>
       <c r="G10" t="s">
         <v>230</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="5" t="s">
         <v>78</v>
       </c>
       <c r="I10" t="s">
         <v>98</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="5" t="s">
         <v>146</v>
       </c>
       <c r="K10" t="s">
@@ -7745,34 +7751,34 @@
       </c>
     </row>
     <row r="11" spans="1:34">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E11" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>176</v>
       </c>
       <c r="G11" t="s">
         <v>233</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="5" t="s">
         <v>78</v>
       </c>
       <c r="I11" t="s">
         <v>98</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="5" t="s">
         <v>146</v>
       </c>
       <c r="K11" t="s">
@@ -7834,34 +7840,34 @@
       </c>
     </row>
     <row r="12" spans="1:34">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E12" t="s">
         <v>228</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="5" t="s">
         <v>190</v>
       </c>
       <c r="G12" t="s">
         <v>235</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="5" t="s">
         <v>78</v>
       </c>
       <c r="I12" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="5" t="s">
         <v>146</v>
       </c>
       <c r="K12" t="s">
@@ -7923,34 +7929,34 @@
       </c>
     </row>
     <row r="13" ht="15" spans="1:34">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E13" t="s">
         <v>233</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="5" t="s">
         <v>231</v>
       </c>
       <c r="G13" t="s">
         <v>230</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="5" t="s">
         <v>78</v>
       </c>
       <c r="I13" t="s">
         <v>98</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="5" t="s">
         <v>176</v>
       </c>
       <c r="K13" t="s">
@@ -8012,34 +8018,34 @@
       </c>
     </row>
     <row r="14" spans="1:34">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="5" t="s">
         <v>176</v>
       </c>
       <c r="E14" t="s">
         <v>233</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="5" t="s">
         <v>190</v>
       </c>
       <c r="G14" t="s">
         <v>235</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="5" t="s">
         <v>78</v>
       </c>
       <c r="I14" t="s">
         <v>98</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="5" t="s">
         <v>176</v>
       </c>
       <c r="K14" t="s">
@@ -8101,34 +8107,34 @@
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>190</v>
       </c>
       <c r="E15" t="s">
         <v>235</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="5" t="s">
         <v>231</v>
       </c>
       <c r="G15" t="s">
         <v>230</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="5" t="s">
         <v>78</v>
       </c>
       <c r="I15" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="5" t="s">
         <v>190</v>
       </c>
       <c r="K15" t="s">
@@ -8190,34 +8196,34 @@
       </c>
     </row>
     <row r="16" spans="1:34">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E16" t="s">
         <v>228</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="5" t="s">
         <v>176</v>
       </c>
       <c r="G16" t="s">
         <v>233</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="5" t="s">
         <v>231</v>
       </c>
       <c r="I16" t="s">
         <v>230</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="5" t="s">
         <v>146</v>
       </c>
       <c r="K16" t="s">
@@ -8279,34 +8285,34 @@
       </c>
     </row>
     <row r="17" spans="1:34">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E17" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="5" t="s">
         <v>190</v>
       </c>
       <c r="G17" t="s">
         <v>235</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="5" t="s">
         <v>231</v>
       </c>
       <c r="I17" t="s">
         <v>230</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="5" t="s">
         <v>146</v>
       </c>
       <c r="K17" t="s">
@@ -8368,40 +8374,40 @@
       </c>
     </row>
     <row r="18" spans="1:34">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E18" t="s">
         <v>238</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="5" t="s">
         <v>242</v>
       </c>
       <c r="G18" t="s">
         <v>241</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="5" t="s">
         <v>83</v>
       </c>
       <c r="I18" t="s">
         <v>99</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="5" t="s">
         <v>197</v>
       </c>
       <c r="K18" t="s">
         <v>238</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="5" t="s">
         <v>242</v>
       </c>
       <c r="M18" t="s">
@@ -8463,40 +8469,40 @@
       </c>
     </row>
     <row r="19" spans="1:34">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E19" t="s">
         <v>238</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="5" t="s">
         <v>205</v>
       </c>
       <c r="G19" t="s">
         <v>244</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="5" t="s">
         <v>83</v>
       </c>
       <c r="I19" t="s">
         <v>99</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="5" t="s">
         <v>197</v>
       </c>
       <c r="K19" t="s">
         <v>238</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="5" t="s">
         <v>205</v>
       </c>
       <c r="M19" t="s">
@@ -8558,40 +8564,40 @@
       </c>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E20" t="s">
         <v>238</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="5" t="s">
         <v>239</v>
       </c>
       <c r="G20" t="s">
         <v>246</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="5" t="s">
         <v>83</v>
       </c>
       <c r="I20" t="s">
         <v>99</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="5" t="s">
         <v>197</v>
       </c>
       <c r="K20" t="s">
         <v>238</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="5" t="s">
         <v>239</v>
       </c>
       <c r="M20" t="s">
@@ -8653,40 +8659,40 @@
       </c>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="5" t="s">
         <v>205</v>
       </c>
       <c r="E21" t="s">
         <v>244</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="5" t="s">
         <v>242</v>
       </c>
       <c r="G21" t="s">
         <v>241</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="5" t="s">
         <v>83</v>
       </c>
       <c r="I21" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="5" t="s">
         <v>205</v>
       </c>
       <c r="K21" t="s">
         <v>244</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="5" t="s">
         <v>242</v>
       </c>
       <c r="M21" t="s">
@@ -8748,40 +8754,40 @@
       </c>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="5" t="s">
         <v>205</v>
       </c>
       <c r="E22" t="s">
         <v>244</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="5" t="s">
         <v>239</v>
       </c>
       <c r="G22" t="s">
         <v>246</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="5" t="s">
         <v>83</v>
       </c>
       <c r="I22" t="s">
         <v>99</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="5" t="s">
         <v>205</v>
       </c>
       <c r="K22" t="s">
         <v>244</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="5" t="s">
         <v>239</v>
       </c>
       <c r="M22" t="s">
@@ -8843,40 +8849,40 @@
       </c>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="5" t="s">
         <v>239</v>
       </c>
       <c r="E23" t="s">
         <v>246</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="5" t="s">
         <v>242</v>
       </c>
       <c r="G23" t="s">
         <v>241</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="5" t="s">
         <v>83</v>
       </c>
       <c r="I23" t="s">
         <v>99</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="5" t="s">
         <v>239</v>
       </c>
       <c r="K23" t="s">
         <v>246</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="5" t="s">
         <v>242</v>
       </c>
       <c r="M23" t="s">
@@ -8938,40 +8944,40 @@
       </c>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E24" t="s">
         <v>238</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="5" t="s">
         <v>205</v>
       </c>
       <c r="G24" t="s">
         <v>244</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="5" t="s">
         <v>242</v>
       </c>
       <c r="I24" t="s">
         <v>241</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="5" t="s">
         <v>197</v>
       </c>
       <c r="K24" t="s">
         <v>238</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="5" t="s">
         <v>205</v>
       </c>
       <c r="M24" t="s">
@@ -9033,40 +9039,40 @@
       </c>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="5" t="s">
         <v>197</v>
       </c>
       <c r="E25" t="s">
         <v>238</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="5" t="s">
         <v>239</v>
       </c>
       <c r="G25" t="s">
         <v>246</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="5" t="s">
         <v>242</v>
       </c>
       <c r="I25" t="s">
         <v>241</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="5" t="s">
         <v>197</v>
       </c>
       <c r="K25" t="s">
         <v>238</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="5" t="s">
         <v>239</v>
       </c>
       <c r="M25" t="s">
@@ -9128,46 +9134,46 @@
       </c>
     </row>
     <row r="26" ht="15" spans="1:34">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="5" t="s">
         <v>208</v>
       </c>
       <c r="E26" t="s">
         <v>249</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="5" t="s">
         <v>253</v>
       </c>
       <c r="G26" t="s">
         <v>252</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I26" t="s">
         <v>100</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="5" t="s">
         <v>208</v>
       </c>
       <c r="K26" t="s">
         <v>249</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="5" t="s">
         <v>253</v>
       </c>
       <c r="M26" t="s">
         <v>252</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O26" t="s">
@@ -9229,46 +9235,46 @@
       </c>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="5" t="s">
         <v>208</v>
       </c>
       <c r="E27" t="s">
         <v>249</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="5" t="s">
         <v>209</v>
       </c>
       <c r="G27" t="s">
         <v>255</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I27" t="s">
         <v>100</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="5" t="s">
         <v>208</v>
       </c>
       <c r="K27" t="s">
         <v>249</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="5" t="s">
         <v>209</v>
       </c>
       <c r="M27" t="s">
         <v>255</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O27" t="s">
@@ -9330,46 +9336,46 @@
       </c>
     </row>
     <row r="28" spans="1:34">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="5" t="s">
         <v>208</v>
       </c>
       <c r="E28" t="s">
         <v>249</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="5" t="s">
         <v>247</v>
       </c>
       <c r="G28" t="s">
         <v>258</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I28" t="s">
         <v>100</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="5" t="s">
         <v>208</v>
       </c>
       <c r="K28" t="s">
         <v>249</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="5" t="s">
         <v>247</v>
       </c>
       <c r="M28" t="s">
         <v>258</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="N28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O28" t="s">
@@ -9431,46 +9437,46 @@
       </c>
     </row>
     <row r="29" spans="1:34">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="5" t="s">
         <v>209</v>
       </c>
       <c r="E29" t="s">
         <v>255</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="5" t="s">
         <v>253</v>
       </c>
       <c r="G29" t="s">
         <v>252</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I29" t="s">
         <v>100</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="5" t="s">
         <v>209</v>
       </c>
       <c r="K29" t="s">
         <v>255</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="5" t="s">
         <v>253</v>
       </c>
       <c r="M29" t="s">
         <v>252</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O29" t="s">
@@ -9532,46 +9538,46 @@
       </c>
     </row>
     <row r="30" ht="15" spans="1:34">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="5" t="s">
         <v>209</v>
       </c>
       <c r="E30" t="s">
         <v>255</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="5" t="s">
         <v>247</v>
       </c>
       <c r="G30" t="s">
         <v>258</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I30" t="s">
         <v>100</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="5" t="s">
         <v>209</v>
       </c>
       <c r="K30" t="s">
         <v>255</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="5" t="s">
         <v>247</v>
       </c>
       <c r="M30" t="s">
         <v>258</v>
       </c>
-      <c r="N30" s="3" t="s">
+      <c r="N30" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O30" t="s">
@@ -9633,46 +9639,46 @@
       </c>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="5" t="s">
         <v>247</v>
       </c>
       <c r="E31" t="s">
         <v>258</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="5" t="s">
         <v>253</v>
       </c>
       <c r="G31" t="s">
         <v>252</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I31" t="s">
         <v>100</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="5" t="s">
         <v>247</v>
       </c>
       <c r="K31" t="s">
         <v>258</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="5" t="s">
         <v>253</v>
       </c>
       <c r="M31" t="s">
         <v>252</v>
       </c>
-      <c r="N31" s="3" t="s">
+      <c r="N31" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O31" t="s">
@@ -9734,46 +9740,46 @@
       </c>
     </row>
     <row r="32" ht="15" spans="1:34">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="5" t="s">
         <v>208</v>
       </c>
       <c r="E32" t="s">
         <v>249</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="5" t="s">
         <v>209</v>
       </c>
       <c r="G32" t="s">
         <v>255</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="5" t="s">
         <v>253</v>
       </c>
       <c r="I32" t="s">
         <v>252</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="5" t="s">
         <v>208</v>
       </c>
       <c r="K32" t="s">
         <v>249</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="5" t="s">
         <v>209</v>
       </c>
       <c r="M32" t="s">
         <v>255</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="N32" s="5" t="s">
         <v>253</v>
       </c>
       <c r="O32" t="s">
@@ -9835,46 +9841,46 @@
       </c>
     </row>
     <row r="33" spans="1:34">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="5" t="s">
         <v>208</v>
       </c>
       <c r="E33" t="s">
         <v>249</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="5" t="s">
         <v>247</v>
       </c>
       <c r="G33" t="s">
         <v>258</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="5" t="s">
         <v>253</v>
       </c>
       <c r="I33" t="s">
         <v>252</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="5" t="s">
         <v>208</v>
       </c>
       <c r="K33" t="s">
         <v>249</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="5" t="s">
         <v>247</v>
       </c>
       <c r="M33" t="s">
         <v>258</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N33" s="5" t="s">
         <v>253</v>
       </c>
       <c r="O33" t="s">
@@ -9936,46 +9942,46 @@
       </c>
     </row>
     <row r="34" ht="15" spans="1:34">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="5" t="s">
         <v>250</v>
       </c>
       <c r="E34" t="s">
         <v>260</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="5" t="s">
         <v>214</v>
       </c>
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I34" t="s">
         <v>100</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="5" t="s">
         <v>250</v>
       </c>
       <c r="K34" t="s">
         <v>260</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="5" t="s">
         <v>214</v>
       </c>
       <c r="M34" t="s">
         <v>261</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O34" t="s">
@@ -10037,46 +10043,46 @@
       </c>
     </row>
     <row r="35" spans="1:34">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="5" t="s">
         <v>250</v>
       </c>
       <c r="E35" t="s">
         <v>260</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="5" t="s">
         <v>215</v>
       </c>
       <c r="G35" t="s">
         <v>262</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I35" t="s">
         <v>100</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="5" t="s">
         <v>250</v>
       </c>
       <c r="K35" t="s">
         <v>260</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="5" t="s">
         <v>215</v>
       </c>
       <c r="M35" t="s">
         <v>262</v>
       </c>
-      <c r="N35" s="3" t="s">
+      <c r="N35" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O35" t="s">
@@ -10138,46 +10144,46 @@
       </c>
     </row>
     <row r="36" ht="15" spans="1:34">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="5" t="s">
         <v>250</v>
       </c>
       <c r="E36" t="s">
         <v>260</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="5" t="s">
         <v>216</v>
       </c>
       <c r="G36" t="s">
         <v>263</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I36" t="s">
         <v>100</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="5" t="s">
         <v>250</v>
       </c>
       <c r="K36" t="s">
         <v>260</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="5" t="s">
         <v>216</v>
       </c>
       <c r="M36" t="s">
         <v>263</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O36" t="s">
@@ -10239,46 +10245,46 @@
       </c>
     </row>
     <row r="37" spans="1:34">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="5" t="s">
         <v>215</v>
       </c>
       <c r="E37" t="s">
         <v>262</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="5" t="s">
         <v>214</v>
       </c>
       <c r="G37" t="s">
         <v>261</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I37" t="s">
         <v>100</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="5" t="s">
         <v>215</v>
       </c>
       <c r="K37" t="s">
         <v>262</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="5" t="s">
         <v>214</v>
       </c>
       <c r="M37" t="s">
         <v>261</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O37" t="s">
@@ -10340,46 +10346,46 @@
       </c>
     </row>
     <row r="38" spans="1:34">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="5" t="s">
         <v>216</v>
       </c>
       <c r="E38" t="s">
         <v>263</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="5" t="s">
         <v>216</v>
       </c>
       <c r="G38" t="s">
         <v>263</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I38" t="s">
         <v>100</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="5" t="s">
         <v>216</v>
       </c>
       <c r="K38" t="s">
         <v>263</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="5" t="s">
         <v>216</v>
       </c>
       <c r="M38" t="s">
         <v>263</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O38" t="s">
@@ -10441,46 +10447,46 @@
       </c>
     </row>
     <row r="39" spans="1:34">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="5" t="s">
         <v>216</v>
       </c>
       <c r="E39" t="s">
         <v>263</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="5" t="s">
         <v>214</v>
       </c>
       <c r="G39" t="s">
         <v>261</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="5" t="s">
         <v>88</v>
       </c>
       <c r="I39" t="s">
         <v>100</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="5" t="s">
         <v>216</v>
       </c>
       <c r="K39" t="s">
         <v>263</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="5" t="s">
         <v>214</v>
       </c>
       <c r="M39" t="s">
         <v>261</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N39" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O39" t="s">
@@ -10542,46 +10548,46 @@
       </c>
     </row>
     <row r="40" spans="1:34">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="5" t="s">
         <v>250</v>
       </c>
       <c r="E40" t="s">
         <v>260</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="5" t="s">
         <v>215</v>
       </c>
       <c r="G40" t="s">
         <v>262</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="5" t="s">
         <v>214</v>
       </c>
       <c r="I40" t="s">
         <v>261</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="5" t="s">
         <v>250</v>
       </c>
       <c r="K40" t="s">
         <v>260</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="5" t="s">
         <v>215</v>
       </c>
       <c r="M40" t="s">
         <v>262</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N40" s="5" t="s">
         <v>214</v>
       </c>
       <c r="O40" t="s">
@@ -10643,46 +10649,46 @@
       </c>
     </row>
     <row r="41" spans="1:34">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="5" t="s">
         <v>250</v>
       </c>
       <c r="E41" t="s">
         <v>260</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="5" t="s">
         <v>216</v>
       </c>
       <c r="G41" t="s">
         <v>263</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="5" t="s">
         <v>214</v>
       </c>
       <c r="I41" t="s">
         <v>261</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="5" t="s">
         <v>250</v>
       </c>
       <c r="K41" t="s">
         <v>260</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="5" t="s">
         <v>216</v>
       </c>
       <c r="M41" t="s">
         <v>263</v>
       </c>
-      <c r="N41" s="3" t="s">
+      <c r="N41" s="5" t="s">
         <v>214</v>
       </c>
       <c r="O41" t="s">
@@ -10744,10 +10750,10 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="5" t="s">
         <v>219</v>
       </c>
       <c r="D46" t="s">
@@ -10761,10 +10767,10 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="5" t="s">
         <v>221</v>
       </c>
       <c r="D47" t="s">
@@ -10778,10 +10784,10 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="5" t="s">
         <v>224</v>
       </c>
       <c r="D48" t="s">
@@ -10795,10 +10801,10 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="5" t="s">
         <v>226</v>
       </c>
       <c r="D49" t="s">
@@ -10812,130 +10818,130 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="5" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="5" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="5" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="5" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="5" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="5" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="5" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="5" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="5" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="5" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="5" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="5" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="5" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="5" t="s">
         <v>263</v>
       </c>
     </row>
@@ -10951,7 +10957,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10994,7 +11000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="25.5" spans="1:4">
+    <row r="2" ht="25.5" spans="1:16">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -11004,11 +11010,47 @@
       <c r="C2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" ht="25.5" spans="1:4">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" spans="1:16">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -11018,11 +11060,47 @@
       <c r="C3" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" ht="25.5" spans="1:4">
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" spans="1:16">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -11032,25 +11110,97 @@
       <c r="C4" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="6" ht="25.5" spans="1:4">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="25.5" spans="1:16">
       <c r="A6" t="s">
         <v>159</v>
       </c>
@@ -11060,25 +11210,97 @@
       <c r="C6" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>2.5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -11088,25 +11310,97 @@
       <c r="C8" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>182</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="10" ht="25.5" spans="1:4">
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>2.5</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5" spans="1:16">
       <c r="A10" t="s">
         <v>188</v>
       </c>
@@ -11116,36 +11410,144 @@
       <c r="C10" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>2.5</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>199</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12">
+        <v>2.5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -15,6 +15,7 @@
     <sheet name="草药" sheetId="7" r:id="rId6"/>
     <sheet name="丹药" sheetId="9" r:id="rId7"/>
     <sheet name="妖兽" sheetId="10" r:id="rId8"/>
+    <sheet name="功能物品" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">丹药!$A$1:$AA$41</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="375">
   <si>
     <t>圆满层数</t>
   </si>
@@ -1548,6 +1549,42 @@
   </si>
   <si>
     <t>kunpeng</t>
+  </si>
+  <si>
+    <t>测灵珠</t>
+  </si>
+  <si>
+    <t>celingzhu</t>
+  </si>
+  <si>
+    <t>拿手上可观察到天地间的灵力浓度</t>
+  </si>
+  <si>
+    <t>阵旗</t>
+  </si>
+  <si>
+    <t>zhenqi</t>
+  </si>
+  <si>
+    <t>操控阵法，可将聚灵阵链接至炼丹炉、炼器鼎</t>
+  </si>
+  <si>
+    <t>蒲团</t>
+  </si>
+  <si>
+    <t>putuan</t>
+  </si>
+  <si>
+    <t>打坐，修炼功法、调整灵脉状态</t>
+  </si>
+  <si>
+    <t>秘境传送符</t>
+  </si>
+  <si>
+    <t>tpfu</t>
+  </si>
+  <si>
+    <t>往返传送秘境</t>
   </si>
 </sst>
 </file>
@@ -2556,7 +2593,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3233,8 +3270,8 @@
   <sheetPr/>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="D27" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10957,7 +10994,7 @@
   <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11167,7 +11204,7 @@
         <v>17</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -11217,7 +11254,7 @@
         <v>17</v>
       </c>
       <c r="F6">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -11267,7 +11304,7 @@
         <v>17</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -11317,7 +11354,7 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -11367,7 +11404,7 @@
         <v>20</v>
       </c>
       <c r="F9">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -11417,7 +11454,7 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -11467,7 +11504,7 @@
         <v>23</v>
       </c>
       <c r="F11">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -11517,7 +11554,7 @@
         <v>26</v>
       </c>
       <c r="F12">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -11548,6 +11585,71 @@
       </c>
       <c r="P12">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="10.325" customWidth="1"/>
+    <col min="2" max="2" width="13.0916666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="7"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="415">
   <si>
     <t>圆满层数</t>
   </si>
@@ -428,6 +428,24 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>islinghe</t>
+  </si>
+  <si>
+    <t>isxvantie</t>
+  </si>
+  <si>
+    <t>islingjin</t>
+  </si>
+  <si>
+    <t>islingyv</t>
+  </si>
+  <si>
+    <t>islingmu</t>
   </si>
   <si>
     <t>星叶松</t>
@@ -1551,12 +1569,24 @@
     <t>kunpeng</t>
   </si>
   <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
     <t>测灵珠</t>
   </si>
   <si>
     <t>celingzhu</t>
   </si>
   <si>
+    <t xml:space="preserve"> a /aba/ a </t>
+  </si>
+  <si>
+    <t>islingshi</t>
+  </si>
+  <si>
     <t>拿手上可观察到天地间的灵力浓度</t>
   </si>
   <si>
@@ -1566,6 +1596,9 @@
     <t>zhenqi</t>
   </si>
   <si>
+    <t xml:space="preserve">aa /ab / b </t>
+  </si>
+  <si>
     <t>操控阵法，可将聚灵阵链接至炼丹炉、炼器鼎</t>
   </si>
   <si>
@@ -1578,13 +1611,100 @@
     <t>打坐，修炼功法、调整灵脉状态</t>
   </si>
   <si>
+    <t>往返传送秘境</t>
+  </si>
+  <si>
+    <t>灵石</t>
+  </si>
+  <si>
+    <t>lingshi0</t>
+  </si>
+  <si>
+    <t>lingshi1</t>
+  </si>
+  <si>
+    <t>a*9</t>
+  </si>
+  <si>
+    <t>lingshi2</t>
+  </si>
+  <si>
+    <t>炼器鼎</t>
+  </si>
+  <si>
+    <t>lianqiding0</t>
+  </si>
+  <si>
+    <t>bab/aba/bab</t>
+  </si>
+  <si>
+    <t>lianqiding1</t>
+  </si>
+  <si>
+    <t>1379 10 11</t>
+  </si>
+  <si>
+    <t>468 12 13</t>
+  </si>
+  <si>
+    <t>lianqiding2</t>
+  </si>
+  <si>
+    <t>lianqiding3</t>
+  </si>
+  <si>
+    <t>炼丹炉</t>
+  </si>
+  <si>
+    <t>liandanlu0</t>
+  </si>
+  <si>
+    <t>linghe</t>
+  </si>
+  <si>
+    <t>liandanlu1</t>
+  </si>
+  <si>
+    <t>liandanlu2</t>
+  </si>
+  <si>
+    <t>liandanlu3</t>
+  </si>
+  <si>
     <t>秘境传送符</t>
   </si>
   <si>
     <t>tpfu</t>
   </si>
   <si>
-    <t>往返传送秘境</t>
+    <t>聚灵阵</t>
+  </si>
+  <si>
+    <t>jvlingzhen0</t>
+  </si>
+  <si>
+    <t>jvlingzhen1</t>
+  </si>
+  <si>
+    <t>10 11 12 13</t>
+  </si>
+  <si>
+    <t>jvlingzhen2</t>
+  </si>
+  <si>
+    <t>14 - 21</t>
+  </si>
+  <si>
+    <t>lingmu0_LOG</t>
+  </si>
+  <si>
+    <t>lingmu1_LOG</t>
+  </si>
+  <si>
+    <t>lingmu2_LOG</t>
+  </si>
+  <si>
+    <t>lingmu3_LOG</t>
   </si>
 </sst>
 </file>
@@ -1781,18 +1901,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6AAB73"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2923,7 +3043,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:O1"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3270,8 +3390,8 @@
   <sheetPr/>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4991,20 +5111,23 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C18" sqref="C18:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="2:4">
       <c r="B1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -5013,6 +5136,9 @@
       </c>
       <c r="C2" t="s">
         <v>97</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5048,7 +5174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -5057,6 +5183,9 @@
       </c>
       <c r="C6" t="s">
         <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5092,7 +5221,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -5101,6 +5230,9 @@
       </c>
       <c r="C10" t="s">
         <v>105</v>
+      </c>
+      <c r="D10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5136,7 +5268,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -5145,6 +5277,9 @@
       </c>
       <c r="C14" t="s">
         <v>109</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5180,7 +5315,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -5189,6 +5324,9 @@
       </c>
       <c r="C18" t="s">
         <v>113</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5204,7 +5342,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -5215,7 +5353,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -5243,7 +5381,7 @@
   <sheetData>
     <row r="1" spans="4:19">
       <c r="D1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="N1" t="s">
         <v>117</v>
@@ -5253,36 +5391,36 @@
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:19">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J2" t="s">
         <v>89</v>
@@ -5300,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="R2" s="5">
         <v>30</v>
@@ -5311,29 +5449,29 @@
     </row>
     <row r="3" ht="18.75" spans="1:19">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="K3" t="s">
         <v>93</v>
@@ -5351,7 +5489,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="R3" s="5">
         <v>33</v>
@@ -5362,25 +5500,25 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" t="s">
@@ -5402,7 +5540,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="R4" s="5">
         <v>32</v>
@@ -5413,25 +5551,25 @@
     </row>
     <row r="5" ht="18.75" spans="1:19">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" t="s">
@@ -5451,7 +5589,7 @@
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="R5" s="5">
         <v>31</v>
@@ -5462,31 +5600,31 @@
     </row>
     <row r="6" ht="18.75" spans="1:19">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="J6" t="s">
         <v>76</v>
       </c>
       <c r="M6" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="N6">
         <v>4</v>
@@ -5498,7 +5636,7 @@
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="R6" s="5">
         <v>44</v>
@@ -5509,25 +5647,25 @@
     </row>
     <row r="7" ht="18.75" spans="1:19">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="J7" t="s">
         <v>90</v>
@@ -5548,7 +5686,7 @@
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="R7" s="5">
         <v>39</v>
@@ -5559,25 +5697,25 @@
     </row>
     <row r="8" ht="18.75" spans="1:19">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G8" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" t="s">
@@ -5596,7 +5734,7 @@
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="R8" s="5">
         <v>40</v>
@@ -5607,25 +5745,25 @@
     </row>
     <row r="9" ht="18.75" spans="1:19">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" t="s">
@@ -5644,7 +5782,7 @@
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="R9" s="5">
         <v>42</v>
@@ -5655,25 +5793,25 @@
     </row>
     <row r="10" ht="18.75" spans="1:19">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D10" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" t="s">
@@ -5692,7 +5830,7 @@
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="R10" s="5">
         <v>51</v>
@@ -5703,25 +5841,25 @@
     </row>
     <row r="11" ht="18.75" spans="1:19">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G11" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K11" t="s">
         <v>96</v>
@@ -5739,7 +5877,7 @@
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="R11" s="5">
         <v>55</v>
@@ -5750,25 +5888,25 @@
     </row>
     <row r="12" ht="18.75" spans="1:19">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D12" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="G12" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="J12" t="s">
         <v>84</v>
@@ -5787,7 +5925,7 @@
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="R12" s="5">
         <v>49</v>
@@ -5814,7 +5952,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="R13" s="5">
         <v>48</v>
@@ -5825,13 +5963,13 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D14" s="3"/>
       <c r="J14" t="s">
@@ -5851,7 +5989,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="R14" s="5">
         <v>74</v>
@@ -5862,13 +6000,13 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>192</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D15" s="3"/>
       <c r="I15" s="3"/>
@@ -5887,7 +6025,7 @@
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="R15" s="5">
         <v>65</v>
@@ -5898,13 +6036,13 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D16" s="3"/>
       <c r="K16" s="3"/>
@@ -5921,7 +6059,7 @@
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="R16" s="5">
         <v>69</v>
@@ -5932,13 +6070,13 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D17" s="3"/>
       <c r="I17" s="3"/>
@@ -5957,7 +6095,7 @@
         <v>15</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="R17" s="5">
         <v>70</v>
@@ -5986,7 +6124,7 @@
         <v>16</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="R18" s="5">
         <v>77</v>
@@ -6012,7 +6150,7 @@
         <v>17</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="R19" s="5">
         <v>79</v>
@@ -6037,7 +6175,7 @@
         <v>18</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="R20" s="5">
         <v>84</v>
@@ -6063,7 +6201,7 @@
         <v>19</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="R21" s="5">
         <v>83</v>
@@ -6176,13 +6314,13 @@
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -6190,15 +6328,15 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="L1" s="5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" ht="17" customHeight="1" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C2" s="5">
         <v>30</v>
@@ -6207,31 +6345,31 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:13">
       <c r="A3" s="5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C3" s="5">
         <v>32</v>
@@ -6240,7 +6378,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -6248,18 +6386,18 @@
         <v>93</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C4" s="5">
         <v>33</v>
@@ -6268,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -6277,18 +6415,18 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="C5" s="5">
         <v>31</v>
@@ -6297,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -6305,18 +6443,18 @@
         <v>94</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" spans="1:13">
       <c r="A6" s="5" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C6" s="5">
         <v>44</v>
@@ -6325,28 +6463,28 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G6" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="H6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:13">
       <c r="A7" s="5" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C7" s="5">
         <v>39</v>
@@ -6355,24 +6493,24 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:13">
       <c r="A8" s="5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C8" s="5">
         <v>40</v>
@@ -6381,7 +6519,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -6390,18 +6528,18 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:13">
       <c r="A9" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C9" s="5">
         <v>42</v>
@@ -6410,26 +6548,26 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C10" s="5">
         <v>51</v>
@@ -6438,34 +6576,34 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="G10" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="C11" s="5">
         <v>55</v>
@@ -6474,7 +6612,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -6483,21 +6621,21 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:14">
       <c r="A12" s="5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C12" s="5">
         <v>49</v>
@@ -6506,7 +6644,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -6515,21 +6653,21 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="N12" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="1:14">
       <c r="A13" s="5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="C13" s="5">
         <v>48</v>
@@ -6538,7 +6676,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -6547,21 +6685,21 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="N13" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="C14" s="5">
         <v>74</v>
@@ -6570,7 +6708,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -6579,21 +6717,21 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:14">
       <c r="A15" s="5" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="C15" s="5">
         <v>65</v>
@@ -6602,24 +6740,24 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="N15" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:14">
       <c r="A16" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="C16" s="5">
         <v>69</v>
@@ -6628,27 +6766,27 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="N16" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:14">
       <c r="A17" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="C17" s="5">
         <v>70</v>
@@ -6657,7 +6795,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="5"/>
@@ -6666,21 +6804,21 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:14">
       <c r="A18" s="5" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="C18" s="5">
         <v>77</v>
@@ -6689,7 +6827,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -6698,15 +6836,15 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="N18" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:14">
       <c r="A19" s="5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C19" s="5">
         <v>79</v>
@@ -6715,7 +6853,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -6724,15 +6862,15 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="N19" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:14">
       <c r="A20" s="5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C20" s="5">
         <v>84</v>
@@ -6741,7 +6879,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -6750,15 +6888,15 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="N20" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C21" s="5">
         <v>83</v>
@@ -6767,172 +6905,172 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1"/>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:5">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25" s="5" customFormat="1" spans="1:5">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D25" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26" s="5" customFormat="1" spans="1:5">
       <c r="A26" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D26" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27" s="5" customFormat="1" spans="1:5">
       <c r="A27" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="D27" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E27"/>
     </row>
     <row r="28" s="5" customFormat="1" spans="1:5">
       <c r="A28" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E28"/>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:5">
       <c r="A29" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="E29"/>
     </row>
     <row r="30" s="5" customFormat="1" spans="1:5">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D30" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E30"/>
     </row>
     <row r="31" s="5" customFormat="1" spans="1:5">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D31" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E31"/>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:5">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E32"/>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:5">
       <c r="A33" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D33" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E33"/>
     </row>
@@ -6966,7 +7104,7 @@
   <sheetPr/>
   <dimension ref="A1:AH65"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="C3" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="C12" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -6977,7 +7115,7 @@
   <sheetData>
     <row r="1" spans="4:34">
       <c r="D1" s="5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P1" t="s">
         <v>69</v>
@@ -6986,13 +7124,13 @@
         <v>70</v>
       </c>
       <c r="S1" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="T1" t="s">
         <v>48</v>
       </c>
       <c r="U1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>4</v>
@@ -7007,16 +7145,16 @@
         <v>8</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="AD1" t="s">
         <v>6</v>
@@ -7039,22 +7177,22 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G2" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>73</v>
@@ -7122,22 +7260,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>73</v>
@@ -7205,22 +7343,22 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>73</v>
@@ -7288,22 +7426,22 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>73</v>
@@ -7368,25 +7506,25 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>73</v>
@@ -7451,25 +7589,25 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>73</v>
@@ -7534,31 +7672,31 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G8" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I8" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P8">
         <v>20</v>
@@ -7617,31 +7755,31 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="G9" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I9" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="P9">
         <v>20</v>
@@ -7703,22 +7841,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G10" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>78</v>
@@ -7727,10 +7865,10 @@
         <v>98</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K10" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P10">
         <v>40</v>
@@ -7792,22 +7930,22 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E11" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G11" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>78</v>
@@ -7816,10 +7954,10 @@
         <v>98</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K11" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P11">
         <v>40</v>
@@ -7881,22 +8019,22 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E12" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G12" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>78</v>
@@ -7905,10 +8043,10 @@
         <v>98</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P12">
         <v>40</v>
@@ -7970,22 +8108,22 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G13" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>78</v>
@@ -7994,10 +8132,10 @@
         <v>98</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K13" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P13">
         <v>40</v>
@@ -8056,25 +8194,25 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E14" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G14" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>78</v>
@@ -8083,10 +8221,10 @@
         <v>98</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="K14" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="P14">
         <v>40</v>
@@ -8145,25 +8283,25 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E15" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="G15" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>78</v>
@@ -8172,10 +8310,10 @@
         <v>98</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="K15" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="P15">
         <v>40</v>
@@ -8234,37 +8372,37 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E16" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="I16" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P16">
         <v>20</v>
@@ -8323,37 +8461,37 @@
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E17" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="I17" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="K17" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P17">
         <v>20</v>
@@ -8415,22 +8553,22 @@
         <v>4</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E18" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G18" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>83</v>
@@ -8439,16 +8577,16 @@
         <v>99</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K18" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M18" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P18">
         <v>55</v>
@@ -8510,22 +8648,22 @@
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E19" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G19" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>83</v>
@@ -8534,16 +8672,16 @@
         <v>99</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K19" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P19">
         <v>55</v>
@@ -8605,22 +8743,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E20" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G20" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>83</v>
@@ -8629,16 +8767,16 @@
         <v>99</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M20" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="P20">
         <v>55</v>
@@ -8700,22 +8838,22 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E21" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G21" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>83</v>
@@ -8724,16 +8862,16 @@
         <v>99</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M21" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P21">
         <v>55</v>
@@ -8792,25 +8930,25 @@
     </row>
     <row r="22" spans="1:34">
       <c r="A22" s="5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="E22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G22" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>83</v>
@@ -8819,16 +8957,16 @@
         <v>99</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="K22" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M22" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="P22">
         <v>55</v>
@@ -8887,25 +9025,25 @@
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E23" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G23" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>83</v>
@@ -8914,16 +9052,16 @@
         <v>99</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="K23" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M23" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="P23">
         <v>55</v>
@@ -8982,43 +9120,43 @@
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E24" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="G24" t="s">
+        <v>250</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="I24" t="s">
+        <v>247</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" t="s">
         <v>244</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="I24" t="s">
-        <v>241</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="K24" t="s">
-        <v>238</v>
-      </c>
       <c r="L24" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="M24" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="P24">
         <v>20</v>
@@ -9077,43 +9215,43 @@
     </row>
     <row r="25" spans="1:34">
       <c r="A25" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E25" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="I25" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K25" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="P25">
         <v>20</v>
@@ -9175,22 +9313,22 @@
         <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E26" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G26" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>88</v>
@@ -9199,16 +9337,16 @@
         <v>100</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M26" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>88</v>
@@ -9276,22 +9414,22 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E27" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G27" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>88</v>
@@ -9300,16 +9438,16 @@
         <v>100</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K27" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M27" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>88</v>
@@ -9377,22 +9515,22 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E28" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G28" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>88</v>
@@ -9401,16 +9539,16 @@
         <v>100</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="K28" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M28" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>88</v>
@@ -9478,22 +9616,22 @@
         <v>8</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E29" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G29" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>88</v>
@@ -9502,16 +9640,16 @@
         <v>100</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M29" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>88</v>
@@ -9576,25 +9714,25 @@
     </row>
     <row r="30" ht="15" spans="1:34">
       <c r="A30" s="5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E30" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>88</v>
@@ -9603,16 +9741,16 @@
         <v>100</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="K30" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M30" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>88</v>
@@ -9677,25 +9815,25 @@
     </row>
     <row r="31" spans="1:34">
       <c r="A31" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E31" t="s">
+        <v>264</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" t="s">
         <v>258</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="G31" t="s">
-        <v>252</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>88</v>
@@ -9704,16 +9842,16 @@
         <v>100</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="K31" t="s">
+        <v>264</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="M31" t="s">
         <v>258</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="M31" t="s">
-        <v>252</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>88</v>
@@ -9778,49 +9916,49 @@
     </row>
     <row r="32" ht="15" spans="1:34">
       <c r="A32" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E32" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="G32" t="s">
+        <v>261</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I32" t="s">
+        <v>258</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="K32" t="s">
         <v>255</v>
       </c>
-      <c r="H32" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I32" t="s">
-        <v>252</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="K32" t="s">
-        <v>249</v>
-      </c>
       <c r="L32" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="M32" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="O32" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="P32">
         <v>20</v>
@@ -9879,49 +10017,49 @@
     </row>
     <row r="33" spans="1:34">
       <c r="A33" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="E33" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="G33" t="s">
+        <v>264</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="I33" t="s">
         <v>258</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="J33" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="K33" t="s">
+        <v>255</v>
+      </c>
+      <c r="L33" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="I33" t="s">
-        <v>252</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="K33" t="s">
-        <v>249</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="M33" t="s">
+        <v>264</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="O33" t="s">
         <v>258</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="O33" t="s">
-        <v>252</v>
       </c>
       <c r="P33">
         <v>20</v>
@@ -9983,22 +10121,22 @@
         <v>4</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E34" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>88</v>
@@ -10007,16 +10145,16 @@
         <v>100</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K34" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M34" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>88</v>
@@ -10084,22 +10222,22 @@
         <v>3</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E35" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G35" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>88</v>
@@ -10108,16 +10246,16 @@
         <v>100</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K35" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M35" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>88</v>
@@ -10185,22 +10323,22 @@
         <v>5</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E36" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G36" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>88</v>
@@ -10209,16 +10347,16 @@
         <v>100</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K36" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M36" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>88</v>
@@ -10286,22 +10424,22 @@
         <v>8</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E37" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G37" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>88</v>
@@ -10310,16 +10448,16 @@
         <v>100</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K37" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M37" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>88</v>
@@ -10384,25 +10522,25 @@
     </row>
     <row r="38" spans="1:34">
       <c r="A38" s="5" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E38" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G38" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>88</v>
@@ -10411,16 +10549,16 @@
         <v>100</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K38" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M38" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>88</v>
@@ -10485,25 +10623,25 @@
     </row>
     <row r="39" spans="1:34">
       <c r="A39" s="5" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="E39" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="G39" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>88</v>
@@ -10512,16 +10650,16 @@
         <v>100</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K39" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M39" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>88</v>
@@ -10586,49 +10724,49 @@
     </row>
     <row r="40" spans="1:34">
       <c r="A40" s="5" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E40" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="G40" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I40" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K40" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="M40" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="O40" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P40">
         <v>20</v>
@@ -10687,49 +10825,49 @@
     </row>
     <row r="41" spans="1:34">
       <c r="A41" s="5" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E41" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G41" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="I41" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="K41" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M41" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="O41" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="P41">
         <v>20</v>
@@ -10788,10 +10926,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="D46" t="s">
         <v>73</v>
@@ -10805,10 +10943,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="D47" t="s">
         <v>78</v>
@@ -10822,10 +10960,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D48" t="s">
         <v>83</v>
@@ -10839,10 +10977,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D49" t="s">
         <v>88</v>
@@ -10856,130 +10994,130 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -10993,7 +11131,7 @@
   <sheetPr/>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
@@ -11001,10 +11139,10 @@
   <sheetData>
     <row r="1" spans="5:16">
       <c r="E1" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="F1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -11039,16 +11177,16 @@
     </row>
     <row r="2" ht="25.5" spans="1:16">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>124</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -11089,16 +11227,16 @@
     </row>
     <row r="3" ht="25.5" spans="1:16">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -11139,16 +11277,16 @@
     </row>
     <row r="4" ht="25.5" spans="1:16">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -11189,16 +11327,16 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -11239,16 +11377,16 @@
     </row>
     <row r="6" ht="25.5" spans="1:16">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -11289,16 +11427,16 @@
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -11339,16 +11477,16 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -11389,16 +11527,16 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -11439,16 +11577,16 @@
     </row>
     <row r="10" ht="25.5" spans="1:16">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -11489,16 +11627,16 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -11539,16 +11677,16 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -11596,60 +11734,473 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:C5"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.325" customWidth="1"/>
     <col min="2" max="2" width="13.0916666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.7833333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="1" spans="3:5">
+      <c r="C1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B2" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>373</v>
+      </c>
+      <c r="D2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="C3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>378</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B5" t="s">
-        <v>373</v>
-      </c>
-      <c r="C5" t="s">
-        <v>374</v>
+        <v>381</v>
+      </c>
+      <c r="E4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="7:7">
+      <c r="G5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F9">
+        <v>1379</v>
+      </c>
+      <c r="G9">
+        <v>468</v>
+      </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>392</v>
+      </c>
+      <c r="C10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" t="s">
+        <v>393</v>
+      </c>
+      <c r="E10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" t="s">
+        <v>394</v>
+      </c>
+      <c r="G10" t="s">
+        <v>390</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>80</v>
+      </c>
+      <c r="J10">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>392</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>120</v>
+      </c>
+      <c r="J11">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>395</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>160</v>
+      </c>
+      <c r="J12">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>397</v>
+      </c>
+      <c r="B13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13">
+        <v>2468</v>
+      </c>
+      <c r="G13" t="s">
+        <v>399</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>40</v>
+      </c>
+      <c r="J13">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" t="s">
+        <v>398</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>80</v>
+      </c>
+      <c r="J14">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>400</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>120</v>
+      </c>
+      <c r="J15">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" t="s">
+        <v>401</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>160</v>
+      </c>
+      <c r="J16">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>403</v>
+      </c>
+      <c r="B17" t="s">
+        <v>404</v>
+      </c>
+      <c r="C17" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17">
+        <v>2468</v>
+      </c>
+      <c r="I17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>405</v>
+      </c>
+      <c r="B18" t="s">
+        <v>406</v>
+      </c>
+      <c r="C18" t="s">
+        <v>377</v>
+      </c>
+      <c r="D18">
+        <v>13579</v>
+      </c>
+      <c r="I18">
+        <v>40</v>
+      </c>
+      <c r="J18">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" t="s">
+        <v>407</v>
+      </c>
+      <c r="D19" t="s">
+        <v>408</v>
+      </c>
+      <c r="I19">
+        <v>80</v>
+      </c>
+      <c r="J19">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
+        <v>409</v>
+      </c>
+      <c r="D20" t="s">
+        <v>410</v>
+      </c>
+      <c r="I20">
+        <v>120</v>
+      </c>
+      <c r="J20">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D22">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>412</v>
+      </c>
+      <c r="D23">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D24">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>414</v>
+      </c>
+      <c r="D25">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="8"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="425">
   <si>
     <t>圆满层数</t>
   </si>
@@ -1567,6 +1567,36 @@
   </si>
   <si>
     <t>kunpeng</t>
+  </si>
+  <si>
+    <t>掉落物品</t>
+  </si>
+  <si>
+    <t>概率</t>
+  </si>
+  <si>
+    <t>linghe0</t>
+  </si>
+  <si>
+    <t>linghe1</t>
+  </si>
+  <si>
+    <t>linghe2</t>
+  </si>
+  <si>
+    <t>linghe3</t>
+  </si>
+  <si>
+    <t>linghe4</t>
+  </si>
+  <si>
+    <t>修士</t>
+  </si>
+  <si>
+    <t>xiushi</t>
+  </si>
+  <si>
+    <t>功法+灵石</t>
   </si>
   <si>
     <t>a</t>
@@ -1901,18 +1931,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF6AAB73"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2712,8 +2742,8 @@
   <sheetPr/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -11129,10 +11159,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11723,6 +11753,245 @@
       </c>
       <c r="P12">
         <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="5:6">
+      <c r="E16" t="s">
+        <v>369</v>
+      </c>
+      <c r="F16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
+        <v>371</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" ht="25.5" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>371</v>
+      </c>
+      <c r="F18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>371</v>
+      </c>
+      <c r="F19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>372</v>
+      </c>
+      <c r="F20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>372</v>
+      </c>
+      <c r="F21">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>372</v>
+      </c>
+      <c r="F22">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>373</v>
+      </c>
+      <c r="F23">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>373</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" ht="25.5" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>373</v>
+      </c>
+      <c r="F25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" t="s">
+        <v>374</v>
+      </c>
+      <c r="F26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>375</v>
+      </c>
+      <c r="F27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>376</v>
+      </c>
+      <c r="B29" t="s">
+        <v>377</v>
+      </c>
+      <c r="E29" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -11736,8 +12005,8 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -11752,107 +12021,107 @@
         <v>270</v>
       </c>
       <c r="D1" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="E1" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C2" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D2" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="E2" t="s">
         <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B3" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C3" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="E3" t="s">
         <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="E4" t="s">
         <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="7:7">
       <c r="G5" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B6" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C7" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D7" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C8" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D8" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B9" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="D9" t="s">
         <v>120</v>
@@ -11875,22 +12144,22 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C10" t="s">
         <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="E10" t="s">
         <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="G10" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -11904,7 +12173,7 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="C11" t="s">
         <v>103</v>
@@ -11919,7 +12188,7 @@
         <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -11933,7 +12202,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
@@ -11948,7 +12217,7 @@
         <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -11962,10 +12231,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B13" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C13" t="s">
         <v>101</v>
@@ -11980,7 +12249,7 @@
         <v>2468</v>
       </c>
       <c r="G13" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -11994,7 +12263,7 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="C14" t="s">
         <v>102</v>
@@ -12009,7 +12278,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -12023,7 +12292,7 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C15" t="s">
         <v>103</v>
@@ -12038,7 +12307,7 @@
         <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -12052,7 +12321,7 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C16" t="s">
         <v>104</v>
@@ -12067,7 +12336,7 @@
         <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -12081,10 +12350,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B17" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C17" t="s">
         <v>123</v>
@@ -12101,13 +12370,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B18" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C18" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D18">
         <v>13579</v>
@@ -12121,10 +12390,10 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="D19" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="I19">
         <v>80</v>
@@ -12135,10 +12404,10 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="D20" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="I20">
         <v>120</v>
@@ -12155,7 +12424,7 @@
         <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="D22">
         <v>123</v>
@@ -12169,7 +12438,7 @@
         <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="D23">
         <v>123</v>
@@ -12183,7 +12452,7 @@
         <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D24">
         <v>123</v>
@@ -12197,7 +12466,7 @@
         <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="D25">
         <v>123</v>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="422">
   <si>
     <t>圆满层数</t>
   </si>
@@ -1539,6 +1539,15 @@
     <t>增幅系数</t>
   </si>
   <si>
+    <t>掉落物品</t>
+  </si>
+  <si>
+    <t>概率</t>
+  </si>
+  <si>
+    <t>linghe0</t>
+  </si>
+  <si>
     <t>huanlinghu</t>
   </si>
   <si>
@@ -1548,6 +1557,9 @@
     <t>youmingguishou</t>
   </si>
   <si>
+    <t>linghe1</t>
+  </si>
+  <si>
     <t>shayingmoxie</t>
   </si>
   <si>
@@ -1557,6 +1569,9 @@
     <t>zuoying</t>
   </si>
   <si>
+    <t>linghe2</t>
+  </si>
+  <si>
     <t>huoqiling</t>
   </si>
   <si>
@@ -1566,37 +1581,13 @@
     <t>bingfenghuang</t>
   </si>
   <si>
+    <t>linghe3</t>
+  </si>
+  <si>
     <t>kunpeng</t>
   </si>
   <si>
-    <t>掉落物品</t>
-  </si>
-  <si>
-    <t>概率</t>
-  </si>
-  <si>
-    <t>linghe0</t>
-  </si>
-  <si>
-    <t>linghe1</t>
-  </si>
-  <si>
-    <t>linghe2</t>
-  </si>
-  <si>
-    <t>linghe3</t>
-  </si>
-  <si>
     <t>linghe4</t>
-  </si>
-  <si>
-    <t>修士</t>
-  </si>
-  <si>
-    <t>xiushi</t>
-  </si>
-  <si>
-    <t>功法+灵石</t>
   </si>
   <si>
     <t>a</t>
@@ -1931,18 +1922,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6AAB73"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2742,8 +2733,8 @@
   <sheetPr/>
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -11159,15 +11150,15 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="5:16">
+    <row r="1" spans="5:18">
       <c r="E1" t="s">
         <v>357</v>
       </c>
@@ -11204,8 +11195,14 @@
       <c r="P1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" ht="25.5" spans="1:16">
+      <c r="Q1" t="s">
+        <v>359</v>
+      </c>
+      <c r="R1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" ht="25.5" spans="1:18">
       <c r="A2" t="s">
         <v>134</v>
       </c>
@@ -11222,7 +11219,7 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -11254,8 +11251,14 @@
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" ht="25.5" spans="1:16">
+      <c r="Q2" t="s">
+        <v>361</v>
+      </c>
+      <c r="R2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" ht="25.5" spans="1:18">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -11263,7 +11266,7 @@
         <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>130</v>
@@ -11272,7 +11275,7 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -11304,8 +11307,14 @@
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" ht="25.5" spans="1:16">
+      <c r="Q3" t="s">
+        <v>361</v>
+      </c>
+      <c r="R3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" ht="25.5" spans="1:18">
       <c r="A4" t="s">
         <v>150</v>
       </c>
@@ -11313,7 +11322,7 @@
         <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>130</v>
@@ -11322,7 +11331,7 @@
         <v>15</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -11354,8 +11363,14 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" t="s">
+        <v>361</v>
+      </c>
+      <c r="R4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -11363,7 +11378,7 @@
         <v>159</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>154</v>
@@ -11372,7 +11387,7 @@
         <v>17</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -11404,8 +11419,14 @@
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" ht="25.5" spans="1:16">
+      <c r="Q5" t="s">
+        <v>365</v>
+      </c>
+      <c r="R5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="6" ht="25.5" spans="1:18">
       <c r="A6" t="s">
         <v>165</v>
       </c>
@@ -11413,7 +11434,7 @@
         <v>166</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>154</v>
@@ -11422,7 +11443,7 @@
         <v>17</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -11454,8 +11475,14 @@
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" t="s">
+        <v>365</v>
+      </c>
+      <c r="R6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -11463,7 +11490,7 @@
         <v>173</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>154</v>
@@ -11472,7 +11499,7 @@
         <v>17</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -11504,8 +11531,14 @@
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" t="s">
+        <v>365</v>
+      </c>
+      <c r="R7">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>180</v>
       </c>
@@ -11513,7 +11546,7 @@
         <v>181</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>176</v>
@@ -11554,8 +11587,14 @@
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" t="s">
+        <v>369</v>
+      </c>
+      <c r="R8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>187</v>
       </c>
@@ -11563,7 +11602,7 @@
         <v>188</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>176</v>
@@ -11604,8 +11643,14 @@
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" ht="25.5" spans="1:16">
+      <c r="Q9" t="s">
+        <v>369</v>
+      </c>
+      <c r="R9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" ht="25.5" spans="1:18">
       <c r="A10" t="s">
         <v>194</v>
       </c>
@@ -11613,7 +11658,7 @@
         <v>195</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>176</v>
@@ -11654,8 +11699,14 @@
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" t="s">
+        <v>369</v>
+      </c>
+      <c r="R10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>202</v>
       </c>
@@ -11663,7 +11714,7 @@
         <v>199</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>198</v>
@@ -11704,8 +11755,14 @@
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" t="s">
+        <v>373</v>
+      </c>
+      <c r="R11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -11713,7 +11770,7 @@
         <v>210</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>205</v>
@@ -11754,245 +11811,313 @@
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="5:6">
-      <c r="E16" t="s">
-        <v>369</v>
-      </c>
-      <c r="F16" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="17" ht="25.5" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>130</v>
+      <c r="Q12" t="s">
+        <v>375</v>
+      </c>
+      <c r="R12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15">
+      <c r="C17" t="s">
+        <v>0</v>
       </c>
       <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
+        <v>11</v>
+      </c>
+      <c r="O17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
-        <v>371</v>
-      </c>
-      <c r="F17">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" ht="25.5" spans="1:6">
-      <c r="A18" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" t="s">
-        <v>371</v>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>360</v>
       </c>
       <c r="F18">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="19" ht="25.5" spans="1:6">
-      <c r="A19" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
-        <v>371</v>
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>24</v>
+      </c>
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <v>120</v>
+      </c>
+      <c r="L18">
+        <v>12</v>
+      </c>
+      <c r="M18">
+        <v>12</v>
+      </c>
+      <c r="N18">
+        <v>200</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
       </c>
       <c r="F19">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>372</v>
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>36</v>
+      </c>
+      <c r="H19">
+        <v>18</v>
+      </c>
+      <c r="I19">
+        <v>12</v>
+      </c>
+      <c r="J19">
+        <v>12</v>
+      </c>
+      <c r="K19">
+        <v>200</v>
+      </c>
+      <c r="L19">
+        <v>12</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="N19">
+        <v>600</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2000</v>
       </c>
       <c r="F20">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="21" ht="25.5" spans="1:6">
-      <c r="A21" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>372</v>
+        <v>800</v>
+      </c>
+      <c r="G20">
+        <v>48</v>
+      </c>
+      <c r="H20">
+        <v>24</v>
+      </c>
+      <c r="I20">
+        <v>12</v>
+      </c>
+      <c r="J20">
+        <v>12</v>
+      </c>
+      <c r="K20">
+        <v>300</v>
+      </c>
+      <c r="L20">
+        <v>12</v>
+      </c>
+      <c r="M20">
+        <v>12</v>
+      </c>
+      <c r="N20">
+        <v>1800</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>40</v>
+      </c>
+      <c r="E21">
+        <v>4000</v>
       </c>
       <c r="F21">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" t="s">
-        <v>372</v>
+        <v>3200</v>
+      </c>
+      <c r="G21">
+        <v>148</v>
+      </c>
+      <c r="H21">
+        <v>72</v>
+      </c>
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21">
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <v>400</v>
+      </c>
+      <c r="L21">
+        <v>12</v>
+      </c>
+      <c r="M21">
+        <v>12</v>
+      </c>
+      <c r="N21">
+        <v>5400</v>
+      </c>
+      <c r="O21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>80</v>
+      </c>
+      <c r="E22">
+        <v>8000</v>
       </c>
       <c r="F22">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" t="s">
-        <v>373</v>
-      </c>
-      <c r="F23">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>373</v>
-      </c>
-      <c r="F24">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="25" ht="25.5" spans="1:6">
-      <c r="A25" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" t="s">
-        <v>373</v>
-      </c>
-      <c r="F25">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="D26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" t="s">
-        <v>374</v>
-      </c>
-      <c r="F26">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>375</v>
-      </c>
-      <c r="F27">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>376</v>
-      </c>
-      <c r="B29" t="s">
-        <v>377</v>
-      </c>
-      <c r="E29" t="s">
-        <v>378</v>
-      </c>
+        <v>12800</v>
+      </c>
+      <c r="G22">
+        <v>432</v>
+      </c>
+      <c r="H22">
+        <v>216</v>
+      </c>
+      <c r="I22">
+        <v>12</v>
+      </c>
+      <c r="J22">
+        <v>12</v>
+      </c>
+      <c r="K22">
+        <v>800</v>
+      </c>
+      <c r="L22">
+        <v>12</v>
+      </c>
+      <c r="M22">
+        <v>12</v>
+      </c>
+      <c r="N22">
+        <v>10000</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12021,107 +12146,107 @@
         <v>270</v>
       </c>
       <c r="D1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C2" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" t="s">
         <v>381</v>
-      </c>
-      <c r="B2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D2" t="s">
-        <v>384</v>
       </c>
       <c r="E2" t="s">
         <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E3" t="s">
         <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E4" t="s">
         <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="7:7">
       <c r="G5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C8" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B9" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C9" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D9" t="s">
         <v>120</v>
@@ -12144,22 +12269,22 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C10" t="s">
         <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E10" t="s">
         <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G10" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -12173,7 +12298,7 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C11" t="s">
         <v>103</v>
@@ -12188,7 +12313,7 @@
         <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -12202,7 +12327,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
@@ -12217,7 +12342,7 @@
         <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -12231,10 +12356,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C13" t="s">
         <v>101</v>
@@ -12249,7 +12374,7 @@
         <v>2468</v>
       </c>
       <c r="G13" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -12263,7 +12388,7 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C14" t="s">
         <v>102</v>
@@ -12278,7 +12403,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -12292,7 +12417,7 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C15" t="s">
         <v>103</v>
@@ -12307,7 +12432,7 @@
         <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -12321,7 +12446,7 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C16" t="s">
         <v>104</v>
@@ -12336,7 +12461,7 @@
         <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -12350,10 +12475,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B17" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C17" t="s">
         <v>123</v>
@@ -12370,13 +12495,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B18" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C18" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D18">
         <v>13579</v>
@@ -12390,10 +12515,10 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D19" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I19">
         <v>80</v>
@@ -12404,10 +12529,10 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D20" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I20">
         <v>120</v>
@@ -12424,7 +12549,7 @@
         <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D22">
         <v>123</v>
@@ -12438,7 +12563,7 @@
         <v>114</v>
       </c>
       <c r="C23" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D23">
         <v>123</v>
@@ -12452,7 +12577,7 @@
         <v>115</v>
       </c>
       <c r="C24" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D24">
         <v>123</v>
@@ -12466,7 +12591,7 @@
         <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D25">
         <v>123</v>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="7"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
@@ -11152,7 +11152,7 @@
   <sheetPr/>
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -12130,8 +12130,8 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12380,10 +12380,10 @@
         <v>5</v>
       </c>
       <c r="I13">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J13">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="2:10">
@@ -12487,10 +12487,10 @@
         <v>2468</v>
       </c>
       <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
         <v>10</v>
-      </c>
-      <c r="J17">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:10">

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -1632,70 +1632,70 @@
     <t>打坐，修炼功法、调整灵脉状态</t>
   </si>
   <si>
+    <t>灵石</t>
+  </si>
+  <si>
+    <t>lingshi0</t>
+  </si>
+  <si>
+    <t>lingshi1</t>
+  </si>
+  <si>
+    <t>a*9</t>
+  </si>
+  <si>
+    <t>lingshi2</t>
+  </si>
+  <si>
+    <t>炼器鼎</t>
+  </si>
+  <si>
+    <t>lianqiding0</t>
+  </si>
+  <si>
+    <t>bab/aba/bab</t>
+  </si>
+  <si>
+    <t>lianqiding1</t>
+  </si>
+  <si>
+    <t>1379 10 11</t>
+  </si>
+  <si>
+    <t>468 12 13</t>
+  </si>
+  <si>
+    <t>lianqiding2</t>
+  </si>
+  <si>
+    <t>lianqiding3</t>
+  </si>
+  <si>
+    <t>炼丹炉</t>
+  </si>
+  <si>
+    <t>liandanlu0</t>
+  </si>
+  <si>
+    <t>linghe</t>
+  </si>
+  <si>
+    <t>liandanlu1</t>
+  </si>
+  <si>
+    <t>liandanlu2</t>
+  </si>
+  <si>
+    <t>liandanlu3</t>
+  </si>
+  <si>
+    <t>秘境传送符</t>
+  </si>
+  <si>
+    <t>tpfu</t>
+  </si>
+  <si>
     <t>往返传送秘境</t>
-  </si>
-  <si>
-    <t>灵石</t>
-  </si>
-  <si>
-    <t>lingshi0</t>
-  </si>
-  <si>
-    <t>lingshi1</t>
-  </si>
-  <si>
-    <t>a*9</t>
-  </si>
-  <si>
-    <t>lingshi2</t>
-  </si>
-  <si>
-    <t>炼器鼎</t>
-  </si>
-  <si>
-    <t>lianqiding0</t>
-  </si>
-  <si>
-    <t>bab/aba/bab</t>
-  </si>
-  <si>
-    <t>lianqiding1</t>
-  </si>
-  <si>
-    <t>1379 10 11</t>
-  </si>
-  <si>
-    <t>468 12 13</t>
-  </si>
-  <si>
-    <t>lianqiding2</t>
-  </si>
-  <si>
-    <t>lianqiding3</t>
-  </si>
-  <si>
-    <t>炼丹炉</t>
-  </si>
-  <si>
-    <t>liandanlu0</t>
-  </si>
-  <si>
-    <t>linghe</t>
-  </si>
-  <si>
-    <t>liandanlu1</t>
-  </si>
-  <si>
-    <t>liandanlu2</t>
-  </si>
-  <si>
-    <t>liandanlu3</t>
-  </si>
-  <si>
-    <t>秘境传送符</t>
-  </si>
-  <si>
-    <t>tpfu</t>
   </si>
   <si>
     <t>聚灵阵</t>
@@ -12130,8 +12130,8 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12203,50 +12203,45 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="7:7">
-      <c r="G5" t="s">
-        <v>390</v>
-      </c>
-    </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" t="s">
         <v>391</v>
-      </c>
-      <c r="B6" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C7" t="s">
         <v>393</v>
       </c>
-      <c r="C7" t="s">
-        <v>394</v>
-      </c>
       <c r="D7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C8" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9" t="s">
         <v>396</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>397</v>
-      </c>
-      <c r="C9" t="s">
-        <v>398</v>
       </c>
       <c r="D9" t="s">
         <v>120</v>
@@ -12269,22 +12264,22 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C10" t="s">
         <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E10" t="s">
         <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -12298,7 +12293,7 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C11" t="s">
         <v>103</v>
@@ -12313,7 +12308,7 @@
         <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -12327,7 +12322,7 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C12" t="s">
         <v>104</v>
@@ -12342,7 +12337,7 @@
         <v>87</v>
       </c>
       <c r="G12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -12356,10 +12351,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B13" t="s">
         <v>404</v>
-      </c>
-      <c r="B13" t="s">
-        <v>405</v>
       </c>
       <c r="C13" t="s">
         <v>101</v>
@@ -12374,7 +12369,7 @@
         <v>2468</v>
       </c>
       <c r="G13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -12388,7 +12383,7 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C14" t="s">
         <v>102</v>
@@ -12403,7 +12398,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -12417,7 +12412,7 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C15" t="s">
         <v>103</v>
@@ -12432,7 +12427,7 @@
         <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -12446,7 +12441,7 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C16" t="s">
         <v>104</v>
@@ -12461,7 +12456,7 @@
         <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -12475,16 +12470,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
+        <v>409</v>
+      </c>
+      <c r="B17" t="s">
         <v>410</v>
-      </c>
-      <c r="B17" t="s">
-        <v>411</v>
       </c>
       <c r="C17" t="s">
         <v>123</v>
       </c>
       <c r="D17">
         <v>2468</v>
+      </c>
+      <c r="G17" t="s">
+        <v>411</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -12504,7 +12502,7 @@
         <v>384</v>
       </c>
       <c r="D18">
-        <v>13579</v>
+        <v>456</v>
       </c>
       <c r="I18">
         <v>40</v>
@@ -12552,7 +12550,7 @@
         <v>418</v>
       </c>
       <c r="D22">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -12566,7 +12564,7 @@
         <v>419</v>
       </c>
       <c r="D23">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -12580,7 +12578,7 @@
         <v>420</v>
       </c>
       <c r="D24">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -12594,7 +12592,7 @@
         <v>421</v>
       </c>
       <c r="D25">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="8"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="432">
   <si>
     <t>圆满层数</t>
   </si>
@@ -164,18 +164,6 @@
   </si>
   <si>
     <t>化神归真诀</t>
-  </si>
-  <si>
-    <t>戒指</t>
-  </si>
-  <si>
-    <t>项链</t>
-  </si>
-  <si>
-    <t>玉佩</t>
-  </si>
-  <si>
-    <t>护符</t>
   </si>
   <si>
     <t>穿戴境界</t>
@@ -365,6 +353,60 @@
       </rPr>
       <t>-</t>
     </r>
+  </si>
+  <si>
+    <t>挖掘等级</t>
+  </si>
+  <si>
+    <t>耐久</t>
+  </si>
+  <si>
+    <t>挖掘速度</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>附魔能力</t>
+  </si>
+  <si>
+    <t>修复材料</t>
+  </si>
+  <si>
+    <t>灵镐</t>
+  </si>
+  <si>
+    <t>linggao0</t>
+  </si>
+  <si>
+    <t>linghe0</t>
+  </si>
+  <si>
+    <t>linggao1</t>
+  </si>
+  <si>
+    <t>linghe1</t>
+  </si>
+  <si>
+    <t>linggao2</t>
+  </si>
+  <si>
+    <t>linghe2</t>
+  </si>
+  <si>
+    <t>linggao3</t>
+  </si>
+  <si>
+    <t>linghe3</t>
+  </si>
+  <si>
+    <t>原版对比</t>
+  </si>
+  <si>
+    <t>钻石镐</t>
+  </si>
+  <si>
+    <t>下届合金</t>
   </si>
   <si>
     <t xml:space="preserve">linghe0 </t>
@@ -1545,9 +1587,6 @@
     <t>概率</t>
   </si>
   <si>
-    <t>linghe0</t>
-  </si>
-  <si>
     <t>huanlinghu</t>
   </si>
   <si>
@@ -1557,9 +1596,6 @@
     <t>youmingguishou</t>
   </si>
   <si>
-    <t>linghe1</t>
-  </si>
-  <si>
     <t>shayingmoxie</t>
   </si>
   <si>
@@ -1569,9 +1605,6 @@
     <t>zuoying</t>
   </si>
   <si>
-    <t>linghe2</t>
-  </si>
-  <si>
     <t>huoqiling</t>
   </si>
   <si>
@@ -1579,9 +1612,6 @@
   </si>
   <si>
     <t>bingfenghuang</t>
-  </si>
-  <si>
-    <t>linghe3</t>
   </si>
   <si>
     <t>kunpeng</t>
@@ -1922,18 +1952,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF6AAB73"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -3411,8 +3441,8 @@
   <sheetPr/>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3420,1706 +3450,1803 @@
     <col min="2" max="2" width="9.7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="3:15">
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F5">
+        <v>500</v>
+      </c>
+      <c r="G5">
+        <v>75</v>
+      </c>
+      <c r="H5">
+        <v>36</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>500</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>36</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>16</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>20</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>40</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>80</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>36</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>160</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>16</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>5</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M15">
+        <v>4</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>12</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>15</v>
+      </c>
+      <c r="M16">
+        <v>8</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>500</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>36</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>20</v>
+      </c>
+      <c r="M17">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="16:17">
+      <c r="P19" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="str">
+        <f>VLOOKUP(D20,A:B,2,0)</f>
+        <v>xvantie0</v>
+      </c>
+      <c r="F20">
+        <v>1379</v>
+      </c>
+      <c r="G20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" t="str">
+        <f>VLOOKUP(G20,A:B,2,0)</f>
+        <v>lingjin0</v>
+      </c>
+      <c r="I20">
+        <v>2468</v>
+      </c>
+      <c r="M20" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" t="str">
+        <f>VLOOKUP(M20,A:B,2,0)</f>
+        <v>linghe0 </v>
+      </c>
+      <c r="O20">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8">
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="3:15">
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="P20">
+        <v>40</v>
+      </c>
+      <c r="Q20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" ref="E21:E27" si="0">VLOOKUP(D21,A:B,2,0)</f>
+        <v>xvantie1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" ref="H21:H35" si="1">VLOOKUP(G21,A:B,2,0)</f>
+        <v>lingjin1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>73</v>
+      </c>
+      <c r="M21" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" ref="N21:N35" si="2">VLOOKUP(M21,A:B,2,0)</f>
+        <v>linghe1 </v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>55</v>
+      </c>
+      <c r="Q21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>xvantie2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" t="s">
+        <v>79</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe2 </v>
+      </c>
+      <c r="O22">
         <v>5</v>
       </c>
-      <c r="I16" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>8</v>
-      </c>
-      <c r="L16" t="s">
-        <v>9</v>
-      </c>
-      <c r="M16" t="s">
-        <v>10</v>
-      </c>
-      <c r="N16" t="s">
-        <v>11</v>
-      </c>
-      <c r="O16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" t="s">
+      <c r="P22">
+        <v>80</v>
+      </c>
+      <c r="Q22">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>xvantie3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>83</v>
+      </c>
+      <c r="M23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe3 </v>
+      </c>
+      <c r="O23">
+        <v>5</v>
+      </c>
+      <c r="P23">
+        <v>120</v>
+      </c>
+      <c r="Q23">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>xvantie0</v>
+      </c>
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin0</v>
+      </c>
+      <c r="I24">
+        <v>79</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" t="str">
+        <f>VLOOKUP(J24,A:B,2,0)</f>
+        <v>lingyv0 </v>
+      </c>
+      <c r="L24">
+        <v>2468</v>
+      </c>
+      <c r="M24" t="s">
+        <v>69</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe0 </v>
+      </c>
+      <c r="O24">
         <v>5</v>
       </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>2</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15">
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>20</v>
-      </c>
-      <c r="G18">
+      <c r="P24">
+        <v>40</v>
+      </c>
+      <c r="Q24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>xvantie1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" ref="K25:K35" si="3">VLOOKUP(J25,A:B,2,0)</f>
+        <v>lingyv1 </v>
+      </c>
+      <c r="M25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe1 </v>
+      </c>
+      <c r="O25">
         <v>5</v>
       </c>
-      <c r="H18">
-        <v>4</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>4</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15">
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>100</v>
-      </c>
-      <c r="G19">
-        <v>15</v>
-      </c>
-      <c r="H19">
-        <v>12</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>8</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
-      <c r="B20" t="s">
+      <c r="P25">
+        <v>55</v>
+      </c>
+      <c r="Q25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>500</v>
-      </c>
-      <c r="G20">
+      <c r="D26" t="s">
         <v>75</v>
       </c>
-      <c r="H20">
-        <v>36</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>16</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" t="s">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>xvantie2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" t="s">
+        <v>87</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="3"/>
+        <v>lingyv2 </v>
+      </c>
+      <c r="M26" t="s">
+        <v>79</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe2 </v>
+      </c>
+      <c r="O26">
+        <v>5</v>
+      </c>
+      <c r="P26">
+        <v>80</v>
+      </c>
+      <c r="Q26">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" t="s">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>xvantie3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>83</v>
+      </c>
+      <c r="J27" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="3"/>
+        <v>lingyv3 </v>
+      </c>
+      <c r="M27" t="s">
+        <v>84</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe3 </v>
+      </c>
+      <c r="O27">
+        <v>5</v>
+      </c>
+      <c r="P27">
+        <v>120</v>
+      </c>
+      <c r="Q27">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
         <v>55</v>
       </c>
-      <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin0</v>
+      </c>
+      <c r="I28">
+        <v>1379</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="3"/>
+        <v>lingyv0 </v>
+      </c>
+      <c r="L28">
+        <v>2468</v>
+      </c>
+      <c r="M28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe0 </v>
+      </c>
+      <c r="O28">
         <v>5</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>2</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="B22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>20</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
-      <c r="I22">
-        <v>4</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>4</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15">
-      <c r="B23" t="s">
+      <c r="P28">
+        <v>40</v>
+      </c>
+      <c r="Q28">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>100</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>12</v>
-      </c>
-      <c r="I23">
-        <v>8</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>8</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" t="s">
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="3"/>
+        <v>lingyv1 </v>
+      </c>
+      <c r="L29" t="s">
+        <v>73</v>
+      </c>
+      <c r="M29" t="s">
+        <v>74</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe1 </v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <v>55</v>
+      </c>
+      <c r="Q29">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" t="s">
         <v>58</v>
       </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>500</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>36</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>16</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>16</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" t="s">
+      <c r="G30" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>76</v>
+      </c>
+      <c r="J30" t="s">
+        <v>87</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="3"/>
+        <v>lingyv2 </v>
+      </c>
+      <c r="L30" t="s">
+        <v>78</v>
+      </c>
+      <c r="M30" t="s">
+        <v>79</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe2 </v>
+      </c>
+      <c r="O30">
+        <v>5</v>
+      </c>
+      <c r="P30">
+        <v>80</v>
+      </c>
+      <c r="Q30">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="B25" t="s">
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin3</v>
+      </c>
+      <c r="I31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="3"/>
+        <v>lingyv3 </v>
+      </c>
+      <c r="L31" t="s">
+        <v>83</v>
+      </c>
+      <c r="M31" t="s">
+        <v>84</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe3 </v>
+      </c>
+      <c r="O31">
+        <v>5</v>
+      </c>
+      <c r="P31">
+        <v>120</v>
+      </c>
+      <c r="Q31">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
         <v>60</v>
       </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin0</v>
+      </c>
+      <c r="I32">
+        <v>1379</v>
+      </c>
+      <c r="J32" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="3"/>
+        <v>lingmu0 </v>
+      </c>
+      <c r="L32">
+        <v>2468</v>
+      </c>
+      <c r="M32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe0 </v>
+      </c>
+      <c r="O32">
         <v>5</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>2</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>20</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>2</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15">
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>20</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>4</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
+      <c r="P32">
         <v>40</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>4</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="B27" t="s">
+      <c r="Q32">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" t="s">
         <v>62</v>
       </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>100</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>12</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
+      <c r="G33" t="s">
+        <v>72</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" t="s">
+        <v>90</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="3"/>
+        <v>lingmu1 </v>
+      </c>
+      <c r="L33" t="s">
+        <v>73</v>
+      </c>
+      <c r="M33" t="s">
+        <v>74</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe1 </v>
+      </c>
+      <c r="O33">
+        <v>5</v>
+      </c>
+      <c r="P33">
+        <v>55</v>
+      </c>
+      <c r="Q33">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="1"/>
+        <v>lingjin2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J34" t="s">
+        <v>91</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="3"/>
+        <v>lingmu2 </v>
+      </c>
+      <c r="L34" t="s">
+        <v>78</v>
+      </c>
+      <c r="M34" t="s">
+        <v>79</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="2"/>
+        <v>linghe2 </v>
+      </c>
+      <c r="O34">
+        <v>5</v>
+      </c>
+      <c r="P34">
         <v>80</v>
       </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>8</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>500</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>36</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>160</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>16</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="A29" t="s">
+      <c r="Q34">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" t="s">
         <v>64</v>
       </c>
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>5</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>5</v>
-      </c>
-      <c r="M29">
-        <v>2</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15">
-      <c r="B30" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>20</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>4</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>10</v>
-      </c>
-      <c r="M30">
-        <v>4</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
-      <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>100</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>12</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>15</v>
-      </c>
-      <c r="M31">
-        <v>8</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15">
-      <c r="B32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>500</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>36</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>20</v>
-      </c>
-      <c r="M32">
-        <v>16</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="16:17">
-      <c r="P34" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" t="str">
-        <f>VLOOKUP(D35,A:B,2,0)</f>
-        <v>xvantie0</v>
-      </c>
-      <c r="F35">
-        <v>1379</v>
-      </c>
       <c r="G35" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="H35" t="str">
-        <f>VLOOKUP(G35,A:B,2,0)</f>
-        <v>lingjin0</v>
-      </c>
-      <c r="I35">
-        <v>2468</v>
+        <f t="shared" si="1"/>
+        <v>lingjin3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>81</v>
+      </c>
+      <c r="J35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="3"/>
+        <v>lingmu3 </v>
+      </c>
+      <c r="L35" t="s">
+        <v>83</v>
       </c>
       <c r="M35" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="N35" t="str">
-        <f>VLOOKUP(M35,A:B,2,0)</f>
-        <v>linghe0 </v>
+        <f t="shared" si="2"/>
+        <v>linghe3 </v>
       </c>
       <c r="O35">
         <v>5</v>
       </c>
       <c r="P35">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="Q35">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="2:17">
-      <c r="B36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" t="s">
-        <v>74</v>
-      </c>
-      <c r="E36" t="str">
-        <f t="shared" ref="E36:E42" si="0">VLOOKUP(D36,A:B,2,0)</f>
-        <v>xvantie1</v>
-      </c>
-      <c r="F36" t="s">
-        <v>75</v>
-      </c>
-      <c r="G36" t="s">
-        <v>76</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" ref="H36:H50" si="1">VLOOKUP(G36,A:B,2,0)</f>
-        <v>lingjin1</v>
-      </c>
-      <c r="I36" t="s">
-        <v>77</v>
-      </c>
-      <c r="M36" t="s">
-        <v>78</v>
-      </c>
-      <c r="N36" t="str">
-        <f t="shared" ref="N36:N50" si="2">VLOOKUP(M36,A:B,2,0)</f>
-        <v>linghe1 </v>
-      </c>
-      <c r="O36">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" t="s">
+        <v>97</v>
+      </c>
+      <c r="I37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>1200</v>
+      </c>
+      <c r="F38">
+        <v>8</v>
+      </c>
+      <c r="G38">
+        <v>6</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>2000</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>12</v>
+      </c>
+      <c r="H39">
+        <v>15</v>
+      </c>
+      <c r="I39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
         <v>5</v>
       </c>
-      <c r="P36">
-        <v>55</v>
-      </c>
-      <c r="Q36">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17">
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>xvantie2</v>
-      </c>
-      <c r="F37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" t="s">
-        <v>81</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="1"/>
-        <v>lingjin2</v>
-      </c>
-      <c r="I37" t="s">
-        <v>82</v>
-      </c>
-      <c r="M37" t="s">
-        <v>83</v>
-      </c>
-      <c r="N37" t="str">
-        <f t="shared" si="2"/>
-        <v>linghe2 </v>
-      </c>
-      <c r="O37">
-        <v>5</v>
-      </c>
-      <c r="P37">
-        <v>80</v>
-      </c>
-      <c r="Q37">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="2:17">
-      <c r="B38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" t="s">
-        <v>84</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>xvantie3</v>
-      </c>
-      <c r="F38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G38" t="s">
-        <v>86</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="1"/>
-        <v>lingjin3</v>
-      </c>
-      <c r="I38" t="s">
-        <v>87</v>
-      </c>
-      <c r="M38" t="s">
-        <v>88</v>
-      </c>
-      <c r="N38" t="str">
-        <f t="shared" si="2"/>
-        <v>linghe3 </v>
-      </c>
-      <c r="O38">
-        <v>5</v>
-      </c>
-      <c r="P38">
-        <v>120</v>
-      </c>
-      <c r="Q38">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>xvantie0</v>
-      </c>
-      <c r="F39">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s">
-        <v>72</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="1"/>
-        <v>lingjin0</v>
-      </c>
-      <c r="I39">
-        <v>79</v>
-      </c>
-      <c r="J39" t="s">
-        <v>89</v>
-      </c>
-      <c r="K39" t="str">
-        <f>VLOOKUP(J39,A:B,2,0)</f>
-        <v>lingyv0 </v>
-      </c>
-      <c r="L39">
-        <v>2468</v>
-      </c>
-      <c r="M39" t="s">
-        <v>73</v>
-      </c>
-      <c r="N39" t="str">
-        <f t="shared" si="2"/>
-        <v>linghe0 </v>
-      </c>
-      <c r="O39">
-        <v>5</v>
-      </c>
-      <c r="P39">
-        <v>40</v>
-      </c>
-      <c r="Q39">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="2:17">
-      <c r="B40" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" t="s">
-        <v>74</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>xvantie1</v>
-      </c>
-      <c r="F40" t="s">
-        <v>75</v>
-      </c>
-      <c r="G40" t="s">
-        <v>76</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="1"/>
-        <v>lingjin1</v>
+      <c r="E40">
+        <v>3000</v>
+      </c>
+      <c r="F40">
+        <v>12</v>
+      </c>
+      <c r="G40">
+        <v>24</v>
+      </c>
+      <c r="H40">
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>77</v>
-      </c>
-      <c r="J40" t="s">
-        <v>90</v>
-      </c>
-      <c r="K40" t="str">
-        <f t="shared" ref="K40:K50" si="3">VLOOKUP(J40,A:B,2,0)</f>
-        <v>lingyv1 </v>
-      </c>
-      <c r="M40" t="s">
-        <v>78</v>
-      </c>
-      <c r="N40" t="str">
-        <f t="shared" si="2"/>
-        <v>linghe1 </v>
-      </c>
-      <c r="O40">
-        <v>5</v>
-      </c>
-      <c r="P40">
-        <v>55</v>
-      </c>
-      <c r="Q40">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="2:17">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="0"/>
-        <v>xvantie2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" t="s">
-        <v>81</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="1"/>
-        <v>lingjin2</v>
+        <v>106</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+      <c r="E41">
+        <v>4000</v>
+      </c>
+      <c r="F41">
+        <v>14</v>
+      </c>
+      <c r="G41">
+        <v>48</v>
+      </c>
+      <c r="H41">
+        <v>25</v>
       </c>
       <c r="I41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J41" t="s">
-        <v>91</v>
-      </c>
-      <c r="K41" t="str">
-        <f t="shared" si="3"/>
-        <v>lingyv2 </v>
-      </c>
-      <c r="M41" t="s">
-        <v>83</v>
-      </c>
-      <c r="N41" t="str">
-        <f t="shared" si="2"/>
-        <v>linghe2 </v>
-      </c>
-      <c r="O41">
-        <v>5</v>
-      </c>
-      <c r="P41">
-        <v>80</v>
-      </c>
-      <c r="Q41">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="42" spans="2:17">
-      <c r="B42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="0"/>
-        <v>xvantie3</v>
-      </c>
-      <c r="F42" t="s">
-        <v>85</v>
-      </c>
-      <c r="G42" t="s">
-        <v>86</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="1"/>
-        <v>lingjin3</v>
-      </c>
-      <c r="I42" t="s">
-        <v>87</v>
-      </c>
-      <c r="J42" t="s">
-        <v>92</v>
-      </c>
-      <c r="K42" t="str">
-        <f t="shared" si="3"/>
-        <v>lingyv3 </v>
-      </c>
-      <c r="M42" t="s">
-        <v>88</v>
-      </c>
-      <c r="N42" t="str">
-        <f t="shared" si="2"/>
-        <v>linghe3 </v>
-      </c>
-      <c r="O42">
-        <v>5</v>
-      </c>
-      <c r="P42">
-        <v>120</v>
-      </c>
-      <c r="Q42">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" t="s">
-        <v>60</v>
-      </c>
-      <c r="G43" t="s">
-        <v>72</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="1"/>
-        <v>lingjin0</v>
-      </c>
-      <c r="I43">
-        <v>1379</v>
-      </c>
-      <c r="J43" t="s">
-        <v>89</v>
-      </c>
-      <c r="K43" t="str">
-        <f t="shared" si="3"/>
-        <v>lingyv0 </v>
-      </c>
-      <c r="L43">
-        <v>2468</v>
-      </c>
-      <c r="M43" t="s">
-        <v>73</v>
-      </c>
-      <c r="N43" t="str">
-        <f t="shared" si="2"/>
-        <v>linghe0 </v>
-      </c>
-      <c r="O43">
-        <v>5</v>
-      </c>
-      <c r="P43">
-        <v>40</v>
-      </c>
-      <c r="Q43">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17">
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="1"/>
-        <v>lingjin1</v>
-      </c>
-      <c r="I44" t="s">
-        <v>75</v>
-      </c>
-      <c r="J44" t="s">
-        <v>90</v>
-      </c>
-      <c r="K44" t="str">
-        <f t="shared" si="3"/>
-        <v>lingyv1 </v>
-      </c>
-      <c r="L44" t="s">
-        <v>77</v>
-      </c>
-      <c r="M44" t="s">
-        <v>78</v>
-      </c>
-      <c r="N44" t="str">
-        <f t="shared" si="2"/>
-        <v>linghe1 </v>
-      </c>
-      <c r="O44">
-        <v>5</v>
-      </c>
-      <c r="P44">
-        <v>55</v>
-      </c>
-      <c r="Q44">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17">
-      <c r="B45" t="s">
-        <v>62</v>
-      </c>
-      <c r="G45" t="s">
-        <v>81</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="1"/>
-        <v>lingjin2</v>
-      </c>
-      <c r="I45" t="s">
-        <v>80</v>
-      </c>
-      <c r="J45" t="s">
-        <v>91</v>
-      </c>
-      <c r="K45" t="str">
-        <f t="shared" si="3"/>
-        <v>lingyv2 </v>
-      </c>
-      <c r="L45" t="s">
-        <v>82</v>
-      </c>
-      <c r="M45" t="s">
-        <v>83</v>
-      </c>
-      <c r="N45" t="str">
-        <f t="shared" si="2"/>
-        <v>linghe2 </v>
-      </c>
-      <c r="O45">
-        <v>5</v>
-      </c>
-      <c r="P45">
-        <v>80</v>
-      </c>
-      <c r="Q45">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17">
-      <c r="B46" t="s">
-        <v>63</v>
-      </c>
-      <c r="G46" t="s">
-        <v>86</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="1"/>
-        <v>lingjin3</v>
-      </c>
-      <c r="I46" t="s">
-        <v>85</v>
-      </c>
-      <c r="J46" t="s">
-        <v>92</v>
-      </c>
-      <c r="K46" t="str">
-        <f t="shared" si="3"/>
-        <v>lingyv3 </v>
-      </c>
-      <c r="L46" t="s">
-        <v>87</v>
-      </c>
-      <c r="M46" t="s">
-        <v>88</v>
-      </c>
-      <c r="N46" t="str">
-        <f t="shared" si="2"/>
-        <v>linghe3 </v>
-      </c>
-      <c r="O46">
-        <v>5</v>
-      </c>
-      <c r="P46">
-        <v>120</v>
-      </c>
-      <c r="Q46">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="A47" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" t="s">
-        <v>72</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="1"/>
-        <v>lingjin0</v>
-      </c>
-      <c r="I47">
-        <v>1379</v>
-      </c>
-      <c r="J47" t="s">
-        <v>93</v>
-      </c>
-      <c r="K47" t="str">
-        <f t="shared" si="3"/>
-        <v>lingmu0 </v>
-      </c>
-      <c r="L47">
-        <v>2468</v>
-      </c>
-      <c r="M47" t="s">
-        <v>73</v>
-      </c>
-      <c r="N47" t="str">
-        <f t="shared" si="2"/>
-        <v>linghe0 </v>
-      </c>
-      <c r="O47">
-        <v>5</v>
-      </c>
-      <c r="P47">
-        <v>40</v>
-      </c>
-      <c r="Q47">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17">
-      <c r="B48" t="s">
-        <v>66</v>
-      </c>
-      <c r="G48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="1"/>
-        <v>lingjin1</v>
-      </c>
-      <c r="I48" t="s">
-        <v>75</v>
-      </c>
-      <c r="J48" t="s">
-        <v>94</v>
-      </c>
-      <c r="K48" t="str">
-        <f t="shared" si="3"/>
-        <v>lingmu1 </v>
-      </c>
-      <c r="L48" t="s">
-        <v>77</v>
-      </c>
-      <c r="M48" t="s">
-        <v>78</v>
-      </c>
-      <c r="N48" t="str">
-        <f t="shared" si="2"/>
-        <v>linghe1 </v>
-      </c>
-      <c r="O48">
-        <v>5</v>
-      </c>
-      <c r="P48">
-        <v>55</v>
-      </c>
-      <c r="Q48">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="2:17">
-      <c r="B49" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" t="s">
-        <v>81</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="1"/>
-        <v>lingjin2</v>
-      </c>
-      <c r="I49" t="s">
-        <v>80</v>
-      </c>
-      <c r="J49" t="s">
-        <v>95</v>
-      </c>
-      <c r="K49" t="str">
-        <f t="shared" si="3"/>
-        <v>lingmu2 </v>
-      </c>
-      <c r="L49" t="s">
-        <v>82</v>
-      </c>
-      <c r="M49" t="s">
-        <v>83</v>
-      </c>
-      <c r="N49" t="str">
-        <f t="shared" si="2"/>
-        <v>linghe2 </v>
-      </c>
-      <c r="O49">
-        <v>5</v>
-      </c>
-      <c r="P49">
-        <v>80</v>
-      </c>
-      <c r="Q49">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="50" spans="2:17">
-      <c r="B50" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" t="s">
-        <v>86</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="1"/>
-        <v>lingjin3</v>
-      </c>
-      <c r="I50" t="s">
-        <v>85</v>
-      </c>
-      <c r="J50" t="s">
-        <v>96</v>
-      </c>
-      <c r="K50" t="str">
-        <f t="shared" si="3"/>
-        <v>lingmu3 </v>
-      </c>
-      <c r="L50" t="s">
-        <v>87</v>
-      </c>
-      <c r="M50" t="s">
-        <v>88</v>
-      </c>
-      <c r="N50" t="str">
-        <f t="shared" si="2"/>
-        <v>linghe3 </v>
-      </c>
-      <c r="O50">
-        <v>5</v>
-      </c>
-      <c r="P50">
-        <v>120</v>
-      </c>
-      <c r="Q50">
-        <v>480</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>1561</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <v>2031</v>
+      </c>
+      <c r="F45">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>4</v>
+      </c>
+      <c r="H45">
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5135,252 +5262,252 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:C21"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B18">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B19">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -5402,64 +5529,64 @@
   <sheetData>
     <row r="1" spans="4:19">
       <c r="D1" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="N1" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:19">
       <c r="A2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="J2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="P2" s="5">
         <v>0</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="R2" s="5">
         <v>30</v>
@@ -5470,47 +5597,47 @@
     </row>
     <row r="3" ht="18.75" spans="1:19">
       <c r="A3" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="K3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="P3" s="5">
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="R3" s="5">
         <v>33</v>
@@ -5521,47 +5648,47 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N4">
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="P4" s="5">
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="R4" s="5">
         <v>32</v>
@@ -5572,45 +5699,45 @@
     </row>
     <row r="5" ht="18.75" spans="1:19">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="G5" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="K5" s="3"/>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P5" s="5">
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="R5" s="5">
         <v>31</v>
@@ -5621,43 +5748,43 @@
     </row>
     <row r="6" ht="18.75" spans="1:19">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="M6" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="P6" s="5">
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="R6" s="5">
         <v>44</v>
@@ -5668,46 +5795,46 @@
     </row>
     <row r="7" ht="18.75" spans="1:19">
       <c r="A7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N7">
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="P7" s="5">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="R7" s="5">
         <v>39</v>
@@ -5718,44 +5845,44 @@
     </row>
     <row r="8" ht="18.75" spans="1:19">
       <c r="A8" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="G8" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N8">
         <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="P8" s="5">
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="R8" s="5">
         <v>40</v>
@@ -5766,44 +5893,44 @@
     </row>
     <row r="9" ht="18.75" spans="1:19">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="G9" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="N9">
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="P9" s="5">
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="R9" s="5">
         <v>42</v>
@@ -5814,44 +5941,44 @@
     </row>
     <row r="10" ht="18.75" spans="1:19">
       <c r="A10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="G10" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="P10" s="5">
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="R10" s="5">
         <v>51</v>
@@ -5862,43 +5989,43 @@
     </row>
     <row r="11" ht="18.75" spans="1:19">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="G11" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="K11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="M11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N11">
         <v>9</v>
       </c>
       <c r="O11" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="P11" s="5">
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="R11" s="5">
         <v>55</v>
@@ -5909,44 +6036,44 @@
     </row>
     <row r="12" ht="18.75" spans="1:19">
       <c r="A12" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="G12" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="J12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7"/>
       <c r="M12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N12">
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="P12" s="5">
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="R12" s="5">
         <v>49</v>
@@ -5957,23 +6084,23 @@
     </row>
     <row r="13" spans="10:19">
       <c r="J13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K13" s="3"/>
       <c r="M13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="N13">
         <v>11</v>
       </c>
       <c r="O13" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="P13" s="5">
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="R13" s="5">
         <v>48</v>
@@ -5984,33 +6111,33 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="D14" s="3"/>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K14" s="3"/>
       <c r="M14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="N14">
         <v>12</v>
       </c>
       <c r="O14" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="P14" s="5">
         <v>12</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="R14" s="5">
         <v>74</v>
@@ -6021,32 +6148,32 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="D15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="M15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="N15">
         <v>13</v>
       </c>
       <c r="O15" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="P15" s="5">
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="R15" s="5">
         <v>65</v>
@@ -6057,30 +6184,30 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D16" s="3"/>
       <c r="K16" s="3"/>
       <c r="M16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N16">
         <v>14</v>
       </c>
       <c r="O16" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="P16" s="5">
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="R16" s="5">
         <v>69</v>
@@ -6091,32 +6218,32 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="D17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="M17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="N17">
         <v>15</v>
       </c>
       <c r="O17" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="P17" s="5">
         <v>15</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="R17" s="5">
         <v>70</v>
@@ -6133,19 +6260,19 @@
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="M18" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N18">
         <v>16</v>
       </c>
       <c r="O18" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="P18" s="5">
         <v>16</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="R18" s="5">
         <v>77</v>
@@ -6159,19 +6286,19 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="M19" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="N19">
         <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="P19" s="5">
         <v>17</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="R19" s="5">
         <v>79</v>
@@ -6184,19 +6311,19 @@
       <c r="I20" s="3"/>
       <c r="K20" s="3"/>
       <c r="M20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="N20">
         <v>18</v>
       </c>
       <c r="O20" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="P20" s="5">
         <v>18</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="R20" s="5">
         <v>84</v>
@@ -6210,19 +6337,19 @@
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="M21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="N21">
         <v>19</v>
       </c>
       <c r="O21" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="P21" s="5">
         <v>19</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="R21" s="5">
         <v>83</v>
@@ -6331,17 +6458,17 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:12">
       <c r="A1" s="5" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -6349,15 +6476,15 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="L1" s="5" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" ht="17" customHeight="1" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C2" s="5">
         <v>30</v>
@@ -6366,31 +6493,31 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:13">
       <c r="A3" s="5" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="C3" s="5">
         <v>32</v>
@@ -6399,26 +6526,26 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="C4" s="5">
         <v>33</v>
@@ -6427,7 +6554,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -6436,18 +6563,18 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="C5" s="5">
         <v>31</v>
@@ -6456,26 +6583,26 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" spans="1:13">
       <c r="A6" s="5" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C6" s="5">
         <v>44</v>
@@ -6484,28 +6611,28 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G6" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="H6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:13">
       <c r="A7" s="5" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="C7" s="5">
         <v>39</v>
@@ -6514,24 +6641,24 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:13">
       <c r="A8" s="5" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C8" s="5">
         <v>40</v>
@@ -6540,7 +6667,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -6549,18 +6676,18 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:13">
       <c r="A9" s="5" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="C9" s="5">
         <v>42</v>
@@ -6569,26 +6696,26 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="C10" s="5">
         <v>51</v>
@@ -6597,34 +6724,34 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="F10" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="G10" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="N10" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="C11" s="5">
         <v>55</v>
@@ -6633,7 +6760,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -6642,21 +6769,21 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="N11" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:14">
       <c r="A12" s="5" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="C12" s="5">
         <v>49</v>
@@ -6665,7 +6792,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -6674,21 +6801,21 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="N12" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="1:14">
       <c r="A13" s="5" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C13" s="5">
         <v>48</v>
@@ -6697,7 +6824,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -6706,21 +6833,21 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="C14" s="5">
         <v>74</v>
@@ -6729,7 +6856,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -6738,21 +6865,21 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="N14" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:14">
       <c r="A15" s="5" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="C15" s="5">
         <v>65</v>
@@ -6761,24 +6888,24 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="N15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:14">
       <c r="A16" s="5" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C16" s="5">
         <v>69</v>
@@ -6787,27 +6914,27 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="N16" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:14">
       <c r="A17" s="5" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="C17" s="5">
         <v>70</v>
@@ -6816,7 +6943,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="5"/>
@@ -6825,21 +6952,21 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:14">
       <c r="A18" s="5" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="C18" s="5">
         <v>77</v>
@@ -6848,7 +6975,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -6857,15 +6984,15 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="N18" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:14">
       <c r="A19" s="5" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="C19" s="5">
         <v>79</v>
@@ -6874,7 +7001,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -6883,15 +7010,15 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="N19" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:14">
       <c r="A20" s="5" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="C20" s="5">
         <v>84</v>
@@ -6900,7 +7027,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -6909,15 +7036,15 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C21" s="5">
         <v>83</v>
@@ -6926,172 +7053,172 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1"/>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D23" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:5">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D24" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25" s="5" customFormat="1" spans="1:5">
       <c r="A25" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26" s="5" customFormat="1" spans="1:5">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27" s="5" customFormat="1" spans="1:5">
       <c r="A27" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="D27" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E27"/>
     </row>
     <row r="28" s="5" customFormat="1" spans="1:5">
       <c r="A28" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="C28" s="3" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D28" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="E28"/>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:5">
       <c r="A29" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C29" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D29" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E29"/>
     </row>
     <row r="30" s="5" customFormat="1" spans="1:5">
       <c r="A30" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="D30" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="E30"/>
     </row>
     <row r="31" s="5" customFormat="1" spans="1:5">
       <c r="A31" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="E31"/>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:5">
       <c r="A32" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="E32"/>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:5">
       <c r="A33" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="D33" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="E33"/>
     </row>
@@ -7136,22 +7263,22 @@
   <sheetData>
     <row r="1" spans="4:34">
       <c r="D1" s="5" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="P1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Q1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="S1" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="T1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>4</v>
@@ -7166,16 +7293,16 @@
         <v>8</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="AD1" t="s">
         <v>6</v>
@@ -7198,28 +7325,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="G2" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="P2">
         <v>35</v>
@@ -7281,28 +7408,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G3" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="P3">
         <v>35</v>
@@ -7364,28 +7491,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="P4">
         <v>35</v>
@@ -7447,28 +7574,28 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="G5" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="P5">
         <v>35</v>
@@ -7527,31 +7654,31 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="5" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G6" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="P6">
         <v>35</v>
@@ -7610,31 +7737,31 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="5" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="G7" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="P7">
         <v>35</v>
@@ -7693,31 +7820,31 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="5" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="G8" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="I8" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="P8">
         <v>20</v>
@@ -7776,31 +7903,31 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="5" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="G9" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="I9" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="P9">
         <v>20</v>
@@ -7862,34 +7989,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="G10" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K10" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="P10">
         <v>40</v>
@@ -7951,34 +8078,34 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="G11" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K11" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="P11">
         <v>40</v>
@@ -8040,34 +8167,34 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E12" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="G12" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K12" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="P12">
         <v>40</v>
@@ -8129,34 +8256,34 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E13" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="G13" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="K13" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="P13">
         <v>40</v>
@@ -8215,37 +8342,37 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="5" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E14" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="F14" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" t="s">
+        <v>255</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="G14" t="s">
-        <v>241</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>182</v>
-      </c>
       <c r="K14" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="P14">
         <v>40</v>
@@ -8304,37 +8431,37 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="5" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="E15" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="G15" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="K15" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="P15">
         <v>40</v>
@@ -8393,37 +8520,37 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="5" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="G16" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="I16" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="P16">
         <v>20</v>
@@ -8482,37 +8609,37 @@
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="5" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="G17" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="I17" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="K17" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="P17">
         <v>20</v>
@@ -8574,40 +8701,40 @@
         <v>4</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="E18" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="G18" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="K18" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="M18" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="P18">
         <v>55</v>
@@ -8669,40 +8796,40 @@
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="E19" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="G19" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="K19" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="M19" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="P19">
         <v>55</v>
@@ -8764,40 +8891,40 @@
         <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="E20" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="G20" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="M20" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="P20">
         <v>55</v>
@@ -8859,40 +8986,40 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E21" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="G21" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="M21" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="P21">
         <v>55</v>
@@ -8951,43 +9078,43 @@
     </row>
     <row r="22" spans="1:34">
       <c r="A22" s="5" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="E22" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="G22" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="M22" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="P22">
         <v>55</v>
@@ -9046,43 +9173,43 @@
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="5" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="E23" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="G23" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="K23" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="M23" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="P23">
         <v>55</v>
@@ -9141,43 +9268,43 @@
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="5" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="E24" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="G24" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="I24" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="K24" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="M24" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="P24">
         <v>20</v>
@@ -9236,43 +9363,43 @@
     </row>
     <row r="25" spans="1:34">
       <c r="A25" s="5" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="E25" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="G25" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="I25" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="K25" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="M25" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="P25">
         <v>20</v>
@@ -9334,46 +9461,46 @@
         <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="E26" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G26" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="M26" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O26" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P26">
         <v>120</v>
@@ -9435,46 +9562,46 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="G27" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I27" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="M27" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O27" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P27">
         <v>120</v>
@@ -9536,46 +9663,46 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="E28" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="G28" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I28" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="K28" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="M28" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O28" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P28">
         <v>120</v>
@@ -9637,46 +9764,46 @@
         <v>8</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E29" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I29" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="K29" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O29" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P29">
         <v>120</v>
@@ -9735,49 +9862,49 @@
     </row>
     <row r="30" ht="15" spans="1:34">
       <c r="A30" s="5" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="E30" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="G30" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I30" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="K30" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="M30" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O30" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P30">
         <v>120</v>
@@ -9836,49 +9963,49 @@
     </row>
     <row r="31" spans="1:34">
       <c r="A31" s="5" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="E31" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="G31" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I31" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="K31" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="M31" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="N31" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O31" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P31">
         <v>120</v>
@@ -9937,49 +10064,49 @@
     </row>
     <row r="32" ht="15" spans="1:34">
       <c r="A32" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="G32" t="s">
         <v>275</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="E32" t="s">
-        <v>255</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="G32" t="s">
-        <v>261</v>
-      </c>
       <c r="H32" s="5" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="I32" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="K32" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="M32" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="O32" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="P32">
         <v>20</v>
@@ -10038,49 +10165,49 @@
     </row>
     <row r="33" spans="1:34">
       <c r="A33" s="5" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="E33" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="G33" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="I33" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="K33" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="M33" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="O33" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="P33">
         <v>20</v>
@@ -10142,46 +10269,46 @@
         <v>4</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E34" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="G34" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I34" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="K34" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="M34" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O34" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P34">
         <v>160</v>
@@ -10243,46 +10370,46 @@
         <v>3</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E35" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="G35" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I35" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="K35" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="M35" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="N35" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O35" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P35">
         <v>160</v>
@@ -10344,46 +10471,46 @@
         <v>5</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E36" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="G36" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I36" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="K36" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="M36" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="N36" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O36" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P36">
         <v>160</v>
@@ -10445,46 +10572,46 @@
         <v>8</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="E37" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="G37" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I37" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="K37" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="M37" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="N37" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O37" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P37">
         <v>160</v>
@@ -10543,49 +10670,49 @@
     </row>
     <row r="38" spans="1:34">
       <c r="A38" s="5" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="E38" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="G38" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I38" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="K38" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="M38" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="N38" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O38" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P38">
         <v>160</v>
@@ -10644,49 +10771,49 @@
     </row>
     <row r="39" spans="1:34">
       <c r="A39" s="5" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="E39" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="G39" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I39" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="K39" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="M39" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="O39" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="P39">
         <v>160</v>
@@ -10745,49 +10872,49 @@
     </row>
     <row r="40" spans="1:34">
       <c r="A40" s="5" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E40" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="G40" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="I40" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="K40" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="M40" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="O40" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="P40">
         <v>20</v>
@@ -10846,49 +10973,49 @@
     </row>
     <row r="41" spans="1:34">
       <c r="A41" s="5" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E41" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="G41" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="I41" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="K41" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="M41" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="O41" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="P41">
         <v>20</v>
@@ -10947,198 +11074,198 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E48">
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E49">
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -11160,10 +11287,10 @@
   <sheetData>
     <row r="1" spans="5:18">
       <c r="E1" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -11196,24 +11323,24 @@
         <v>12</v>
       </c>
       <c r="Q1" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="R1" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:18">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -11252,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>361</v>
+        <v>101</v>
       </c>
       <c r="R2">
         <v>0.5</v>
@@ -11260,16 +11387,16 @@
     </row>
     <row r="3" ht="25.5" spans="1:18">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -11308,7 +11435,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>361</v>
+        <v>101</v>
       </c>
       <c r="R3">
         <v>0.7</v>
@@ -11316,16 +11443,16 @@
     </row>
     <row r="4" ht="25.5" spans="1:18">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -11364,7 +11491,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>361</v>
+        <v>101</v>
       </c>
       <c r="R4">
         <v>0.9</v>
@@ -11372,16 +11499,16 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -11420,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>365</v>
+        <v>103</v>
       </c>
       <c r="R5">
         <v>0.4</v>
@@ -11428,16 +11555,16 @@
     </row>
     <row r="6" ht="25.5" spans="1:18">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -11476,7 +11603,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>365</v>
+        <v>103</v>
       </c>
       <c r="R6">
         <v>0.6</v>
@@ -11484,16 +11611,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -11532,7 +11659,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>365</v>
+        <v>103</v>
       </c>
       <c r="R7">
         <v>0.8</v>
@@ -11540,16 +11667,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -11588,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>369</v>
+        <v>105</v>
       </c>
       <c r="R8">
         <v>0.3</v>
@@ -11596,16 +11723,16 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -11644,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>369</v>
+        <v>105</v>
       </c>
       <c r="R9">
         <v>0.5</v>
@@ -11652,16 +11779,16 @@
     </row>
     <row r="10" ht="25.5" spans="1:18">
       <c r="A10" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -11700,7 +11827,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>369</v>
+        <v>105</v>
       </c>
       <c r="R10">
         <v>0.7</v>
@@ -11708,16 +11835,16 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -11756,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>373</v>
+        <v>107</v>
       </c>
       <c r="R11">
         <v>0.3</v>
@@ -11764,16 +11891,16 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -11812,7 +11939,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="R12">
         <v>0.2</v>
@@ -12130,7 +12257,7 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -12143,111 +12270,111 @@
   <sheetData>
     <row r="1" spans="3:5">
       <c r="C1" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="E1" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D2" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="G2" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C3" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C7" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C8" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="D8" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="C9" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F9">
         <v>1379</v>
@@ -12256,30 +12383,30 @@
         <v>468</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="G10" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -12293,22 +12420,22 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -12322,22 +12449,22 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -12351,25 +12478,25 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B13" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="D13">
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="F13">
         <v>2468</v>
       </c>
       <c r="G13" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -12383,22 +12510,22 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -12412,22 +12539,22 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -12441,22 +12568,22 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -12470,19 +12597,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B17" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="D17">
         <v>2468</v>
       </c>
       <c r="G17" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -12493,13 +12620,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B18" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C18" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D18">
         <v>456</v>
@@ -12513,10 +12640,10 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="D19" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="I19">
         <v>80</v>
@@ -12527,10 +12654,10 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="D20" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="I20">
         <v>120</v>
@@ -12541,13 +12668,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="D22">
         <v>13</v>
@@ -12555,13 +12682,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="D23">
         <v>13</v>
@@ -12569,13 +12696,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="D24">
         <v>13</v>
@@ -12583,13 +12710,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C25" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="D25">
         <v>13</v>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="433">
   <si>
     <t>圆满层数</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>下届合金</t>
+  </si>
+  <si>
+    <t>灵甲</t>
   </si>
   <si>
     <t xml:space="preserve">linghe0 </t>
@@ -1952,18 +1955,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF6AAB73"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6AAB73"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2764,7 +2767,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:O6"/>
+      <selection activeCell="F38" sqref="F38:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3094,7 +3097,7 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="F38" sqref="F38:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -3441,8 +3444,8 @@
   <sheetPr/>
   <dimension ref="A1:Q80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4980,7 +4983,7 @@
         <v>2000</v>
       </c>
       <c r="F39">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G39">
         <v>12</v>
@@ -5006,7 +5009,7 @@
         <v>3000</v>
       </c>
       <c r="F40">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G40">
         <v>24</v>
@@ -5032,7 +5035,7 @@
         <v>4000</v>
       </c>
       <c r="F41">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="G41">
         <v>48</v>
@@ -5089,12 +5092,17 @@
         <v>15</v>
       </c>
     </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>111</v>
+      </c>
+    </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -5102,7 +5110,7 @@
         <v>74</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -5110,7 +5118,7 @@
         <v>79</v>
       </c>
       <c r="B63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -5118,7 +5126,7 @@
         <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -5126,7 +5134,7 @@
         <v>67</v>
       </c>
       <c r="B65" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -5134,7 +5142,7 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -5142,7 +5150,7 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -5150,7 +5158,7 @@
         <v>80</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -5158,7 +5166,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -5166,7 +5174,7 @@
         <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -5174,7 +5182,7 @@
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -5182,7 +5190,7 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -5190,7 +5198,7 @@
         <v>85</v>
       </c>
       <c r="B73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -5198,7 +5206,7 @@
         <v>86</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -5206,7 +5214,7 @@
         <v>87</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -5214,7 +5222,7 @@
         <v>88</v>
       </c>
       <c r="B76" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -5222,7 +5230,7 @@
         <v>89</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -5230,7 +5238,7 @@
         <v>90</v>
       </c>
       <c r="B78" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -5238,7 +5246,7 @@
         <v>91</v>
       </c>
       <c r="B79" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -5246,7 +5254,7 @@
         <v>92</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5262,17 +5270,17 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F38" sqref="F38:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5283,10 +5291,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5297,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5308,7 +5316,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5319,7 +5327,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5330,10 +5338,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5344,7 +5352,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5355,7 +5363,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5366,7 +5374,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5377,10 +5385,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5391,7 +5399,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5402,7 +5410,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5413,7 +5421,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5424,10 +5432,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5438,7 +5446,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5449,7 +5457,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5460,7 +5468,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5471,10 +5479,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5485,29 +5493,29 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -5522,53 +5530,53 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B12"/>
+      <selection activeCell="F38" sqref="F38:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="4:19">
       <c r="D1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:19">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J2" t="s">
         <v>85</v>
@@ -5580,13 +5588,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P2" s="5">
         <v>0</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R2" s="5">
         <v>30</v>
@@ -5597,29 +5605,29 @@
     </row>
     <row r="3" ht="18.75" spans="1:19">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K3" t="s">
         <v>89</v>
@@ -5631,13 +5639,13 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P3" s="5">
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="R3" s="5">
         <v>33</v>
@@ -5648,25 +5656,25 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" t="s">
@@ -5682,13 +5690,13 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P4" s="5">
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="R4" s="5">
         <v>32</v>
@@ -5699,25 +5707,25 @@
     </row>
     <row r="5" ht="18.75" spans="1:19">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" t="s">
@@ -5731,13 +5739,13 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P5" s="5">
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="R5" s="5">
         <v>31</v>
@@ -5748,43 +5756,43 @@
     </row>
     <row r="6" ht="18.75" spans="1:19">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J6" t="s">
         <v>72</v>
       </c>
       <c r="M6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P6" s="5">
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R6" s="5">
         <v>44</v>
@@ -5795,25 +5803,25 @@
     </row>
     <row r="7" ht="18.75" spans="1:19">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J7" t="s">
         <v>86</v>
@@ -5828,13 +5836,13 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P7" s="5">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R7" s="5">
         <v>39</v>
@@ -5845,25 +5853,25 @@
     </row>
     <row r="8" ht="18.75" spans="1:19">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" t="s">
@@ -5876,13 +5884,13 @@
         <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P8" s="5">
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="R8" s="5">
         <v>40</v>
@@ -5893,25 +5901,25 @@
     </row>
     <row r="9" ht="18.75" spans="1:19">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" t="s">
@@ -5924,13 +5932,13 @@
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P9" s="5">
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="R9" s="5">
         <v>42</v>
@@ -5941,25 +5949,25 @@
     </row>
     <row r="10" ht="18.75" spans="1:19">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" t="s">
@@ -5972,13 +5980,13 @@
         <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P10" s="5">
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="R10" s="5">
         <v>51</v>
@@ -5989,25 +5997,25 @@
     </row>
     <row r="11" ht="18.75" spans="1:19">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="G11" t="s">
-        <v>216</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="K11" t="s">
         <v>92</v>
@@ -6019,13 +6027,13 @@
         <v>9</v>
       </c>
       <c r="O11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P11" s="5">
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="R11" s="5">
         <v>55</v>
@@ -6036,25 +6044,25 @@
     </row>
     <row r="12" ht="18.75" spans="1:19">
       <c r="A12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J12" t="s">
         <v>80</v>
@@ -6067,13 +6075,13 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P12" s="5">
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="R12" s="5">
         <v>49</v>
@@ -6094,13 +6102,13 @@
         <v>11</v>
       </c>
       <c r="O13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P13" s="5">
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="R13" s="5">
         <v>48</v>
@@ -6111,13 +6119,13 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D14" s="3"/>
       <c r="J14" t="s">
@@ -6131,13 +6139,13 @@
         <v>12</v>
       </c>
       <c r="O14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P14" s="5">
         <v>12</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="R14" s="5">
         <v>74</v>
@@ -6148,13 +6156,13 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D15" s="3"/>
       <c r="I15" s="3"/>
@@ -6167,13 +6175,13 @@
         <v>13</v>
       </c>
       <c r="O15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P15" s="5">
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R15" s="5">
         <v>65</v>
@@ -6184,13 +6192,13 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D16" s="3"/>
       <c r="K16" s="3"/>
@@ -6201,13 +6209,13 @@
         <v>14</v>
       </c>
       <c r="O16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P16" s="5">
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="R16" s="5">
         <v>69</v>
@@ -6218,13 +6226,13 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D17" s="3"/>
       <c r="I17" s="3"/>
@@ -6237,13 +6245,13 @@
         <v>15</v>
       </c>
       <c r="O17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P17" s="5">
         <v>15</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="R17" s="5">
         <v>70</v>
@@ -6266,13 +6274,13 @@
         <v>16</v>
       </c>
       <c r="O18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P18" s="5">
         <v>16</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="R18" s="5">
         <v>77</v>
@@ -6292,13 +6300,13 @@
         <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="5">
         <v>17</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="R19" s="5">
         <v>79</v>
@@ -6317,13 +6325,13 @@
         <v>18</v>
       </c>
       <c r="O20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P20" s="5">
         <v>18</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="R20" s="5">
         <v>84</v>
@@ -6343,13 +6351,13 @@
         <v>19</v>
       </c>
       <c r="O21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P21" s="5">
         <v>19</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="R21" s="5">
         <v>83</v>
@@ -6446,7 +6454,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B21"/>
+      <selection activeCell="F38" sqref="F38:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6458,17 +6466,17 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:12">
       <c r="A1" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -6476,15 +6484,15 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="L1" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" ht="17" customHeight="1" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C2" s="5">
         <v>30</v>
@@ -6493,31 +6501,31 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:13">
       <c r="A3" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C3" s="5">
         <v>32</v>
@@ -6526,7 +6534,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -6534,18 +6542,18 @@
         <v>89</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C4" s="5">
         <v>33</v>
@@ -6554,7 +6562,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -6563,18 +6571,18 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C5" s="5">
         <v>31</v>
@@ -6583,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -6591,18 +6599,18 @@
         <v>90</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" spans="1:13">
       <c r="A6" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6" s="5">
         <v>44</v>
@@ -6611,28 +6619,28 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:13">
       <c r="A7" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C7" s="5">
         <v>39</v>
@@ -6641,24 +6649,24 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:13">
       <c r="A8" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C8" s="5">
         <v>40</v>
@@ -6667,7 +6675,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -6676,18 +6684,18 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:13">
       <c r="A9" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C9" s="5">
         <v>42</v>
@@ -6696,26 +6704,26 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C10" s="5">
         <v>51</v>
@@ -6724,34 +6732,34 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C11" s="5">
         <v>55</v>
@@ -6760,7 +6768,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -6769,21 +6777,21 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:14">
       <c r="A12" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C12" s="5">
         <v>49</v>
@@ -6792,7 +6800,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -6801,21 +6809,21 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="1:14">
       <c r="A13" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C13" s="5">
         <v>48</v>
@@ -6824,7 +6832,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -6833,21 +6841,21 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N13" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C14" s="5">
         <v>74</v>
@@ -6856,7 +6864,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -6865,21 +6873,21 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:14">
       <c r="A15" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C15" s="5">
         <v>65</v>
@@ -6888,24 +6896,24 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:14">
       <c r="A16" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C16" s="5">
         <v>69</v>
@@ -6914,27 +6922,27 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N16" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:14">
       <c r="A17" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C17" s="5">
         <v>70</v>
@@ -6943,7 +6951,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="5"/>
@@ -6952,21 +6960,21 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N17" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:14">
       <c r="A18" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C18" s="5">
         <v>77</v>
@@ -6975,7 +6983,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -6984,15 +6992,15 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="N18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:14">
       <c r="A19" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C19" s="5">
         <v>79</v>
@@ -7001,7 +7009,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -7010,15 +7018,15 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="N19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:14">
       <c r="A20" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C20" s="5">
         <v>84</v>
@@ -7027,7 +7035,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -7036,15 +7044,15 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="N20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C21" s="5">
         <v>83</v>
@@ -7053,172 +7061,172 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1"/>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:5">
       <c r="A24" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D24" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25" s="5" customFormat="1" spans="1:5">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26" s="5" customFormat="1" spans="1:5">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D26" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27" s="5" customFormat="1" spans="1:5">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E27"/>
     </row>
     <row r="28" s="5" customFormat="1" spans="1:5">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E28"/>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:5">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E29"/>
     </row>
     <row r="30" s="5" customFormat="1" spans="1:5">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E30"/>
     </row>
     <row r="31" s="5" customFormat="1" spans="1:5">
       <c r="A31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E31"/>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:5">
       <c r="A32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E32"/>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:5">
       <c r="A33" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D33" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E33"/>
     </row>
@@ -7253,7 +7261,7 @@
   <dimension ref="A1:AH65"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" topLeftCell="C12" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1"/>
+      <selection activeCell="F38" sqref="F38:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7263,7 +7271,7 @@
   <sheetData>
     <row r="1" spans="4:34">
       <c r="D1" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P1" t="s">
         <v>65</v>
@@ -7272,13 +7280,13 @@
         <v>66</v>
       </c>
       <c r="S1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="T1" t="s">
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>4</v>
@@ -7293,16 +7301,16 @@
         <v>8</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AD1" t="s">
         <v>6</v>
@@ -7325,28 +7333,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" t="s">
         <v>242</v>
-      </c>
-      <c r="G2" t="s">
-        <v>241</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P2">
         <v>35</v>
@@ -7408,28 +7416,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P3">
         <v>35</v>
@@ -7491,28 +7499,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P4">
         <v>35</v>
@@ -7574,28 +7582,28 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G5" t="s">
         <v>242</v>
-      </c>
-      <c r="G5" t="s">
-        <v>241</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P5">
         <v>35</v>
@@ -7654,31 +7662,31 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G6" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P6">
         <v>35</v>
@@ -7737,31 +7745,31 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G7" t="s">
         <v>242</v>
-      </c>
-      <c r="G7" t="s">
-        <v>241</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P7">
         <v>35</v>
@@ -7820,31 +7828,31 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H8" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I8" t="s">
         <v>242</v>
-      </c>
-      <c r="I8" t="s">
-        <v>241</v>
       </c>
       <c r="P8">
         <v>20</v>
@@ -7903,31 +7911,31 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" t="s">
         <v>242</v>
-      </c>
-      <c r="I9" t="s">
-        <v>241</v>
       </c>
       <c r="P9">
         <v>20</v>
@@ -7989,34 +7997,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" t="s">
         <v>251</v>
-      </c>
-      <c r="G10" t="s">
-        <v>250</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P10">
         <v>40</v>
@@ -8078,34 +8086,34 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P11">
         <v>40</v>
@@ -8167,34 +8175,34 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G12" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P12">
         <v>40</v>
@@ -8256,34 +8264,34 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G13" t="s">
         <v>251</v>
-      </c>
-      <c r="G13" t="s">
-        <v>250</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P13">
         <v>40</v>
@@ -8342,37 +8350,37 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P14">
         <v>40</v>
@@ -8431,37 +8439,37 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G15" t="s">
         <v>251</v>
-      </c>
-      <c r="G15" t="s">
-        <v>250</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P15">
         <v>40</v>
@@ -8520,37 +8528,37 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G16" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I16" t="s">
         <v>251</v>
       </c>
-      <c r="I16" t="s">
-        <v>250</v>
-      </c>
       <c r="J16" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P16">
         <v>20</v>
@@ -8609,37 +8617,37 @@
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H17" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I17" t="s">
         <v>251</v>
       </c>
-      <c r="I17" t="s">
-        <v>250</v>
-      </c>
       <c r="J17" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P17">
         <v>20</v>
@@ -8701,40 +8709,40 @@
         <v>4</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" t="s">
         <v>262</v>
-      </c>
-      <c r="G18" t="s">
-        <v>261</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L18" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="M18" t="s">
         <v>262</v>
-      </c>
-      <c r="M18" t="s">
-        <v>261</v>
       </c>
       <c r="P18">
         <v>55</v>
@@ -8796,40 +8804,40 @@
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P19">
         <v>55</v>
@@ -8891,40 +8899,40 @@
         <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P20">
         <v>55</v>
@@ -8986,40 +8994,40 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G21" t="s">
         <v>262</v>
-      </c>
-      <c r="G21" t="s">
-        <v>261</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K21" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L21" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="M21" t="s">
         <v>262</v>
-      </c>
-      <c r="M21" t="s">
-        <v>261</v>
       </c>
       <c r="P21">
         <v>55</v>
@@ -9078,43 +9086,43 @@
     </row>
     <row r="22" spans="1:34">
       <c r="A22" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P22">
         <v>55</v>
@@ -9173,43 +9181,43 @@
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="G23" t="s">
         <v>262</v>
-      </c>
-      <c r="G23" t="s">
-        <v>261</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L23" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="M23" t="s">
         <v>262</v>
-      </c>
-      <c r="M23" t="s">
-        <v>261</v>
       </c>
       <c r="P23">
         <v>55</v>
@@ -9268,43 +9276,43 @@
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H24" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I24" t="s">
         <v>262</v>
       </c>
-      <c r="I24" t="s">
-        <v>261</v>
-      </c>
       <c r="J24" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P24">
         <v>20</v>
@@ -9363,43 +9371,43 @@
     </row>
     <row r="25" spans="1:34">
       <c r="A25" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E25" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25" t="s">
+        <v>267</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I25" t="s">
+        <v>262</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" t="s">
         <v>259</v>
       </c>
-      <c r="G25" t="s">
-        <v>266</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="I25" t="s">
-        <v>261</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="K25" t="s">
-        <v>258</v>
-      </c>
       <c r="L25" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="P25">
         <v>20</v>
@@ -9461,46 +9469,46 @@
         <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G26" t="s">
         <v>273</v>
-      </c>
-      <c r="G26" t="s">
-        <v>272</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L26" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="M26" t="s">
         <v>273</v>
-      </c>
-      <c r="M26" t="s">
-        <v>272</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O26" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P26">
         <v>120</v>
@@ -9562,46 +9570,46 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P27">
         <v>120</v>
@@ -9663,46 +9671,46 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P28">
         <v>120</v>
@@ -9764,46 +9772,46 @@
         <v>8</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E29" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F29" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" t="s">
         <v>273</v>
-      </c>
-      <c r="G29" t="s">
-        <v>272</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L29" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" t="s">
         <v>273</v>
-      </c>
-      <c r="M29" t="s">
-        <v>272</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P29">
         <v>120</v>
@@ -9862,49 +9870,49 @@
     </row>
     <row r="30" ht="15" spans="1:34">
       <c r="A30" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K30" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P30">
         <v>120</v>
@@ -9963,49 +9971,49 @@
     </row>
     <row r="31" spans="1:34">
       <c r="A31" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" t="s">
         <v>273</v>
-      </c>
-      <c r="G31" t="s">
-        <v>272</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L31" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="M31" t="s">
         <v>273</v>
-      </c>
-      <c r="M31" t="s">
-        <v>272</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O31" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P31">
         <v>120</v>
@@ -10064,49 +10072,49 @@
     </row>
     <row r="32" ht="15" spans="1:34">
       <c r="A32" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I32" t="s">
+        <v>273</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="G32" t="s">
-        <v>275</v>
-      </c>
-      <c r="H32" s="5" t="s">
+      <c r="K32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="M32" t="s">
+        <v>276</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="O32" t="s">
         <v>273</v>
-      </c>
-      <c r="I32" t="s">
-        <v>272</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="K32" t="s">
-        <v>269</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="M32" t="s">
-        <v>275</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="O32" t="s">
-        <v>272</v>
       </c>
       <c r="P32">
         <v>20</v>
@@ -10165,49 +10173,49 @@
     </row>
     <row r="33" spans="1:34">
       <c r="A33" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E33" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G33" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H33" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I33" t="s">
         <v>273</v>
       </c>
-      <c r="I33" t="s">
-        <v>272</v>
-      </c>
       <c r="J33" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K33" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M33" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="N33" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="O33" t="s">
         <v>273</v>
-      </c>
-      <c r="O33" t="s">
-        <v>272</v>
       </c>
       <c r="P33">
         <v>20</v>
@@ -10269,46 +10277,46 @@
         <v>4</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M34" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P34">
         <v>160</v>
@@ -10370,46 +10378,46 @@
         <v>3</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K35" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M35" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O35" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P35">
         <v>160</v>
@@ -10471,46 +10479,46 @@
         <v>5</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G36" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M36" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P36">
         <v>160</v>
@@ -10572,46 +10580,46 @@
         <v>8</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" t="s">
+        <v>283</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>282</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G37" t="s">
-        <v>281</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J37" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" t="s">
+        <v>283</v>
+      </c>
+      <c r="L37" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="K37" t="s">
+      <c r="M37" t="s">
         <v>282</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="M37" t="s">
-        <v>281</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O37" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P37">
         <v>160</v>
@@ -10670,49 +10678,49 @@
     </row>
     <row r="38" spans="1:34">
       <c r="A38" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E38" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G38" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K38" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M38" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P38">
         <v>160</v>
@@ -10771,49 +10779,49 @@
     </row>
     <row r="39" spans="1:34">
       <c r="A39" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E39" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K39" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M39" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O39" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P39">
         <v>160</v>
@@ -10872,49 +10880,49 @@
     </row>
     <row r="40" spans="1:34">
       <c r="A40" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E40" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F40" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" t="s">
+        <v>283</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G40" t="s">
+      <c r="I40" t="s">
         <v>282</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="J40" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K40" t="s">
         <v>281</v>
       </c>
-      <c r="J40" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K40" t="s">
-        <v>280</v>
-      </c>
       <c r="L40" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="M40" t="s">
+        <v>283</v>
+      </c>
+      <c r="N40" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="M40" t="s">
+      <c r="O40" t="s">
         <v>282</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="O40" t="s">
-        <v>281</v>
       </c>
       <c r="P40">
         <v>20</v>
@@ -10973,49 +10981,49 @@
     </row>
     <row r="41" spans="1:34">
       <c r="A41" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E41" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G41" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I41" t="s">
+        <v>282</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="K41" t="s">
         <v>281</v>
       </c>
-      <c r="J41" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K41" t="s">
-        <v>280</v>
-      </c>
       <c r="L41" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M41" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O41" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P41">
         <v>20</v>
@@ -11074,10 +11082,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D46" t="s">
         <v>69</v>
@@ -11086,15 +11094,15 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>241</v>
       </c>
       <c r="D47" t="s">
         <v>74</v>
@@ -11103,15 +11111,15 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D48" t="s">
         <v>79</v>
@@ -11120,15 +11128,15 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D49" t="s">
         <v>84</v>
@@ -11137,135 +11145,135 @@
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>262</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -11280,17 +11288,17 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F38" sqref="F38:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="5:18">
       <c r="E1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -11323,24 +11331,24 @@
         <v>12</v>
       </c>
       <c r="Q1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="R1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:18">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -11387,16 +11395,16 @@
     </row>
     <row r="3" ht="25.5" spans="1:18">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -11443,16 +11451,16 @@
     </row>
     <row r="4" ht="25.5" spans="1:18">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -11499,16 +11507,16 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -11555,16 +11563,16 @@
     </row>
     <row r="6" ht="25.5" spans="1:18">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -11611,16 +11619,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -11667,16 +11675,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -11723,16 +11731,16 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -11779,16 +11787,16 @@
     </row>
     <row r="10" ht="25.5" spans="1:18">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -11835,16 +11843,16 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -11891,16 +11899,16 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -11939,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="R12">
         <v>0.2</v>
@@ -12257,8 +12265,8 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12270,111 +12278,111 @@
   <sheetData>
     <row r="1" spans="3:5">
       <c r="C1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
+        <v>403</v>
+      </c>
+      <c r="C7" t="s">
+        <v>404</v>
+      </c>
+      <c r="D7" t="s">
         <v>402</v>
-      </c>
-      <c r="C7" t="s">
-        <v>403</v>
-      </c>
-      <c r="D7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
+        <v>405</v>
+      </c>
+      <c r="C8" t="s">
         <v>404</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>403</v>
-      </c>
-      <c r="D8" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F9">
         <v>1379</v>
@@ -12391,22 +12399,22 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="G10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -12420,22 +12428,22 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F11" t="s">
         <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -12449,22 +12457,22 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F12" t="s">
         <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -12478,25 +12486,25 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B13" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D13">
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F13">
         <v>2468</v>
       </c>
       <c r="G13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -12510,22 +12518,22 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -12539,22 +12547,22 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D15" t="s">
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -12568,22 +12576,22 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s">
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -12597,19 +12605,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D17">
         <v>2468</v>
       </c>
       <c r="G17" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -12620,13 +12628,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D18">
         <v>456</v>
@@ -12640,10 +12648,10 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D19" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I19">
         <v>80</v>
@@ -12654,10 +12662,10 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D20" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I20">
         <v>120</v>
@@ -12671,10 +12679,10 @@
         <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D22">
         <v>13</v>
@@ -12685,10 +12693,10 @@
         <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D23">
         <v>13</v>
@@ -12696,13 +12704,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D24">
         <v>13</v>
@@ -12710,13 +12718,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D25">
         <v>13</v>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="丹药" sheetId="9" r:id="rId7"/>
     <sheet name="妖兽" sheetId="10" r:id="rId8"/>
     <sheet name="功能物品" sheetId="11" r:id="rId9"/>
+    <sheet name="配方" sheetId="12" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">丹药!$A$1:$AA$41</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="463">
   <si>
     <t>圆满层数</t>
   </si>
@@ -370,36 +371,21 @@
     <t>附魔能力</t>
   </si>
   <si>
-    <t>修复材料</t>
-  </si>
-  <si>
     <t>灵镐</t>
   </si>
   <si>
     <t>linggao0</t>
   </si>
   <si>
-    <t>linghe0</t>
-  </si>
-  <si>
     <t>linggao1</t>
   </si>
   <si>
-    <t>linghe1</t>
-  </si>
-  <si>
     <t>linggao2</t>
   </si>
   <si>
-    <t>linghe2</t>
-  </si>
-  <si>
     <t>linggao3</t>
   </si>
   <si>
-    <t>linghe3</t>
-  </si>
-  <si>
     <t>原版对比</t>
   </si>
   <si>
@@ -409,7 +395,79 @@
     <t>下届合金</t>
   </si>
   <si>
-    <t>灵甲</t>
+    <t>灵头盔</t>
+  </si>
+  <si>
+    <t>ling_helmet0</t>
+  </si>
+  <si>
+    <t>ling_helmet1</t>
+  </si>
+  <si>
+    <t>ling_helmet2</t>
+  </si>
+  <si>
+    <t>ling_helmet3</t>
+  </si>
+  <si>
+    <t>灵胸甲</t>
+  </si>
+  <si>
+    <t>ling_chestplate0</t>
+  </si>
+  <si>
+    <t>ling_chestplate1</t>
+  </si>
+  <si>
+    <t>ling_chestplate2</t>
+  </si>
+  <si>
+    <t>ling_chestplate3</t>
+  </si>
+  <si>
+    <t>灵护腿</t>
+  </si>
+  <si>
+    <t>ling_leggings0</t>
+  </si>
+  <si>
+    <t>ling_leggings1</t>
+  </si>
+  <si>
+    <t>ling_leggings2</t>
+  </si>
+  <si>
+    <t>ling_leggings3</t>
+  </si>
+  <si>
+    <t>灵鞋子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ling_boots0 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ling_boots1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ling_boots2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ling_boots3 </t>
+  </si>
+  <si>
+    <t>灵剑</t>
+  </si>
+  <si>
+    <t>lingjian0</t>
+  </si>
+  <si>
+    <t>lingjian1</t>
+  </si>
+  <si>
+    <t>lingjian2</t>
+  </si>
+  <si>
+    <t>lingjian3</t>
   </si>
   <si>
     <t xml:space="preserve">linghe0 </t>
@@ -1590,6 +1648,9 @@
     <t>概率</t>
   </si>
   <si>
+    <t>linghe0</t>
+  </si>
+  <si>
     <t>huanlinghu</t>
   </si>
   <si>
@@ -1599,6 +1660,9 @@
     <t>youmingguishou</t>
   </si>
   <si>
+    <t>linghe1</t>
+  </si>
+  <si>
     <t>shayingmoxie</t>
   </si>
   <si>
@@ -1608,6 +1672,9 @@
     <t>zuoying</t>
   </si>
   <si>
+    <t>linghe2</t>
+  </si>
+  <si>
     <t>huoqiling</t>
   </si>
   <si>
@@ -1617,6 +1684,9 @@
     <t>bingfenghuang</t>
   </si>
   <si>
+    <t>linghe3</t>
+  </si>
+  <si>
     <t>kunpeng</t>
   </si>
   <si>
@@ -1759,6 +1829,27 @@
   </si>
   <si>
     <t>lingmu3_LOG</t>
+  </si>
+  <si>
+    <t>修复材料</t>
+  </si>
+  <si>
+    <t>12,13</t>
+  </si>
+  <si>
+    <t>14,15</t>
+  </si>
+  <si>
+    <t>16,17</t>
+  </si>
+  <si>
+    <t>18,19,20,21</t>
+  </si>
+  <si>
+    <t>xvantie4</t>
+  </si>
+  <si>
+    <t>24,25</t>
   </si>
 </sst>
 </file>
@@ -3091,6 +3182,883 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="12:15">
+      <c r="L1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2">
+        <v>46</v>
+      </c>
+      <c r="L2">
+        <v>30</v>
+      </c>
+      <c r="M2">
+        <v>50</v>
+      </c>
+      <c r="O2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" t="s">
+        <v>457</v>
+      </c>
+      <c r="L3">
+        <v>55</v>
+      </c>
+      <c r="M3">
+        <v>120</v>
+      </c>
+      <c r="O3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" t="s">
+        <v>459</v>
+      </c>
+      <c r="H4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" t="s">
+        <v>460</v>
+      </c>
+      <c r="L4">
+        <v>80</v>
+      </c>
+      <c r="M4">
+        <v>240</v>
+      </c>
+      <c r="O4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" t="s">
+        <v>462</v>
+      </c>
+      <c r="L5">
+        <v>120</v>
+      </c>
+      <c r="M5">
+        <v>480</v>
+      </c>
+      <c r="O5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6">
+        <v>456</v>
+      </c>
+      <c r="H6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I6">
+        <v>789</v>
+      </c>
+      <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="M6">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" t="s">
+        <v>457</v>
+      </c>
+      <c r="L7">
+        <v>55</v>
+      </c>
+      <c r="M7">
+        <v>120</v>
+      </c>
+      <c r="N7"/>
+      <c r="O7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" t="s">
+        <v>458</v>
+      </c>
+      <c r="F8" t="s">
+        <v>141</v>
+      </c>
+      <c r="G8" t="s">
+        <v>459</v>
+      </c>
+      <c r="H8" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" t="s">
+        <v>460</v>
+      </c>
+      <c r="L8">
+        <v>80</v>
+      </c>
+      <c r="M8">
+        <v>240</v>
+      </c>
+      <c r="N8"/>
+      <c r="O8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>461</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" t="s">
+        <v>462</v>
+      </c>
+      <c r="L9">
+        <v>120</v>
+      </c>
+      <c r="M9">
+        <v>480</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10">
+        <v>123</v>
+      </c>
+      <c r="F10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10">
+        <v>79</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>50</v>
+      </c>
+      <c r="N10"/>
+      <c r="O10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" t="s">
+        <v>457</v>
+      </c>
+      <c r="L11">
+        <v>55</v>
+      </c>
+      <c r="M11">
+        <v>120</v>
+      </c>
+      <c r="N11"/>
+      <c r="O11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" t="s">
+        <v>458</v>
+      </c>
+      <c r="F12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" t="s">
+        <v>459</v>
+      </c>
+      <c r="H12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" t="s">
+        <v>460</v>
+      </c>
+      <c r="L12">
+        <v>80</v>
+      </c>
+      <c r="M12">
+        <v>240</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>461</v>
+      </c>
+      <c r="E13">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" t="s">
+        <v>462</v>
+      </c>
+      <c r="L13">
+        <v>120</v>
+      </c>
+      <c r="M13">
+        <v>480</v>
+      </c>
+      <c r="N13"/>
+      <c r="O13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>143</v>
+      </c>
+      <c r="I14">
+        <v>46</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14">
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <v>50</v>
+      </c>
+      <c r="N14"/>
+      <c r="O14" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" t="s">
+        <v>457</v>
+      </c>
+      <c r="L15">
+        <v>55</v>
+      </c>
+      <c r="M15">
+        <v>120</v>
+      </c>
+      <c r="N15"/>
+      <c r="O15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E16" t="s">
+        <v>458</v>
+      </c>
+      <c r="F16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" t="s">
+        <v>459</v>
+      </c>
+      <c r="H16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" t="s">
+        <v>460</v>
+      </c>
+      <c r="L16">
+        <v>80</v>
+      </c>
+      <c r="M16">
+        <v>240</v>
+      </c>
+      <c r="N16"/>
+      <c r="O16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" t="s">
+        <v>461</v>
+      </c>
+      <c r="E17">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17" t="s">
+        <v>462</v>
+      </c>
+      <c r="L17">
+        <v>120</v>
+      </c>
+      <c r="M17">
+        <v>480</v>
+      </c>
+      <c r="N17"/>
+      <c r="O17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18">
+        <v>8</v>
+      </c>
+      <c r="L18">
+        <v>30</v>
+      </c>
+      <c r="M18">
+        <v>50</v>
+      </c>
+      <c r="N18"/>
+      <c r="O18" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" t="s">
+        <v>457</v>
+      </c>
+      <c r="J19" t="s">
+        <v>148</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+      <c r="L19">
+        <v>55</v>
+      </c>
+      <c r="M19">
+        <v>120</v>
+      </c>
+      <c r="N19"/>
+      <c r="O19" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E20" t="s">
+        <v>458</v>
+      </c>
+      <c r="F20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" t="s">
+        <v>459</v>
+      </c>
+      <c r="H20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" t="s">
+        <v>460</v>
+      </c>
+      <c r="J20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <v>80</v>
+      </c>
+      <c r="M20">
+        <v>240</v>
+      </c>
+      <c r="N20"/>
+      <c r="O20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" t="s">
+        <v>461</v>
+      </c>
+      <c r="E21">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21">
+        <v>23</v>
+      </c>
+      <c r="H21" t="s">
+        <v>146</v>
+      </c>
+      <c r="I21" t="s">
+        <v>462</v>
+      </c>
+      <c r="J21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>120</v>
+      </c>
+      <c r="M21">
+        <v>480</v>
+      </c>
+      <c r="N21"/>
+      <c r="O21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22" t="s">
+        <v>143</v>
+      </c>
+      <c r="G22">
+        <v>8</v>
+      </c>
+      <c r="J22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22">
+        <v>8</v>
+      </c>
+      <c r="L22">
+        <v>30</v>
+      </c>
+      <c r="M22">
+        <v>50</v>
+      </c>
+      <c r="N22"/>
+      <c r="O22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I23" t="s">
+        <v>457</v>
+      </c>
+      <c r="J23" t="s">
+        <v>148</v>
+      </c>
+      <c r="K23">
+        <v>8</v>
+      </c>
+      <c r="L23">
+        <v>55</v>
+      </c>
+      <c r="M23">
+        <v>120</v>
+      </c>
+      <c r="N23"/>
+      <c r="O23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" t="s">
+        <v>458</v>
+      </c>
+      <c r="F24" t="s">
+        <v>141</v>
+      </c>
+      <c r="G24" t="s">
+        <v>459</v>
+      </c>
+      <c r="H24" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" t="s">
+        <v>460</v>
+      </c>
+      <c r="J24" t="s">
+        <v>149</v>
+      </c>
+      <c r="K24">
+        <v>8</v>
+      </c>
+      <c r="L24">
+        <v>80</v>
+      </c>
+      <c r="M24">
+        <v>240</v>
+      </c>
+      <c r="N24"/>
+      <c r="O24" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" t="s">
+        <v>461</v>
+      </c>
+      <c r="E25">
+        <v>22</v>
+      </c>
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" t="s">
+        <v>462</v>
+      </c>
+      <c r="J25" t="s">
+        <v>150</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+      <c r="L25">
+        <v>120</v>
+      </c>
+      <c r="M25">
+        <v>480</v>
+      </c>
+      <c r="N25"/>
+      <c r="O25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
@@ -3442,10 +4410,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4917,7 +5885,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="37" spans="3:9">
+    <row r="37" spans="3:8">
       <c r="C37" t="s">
         <v>44</v>
       </c>
@@ -4936,16 +5904,13 @@
       <c r="H37" t="s">
         <v>97</v>
       </c>
-      <c r="I37" t="s">
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>99</v>
-      </c>
-      <c r="B38" t="s">
-        <v>100</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -4965,13 +5930,10 @@
       <c r="H38">
         <v>10</v>
       </c>
-      <c r="I38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+    </row>
+    <row r="39" spans="2:8">
       <c r="B39" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4991,13 +5953,10 @@
       <c r="H39">
         <v>15</v>
       </c>
-      <c r="I39" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+    </row>
+    <row r="40" spans="2:8">
       <c r="B40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C40">
         <v>2</v>
@@ -5017,13 +5976,10 @@
       <c r="H40">
         <v>20</v>
       </c>
-      <c r="I40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+    </row>
+    <row r="41" spans="2:8">
       <c r="B41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C41">
         <v>3</v>
@@ -5043,18 +5999,15 @@
       <c r="H41">
         <v>25</v>
       </c>
-      <c r="I41" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -5074,7 +6027,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D45">
         <v>4</v>
@@ -5092,169 +6045,302 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>69</v>
-      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
       <c r="B61" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>74</v>
-      </c>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
       <c r="B62" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>79</v>
-      </c>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
       <c r="B63" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>67</v>
-      </c>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>70</v>
-      </c>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
       <c r="B66" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>75</v>
-      </c>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
       <c r="B67" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>69</v>
+      </c>
+      <c r="B90" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>74</v>
+      </c>
+      <c r="B91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>67</v>
+      </c>
+      <c r="B94" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>70</v>
+      </c>
+      <c r="B95" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>80</v>
       </c>
-      <c r="B68" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
+      <c r="B97" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+      <c r="B98" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>72</v>
       </c>
-      <c r="B70" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
+      <c r="B99" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>77</v>
       </c>
-      <c r="B71" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+      <c r="B100" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
         <v>82</v>
       </c>
-      <c r="B72" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+      <c r="B101" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>85</v>
       </c>
-      <c r="B73" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+      <c r="B102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>86</v>
       </c>
-      <c r="B74" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+      <c r="B103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>87</v>
       </c>
-      <c r="B75" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+      <c r="B104" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>88</v>
       </c>
-      <c r="B76" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+      <c r="B105" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>89</v>
       </c>
-      <c r="B77" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+      <c r="B106" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>90</v>
       </c>
-      <c r="B78" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+      <c r="B107" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>91</v>
       </c>
-      <c r="B79" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+      <c r="B108" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>92</v>
       </c>
-      <c r="B80" t="s">
-        <v>131</v>
+      <c r="B109" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5270,17 +6356,17 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:F41"/>
+      <selection activeCell="A2" sqref="A2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="2:4">
       <c r="B1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -5291,10 +6377,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5305,7 +6391,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5316,7 +6402,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5327,7 +6413,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5338,10 +6424,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5352,7 +6438,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5363,7 +6449,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5374,7 +6460,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -5385,10 +6471,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5399,7 +6485,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5410,7 +6496,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -5421,7 +6507,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5432,10 +6518,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="D14" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5446,7 +6532,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5457,7 +6543,7 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5468,7 +6554,7 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5479,10 +6565,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -5493,29 +6579,29 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B20">
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B21">
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5537,46 +6623,46 @@
   <sheetData>
     <row r="1" spans="4:19">
       <c r="D1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="N1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:19">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="J2" t="s">
         <v>85</v>
@@ -5588,13 +6674,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="P2" s="5">
         <v>0</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="R2" s="5">
         <v>30</v>
@@ -5605,29 +6691,29 @@
     </row>
     <row r="3" ht="18.75" spans="1:19">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="D3" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="K3" t="s">
         <v>89</v>
@@ -5639,13 +6725,13 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="P3" s="5">
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="R3" s="5">
         <v>33</v>
@@ -5656,25 +6742,25 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G4" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" t="s">
@@ -5690,13 +6776,13 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="P4" s="5">
         <v>2</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="R4" s="5">
         <v>32</v>
@@ -5707,25 +6793,25 @@
     </row>
     <row r="5" ht="18.75" spans="1:19">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G5" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" t="s">
@@ -5739,13 +6825,13 @@
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P5" s="5">
         <v>3</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="R5" s="5">
         <v>31</v>
@@ -5756,43 +6842,43 @@
     </row>
     <row r="6" ht="18.75" spans="1:19">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="G6" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="J6" t="s">
         <v>72</v>
       </c>
       <c r="M6" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="P6" s="5">
         <v>4</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="R6" s="5">
         <v>44</v>
@@ -5803,25 +6889,25 @@
     </row>
     <row r="7" ht="18.75" spans="1:19">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="G7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="J7" t="s">
         <v>86</v>
@@ -5836,13 +6922,13 @@
         <v>5</v>
       </c>
       <c r="O7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="P7" s="5">
         <v>5</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="R7" s="5">
         <v>39</v>
@@ -5853,25 +6939,25 @@
     </row>
     <row r="8" ht="18.75" spans="1:19">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C8" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" t="s">
@@ -5884,13 +6970,13 @@
         <v>6</v>
       </c>
       <c r="O8" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="P8" s="5">
         <v>6</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="R8" s="5">
         <v>40</v>
@@ -5901,25 +6987,25 @@
     </row>
     <row r="9" ht="18.75" spans="1:19">
       <c r="A9" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="D9" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="G9" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" t="s">
@@ -5932,13 +7018,13 @@
         <v>7</v>
       </c>
       <c r="O9" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="P9" s="5">
         <v>7</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="R9" s="5">
         <v>42</v>
@@ -5949,25 +7035,25 @@
     </row>
     <row r="10" ht="18.75" spans="1:19">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G10" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" t="s">
@@ -5980,13 +7066,13 @@
         <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="P10" s="5">
         <v>8</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="R10" s="5">
         <v>51</v>
@@ -5997,25 +7083,25 @@
     </row>
     <row r="11" ht="18.75" spans="1:19">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="G11" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="K11" t="s">
         <v>92</v>
@@ -6027,13 +7113,13 @@
         <v>9</v>
       </c>
       <c r="O11" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="P11" s="5">
         <v>9</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="R11" s="5">
         <v>55</v>
@@ -6044,25 +7130,25 @@
     </row>
     <row r="12" ht="18.75" spans="1:19">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G12" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="J12" t="s">
         <v>80</v>
@@ -6075,13 +7161,13 @@
         <v>10</v>
       </c>
       <c r="O12" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="P12" s="5">
         <v>10</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="R12" s="5">
         <v>49</v>
@@ -6102,13 +7188,13 @@
         <v>11</v>
       </c>
       <c r="O13" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="P13" s="5">
         <v>11</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="R13" s="5">
         <v>48</v>
@@ -6119,13 +7205,13 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="D14" s="3"/>
       <c r="J14" t="s">
@@ -6139,13 +7225,13 @@
         <v>12</v>
       </c>
       <c r="O14" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="P14" s="5">
         <v>12</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="R14" s="5">
         <v>74</v>
@@ -6156,13 +7242,13 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="D15" s="3"/>
       <c r="I15" s="3"/>
@@ -6175,13 +7261,13 @@
         <v>13</v>
       </c>
       <c r="O15" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="P15" s="5">
         <v>13</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="R15" s="5">
         <v>65</v>
@@ -6192,13 +7278,13 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D16" s="3"/>
       <c r="K16" s="3"/>
@@ -6209,13 +7295,13 @@
         <v>14</v>
       </c>
       <c r="O16" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="P16" s="5">
         <v>14</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="R16" s="5">
         <v>69</v>
@@ -6226,13 +7312,13 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="D17" s="3"/>
       <c r="I17" s="3"/>
@@ -6245,13 +7331,13 @@
         <v>15</v>
       </c>
       <c r="O17" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="P17" s="5">
         <v>15</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="R17" s="5">
         <v>70</v>
@@ -6274,13 +7360,13 @@
         <v>16</v>
       </c>
       <c r="O18" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="P18" s="5">
         <v>16</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="R18" s="5">
         <v>77</v>
@@ -6300,13 +7386,13 @@
         <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="P19" s="5">
         <v>17</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="R19" s="5">
         <v>79</v>
@@ -6325,13 +7411,13 @@
         <v>18</v>
       </c>
       <c r="O20" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="P20" s="5">
         <v>18</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="R20" s="5">
         <v>84</v>
@@ -6351,13 +7437,13 @@
         <v>19</v>
       </c>
       <c r="O21" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="P21" s="5">
         <v>19</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="R21" s="5">
         <v>83</v>
@@ -6466,17 +7552,17 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" spans="1:12">
       <c r="A1" s="5" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -6484,15 +7570,15 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="L1" s="5" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="1" ht="17" customHeight="1" spans="1:13">
       <c r="A2" s="5" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C2" s="5">
         <v>30</v>
@@ -6501,31 +7587,31 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" s="5" customFormat="1" spans="1:13">
       <c r="A3" s="5" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="C3" s="5">
         <v>32</v>
@@ -6534,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -6542,18 +7628,18 @@
         <v>89</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" s="5" customFormat="1" spans="1:13">
       <c r="A4" s="5" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C4" s="5">
         <v>33</v>
@@ -6562,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -6571,18 +7657,18 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:13">
       <c r="A5" s="5" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="C5" s="5">
         <v>31</v>
@@ -6591,7 +7677,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
@@ -6599,18 +7685,18 @@
         <v>90</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" s="5" customFormat="1" spans="1:13">
       <c r="A6" s="5" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="C6" s="5">
         <v>44</v>
@@ -6619,28 +7705,28 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F6" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="G6" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="H6" s="5"/>
       <c r="L6" s="5" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" s="5" customFormat="1" spans="1:13">
       <c r="A7" s="5" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="C7" s="5">
         <v>39</v>
@@ -6649,24 +7735,24 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="L7" s="5" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" s="5" customFormat="1" spans="1:13">
       <c r="A8" s="5" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C8" s="5">
         <v>40</v>
@@ -6675,7 +7761,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
@@ -6684,18 +7770,18 @@
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" s="5" customFormat="1" spans="1:13">
       <c r="A9" s="5" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="C9" s="5">
         <v>42</v>
@@ -6704,26 +7790,26 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="6" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" s="5" customFormat="1" spans="1:14">
       <c r="A10" s="5" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C10" s="5">
         <v>51</v>
@@ -6732,34 +7818,34 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="N10" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" s="5" customFormat="1" spans="1:14">
       <c r="A11" s="5" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="C11" s="5">
         <v>55</v>
@@ -6768,7 +7854,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
@@ -6777,21 +7863,21 @@
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="N11" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" s="5" customFormat="1" spans="1:14">
       <c r="A12" s="5" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="C12" s="5">
         <v>49</v>
@@ -6800,7 +7886,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
@@ -6809,21 +7895,21 @@
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>266</v>
+        <v>285</v>
       </c>
       <c r="N12" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" s="5" customFormat="1" spans="1:14">
       <c r="A13" s="5" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="C13" s="5">
         <v>48</v>
@@ -6832,7 +7918,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
@@ -6841,21 +7927,21 @@
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="N13" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" s="5" customFormat="1" spans="1:14">
       <c r="A14" s="5" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="C14" s="5">
         <v>74</v>
@@ -6864,7 +7950,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
@@ -6873,21 +7959,21 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="N14" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" s="5" customFormat="1" spans="1:14">
       <c r="A15" s="5" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="C15" s="5">
         <v>65</v>
@@ -6896,24 +7982,24 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="N15" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" s="5" customFormat="1" spans="1:14">
       <c r="A16" s="5" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="C16" s="5">
         <v>69</v>
@@ -6922,27 +8008,27 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="N16" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" s="5" customFormat="1" spans="1:14">
       <c r="A17" s="5" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="C17" s="5">
         <v>70</v>
@@ -6951,7 +8037,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="F17"/>
       <c r="G17" s="5"/>
@@ -6960,21 +8046,21 @@
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="N17" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="1" spans="1:14">
       <c r="A18" s="5" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="C18" s="5">
         <v>77</v>
@@ -6983,7 +8069,7 @@
         <v>5</v>
       </c>
       <c r="E18" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
@@ -6992,15 +8078,15 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="N18" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="1" spans="1:14">
       <c r="A19" s="5" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="C19" s="5">
         <v>79</v>
@@ -7009,7 +8095,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
@@ -7018,15 +8104,15 @@
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="N19" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" s="5" customFormat="1" spans="1:14">
       <c r="A20" s="5" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="C20" s="5">
         <v>84</v>
@@ -7035,7 +8121,7 @@
         <v>5</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
@@ -7044,15 +8130,15 @@
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
       <c r="N20" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="1" spans="1:5">
       <c r="A21" s="5" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="C21" s="5">
         <v>83</v>
@@ -7061,172 +8147,172 @@
         <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="1"/>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="D23" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="E23"/>
     </row>
     <row r="24" s="5" customFormat="1" spans="1:5">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="E24"/>
     </row>
     <row r="25" s="5" customFormat="1" spans="1:5">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="D25" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="E25"/>
     </row>
     <row r="26" s="5" customFormat="1" spans="1:5">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D26" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27" s="5" customFormat="1" spans="1:5">
       <c r="A27" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="D27" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="E27"/>
     </row>
     <row r="28" s="5" customFormat="1" spans="1:5">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D28" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="E28"/>
     </row>
     <row r="29" s="5" customFormat="1" spans="1:5">
       <c r="A29" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C29" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="D29" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="E29"/>
     </row>
     <row r="30" s="5" customFormat="1" spans="1:5">
       <c r="A30" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="D30" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="E30"/>
     </row>
     <row r="31" s="5" customFormat="1" spans="1:5">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="E31"/>
     </row>
     <row r="32" s="5" customFormat="1" spans="1:5">
       <c r="A32" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="D32" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="E32"/>
     </row>
     <row r="33" s="5" customFormat="1" spans="1:5">
       <c r="A33" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="D33" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="E33"/>
     </row>
@@ -7271,7 +8357,7 @@
   <sheetData>
     <row r="1" spans="4:34">
       <c r="D1" s="5" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="P1" t="s">
         <v>65</v>
@@ -7280,13 +8366,13 @@
         <v>66</v>
       </c>
       <c r="S1" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="T1" t="s">
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>4</v>
@@ -7301,16 +8387,16 @@
         <v>8</v>
       </c>
       <c r="Z1" s="5" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="AA1" s="5" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="AB1" s="5" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="AC1" s="5" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="AD1" t="s">
         <v>6</v>
@@ -7333,28 +8419,28 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G2" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="P2">
         <v>35</v>
@@ -7416,28 +8502,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>294</v>
+        <v>313</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="P3">
         <v>35</v>
@@ -7499,28 +8585,28 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G4" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I4" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="P4">
         <v>35</v>
@@ -7582,28 +8668,28 @@
         <v>8</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="E5" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G5" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="P5">
         <v>35</v>
@@ -7662,31 +8748,31 @@
     </row>
     <row r="6" spans="1:34">
       <c r="A6" s="5" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="E6" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G6" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="P6">
         <v>35</v>
@@ -7745,31 +8831,31 @@
     </row>
     <row r="7" spans="1:34">
       <c r="A7" s="5" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="G7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I7" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="P7">
         <v>35</v>
@@ -7828,31 +8914,31 @@
     </row>
     <row r="8" spans="1:34">
       <c r="A8" s="5" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="E8" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G8" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="I8" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="P8">
         <v>20</v>
@@ -7911,31 +8997,31 @@
     </row>
     <row r="9" spans="1:34">
       <c r="A9" s="5" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G9" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="I9" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="P9">
         <v>20</v>
@@ -7997,34 +9083,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="E10" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="G10" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K10" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P10">
         <v>40</v>
@@ -8086,34 +9172,34 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>311</v>
+        <v>330</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="E11" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G11" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K11" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P11">
         <v>40</v>
@@ -8175,34 +9261,34 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="E12" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G12" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K12" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P12">
         <v>40</v>
@@ -8264,34 +9350,34 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="E13" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="G13" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K13" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="P13">
         <v>40</v>
@@ -8350,37 +9436,37 @@
     </row>
     <row r="14" spans="1:34">
       <c r="A14" s="5" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="E14" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G14" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I14" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K14" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="P14">
         <v>40</v>
@@ -8439,37 +9525,37 @@
     </row>
     <row r="15" spans="1:34">
       <c r="A15" s="5" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="E15" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="G15" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>74</v>
       </c>
       <c r="I15" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="K15" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="P15">
         <v>40</v>
@@ -8528,37 +9614,37 @@
     </row>
     <row r="16" spans="1:34">
       <c r="A16" s="5" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="G16" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="I16" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P16">
         <v>20</v>
@@ -8617,37 +9703,37 @@
     </row>
     <row r="17" spans="1:34">
       <c r="A17" s="5" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="E17" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G17" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="I17" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="P17">
         <v>20</v>
@@ -8709,40 +9795,40 @@
         <v>4</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E18" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G18" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="K18" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="M18" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="P18">
         <v>55</v>
@@ -8804,40 +9890,40 @@
         <v>3</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E19" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G19" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I19" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="K19" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="M19" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="P19">
         <v>55</v>
@@ -8899,40 +9985,40 @@
         <v>5</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E20" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="G20" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I20" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="K20" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="M20" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="P20">
         <v>55</v>
@@ -8994,40 +10080,40 @@
         <v>8</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="E21" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G21" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I21" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="K21" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="M21" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="P21">
         <v>55</v>
@@ -9086,43 +10172,43 @@
     </row>
     <row r="22" spans="1:34">
       <c r="A22" s="5" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>333</v>
+        <v>352</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="E22" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="G22" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I22" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="K22" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="M22" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="P22">
         <v>55</v>
@@ -9181,43 +10267,43 @@
     </row>
     <row r="23" spans="1:34">
       <c r="A23" s="5" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>335</v>
+        <v>354</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="E23" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="G23" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>79</v>
       </c>
       <c r="I23" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="K23" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="M23" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="P23">
         <v>55</v>
@@ -9276,43 +10362,43 @@
     </row>
     <row r="24" spans="1:34">
       <c r="A24" s="5" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>337</v>
+        <v>356</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E24" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="G24" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="I24" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="K24" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
       <c r="P24">
         <v>20</v>
@@ -9371,43 +10457,43 @@
     </row>
     <row r="25" spans="1:34">
       <c r="A25" s="5" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>339</v>
+        <v>358</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="E25" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="G25" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="I25" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="M25" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="P25">
         <v>20</v>
@@ -9469,46 +10555,46 @@
         <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="G26" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I26" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="M26" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O26" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P26">
         <v>120</v>
@@ -9570,46 +10656,46 @@
         <v>3</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="E27" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G27" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="H27" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I27" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="K27" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M27" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="N27" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O27" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P27">
         <v>120</v>
@@ -9671,46 +10757,46 @@
         <v>5</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="E28" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="G28" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I28" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="M28" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O28" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P28">
         <v>120</v>
@@ -9772,46 +10858,46 @@
         <v>8</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="E29" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="G29" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I29" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="M29" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="N29" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O29" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P29">
         <v>120</v>
@@ -9870,49 +10956,49 @@
     </row>
     <row r="30" ht="15" spans="1:34">
       <c r="A30" s="5" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="E30" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="G30" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I30" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="K30" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="N30" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O30" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P30">
         <v>120</v>
@@ -9971,49 +11057,49 @@
     </row>
     <row r="31" spans="1:34">
       <c r="A31" s="5" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="E31" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="G31" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I31" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="K31" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="M31" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="N31" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O31" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P31">
         <v>120</v>
@@ -10072,49 +11158,49 @@
     </row>
     <row r="32" ht="15" spans="1:34">
       <c r="A32" s="5" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="E32" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G32" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="I32" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="M32" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="O32" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="P32">
         <v>20</v>
@@ -10173,49 +11259,49 @@
     </row>
     <row r="33" spans="1:34">
       <c r="A33" s="5" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="E33" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="G33" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="I33" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="K33" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="O33" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="P33">
         <v>20</v>
@@ -10277,46 +11363,46 @@
         <v>4</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="E34" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G34" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I34" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="L34" s="5" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="M34" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O34" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P34">
         <v>160</v>
@@ -10378,46 +11464,46 @@
         <v>3</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>358</v>
+        <v>377</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="E35" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I35" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="K35" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="M35" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="N35" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O35" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P35">
         <v>160</v>
@@ -10479,46 +11565,46 @@
         <v>5</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>361</v>
+        <v>380</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="E36" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G36" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I36" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="K36" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="M36" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="N36" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O36" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P36">
         <v>160</v>
@@ -10580,46 +11666,46 @@
         <v>8</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>362</v>
+        <v>381</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="E37" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G37" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I37" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="K37" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="M37" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="N37" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O37" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P37">
         <v>160</v>
@@ -10678,49 +11764,49 @@
     </row>
     <row r="38" spans="1:34">
       <c r="A38" s="5" t="s">
-        <v>288</v>
+        <v>307</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>365</v>
+        <v>384</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="E38" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G38" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I38" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="K38" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="M38" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="N38" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O38" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P38">
         <v>160</v>
@@ -10779,49 +11865,49 @@
     </row>
     <row r="39" spans="1:34">
       <c r="A39" s="5" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>366</v>
+        <v>385</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="E39" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="G39" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I39" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="K39" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="M39" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="N39" s="5" t="s">
         <v>84</v>
       </c>
       <c r="O39" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="P39">
         <v>160</v>
@@ -10880,49 +11966,49 @@
     </row>
     <row r="40" spans="1:34">
       <c r="A40" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>271</v>
-      </c>
       <c r="E40" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="G40" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="I40" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="K40" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="M40" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="O40" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="P40">
         <v>20</v>
@@ -10981,49 +12067,49 @@
     </row>
     <row r="41" spans="1:34">
       <c r="A41" s="5" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="E41" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="G41" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="I41" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="K41" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="M41" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="O41" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="P41">
         <v>20</v>
@@ -11082,10 +12168,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D46" t="s">
         <v>69</v>
@@ -11094,15 +12180,15 @@
         <v>0</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="D47" t="s">
         <v>74</v>
@@ -11111,15 +12197,15 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="D48" t="s">
         <v>79</v>
@@ -11128,15 +12214,15 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="D49" t="s">
         <v>84</v>
@@ -11145,135 +12231,135 @@
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="5" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="5" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="5" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="5" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="5" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="5" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="5" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>265</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="5" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>270</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="5" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="5" t="s">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="5" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="5" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="5" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -11295,10 +12381,10 @@
   <sheetData>
     <row r="1" spans="5:18">
       <c r="E1" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="F1" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -11331,24 +12417,24 @@
         <v>12</v>
       </c>
       <c r="Q1" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="R1" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" ht="25.5" spans="1:18">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -11387,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="s">
-        <v>101</v>
+        <v>395</v>
       </c>
       <c r="R2">
         <v>0.5</v>
@@ -11395,16 +12481,16 @@
     </row>
     <row r="3" ht="25.5" spans="1:18">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -11443,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="s">
-        <v>101</v>
+        <v>395</v>
       </c>
       <c r="R3">
         <v>0.7</v>
@@ -11451,16 +12537,16 @@
     </row>
     <row r="4" ht="25.5" spans="1:18">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -11499,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="s">
-        <v>101</v>
+        <v>395</v>
       </c>
       <c r="R4">
         <v>0.9</v>
@@ -11507,16 +12593,16 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -11555,7 +12641,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>103</v>
+        <v>399</v>
       </c>
       <c r="R5">
         <v>0.4</v>
@@ -11563,16 +12649,16 @@
     </row>
     <row r="6" ht="25.5" spans="1:18">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>379</v>
+        <v>400</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -11611,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="s">
-        <v>103</v>
+        <v>399</v>
       </c>
       <c r="R6">
         <v>0.6</v>
@@ -11619,16 +12705,16 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -11667,7 +12753,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="s">
-        <v>103</v>
+        <v>399</v>
       </c>
       <c r="R7">
         <v>0.8</v>
@@ -11675,16 +12761,16 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="E8" t="s">
         <v>20</v>
@@ -11723,7 +12809,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="s">
-        <v>105</v>
+        <v>403</v>
       </c>
       <c r="R8">
         <v>0.3</v>
@@ -11731,16 +12817,16 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -11779,7 +12865,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="s">
-        <v>105</v>
+        <v>403</v>
       </c>
       <c r="R9">
         <v>0.5</v>
@@ -11787,16 +12873,16 @@
     </row>
     <row r="10" ht="25.5" spans="1:18">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>210</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -11835,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="s">
-        <v>105</v>
+        <v>403</v>
       </c>
       <c r="R10">
         <v>0.7</v>
@@ -11843,16 +12929,16 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="E11" t="s">
         <v>23</v>
@@ -11891,7 +12977,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="s">
-        <v>107</v>
+        <v>407</v>
       </c>
       <c r="R11">
         <v>0.3</v>
@@ -11899,16 +12985,16 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="E12" t="s">
         <v>26</v>
@@ -11947,7 +13033,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="R12">
         <v>0.2</v>
@@ -12265,7 +13351,7 @@
   <sheetPr/>
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="F38" sqref="F38:F41"/>
     </sheetView>
   </sheetViews>
@@ -12278,111 +13364,111 @@
   <sheetData>
     <row r="1" spans="3:5">
       <c r="C1" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="D1" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="E1" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="C2" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="D2" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="C3" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="G3" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="C7" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="D7" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="C8" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="D8" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="B9" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="C9" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="F9">
         <v>1379</v>
@@ -12399,22 +13485,22 @@
     </row>
     <row r="10" spans="2:10">
       <c r="B10" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="E10" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="G10" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="H10">
         <v>5</v>
@@ -12428,22 +13514,22 @@
     </row>
     <row r="11" spans="2:10">
       <c r="B11" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D11" t="s">
         <v>76</v>
       </c>
       <c r="E11" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s">
         <v>78</v>
       </c>
       <c r="G11" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="H11">
         <v>5</v>
@@ -12457,22 +13543,22 @@
     </row>
     <row r="12" spans="2:10">
       <c r="B12" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="C12" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
         <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -12486,25 +13572,25 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="B13" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D13">
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F13">
         <v>2468</v>
       </c>
       <c r="G13" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
       <c r="H13">
         <v>5</v>
@@ -12518,22 +13604,22 @@
     </row>
     <row r="14" spans="2:10">
       <c r="B14" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D14" t="s">
         <v>71</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
         <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="H14">
         <v>5</v>
@@ -12547,22 +13633,22 @@
     </row>
     <row r="15" spans="2:10">
       <c r="B15" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s">
         <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="F15" t="s">
         <v>78</v>
       </c>
       <c r="G15" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="H15">
         <v>5</v>
@@ -12576,22 +13662,22 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="D16" t="s">
         <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="F16" t="s">
         <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="H16">
         <v>5</v>
@@ -12605,19 +13691,19 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="B17" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="D17">
         <v>2468</v>
       </c>
       <c r="G17" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -12628,13 +13714,13 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
       <c r="B18" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="C18" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="D18">
         <v>456</v>
@@ -12648,10 +13734,10 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="D19" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="I19">
         <v>80</v>
@@ -12662,10 +13748,10 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="s">
-        <v>427</v>
+        <v>450</v>
       </c>
       <c r="D20" t="s">
-        <v>428</v>
+        <v>451</v>
       </c>
       <c r="I20">
         <v>120</v>
@@ -12679,10 +13765,10 @@
         <v>89</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
-        <v>429</v>
+        <v>452</v>
       </c>
       <c r="D22">
         <v>13</v>
@@ -12693,10 +13779,10 @@
         <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>430</v>
+        <v>453</v>
       </c>
       <c r="D23">
         <v>13</v>
@@ -12704,13 +13790,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="D24">
         <v>13</v>
@@ -12718,13 +13804,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="B25" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="D25">
         <v>13</v>

--- a/gamedata/数据.xlsx
+++ b/gamedata/数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="9"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="境界" sheetId="1" r:id="rId1"/>
@@ -3187,7 +3187,7 @@
   <sheetPr/>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -3398,7 +3398,6 @@
       <c r="M7">
         <v>120</v>
       </c>
-      <c r="N7"/>
       <c r="O7" t="s">
         <v>399</v>
       </c>
@@ -3431,7 +3430,6 @@
       <c r="M8">
         <v>240</v>
       </c>
-      <c r="N8"/>
       <c r="O8" t="s">
         <v>403</v>
       </c>
@@ -3464,7 +3462,6 @@
       <c r="M9">
         <v>480</v>
       </c>
-      <c r="N9"/>
       <c r="O9" t="s">
         <v>407</v>
       </c>
@@ -3500,7 +3497,6 @@
       <c r="M10">
         <v>50</v>
       </c>
-      <c r="N10"/>
       <c r="O10" t="s">
         <v>395</v>
       </c>
@@ -3533,7 +3529,6 @@
       <c r="M11">
         <v>120</v>
       </c>
-      <c r="N11"/>
       <c r="O11" t="s">
         <v>399</v>
       </c>
@@ -3566,7 +3561,6 @@
       <c r="M12">
         <v>240</v>
       </c>
-      <c r="N12"/>
       <c r="O12" t="s">
         <v>403</v>
       </c>
@@ -3599,7 +3593,6 @@
       <c r="M13">
         <v>480</v>
       </c>
-      <c r="N13"/>
       <c r="O13" t="s">
         <v>407</v>
       </c>
@@ -3629,15 +3622,12 @@
       <c r="I14">
         <v>46</v>
       </c>
-      <c r="J14"/>
-      <c r="K14"/>
       <c r="L14">
         <v>30</v>
       </c>
       <c r="M14">
         <v>50</v>
       </c>
-      <c r="N14"/>
       <c r="O14" t="s">
         <v>395</v>
       </c>
@@ -3670,7 +3660,6 @@
       <c r="M15">
         <v>120</v>
       </c>
-      <c r="N15"/>
       <c r="O15" t="s">
         <v>399</v>
       </c>
@@ -3703,7 +3692,6 @@
       <c r="M16">
         <v>240</v>
       </c>
-      <c r="N16"/>
       <c r="O16" t="s">
         <v>403</v>
       </c>
@@ -3736,7 +3724,6 @@
       <c r="M17">
         <v>480</v>
       </c>
-      <c r="N17"/>
       <c r="O17" t="s">
         <v>407</v>
       </c>
@@ -3778,7 +3765,6 @@
       <c r="M18">
         <v>50</v>
       </c>
-      <c r="N18"/>
       <c r="O18" t="s">
         <v>395</v>
       </c>
@@ -3817,7 +3803,6 @@
       <c r="M19">
         <v>120</v>
       </c>
-      <c r="N19"/>
       <c r="O19" t="s">
         <v>399</v>
       </c>
@@ -3856,7 +3841,6 @@
       <c r="M20">
         <v>240</v>
       </c>
-      <c r="N20"/>
       <c r="O20" t="s">
         <v>403</v>
       </c>
@@ -3895,7 +3879,6 @@
       <c r="M21">
         <v>480</v>
       </c>
-      <c r="N21"/>
       <c r="O21" t="s">
         <v>407</v>
       </c>
@@ -3931,7 +3914,6 @@
       <c r="M22">
         <v>50</v>
       </c>
-      <c r="N22"/>
       <c r="O22" t="s">
         <v>395</v>
       </c>
@@ -3970,7 +3952,6 @@
       <c r="M23">
         <v>120</v>
       </c>
-      <c r="N23"/>
       <c r="O23" t="s">
         <v>399</v>
       </c>
@@ -4009,7 +3990,6 @@
       <c r="M24">
         <v>240</v>
       </c>
-      <c r="N24"/>
       <c r="O24" t="s">
         <v>403</v>
       </c>
@@ -4048,7 +4028,6 @@
       <c r="M25">
         <v>480</v>
       </c>
-      <c r="N25"/>
       <c r="O25" t="s">
         <v>407</v>
       </c>
@@ -6615,8 +6594,8 @@
   <sheetPr/>
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:F41"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
